--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
         <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>16</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>11</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>21</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>11</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
         <v>17</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>16</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
         <v>18</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>15</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
+        <v>17</v>
+      </c>
+      <c r="E50" t="n">
         <v>16</v>
-      </c>
-      <c r="E50" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>20</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>11</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
         <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>14</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" t="n">
         <v>19</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>22</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>19</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>14</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>16</v>
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
         <v>16</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>12</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
         <v>22</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
         <v>11</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D91" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95" t="n">
         <v>15</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
         <v>18</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
         <v>15</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E112" t="n">
         <v>22</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
         <v>15</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
         <v>20</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="n">
         <v>17</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" t="n">
         <v>18</v>
       </c>
       <c r="E123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="n">
         <v>13</v>
       </c>
       <c r="E127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" t="n">
         <v>21</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E129" t="n">
         <v>19</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E130" t="n">
         <v>15</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="n">
         <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134" t="n">
         <v>15</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>16</v>
       </c>
       <c r="E135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D137" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137" t="n">
         <v>17</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D138" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E138" t="n">
         <v>21</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" t="n">
         <v>17</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" t="n">
+        <v>23</v>
+      </c>
+      <c r="E142" t="n">
         <v>22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" t="n">
         <v>11</v>
       </c>
       <c r="E143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" t="n">
         <v>17</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D147" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" t="n">
         <v>23</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D148" t="n">
         <v>17</v>
       </c>
       <c r="E148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
         <v>14</v>
       </c>
       <c r="E151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E152" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D153" t="n">
         <v>16</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D156" t="n">
         <v>17</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E157" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D158" t="n">
         <v>15</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E160" t="n">
         <v>17</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E162" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" t="n">
         <v>15</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D167" t="n">
         <v>18</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D168" t="n">
         <v>16</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E169" t="n">
         <v>17</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E170" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" t="n">
         <v>14</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" t="n">
         <v>18</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E180" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185" t="n">
         <v>10</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D189" t="n">
         <v>14</v>
       </c>
       <c r="E189" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D193" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D195" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E196" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D198" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E198" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D199" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D202" t="n">
         <v>17</v>
       </c>
       <c r="E202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D204" t="n">
         <v>10</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D205" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E205" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D206" t="n">
         <v>13</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D207" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E207" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D209" t="n">
         <v>14</v>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D211" t="n">
         <v>17</v>
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D213" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E213" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214">
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D215" t="n">
         <v>13</v>
       </c>
       <c r="E215" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D216" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D217" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E217" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D218" t="n">
         <v>13</v>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D222" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E222" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D223" t="n">
         <v>16</v>
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D224" t="n">
         <v>19</v>
       </c>
       <c r="E224" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225">
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D225" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E225" t="n">
         <v>20</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E226" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D227" t="n">
         <v>13</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D228" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E228" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D230" t="n">
         <v>25</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D231" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E231" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D232" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E232" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233">
@@ -5323,10 +5323,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D233" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E233" t="n">
         <v>20</v>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D234" t="n">
         <v>13</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D235" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E235" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236">
@@ -5428,13 +5428,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D238" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E238" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D241" t="n">
         <v>16</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D242" t="n">
         <v>12</v>
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D243" t="n">
         <v>19</v>
       </c>
       <c r="E243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
@@ -5554,13 +5554,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D244" t="n">
         <v>12</v>
       </c>
       <c r="E244" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245">
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D245" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D246" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D247" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E247" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D248" t="n">
         <v>14</v>
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D249" t="n">
         <v>12</v>
       </c>
       <c r="E249" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
@@ -5680,10 +5680,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D250" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E250" t="n">
         <v>14</v>
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D251" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D252" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E252" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D253" t="n">
         <v>12</v>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D254" t="n">
         <v>21</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D255" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E255" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D257" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E257" t="n">
         <v>20</v>
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D260" t="n">
         <v>14</v>
       </c>
       <c r="E260" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D262" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E262" t="n">
         <v>23</v>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D263" t="n">
         <v>17</v>
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D264" t="n">
         <v>17</v>
       </c>
       <c r="E264" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D265" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E265" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D267" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E267" t="n">
         <v>18</v>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D270" t="n">
         <v>15</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D271" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E271" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272">
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D273" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E273" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D276" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E276" t="n">
         <v>20</v>
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D278" t="n">
         <v>19</v>
       </c>
       <c r="E278" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D280" t="n">
         <v>19</v>
@@ -6373,13 +6373,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D283" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E283" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D284" t="n">
         <v>16</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D285" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E285" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
@@ -6436,10 +6436,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D286" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E286" t="n">
         <v>17</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D287" t="n">
         <v>17</v>
       </c>
       <c r="E287" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D288" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E288" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D289" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E289" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D292" t="n">
         <v>22</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D294" t="n">
         <v>20</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D295" t="n">
         <v>21</v>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D297" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E297" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D298" t="n">
         <v>15</v>
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D299" t="n">
         <v>24</v>
       </c>
       <c r="E299" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300">
@@ -6751,10 +6751,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D301" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D302" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E302" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D305" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E305" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D307" t="n">
         <v>14</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D308" t="n">
         <v>13</v>
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D311" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E311" t="n">
         <v>11</v>
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D314" t="n">
         <v>18</v>
       </c>
       <c r="E314" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315">
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D316" t="n">
         <v>23</v>
       </c>
       <c r="E316" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D317" t="n">
         <v>17</v>
       </c>
       <c r="E317" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D323" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E323" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324">
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D324" t="n">
         <v>21</v>
       </c>
       <c r="E324" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325">
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D325" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D327" t="n">
         <v>17</v>
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D331" t="n">
         <v>20</v>
       </c>
       <c r="E331" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D332" t="n">
         <v>15</v>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D336" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D337" t="n">
         <v>15</v>
       </c>
       <c r="E337" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
@@ -7528,10 +7528,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D338" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E338" t="n">
         <v>22</v>
@@ -7549,13 +7549,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D339" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E339" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340">
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D341" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E341" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342">
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D344" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E344" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345">
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D346" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E346" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D347" t="n">
         <v>17</v>
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D348" t="n">
         <v>22</v>
       </c>
       <c r="E348" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349">
@@ -7759,10 +7759,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D349" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E349" t="n">
         <v>17</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D352" t="n">
         <v>16</v>
       </c>
       <c r="E352" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D355" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E355" t="n">
         <v>14</v>
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D358" t="n">
+        <v>18</v>
+      </c>
+      <c r="E358" t="n">
         <v>17</v>
-      </c>
-      <c r="E358" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="359">
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D359" t="n">
+        <v>20</v>
+      </c>
+      <c r="E359" t="n">
         <v>19</v>
-      </c>
-      <c r="E359" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D362" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E362" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D363" t="n">
         <v>22</v>
       </c>
       <c r="E363" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D366" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D367" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E367" t="n">
         <v>16</v>
@@ -8158,13 +8158,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D368" t="n">
+        <v>20</v>
+      </c>
+      <c r="E368" t="n">
         <v>19</v>
-      </c>
-      <c r="E368" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="369">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D372" t="n">
         <v>18</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D373" t="n">
         <v>12</v>
       </c>
       <c r="E373" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D374" t="n">
         <v>12</v>
       </c>
       <c r="E374" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375">
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D375" t="n">
         <v>18</v>
       </c>
       <c r="E375" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D377" t="n">
         <v>17</v>
       </c>
       <c r="E377" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378">
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D378" t="n">
         <v>12</v>
       </c>
       <c r="E378" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379">
@@ -8389,13 +8389,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D379" t="n">
         <v>16</v>
       </c>
       <c r="E379" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380">
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D381" t="n">
         <v>17</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D382" t="n">
         <v>15</v>
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D383" t="n">
+        <v>21</v>
+      </c>
+      <c r="E383" t="n">
         <v>20</v>
-      </c>
-      <c r="E383" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="384">
@@ -8494,13 +8494,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D384" t="n">
+        <v>16</v>
+      </c>
+      <c r="E384" t="n">
         <v>15</v>
-      </c>
-      <c r="E384" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="385">
@@ -8515,13 +8515,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D385" t="n">
         <v>13</v>
       </c>
       <c r="E385" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D387" t="n">
         <v>17</v>
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D388" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E388" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389">
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D389" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E389" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D390" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E390" t="n">
         <v>14</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D391" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E391" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D393" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E393" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D395" t="n">
         <v>19</v>
       </c>
       <c r="E395" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D396" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E396" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397">
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D399" t="n">
         <v>18</v>
       </c>
       <c r="E399" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400">
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D400" t="n">
         <v>18</v>
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D401" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E401" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D407" t="n">
         <v>18</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D410" t="n">
         <v>17</v>
       </c>
       <c r="E410" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411">
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D411" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E411" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="412">
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D412" t="n">
         <v>18</v>
       </c>
       <c r="E412" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="413">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D413" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E413" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D416" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E416" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417">
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D418" t="n">
         <v>15</v>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D425" t="n">
         <v>17</v>
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D427" t="n">
         <v>15</v>
       </c>
       <c r="E427" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428">
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D429" t="n">
+        <v>22</v>
+      </c>
+      <c r="E429" t="n">
         <v>21</v>
-      </c>
-      <c r="E429" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="430">
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D431" t="n">
         <v>17</v>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D432" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D434" t="n">
         <v>18</v>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D436" t="n">
         <v>16</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D437" t="n">
         <v>17</v>
       </c>
       <c r="E437" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="438">
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D438" t="n">
         <v>16</v>
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D444" t="n">
         <v>17</v>
       </c>
       <c r="E444" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445">
@@ -9796,13 +9796,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D446" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E446" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447">
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D448" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E448" t="n">
         <v>20</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D450" t="n">
         <v>14</v>
       </c>
       <c r="E450" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451">
@@ -9901,10 +9901,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D451" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E451" t="n">
         <v>18</v>
@@ -10027,13 +10027,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D457" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E457" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="458">
@@ -10048,13 +10048,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D458" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E458" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="459">
@@ -10153,13 +10153,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D463" t="n">
         <v>16</v>
       </c>
       <c r="E463" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="464">
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D464" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E464" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="465">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D465" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E465" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="466">
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D466" t="n">
         <v>12</v>
       </c>
       <c r="E466" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467">
@@ -10300,7 +10300,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D470" t="n">
         <v>16</v>
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D472" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D473" t="n">
+        <v>13</v>
+      </c>
+      <c r="E473" t="n">
         <v>12</v>
-      </c>
-      <c r="E473" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="474">
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D475" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E475" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476">
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D482" t="n">
         <v>15</v>
       </c>
       <c r="E482" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="483">
@@ -10573,10 +10573,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D483" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E483" t="n">
         <v>14</v>
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D484" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E484" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="485">
@@ -10615,10 +10615,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D485" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E485" t="n">
         <v>14</v>
@@ -10636,13 +10636,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D486" t="n">
+        <v>14</v>
+      </c>
+      <c r="E486" t="n">
         <v>13</v>
-      </c>
-      <c r="E486" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="487">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D488" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D491" t="n">
         <v>17</v>
       </c>
       <c r="E491" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492">
@@ -10762,13 +10762,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D492" t="n">
+        <v>21</v>
+      </c>
+      <c r="E492" t="n">
         <v>20</v>
-      </c>
-      <c r="E492" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="493">
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D493" t="n">
         <v>20</v>
       </c>
       <c r="E493" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="494">
@@ -10804,13 +10804,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D494" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E494" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="495">
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D497" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E497" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="498">
@@ -10888,10 +10888,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D498" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D499" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E499" t="n">
         <v>17</v>
@@ -10930,13 +10930,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D500" t="n">
         <v>14</v>
       </c>
       <c r="E500" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501">
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D501" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D504" t="n">
         <v>16</v>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D506" t="n">
         <v>23</v>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D507" t="n">
         <v>17</v>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D508" t="n">
         <v>7</v>
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D509" t="n">
         <v>16</v>
       </c>
       <c r="E509" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="510">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D510" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -11161,13 +11161,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D511" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E511" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512">
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D512" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E512" t="n">
         <v>11</v>
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D513" t="n">
         <v>15</v>
       </c>
       <c r="E513" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="514">
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D514" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E514" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="515">
@@ -11245,10 +11245,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D515" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E515" t="n">
         <v>16</v>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D516" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D517" t="n">
         <v>15</v>
@@ -11308,10 +11308,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D518" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D520" t="n">
         <v>14</v>
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D521" t="n">
         <v>19</v>
       </c>
       <c r="E521" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="522">
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D524" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E524" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="525">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D527" t="n">
         <v>16</v>
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D528" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E528" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D529" t="n">
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530">
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D530" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E530" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="531">
@@ -11581,10 +11581,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D531" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -11623,13 +11623,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D533" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E533" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="534">
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D535" t="n">
         <v>11</v>
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D536" t="n">
         <v>8</v>
@@ -11749,13 +11749,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D539" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E539" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="540">
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D540" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E540" t="n">
         <v>20</v>
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D541" t="n">
         <v>20</v>
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D543" t="n">
         <v>10</v>
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D544" t="n">
         <v>19</v>
       </c>
       <c r="E544" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545">
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D545" t="n">
         <v>8</v>
       </c>
       <c r="E545" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="546">
@@ -11896,10 +11896,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D546" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E546" t="n">
         <v>18</v>
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D547" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E547" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="548">
@@ -11938,13 +11938,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D548" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E548" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="549">
@@ -11980,10 +11980,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D550" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E550" t="n">
         <v>20</v>
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D552" t="n">
         <v>11</v>
       </c>
       <c r="E552" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="553">
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D553" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E553" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="554">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D555" t="n">
         <v>22</v>
       </c>
       <c r="E555" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556">
@@ -12106,13 +12106,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D556" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E556" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="557">
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D557" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E557" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="558">
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D558" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E558" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="559">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D560" t="n">
         <v>15</v>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D562" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E562" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="563">
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D563" t="n">
         <v>23</v>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D564" t="n">
         <v>18</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D565" t="n">
         <v>11</v>
       </c>
       <c r="E565" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566">
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D566" t="n">
         <v>10</v>
       </c>
       <c r="E566" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="567">
@@ -12358,10 +12358,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D568" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E568" t="n">
         <v>23</v>
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D570" t="n">
         <v>8</v>
       </c>
       <c r="E570" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="571">
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D571" t="n">
         <v>12</v>
       </c>
       <c r="E571" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="572">
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D572" t="n">
         <v>13</v>
       </c>
       <c r="E572" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D573" t="n">
         <v>14</v>
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D576" t="n">
         <v>16</v>
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D580" t="n">
         <v>21</v>
       </c>
       <c r="E580" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="581">
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D581" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E581" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="582">
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D584" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E584" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D585" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E585" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="586">
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D586" t="n">
         <v>18</v>
       </c>
       <c r="E586" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="587">
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D588" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E588" t="n">
         <v>20</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D589" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E589" t="n">
         <v>17</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D590" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E590" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="591">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D591" t="n">
         <v>19</v>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D592" t="n">
         <v>14</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D593" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E593" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594">
@@ -12967,13 +12967,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D597" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E597" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="598">
@@ -12988,13 +12988,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D598" t="n">
         <v>10</v>
       </c>
       <c r="E598" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="599">
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D599" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E599" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="600">
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D601" t="n">
         <v>11</v>
       </c>
       <c r="E601" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D602" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E602" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="603">
@@ -13093,13 +13093,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D603" t="n">
+        <v>11</v>
+      </c>
+      <c r="E603" t="n">
         <v>10</v>
-      </c>
-      <c r="E603" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="604">
@@ -13114,13 +13114,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D604" t="n">
         <v>20</v>
       </c>
       <c r="E604" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605">
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D605" t="n">
         <v>15</v>
       </c>
       <c r="E605" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="606">
@@ -13156,10 +13156,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D606" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E606" t="n">
         <v>12</v>
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D607" t="n">
         <v>9</v>
       </c>
       <c r="E607" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="608">
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D608" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E608" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="609">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D609" t="n">
         <v>14</v>
@@ -13261,13 +13261,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D611" t="n">
         <v>16</v>
       </c>
       <c r="E611" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="612">
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D612" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E612" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="613">
@@ -13303,13 +13303,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D613" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E613" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="614">
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D617" t="n">
         <v>23</v>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D618" t="n">
         <v>17</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D622" t="n">
         <v>21</v>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D623" t="n">
         <v>13</v>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D625" t="n">
         <v>19</v>
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D628" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E628" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="629">
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D629" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E629" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D631" t="n">
         <v>17</v>
@@ -13702,10 +13702,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D632" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -13723,13 +13723,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D633" t="n">
         <v>16</v>
       </c>
       <c r="E633" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="634">
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D635" t="n">
         <v>10</v>
       </c>
       <c r="E635" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="636">
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D638" t="n">
+        <v>17</v>
+      </c>
+      <c r="E638" t="n">
         <v>16</v>
-      </c>
-      <c r="E638" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="639">
@@ -13849,13 +13849,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D639" t="n">
         <v>7</v>
       </c>
       <c r="E639" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="640">
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D640" t="n">
         <v>14</v>
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D641" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E641" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="642">
@@ -13933,13 +13933,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D643" t="n">
         <v>11</v>
       </c>
       <c r="E643" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="644">
@@ -13954,13 +13954,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D644" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E644" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="645">
@@ -13975,13 +13975,13 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D645" t="n">
+        <v>18</v>
+      </c>
+      <c r="E645" t="n">
         <v>17</v>
-      </c>
-      <c r="E645" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="646">
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D646" t="n">
         <v>9</v>
       </c>
       <c r="E646" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="647">
@@ -14017,10 +14017,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D647" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -14038,10 +14038,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D648" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E648" t="n">
         <v>14</v>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D652" t="n">
         <v>14</v>
@@ -14143,13 +14143,13 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D653" t="n">
         <v>14</v>
       </c>
       <c r="E653" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="654">
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D656" t="n">
         <v>9</v>
       </c>
       <c r="E656" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="657">
@@ -14248,13 +14248,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D658" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E658" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="659">
@@ -14269,13 +14269,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D659" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E659" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="660">
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D663" t="n">
         <v>10</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D664" t="n">
         <v>11</v>
       </c>
       <c r="E664" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D665" t="n">
         <v>17</v>
       </c>
       <c r="E665" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D666" t="n">
         <v>17</v>
       </c>
       <c r="E666" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="667">
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D667" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E667" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D668" t="n">
         <v>16</v>
       </c>
       <c r="E668" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="669">
@@ -14479,13 +14479,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D669" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E669" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="670">
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D671" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E671" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="672">
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D673" t="n">
         <v>13</v>
@@ -14584,10 +14584,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D674" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E674" t="n">
         <v>11</v>
@@ -14647,13 +14647,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D677" t="n">
         <v>6</v>
       </c>
       <c r="E677" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="678">
@@ -14668,10 +14668,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D678" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E678" t="n">
         <v>14</v>
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D680" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E680" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="681">
@@ -14731,13 +14731,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D681" t="n">
         <v>15</v>
       </c>
       <c r="E681" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="682">
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D683" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E683" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="684">
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D688" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -14899,10 +14899,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D689" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E689" t="n">
         <v>12</v>
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D692" t="n">
         <v>17</v>
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D693" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E693" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="694">
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D695" t="n">
         <v>13</v>
@@ -15046,13 +15046,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D696" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E696" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="697">
@@ -15067,13 +15067,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D697" t="n">
         <v>24</v>
       </c>
       <c r="E697" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="698">
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D699" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E699" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="700">
@@ -15130,10 +15130,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D700" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E700" t="n">
         <v>16</v>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D701" t="n">
         <v>11</v>
@@ -15172,13 +15172,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D702" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E702" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="703">
@@ -15193,13 +15193,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D703" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E703" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="704">
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D705" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E705" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="706">
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D706" t="n">
         <v>17</v>
       </c>
       <c r="E706" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="707">
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D707" t="n">
         <v>14</v>
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D709" t="n">
         <v>8</v>
@@ -15340,13 +15340,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D710" t="n">
         <v>18</v>
       </c>
       <c r="E710" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="711">
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D711" t="n">
         <v>15</v>
@@ -15424,13 +15424,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D714" t="n">
         <v>13</v>
       </c>
       <c r="E714" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="715">
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D716" t="n">
         <v>0</v>
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D717" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E717" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="718">
@@ -15508,10 +15508,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D718" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E718" t="n">
         <v>11</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D720" t="n">
         <v>10</v>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D722" t="n">
         <v>16</v>
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D723" t="n">
         <v>14</v>
@@ -15634,10 +15634,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D724" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E724" t="n">
         <v>20</v>
@@ -15655,10 +15655,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D725" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E725" t="n">
         <v>14</v>
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D728" t="n">
         <v>20</v>
       </c>
       <c r="E728" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="729">
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D729" t="n">
         <v>15</v>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D730" t="n">
         <v>8</v>
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D731" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E731" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="732">
@@ -15802,10 +15802,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D732" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E732" t="n">
         <v>20</v>
@@ -15865,10 +15865,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D735" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E735" t="n">
         <v>8</v>
@@ -15907,13 +15907,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D737" t="n">
         <v>18</v>
       </c>
       <c r="E737" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D739" t="n">
         <v>16</v>
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D740" t="n">
         <v>11</v>
       </c>
       <c r="E740" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="741">
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D741" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E741" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="742">
@@ -16033,10 +16033,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D743" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E743" t="n">
         <v>22</v>
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D745" t="n">
         <v>21</v>
       </c>
       <c r="E745" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="746">
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D747" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E747" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748">
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D749" t="n">
         <v>14</v>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D752" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E752" t="n">
         <v>20</v>
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D753" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E753" t="n">
         <v>18</v>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D754" t="n">
         <v>12</v>
@@ -16285,10 +16285,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D755" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E755" t="n">
         <v>17</v>
@@ -16306,13 +16306,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D756" t="n">
         <v>24</v>
       </c>
       <c r="E756" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="757">
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D757" t="n">
         <v>16</v>
       </c>
       <c r="E757" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="758">
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D758" t="n">
         <v>13</v>
@@ -16390,13 +16390,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D760" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E760" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="761">
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D761" t="n">
         <v>8</v>
       </c>
       <c r="E761" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="762">
@@ -16453,13 +16453,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D763" t="n">
+        <v>16</v>
+      </c>
+      <c r="E763" t="n">
         <v>15</v>
-      </c>
-      <c r="E763" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="764">
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D766" t="n">
         <v>16</v>
@@ -16537,7 +16537,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D767" t="n">
         <v>14</v>
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D768" t="n">
         <v>3</v>
       </c>
       <c r="E768" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="769">
@@ -16600,10 +16600,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D770" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -16621,13 +16621,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D771" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E771" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="772">
@@ -16642,10 +16642,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D772" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E772" t="n">
         <v>17</v>
@@ -16663,10 +16663,10 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D773" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E773" t="n">
         <v>15</v>
@@ -16684,10 +16684,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D774" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E774" t="n">
         <v>11</v>
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D776" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E776" t="n">
         <v>18</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D777" t="n">
         <v>14</v>
       </c>
       <c r="E777" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="778">
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D778" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E778" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D782" t="n">
         <v>13</v>
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D783" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E783" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="784">
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D784" t="n">
         <v>14</v>
@@ -16936,13 +16936,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D786" t="n">
         <v>10</v>
       </c>
       <c r="E786" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="787">
@@ -16957,10 +16957,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D787" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E787" t="n">
         <v>18</v>
@@ -16999,10 +16999,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D789" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E789" t="n">
         <v>17</v>
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D790" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E790" t="n">
         <v>18</v>
@@ -17188,13 +17188,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D798" t="n">
         <v>13</v>
       </c>
       <c r="E798" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="799">
@@ -17209,13 +17209,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D799" t="n">
         <v>14</v>
       </c>
       <c r="E799" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="800">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D805" t="n">
         <v>17</v>
       </c>
       <c r="E805" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="806">
@@ -17461,10 +17461,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D811" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E811" t="n">
         <v>8</v>
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D812" t="n">
         <v>13</v>
@@ -17524,13 +17524,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D814" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E814" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="815">
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D815" t="n">
         <v>7</v>
       </c>
       <c r="E815" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="816">
@@ -17608,7 +17608,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D818" t="n">
         <v>12</v>
@@ -17650,13 +17650,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D820" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E820" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="821">
@@ -17734,7 +17734,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D824" t="n">
         <v>11</v>
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D825" t="n">
         <v>16</v>
       </c>
       <c r="E825" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="826">
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D829" t="n">
         <v>19</v>
       </c>
       <c r="E829" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="830">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D840" t="n">
         <v>14</v>
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D842" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E842" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="843">
@@ -18133,7 +18133,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D843" t="n">
         <v>17</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D845" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E845" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="846">
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D847" t="n">
         <v>12</v>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D848" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E848" t="n">
         <v>4</v>
@@ -18427,10 +18427,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D857" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E857" t="n">
         <v>15</v>
@@ -18532,13 +18532,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D862" t="n">
         <v>16</v>
       </c>
       <c r="E862" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="863">
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D863" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E863" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="864">
@@ -18574,13 +18574,13 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D864" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E864" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="865">
@@ -18637,13 +18637,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D867" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E867" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="868">
@@ -18763,13 +18763,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D873" t="n">
         <v>17</v>
       </c>
       <c r="E873" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="874">
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D874" t="n">
+        <v>27</v>
+      </c>
+      <c r="E874" t="n">
         <v>26</v>
-      </c>
-      <c r="E874" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="875">
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D875" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E875" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="876">
@@ -18826,10 +18826,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D876" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E876" t="n">
         <v>15</v>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D878" t="n">
         <v>19</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D881" t="n">
         <v>11</v>
       </c>
       <c r="E881" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="882">
@@ -18952,13 +18952,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D882" t="n">
         <v>15</v>
       </c>
       <c r="E882" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="883">
@@ -18973,13 +18973,13 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D883" t="n">
         <v>21</v>
       </c>
       <c r="E883" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="884">
@@ -18994,7 +18994,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D884" t="n">
         <v>15</v>
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D885" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E885" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="886">
@@ -19099,13 +19099,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D889" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E889" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="890">
@@ -19141,7 +19141,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D891" t="n">
         <v>18</v>
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D895" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E895" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="896">
@@ -19393,10 +19393,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D903" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E903" t="n">
         <v>15</v>
@@ -19519,13 +19519,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D909" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E909" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="910">
@@ -19561,13 +19561,13 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D911" t="n">
         <v>11</v>
       </c>
       <c r="E911" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="912">
@@ -19645,10 +19645,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D915" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E915" t="n">
         <v>17</v>
@@ -19687,13 +19687,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D917" t="n">
         <v>12</v>
       </c>
       <c r="E917" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="918">
@@ -19729,10 +19729,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D919" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E919" t="n">
         <v>19</v>
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D923" t="n">
         <v>16</v>
       </c>
       <c r="E923" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="924">
@@ -19876,7 +19876,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D926" t="n">
         <v>14</v>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D928" t="n">
         <v>16</v>
@@ -19981,13 +19981,13 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D931" t="n">
         <v>21</v>
       </c>
       <c r="E931" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="932">
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D933" t="n">
         <v>16</v>
       </c>
       <c r="E933" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="934">
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D934" t="n">
         <v>17</v>
       </c>
       <c r="E934" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="935">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D935" t="n">
         <v>15</v>
@@ -20086,10 +20086,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D936" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E936" t="n">
         <v>19</v>
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D943" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E943" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="944">
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D945" t="n">
         <v>20</v>
       </c>
       <c r="E945" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="946">
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D947" t="n">
         <v>16</v>
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D949" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E949" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="950">
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D950" t="n">
         <v>19</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D951" t="n">
         <v>20</v>
       </c>
       <c r="E951" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="952">
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D952" t="n">
         <v>17</v>
@@ -20464,10 +20464,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D954" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E954" t="n">
         <v>11</v>
@@ -20485,13 +20485,13 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D955" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E955" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="956">
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D961" t="n">
         <v>20</v>
       </c>
       <c r="E961" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="962">
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D963" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E963" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="964">
@@ -20674,13 +20674,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D964" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E964" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="965">
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D966" t="n">
         <v>12</v>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D970" t="n">
         <v>17</v>
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D972" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E972" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="973">
@@ -20884,7 +20884,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D974" t="n">
         <v>19</v>
@@ -20968,10 +20968,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D978" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E978" t="n">
         <v>24</v>
@@ -20989,13 +20989,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D979" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E979" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="980">
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D980" t="n">
         <v>14</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D982" t="n">
         <v>6</v>
       </c>
       <c r="E982" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="983">
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D987" t="n">
         <v>15</v>
       </c>
       <c r="E987" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="988">
@@ -21388,7 +21388,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D998" t="n">
         <v>13</v>
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1010" t="n">
         <v>15</v>
@@ -21661,10 +21661,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1011" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1011" t="n">
         <v>15</v>
@@ -21682,13 +21682,13 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1012" t="n">
         <v>12</v>
       </c>
       <c r="E1012" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1013">
@@ -21766,13 +21766,13 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1016" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1016" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1017">
@@ -21808,10 +21808,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1018" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1018" t="n">
         <v>15</v>
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1025" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1025" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1026" t="n">
         <v>10</v>
       </c>
       <c r="E1026" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1028" t="n">
         <v>16</v>
@@ -22060,10 +22060,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1030" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1030" t="n">
         <v>15</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1033" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1033" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1035" t="n">
         <v>19</v>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1036" t="n">
         <v>11</v>
@@ -22249,10 +22249,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1039" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1039" t="n">
         <v>7</v>
@@ -22354,13 +22354,13 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1044" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1044" t="n">
         <v>16</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="1045">
@@ -22417,10 +22417,10 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1047" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1047" t="n">
         <v>15</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1048" t="n">
         <v>11</v>
       </c>
       <c r="E1048" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,13 +22480,13 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1050" t="n">
         <v>12</v>
       </c>
       <c r="E1050" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1051">
@@ -22564,10 +22564,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1054" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1054" t="n">
         <v>18</v>
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1062" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1062" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1064" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1064" t="n">
         <v>17</v>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1076" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1076" t="n">
         <v>15</v>
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1080" t="n">
         <v>20</v>
       </c>
       <c r="E1080" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1084" t="n">
         <v>14</v>
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1085" t="n">
         <v>18</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1088" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1088" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,10 +23299,10 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1089" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1089" t="n">
         <v>16</v>
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1090" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1090" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1091">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1092" t="n">
         <v>4</v>
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1093" t="n">
         <v>16</v>
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1097" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1097" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1098" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1098" t="n">
         <v>15</v>
-      </c>
-      <c r="E1098" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1100" t="n">
         <v>15</v>
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1101" t="n">
         <v>18</v>
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1102" t="n">
         <v>19</v>
       </c>
       <c r="E1102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1109" t="n">
         <v>13</v>
       </c>
       <c r="E1109" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,13 +23740,13 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1110" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1110" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1111">
@@ -23761,13 +23761,13 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1111" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1112">
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,10 +23845,10 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1115" t="n">
         <v>16</v>
@@ -23929,13 +23929,13 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1119" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1119" t="n">
         <v>15</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="1120">
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1121" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1121" t="n">
         <v>12</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1124" t="n">
         <v>18</v>
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1130" t="n">
         <v>11</v>
@@ -24265,13 +24265,13 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1135" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1136">
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1140" t="n">
         <v>15</v>
       </c>
       <c r="E1140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1145" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,10 +24496,10 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1146" t="n">
         <v>16</v>
@@ -24580,10 +24580,10 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1150" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1150" t="n">
         <v>12</v>
@@ -24601,7 +24601,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1151" t="n">
         <v>15</v>
@@ -25021,13 +25021,13 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1171" t="n">
         <v>18</v>
       </c>
       <c r="E1171" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1172">
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1172" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1172" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1176" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,13 +25147,13 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1177" t="n">
         <v>17</v>
       </c>
       <c r="E1177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1178">
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1180" t="n">
         <v>17</v>
       </c>
       <c r="E1180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1186" t="n">
         <v>21</v>
       </c>
       <c r="E1186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,10 +25504,10 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1194" t="n">
         <v>18</v>
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1197" t="n">
         <v>15</v>
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1199" t="n">
         <v>19</v>
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1201" t="n">
         <v>13</v>
       </c>
       <c r="E1201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,10 +25819,10 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1209" t="n">
         <v>16</v>
@@ -25903,7 +25903,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1213" t="n">
         <v>23</v>
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1214" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1216" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1216" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1222" t="n">
         <v>10</v>
@@ -26176,13 +26176,13 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1226" t="n">
         <v>19</v>
       </c>
       <c r="E1226" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1227">
@@ -26323,10 +26323,10 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1233" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1233" t="n">
         <v>15</v>
@@ -26344,13 +26344,13 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1234" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1235">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1235" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1235" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1236" t="n">
         <v>22</v>
@@ -26575,13 +26575,13 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1245" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1245" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1246">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1246" t="n">
         <v>15</v>
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1247" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1247" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1249" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1249" t="n">
         <v>15</v>
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1251" t="n">
         <v>16</v>
       </c>
       <c r="E1251" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1255" t="n">
         <v>17</v>
       </c>
       <c r="E1255" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1256" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1256" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1258" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1258" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1259" t="n">
         <v>12</v>
@@ -26890,13 +26890,13 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1260" t="n">
         <v>21</v>
       </c>
       <c r="E1260" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1261">
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1262" t="n">
         <v>21</v>
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1264" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1264" t="n">
         <v>17</v>
-      </c>
-      <c r="E1264" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,13 +27016,13 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1266" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1266" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1267">
@@ -27079,7 +27079,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1269" t="n">
         <v>17</v>
@@ -27100,13 +27100,13 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1270" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1270" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1271">
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1276" t="n">
         <v>13</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1279" t="n">
         <v>11</v>
       </c>
       <c r="E1279" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,13 +27310,13 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1280" t="n">
         <v>20</v>
       </c>
       <c r="E1280" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1281">
@@ -27646,7 +27646,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1296" t="n">
         <v>25</v>
@@ -27709,10 +27709,10 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1299" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1299" t="n">
         <v>17</v>
@@ -27730,13 +27730,13 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1300" t="n">
         <v>18</v>
       </c>
       <c r="E1300" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1301">
@@ -27751,10 +27751,10 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1301" t="n">
         <v>18</v>
@@ -27793,13 +27793,13 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1303" t="n">
         <v>11</v>
       </c>
       <c r="E1303" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1304">
@@ -27814,10 +27814,10 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1304" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1304" t="n">
         <v>15</v>
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1305" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1305" t="n">
         <v>19</v>
-      </c>
-      <c r="E1305" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1306" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1306" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,13 +27919,13 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1309" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1309" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1310">
@@ -28003,7 +28003,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1313" t="n">
         <v>10</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1314" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1314" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,13 +28108,13 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1318" t="n">
         <v>14</v>
-      </c>
-      <c r="E1318" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="1319">
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1335" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1335" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1337" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1337" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,10 +28528,10 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1338" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1338" t="n">
         <v>24</v>
@@ -28696,13 +28696,13 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1346" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1346" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1347">
@@ -28717,10 +28717,10 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1347" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1347" t="n">
         <v>18</v>
@@ -28738,7 +28738,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1348" t="n">
         <v>13</v>
@@ -28780,7 +28780,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1350" t="n">
         <v>14</v>
@@ -28822,7 +28822,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1352" t="n">
         <v>19</v>
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1354" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1354" t="n">
         <v>13</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1358" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1358" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,13 +29032,13 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1362" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1362" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1363">
@@ -29053,13 +29053,13 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1363" t="n">
         <v>22</v>
       </c>
       <c r="E1363" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1364">
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1364" t="n">
         <v>25</v>
       </c>
       <c r="E1364" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1366" t="n">
         <v>18</v>
       </c>
       <c r="E1366" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,7 +29137,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1367" t="n">
         <v>7</v>
@@ -29200,7 +29200,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1370" t="n">
         <v>9</v>
@@ -29284,7 +29284,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1374" t="n">
         <v>10</v>
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1380" t="n">
         <v>11</v>
       </c>
       <c r="E1380" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1384" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1384" t="n">
         <v>9</v>
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1385" t="n">
         <v>10</v>
       </c>
       <c r="E1385" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1386" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1386" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1387" t="n">
         <v>9</v>
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1391" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1391" t="n">
         <v>21</v>
-      </c>
-      <c r="E1391" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,7 +29704,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1394" t="n">
         <v>15</v>
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1397" t="n">
         <v>13</v>
       </c>
       <c r="E1397" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,13 +29809,13 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1399" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1399" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1400">
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1401" t="n">
         <v>20</v>
       </c>
       <c r="E1401" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1402" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1402" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,13 +29956,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1406" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1406" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1407">
@@ -30124,13 +30124,13 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1414" t="n">
         <v>16</v>
       </c>
       <c r="E1414" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1415">
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1415" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1415" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,7 +30250,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1420" t="n">
         <v>19</v>
@@ -30355,13 +30355,13 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1425" t="n">
         <v>11</v>
       </c>
       <c r="E1425" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1426">
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,13 +30439,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1429" t="n">
         <v>12</v>
       </c>
       <c r="E1429" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1430">
@@ -30523,7 +30523,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1433" t="n">
         <v>17</v>
@@ -30649,13 +30649,13 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1439" t="n">
         <v>10</v>
       </c>
       <c r="E1439" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1440">
@@ -30964,13 +30964,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1454" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1454" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
         <v>19</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
         <v>11</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
         <v>21</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
         <v>22</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="n">
         <v>16</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="n">
         <v>25</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
         <v>23</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
         <v>14</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
         <v>20</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="n">
         <v>15</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
         <v>19</v>
-      </c>
-      <c r="E50" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
         <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
         <v>11</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D55" t="n">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
         <v>14</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
         <v>18</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
+        <v>23</v>
+      </c>
+      <c r="E66" t="n">
         <v>22</v>
-      </c>
-      <c r="E66" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
         <v>19</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" t="n">
         <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
         <v>17</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
         <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>18</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" t="n">
         <v>18</v>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
         <v>15</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>22</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
         <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>20</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
         <v>15</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
         <v>17</v>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" t="n">
         <v>23</v>
       </c>
       <c r="E112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="n">
         <v>21</v>
       </c>
       <c r="E114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" t="n">
         <v>16</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
         <v>19</v>
       </c>
       <c r="E123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125" t="n">
         <v>24</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D129" t="n">
         <v>22</v>
       </c>
       <c r="E129" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D130" t="n">
         <v>18</v>
       </c>
       <c r="E130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>13</v>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D135" t="n">
         <v>16</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D137" t="n">
         <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E138" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D141" t="n">
         <v>20</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D142" t="n">
+        <v>25</v>
+      </c>
+      <c r="E142" t="n">
         <v>24</v>
-      </c>
-      <c r="E142" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D144" t="n">
         <v>18</v>
       </c>
       <c r="E144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D145" t="n">
         <v>21</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D146" t="n">
         <v>11</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D147" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="n">
         <v>17</v>
       </c>
       <c r="E149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151" t="n">
         <v>23</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D152" t="n">
         <v>15</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="n">
         <v>16</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E157" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="n">
         <v>15</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D160" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E160" t="n">
         <v>18</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E162" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D163" t="n">
         <v>15</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D167" t="n">
         <v>19</v>
       </c>
       <c r="E167" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D168" t="n">
         <v>18</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D169" t="n">
         <v>18</v>
       </c>
       <c r="E169" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D170" t="n">
         <v>17</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D171" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E171" t="n">
         <v>11</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D176" t="n">
+        <v>19</v>
+      </c>
+      <c r="E176" t="n">
         <v>18</v>
-      </c>
-      <c r="E176" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="177">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D180" t="n">
         <v>15</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D184" t="n">
         <v>13</v>
       </c>
       <c r="E184" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D185" t="n">
         <v>10</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187" t="n">
         <v>11</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D189" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E189" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D193" t="n">
         <v>14</v>
       </c>
       <c r="E193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D194" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D195" t="n">
         <v>16</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D196" t="n">
         <v>25</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D198" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E198" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D199" t="n">
         <v>19</v>
       </c>
       <c r="E199" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E202" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D204" t="n">
         <v>12</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D205" t="n">
         <v>15</v>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D206" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D207" t="n">
         <v>20</v>
       </c>
       <c r="E207" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D209" t="n">
         <v>15</v>
       </c>
       <c r="E209" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D211" t="n">
         <v>17</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D213" t="n">
         <v>14</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D215" t="n">
+        <v>16</v>
+      </c>
+      <c r="E215" t="n">
         <v>15</v>
-      </c>
-      <c r="E215" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D216" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E216" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D217" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E217" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218">
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D222" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E222" t="n">
         <v>21</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D223" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E223" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D224" t="n">
         <v>20</v>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D225" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E225" t="n">
         <v>20</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D226" t="n">
         <v>9</v>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D227" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E227" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D228" t="n">
         <v>17</v>
       </c>
       <c r="E228" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229">
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D230" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E230" t="n">
         <v>18</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D231" t="n">
         <v>18</v>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D232" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E232" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D233" t="n">
         <v>20</v>
       </c>
       <c r="E233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234">
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D234" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D235" t="n">
         <v>22</v>
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D238" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E238" t="n">
         <v>22</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D241" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E241" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242">
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D242" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E242" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D243" t="n">
         <v>20</v>
@@ -5554,13 +5554,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D244" t="n">
         <v>14</v>
       </c>
       <c r="E244" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D245" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E245" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D246" t="n">
         <v>20</v>
       </c>
       <c r="E246" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D247" t="n">
         <v>18</v>
       </c>
       <c r="E247" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248">
@@ -5638,13 +5638,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D248" t="n">
         <v>14</v>
       </c>
       <c r="E248" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D249" t="n">
         <v>13</v>
       </c>
       <c r="E249" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D250" t="n">
+        <v>16</v>
+      </c>
+      <c r="E250" t="n">
         <v>15</v>
-      </c>
-      <c r="E250" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D251" t="n">
         <v>13</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D252" t="n">
         <v>16</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D253" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E253" t="n">
         <v>17</v>
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D254" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E254" t="n">
         <v>20</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D255" t="n">
         <v>18</v>
       </c>
       <c r="E255" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D257" t="n">
         <v>16</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D260" t="n">
         <v>16</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E262" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
@@ -5953,13 +5953,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D263" t="n">
         <v>17</v>
       </c>
       <c r="E263" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264">
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D264" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E264" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D265" t="n">
         <v>17</v>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D267" t="n">
         <v>25</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D270" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E270" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D271" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E271" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D273" t="n">
         <v>9</v>
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D276" t="n">
         <v>18</v>
       </c>
       <c r="E276" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D278" t="n">
         <v>19</v>
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D280" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E280" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D283" t="n">
         <v>20</v>
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D284" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E284" t="n">
         <v>20</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D285" t="n">
         <v>14</v>
       </c>
       <c r="E285" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D286" t="n">
         <v>18</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D287" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E287" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D288" t="n">
         <v>21</v>
       </c>
       <c r="E288" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D289" t="n">
         <v>16</v>
@@ -6562,13 +6562,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D292" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E292" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D294" t="n">
         <v>22</v>
       </c>
       <c r="E294" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295">
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D295" t="n">
         <v>22</v>
       </c>
       <c r="E295" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D297" t="n">
         <v>15</v>
@@ -6688,13 +6688,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D298" t="n">
         <v>16</v>
       </c>
       <c r="E298" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D299" t="n">
+        <v>27</v>
+      </c>
+      <c r="E299" t="n">
         <v>26</v>
-      </c>
-      <c r="E299" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="300">
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D301" t="n">
         <v>17</v>
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D302" t="n">
         <v>13</v>
       </c>
       <c r="E302" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303">
@@ -6835,10 +6835,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D305" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E305" t="n">
         <v>21</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D307" t="n">
         <v>15</v>
@@ -6898,13 +6898,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D308" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E308" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309">
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D311" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D314" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E314" t="n">
         <v>23</v>
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D316" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E316" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D317" t="n">
         <v>18</v>
       </c>
       <c r="E317" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D323" t="n">
         <v>20</v>
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D324" t="n">
+        <v>23</v>
+      </c>
+      <c r="E324" t="n">
         <v>22</v>
-      </c>
-      <c r="E324" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="325">
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D325" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E325" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D327" t="n">
         <v>17</v>
       </c>
       <c r="E327" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D331" t="n">
         <v>21</v>
       </c>
       <c r="E331" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332">
@@ -7402,13 +7402,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D332" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E332" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333">
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D336" t="n">
         <v>18</v>
       </c>
       <c r="E336" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337">
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D337" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E337" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="338">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D338" t="n">
         <v>19</v>
       </c>
       <c r="E338" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339">
@@ -7549,13 +7549,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D339" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E339" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340">
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D341" t="n">
         <v>21</v>
@@ -7654,10 +7654,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D344" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E344" t="n">
         <v>19</v>
@@ -7696,10 +7696,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D346" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D347" t="n">
+        <v>19</v>
+      </c>
+      <c r="E347" t="n">
         <v>18</v>
-      </c>
-      <c r="E347" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="348">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D348" t="n">
         <v>24</v>
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D349" t="n">
+        <v>21</v>
+      </c>
+      <c r="E349" t="n">
         <v>20</v>
-      </c>
-      <c r="E349" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="350">
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D352" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E352" t="n">
         <v>19</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D355" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E355" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D358" t="n">
         <v>19</v>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D359" t="n">
         <v>20</v>
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D362" t="n">
         <v>16</v>
       </c>
       <c r="E362" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363">
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D363" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E363" t="n">
         <v>23</v>
@@ -8116,13 +8116,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D366" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E366" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D367" t="n">
         <v>20</v>
       </c>
       <c r="E367" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D368" t="n">
         <v>21</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D372" t="n">
         <v>19</v>
       </c>
       <c r="E372" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D373" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E373" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374">
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D374" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E374" t="n">
         <v>20</v>
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D375" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E375" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D377" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E377" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378">
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D378" t="n">
         <v>14</v>
       </c>
       <c r="E378" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D379" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E379" t="n">
         <v>22</v>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D381" t="n">
         <v>19</v>
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D382" t="n">
         <v>15</v>
       </c>
       <c r="E382" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383">
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D383" t="n">
         <v>21</v>
@@ -8494,13 +8494,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D384" t="n">
         <v>18</v>
       </c>
       <c r="E384" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="385">
@@ -8515,13 +8515,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D385" t="n">
+        <v>15</v>
+      </c>
+      <c r="E385" t="n">
         <v>14</v>
-      </c>
-      <c r="E385" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="386">
@@ -8557,10 +8557,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D387" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E387" t="n">
         <v>22</v>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D388" t="n">
         <v>16</v>
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D389" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E389" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390">
@@ -8620,13 +8620,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D390" t="n">
         <v>17</v>
       </c>
       <c r="E390" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391">
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D391" t="n">
         <v>17</v>
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D393" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E393" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D395" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E395" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="396">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D396" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E396" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397">
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D399" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E399" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400">
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D400" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E400" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D401" t="n">
         <v>18</v>
       </c>
       <c r="E401" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D407" t="n">
         <v>18</v>
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D410" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E410" t="n">
         <v>23</v>
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D411" t="n">
         <v>11</v>
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D412" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E412" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="413">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D413" t="n">
         <v>17</v>
       </c>
       <c r="E413" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D416" t="n">
         <v>20</v>
@@ -9208,13 +9208,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D418" t="n">
         <v>16</v>
       </c>
       <c r="E418" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419">
@@ -9355,10 +9355,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D425" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E425" t="n">
         <v>14</v>
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D427" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E427" t="n">
         <v>18</v>
@@ -9439,10 +9439,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D429" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E429" t="n">
         <v>22</v>
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D431" t="n">
         <v>19</v>
       </c>
       <c r="E431" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D432" t="n">
         <v>18</v>
@@ -9544,13 +9544,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D434" t="n">
         <v>20</v>
       </c>
       <c r="E434" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="435">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D436" t="n">
         <v>16</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D437" t="n">
         <v>17</v>
       </c>
       <c r="E437" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438">
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D438" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E438" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439">
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D444" t="n">
         <v>17</v>
       </c>
       <c r="E444" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="445">
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D446" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E446" t="n">
         <v>18</v>
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D448" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E448" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="449">
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D450" t="n">
         <v>15</v>
       </c>
       <c r="E450" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451">
@@ -9901,10 +9901,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D451" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E451" t="n">
         <v>18</v>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D457" t="n">
         <v>18</v>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D458" t="n">
         <v>19</v>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D463" t="n">
         <v>17</v>
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D464" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E464" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="465">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D465" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E465" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="466">
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D466" t="n">
         <v>12</v>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D470" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D472" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D473" t="n">
+        <v>16</v>
+      </c>
+      <c r="E473" t="n">
         <v>15</v>
-      </c>
-      <c r="E473" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="474">
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D475" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E475" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476">
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D482" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E482" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483">
@@ -10573,13 +10573,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D483" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E483" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="484">
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D484" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E484" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D485" t="n">
         <v>9</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D486" t="n">
         <v>14</v>
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D488" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D491" t="n">
         <v>18</v>
       </c>
       <c r="E491" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="492">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D492" t="n">
         <v>22</v>
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D493" t="n">
         <v>22</v>
       </c>
       <c r="E493" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="494">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D494" t="n">
         <v>15</v>
@@ -10867,7 +10867,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D497" t="n">
         <v>20</v>
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D498" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E498" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="499">
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D499" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E499" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="500">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D500" t="n">
         <v>15</v>
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D501" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E501" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="502">
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D504" t="n">
+        <v>18</v>
+      </c>
+      <c r="E504" t="n">
         <v>17</v>
-      </c>
-      <c r="E504" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="505">
@@ -11056,13 +11056,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D506" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E506" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507">
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D507" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E507" t="n">
         <v>16</v>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D508" t="n">
         <v>7</v>
@@ -11119,7 +11119,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D509" t="n">
         <v>17</v>
@@ -11140,7 +11140,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D510" t="n">
         <v>11</v>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D511" t="n">
         <v>18</v>
@@ -11182,13 +11182,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D512" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E512" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="513">
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D513" t="n">
         <v>16</v>
       </c>
       <c r="E513" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514">
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D514" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E514" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="515">
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D515" t="n">
         <v>22</v>
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D516" t="n">
         <v>15</v>
       </c>
       <c r="E516" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="517">
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D517" t="n">
         <v>16</v>
       </c>
       <c r="E517" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="518">
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D518" t="n">
         <v>18</v>
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D520" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E520" t="n">
         <v>19</v>
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D521" t="n">
         <v>20</v>
       </c>
       <c r="E521" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="522">
@@ -11434,7 +11434,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D524" t="n">
         <v>27</v>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D527" t="n">
         <v>16</v>
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D528" t="n">
         <v>20</v>
       </c>
       <c r="E528" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="529">
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D529" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E529" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="530">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D530" t="n">
         <v>16</v>
@@ -11581,13 +11581,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D531" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E531" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -11623,10 +11623,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D533" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E533" t="n">
         <v>18</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D535" t="n">
         <v>12</v>
       </c>
       <c r="E535" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="536">
@@ -11686,13 +11686,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D536" t="n">
         <v>8</v>
       </c>
       <c r="E536" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="537">
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D539" t="n">
         <v>20</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D540" t="n">
         <v>22</v>
       </c>
       <c r="E540" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="541">
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D541" t="n">
         <v>22</v>
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D543" t="n">
         <v>11</v>
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D544" t="n">
         <v>21</v>
       </c>
       <c r="E544" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545">
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D545" t="n">
         <v>9</v>
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D546" t="n">
         <v>19</v>
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D547" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E547" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="548">
@@ -11938,10 +11938,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D548" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E548" t="n">
         <v>16</v>
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D550" t="n">
         <v>22</v>
       </c>
       <c r="E550" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="551">
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D552" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E552" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553">
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D553" t="n">
         <v>19</v>
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D555" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E555" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="556">
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D556" t="n">
         <v>20</v>
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D557" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E557" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="558">
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D558" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E558" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D560" t="n">
         <v>15</v>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D562" t="n">
         <v>17</v>
@@ -12253,13 +12253,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D563" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E563" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="564">
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D564" t="n">
         <v>20</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D565" t="n">
         <v>11</v>
       </c>
       <c r="E565" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="566">
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D566" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E566" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="567">
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D568" t="n">
         <v>13</v>
@@ -12400,10 +12400,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D570" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E570" t="n">
         <v>22</v>
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D571" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E571" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="572">
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D572" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E572" t="n">
         <v>17</v>
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D573" t="n">
         <v>15</v>
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D576" t="n">
+        <v>18</v>
+      </c>
+      <c r="E576" t="n">
         <v>17</v>
-      </c>
-      <c r="E576" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="577">
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D580" t="n">
         <v>21</v>
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D581" t="n">
         <v>26</v>
@@ -12694,7 +12694,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D584" t="n">
         <v>25</v>
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D585" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E585" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="586">
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D586" t="n">
         <v>20</v>
       </c>
       <c r="E586" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="587">
@@ -12778,7 +12778,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D588" t="n">
         <v>19</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D589" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E589" t="n">
         <v>17</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D590" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E590" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="591">
@@ -12841,13 +12841,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D591" t="n">
         <v>20</v>
       </c>
       <c r="E591" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592">
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D592" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E592" t="n">
         <v>14</v>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D593" t="n">
         <v>22</v>
@@ -12967,13 +12967,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D597" t="n">
         <v>13</v>
       </c>
       <c r="E597" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="598">
@@ -12988,13 +12988,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D598" t="n">
         <v>11</v>
       </c>
       <c r="E598" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="599">
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D599" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E599" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="600">
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D601" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E601" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D602" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E602" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603">
@@ -13093,7 +13093,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D603" t="n">
         <v>12</v>
@@ -13114,13 +13114,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D604" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E604" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="605">
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D605" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E605" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="606">
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D606" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E606" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607">
@@ -13177,10 +13177,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D607" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E607" t="n">
         <v>16</v>
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D608" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E608" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609">
@@ -13219,10 +13219,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D609" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E609" t="n">
         <v>17</v>
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D611" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E611" t="n">
         <v>16</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D612" t="n">
         <v>20</v>
       </c>
       <c r="E612" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="613">
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D613" t="n">
         <v>25</v>
@@ -13387,10 +13387,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D617" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E617" t="n">
         <v>18</v>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D618" t="n">
         <v>18</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D622" t="n">
         <v>23</v>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D623" t="n">
         <v>14</v>
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D625" t="n">
+        <v>22</v>
+      </c>
+      <c r="E625" t="n">
         <v>21</v>
-      </c>
-      <c r="E625" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="626">
@@ -13618,10 +13618,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D628" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E628" t="n">
         <v>22</v>
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D629" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E629" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D631" t="n">
         <v>19</v>
@@ -13702,10 +13702,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D632" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -13723,10 +13723,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D633" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E633" t="n">
         <v>24</v>
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D635" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E635" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="636">
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D638" t="n">
         <v>17</v>
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D639" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E639" t="n">
         <v>14</v>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D640" t="n">
         <v>16</v>
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D641" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E641" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -13933,13 +13933,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D643" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E643" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="644">
@@ -13954,10 +13954,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D644" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E644" t="n">
         <v>17</v>
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D645" t="n">
         <v>19</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D646" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E646" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="647">
@@ -14017,7 +14017,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D647" t="n">
         <v>18</v>
@@ -14038,10 +14038,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D648" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E648" t="n">
         <v>16</v>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D652" t="n">
         <v>15</v>
@@ -14143,10 +14143,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D653" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E653" t="n">
         <v>17</v>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D656" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E656" t="n">
         <v>16</v>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D658" t="n">
         <v>12</v>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D659" t="n">
         <v>14</v>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D663" t="n">
         <v>11</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D664" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E664" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="665">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D665" t="n">
         <v>19</v>
       </c>
       <c r="E665" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D666" t="n">
         <v>18</v>
       </c>
       <c r="E666" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="667">
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D667" t="n">
         <v>21</v>
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D668" t="n">
+        <v>18</v>
+      </c>
+      <c r="E668" t="n">
         <v>17</v>
-      </c>
-      <c r="E668" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="669">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D669" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E669" t="n">
         <v>14</v>
@@ -14521,10 +14521,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D671" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E671" t="n">
         <v>17</v>
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D673" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E673" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="674">
@@ -14584,7 +14584,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D674" t="n">
         <v>11</v>
@@ -14647,13 +14647,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D677" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E677" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="678">
@@ -14668,10 +14668,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D678" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E678" t="n">
         <v>14</v>
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D680" t="n">
         <v>17</v>
       </c>
       <c r="E680" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="681">
@@ -14731,13 +14731,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D681" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E681" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="682">
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D683" t="n">
         <v>19</v>
       </c>
       <c r="E683" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="684">
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D688" t="n">
+        <v>17</v>
+      </c>
+      <c r="E688" t="n">
         <v>16</v>
-      </c>
-      <c r="E688" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D689" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E689" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="690">
@@ -14962,10 +14962,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D692" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E692" t="n">
         <v>11</v>
@@ -14983,10 +14983,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D693" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E693" t="n">
         <v>26</v>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D695" t="n">
         <v>13</v>
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D696" t="n">
         <v>13</v>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D697" t="n">
         <v>25</v>
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D699" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E699" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="700">
@@ -15130,13 +15130,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D700" t="n">
         <v>19</v>
       </c>
       <c r="E700" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="701">
@@ -15151,13 +15151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D701" t="n">
         <v>13</v>
       </c>
       <c r="E701" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="702">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D702" t="n">
         <v>23</v>
@@ -15193,13 +15193,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D703" t="n">
         <v>18</v>
       </c>
       <c r="E703" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="704">
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D705" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E705" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="706">
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D706" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E706" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="707">
@@ -15277,13 +15277,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D707" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E707" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="708">
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D709" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E709" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="710">
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D710" t="n">
         <v>19</v>
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D711" t="n">
         <v>17</v>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D714" t="n">
         <v>15</v>
@@ -15466,13 +15466,13 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D717" t="n">
         <v>21</v>
       </c>
       <c r="E717" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="718">
@@ -15508,13 +15508,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D718" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E718" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="719">
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D720" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E720" t="n">
         <v>18</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D722" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E722" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="723">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D723" t="n">
         <v>14</v>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D724" t="n">
         <v>21</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D725" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E725" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D728" t="n">
         <v>21</v>
       </c>
       <c r="E728" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="729">
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D729" t="n">
         <v>16</v>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D730" t="n">
         <v>9</v>
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D731" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E731" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -15802,10 +15802,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D732" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E732" t="n">
         <v>21</v>
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D735" t="n">
         <v>22</v>
       </c>
       <c r="E735" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736">
@@ -15907,10 +15907,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D737" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E737" t="n">
         <v>18</v>
@@ -15949,10 +15949,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D739" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E739" t="n">
         <v>17</v>
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D740" t="n">
         <v>13</v>
       </c>
       <c r="E740" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="741">
@@ -15991,10 +15991,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D741" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E741" t="n">
         <v>21</v>
@@ -16033,10 +16033,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D743" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E743" t="n">
         <v>23</v>
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D745" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E745" t="n">
         <v>21</v>
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D747" t="n">
         <v>10</v>
       </c>
       <c r="E747" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="748">
@@ -16159,10 +16159,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D749" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E749" t="n">
         <v>17</v>
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D752" t="n">
         <v>20</v>
@@ -16243,7 +16243,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D753" t="n">
         <v>21</v>
@@ -16264,13 +16264,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D754" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E754" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755">
@@ -16285,13 +16285,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D755" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E755" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="756">
@@ -16306,13 +16306,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D756" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E756" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="757">
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D757" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E757" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="758">
@@ -16348,13 +16348,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D758" t="n">
         <v>13</v>
       </c>
       <c r="E758" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="759">
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D760" t="n">
         <v>21</v>
@@ -16411,7 +16411,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D761" t="n">
         <v>8</v>
@@ -16453,10 +16453,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D763" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E763" t="n">
         <v>16</v>
@@ -16516,13 +16516,13 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D766" t="n">
         <v>18</v>
       </c>
       <c r="E766" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767">
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D767" t="n">
         <v>15</v>
       </c>
       <c r="E767" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D768" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E768" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="769">
@@ -16600,13 +16600,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D770" t="n">
         <v>18</v>
       </c>
       <c r="E770" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="771">
@@ -16621,13 +16621,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D771" t="n">
         <v>18</v>
       </c>
       <c r="E771" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="772">
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D772" t="n">
         <v>18</v>
@@ -16663,13 +16663,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D773" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E773" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774">
@@ -16684,7 +16684,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D774" t="n">
         <v>12</v>
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D776" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E776" t="n">
         <v>19</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D777" t="n">
         <v>16</v>
       </c>
       <c r="E777" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="778">
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D778" t="n">
         <v>18</v>
       </c>
       <c r="E778" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D782" t="n">
         <v>14</v>
@@ -16873,10 +16873,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D783" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E783" t="n">
         <v>23</v>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D784" t="n">
         <v>16</v>
@@ -16936,13 +16936,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D786" t="n">
         <v>12</v>
       </c>
       <c r="E786" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="787">
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D787" t="n">
         <v>16</v>
       </c>
       <c r="E787" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="788">
@@ -16999,7 +16999,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D789" t="n">
         <v>14</v>
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D790" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E790" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="791">
@@ -17083,13 +17083,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D793" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E793" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="794">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D795" t="n">
         <v>18</v>
@@ -17146,10 +17146,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D796" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E796" t="n">
         <v>11</v>
@@ -17188,7 +17188,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D798" t="n">
         <v>14</v>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D799" t="n">
         <v>15</v>
@@ -17335,7 +17335,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D805" t="n">
         <v>18</v>
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D811" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E811" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="812">
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D812" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E812" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="813">
@@ -17524,10 +17524,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D814" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E814" t="n">
         <v>24</v>
@@ -17545,10 +17545,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D815" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E815" t="n">
         <v>18</v>
@@ -17608,10 +17608,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D818" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E818" t="n">
         <v>21</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D820" t="n">
         <v>19</v>
@@ -17734,13 +17734,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D824" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E824" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="825">
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D825" t="n">
         <v>18</v>
@@ -17839,7 +17839,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D829" t="n">
         <v>19</v>
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D840" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E840" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="841">
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D842" t="n">
         <v>15</v>
       </c>
       <c r="E842" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="843">
@@ -18133,10 +18133,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D843" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E843" t="n">
         <v>14</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D845" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E845" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="846">
@@ -18217,10 +18217,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D847" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D848" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E848" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="849">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D857" t="n">
         <v>22</v>
@@ -18532,10 +18532,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D862" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E862" t="n">
         <v>20</v>
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D863" t="n">
         <v>17</v>
       </c>
       <c r="E863" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="864">
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D864" t="n">
         <v>19</v>
@@ -18637,10 +18637,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D867" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E867" t="n">
         <v>12</v>
@@ -18763,13 +18763,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D873" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E873" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="874">
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D874" t="n">
+        <v>30</v>
+      </c>
+      <c r="E874" t="n">
         <v>29</v>
-      </c>
-      <c r="E874" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="875">
@@ -18805,10 +18805,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D875" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E875" t="n">
         <v>18</v>
@@ -18826,13 +18826,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D876" t="n">
         <v>18</v>
       </c>
       <c r="E876" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="877">
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D878" t="n">
         <v>19</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D881" t="n">
         <v>11</v>
       </c>
       <c r="E881" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="882">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D882" t="n">
         <v>15</v>
@@ -18973,10 +18973,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D883" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E883" t="n">
         <v>21</v>
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D884" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E884" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="885">
@@ -19015,10 +19015,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D885" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E885" t="n">
         <v>20</v>
@@ -19099,13 +19099,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D889" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E889" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="890">
@@ -19141,10 +19141,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D891" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E891" t="n">
         <v>14</v>
@@ -19225,10 +19225,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D895" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E895" t="n">
         <v>23</v>
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D903" t="n">
         <v>17</v>
@@ -19519,7 +19519,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D909" t="n">
         <v>25</v>
@@ -19561,10 +19561,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D911" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E911" t="n">
         <v>16</v>
@@ -19645,10 +19645,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D915" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E915" t="n">
         <v>19</v>
@@ -19687,13 +19687,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D917" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E917" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="918">
@@ -19729,13 +19729,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D919" t="n">
+        <v>23</v>
+      </c>
+      <c r="E919" t="n">
         <v>22</v>
-      </c>
-      <c r="E919" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="920">
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D923" t="n">
         <v>18</v>
@@ -19876,7 +19876,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D926" t="n">
         <v>14</v>
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D928" t="n">
         <v>16</v>
       </c>
       <c r="E928" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="929">
@@ -19981,10 +19981,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D931" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E931" t="n">
         <v>24</v>
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D933" t="n">
         <v>16</v>
       </c>
       <c r="E933" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="934">
@@ -20044,10 +20044,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D934" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E934" t="n">
         <v>16</v>
@@ -20065,13 +20065,13 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D935" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E935" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="936">
@@ -20086,7 +20086,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D936" t="n">
         <v>19</v>
@@ -20233,10 +20233,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D943" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E943" t="n">
         <v>23</v>
@@ -20275,10 +20275,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D945" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E945" t="n">
         <v>20</v>
@@ -20317,13 +20317,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D947" t="n">
         <v>16</v>
       </c>
       <c r="E947" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="948">
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D949" t="n">
         <v>26</v>
@@ -20380,13 +20380,13 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D950" t="n">
+        <v>20</v>
+      </c>
+      <c r="E950" t="n">
         <v>19</v>
-      </c>
-      <c r="E950" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="951">
@@ -20401,7 +20401,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D951" t="n">
         <v>20</v>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D952" t="n">
         <v>17</v>
@@ -20464,13 +20464,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D954" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E954" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="955">
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D955" t="n">
         <v>13</v>
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D961" t="n">
         <v>21</v>
       </c>
       <c r="E961" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="962">
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D963" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E963" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="964">
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D964" t="n">
         <v>12</v>
@@ -20716,13 +20716,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D966" t="n">
         <v>12</v>
       </c>
       <c r="E966" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="967">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D970" t="n">
         <v>19</v>
@@ -20842,10 +20842,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D972" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -20884,13 +20884,13 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D974" t="n">
         <v>21</v>
       </c>
       <c r="E974" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="975">
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D978" t="n">
         <v>14</v>
@@ -20989,13 +20989,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D979" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E979" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="980">
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D980" t="n">
         <v>14</v>
@@ -21052,10 +21052,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D982" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E982" t="n">
         <v>20</v>
@@ -21157,10 +21157,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D987" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E987" t="n">
         <v>18</v>
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D998" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E998" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="999">
@@ -21640,13 +21640,13 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1010" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1010" t="n">
         <v>16</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="1011">
@@ -21661,13 +21661,13 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1011" t="n">
         <v>14</v>
       </c>
       <c r="E1011" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1012">
@@ -21682,13 +21682,13 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1012" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1012" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1013">
@@ -21766,13 +21766,13 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1016" t="n">
         <v>10</v>
       </c>
       <c r="E1016" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1017">
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1018" t="n">
         <v>19</v>
       </c>
       <c r="E1018" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1025" t="n">
         <v>12</v>
       </c>
       <c r="E1025" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1026" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1026" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1028" t="n">
         <v>16</v>
@@ -22060,10 +22060,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1030" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1030" t="n">
         <v>16</v>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1033" t="n">
         <v>16</v>
@@ -22165,13 +22165,13 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1035" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1035" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1036">
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1036" t="n">
         <v>11</v>
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1039" t="n">
         <v>13</v>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1044" t="n">
         <v>18</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1047" t="n">
         <v>21</v>
@@ -22438,10 +22438,10 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1048" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1048" t="n">
         <v>22</v>
@@ -22480,13 +22480,13 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1050" t="n">
         <v>14</v>
       </c>
       <c r="E1050" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1051">
@@ -22564,10 +22564,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1054" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1054" t="n">
         <v>18</v>
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1062" t="n">
         <v>13</v>
@@ -22774,13 +22774,13 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1064" t="n">
         <v>24</v>
       </c>
       <c r="E1064" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1065">
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1076" t="n">
         <v>14</v>
       </c>
       <c r="E1076" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1080" t="n">
         <v>22</v>
       </c>
       <c r="E1080" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1084" t="n">
         <v>14</v>
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1085" t="n">
         <v>20</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1088" t="n">
         <v>16</v>
       </c>
       <c r="E1088" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1089" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1089" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1090" t="n">
         <v>16</v>
@@ -23362,10 +23362,10 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1092" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1093" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1093" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1097" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1097" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,7 +23488,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1098" t="n">
         <v>16</v>
@@ -23530,13 +23530,13 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1101">
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1101" t="n">
         <v>19</v>
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,7 +23656,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1106" t="n">
         <v>20</v>
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1107" t="n">
         <v>15</v>
       </c>
       <c r="E1107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1109" t="n">
         <v>14</v>
       </c>
       <c r="E1109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1110" t="n">
         <v>18</v>
@@ -23761,13 +23761,13 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1111" t="n">
         <v>20</v>
       </c>
       <c r="E1111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1112">
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1115" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1115" t="n">
         <v>19</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1119" t="n">
         <v>18</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1121" t="n">
         <v>14</v>
       </c>
       <c r="E1121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1123" t="n">
         <v>14</v>
       </c>
       <c r="E1123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1124" t="n">
         <v>19</v>
       </c>
       <c r="E1124" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1130" t="n">
         <v>12</v>
@@ -24265,13 +24265,13 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1135" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1135" t="n">
         <v>22</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="1136">
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1140" t="n">
         <v>15</v>
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,13 +24496,13 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1146" t="n">
         <v>18</v>
       </c>
       <c r="E1146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1147">
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1150" t="n">
         <v>17</v>
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1151" t="n">
         <v>16</v>
       </c>
       <c r="E1151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1171" t="n">
         <v>18</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1172" t="n">
         <v>17</v>
       </c>
       <c r="E1172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1176" t="n">
         <v>23</v>
       </c>
       <c r="E1176" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1177" t="n">
         <v>19</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1180" t="n">
         <v>19</v>
       </c>
       <c r="E1180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1186" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1186" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,10 +25504,10 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1194" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1194" t="n">
         <v>19</v>
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1197" t="n">
         <v>15</v>
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1199" t="n">
         <v>21</v>
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1201" t="n">
         <v>13</v>
       </c>
       <c r="E1201" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1209" t="n">
         <v>13</v>
       </c>
       <c r="E1209" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1213" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1213" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1214" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1216" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1216" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1222" t="n">
         <v>11</v>
@@ -26176,7 +26176,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1226" t="n">
         <v>20</v>
@@ -26323,13 +26323,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1233" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1233" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1234">
@@ -26344,10 +26344,10 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1234" t="n">
         <v>15</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1235" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1235" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1236" t="n">
         <v>22</v>
       </c>
       <c r="E1236" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,13 +26575,13 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1245" t="n">
         <v>8</v>
       </c>
       <c r="E1245" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1246">
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1246" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1246" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,7 +26617,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1247" t="n">
         <v>19</v>
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1249" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1249" t="n">
         <v>16</v>
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1251" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1251" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1255" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1255" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1256" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1256" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,7 +26848,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1258" t="n">
         <v>22</v>
@@ -26869,10 +26869,10 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1259" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1259" t="n">
         <v>21</v>
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1260" t="n">
         <v>21</v>
@@ -26932,13 +26932,13 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1262" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1263">
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1264" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1264" t="n">
         <v>18</v>
-      </c>
-      <c r="E1264" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,13 +27016,13 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1266" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1266" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1267">
@@ -27079,13 +27079,13 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1269" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1269" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1270">
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1270" t="n">
         <v>19</v>
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1276" t="n">
         <v>13</v>
       </c>
       <c r="E1276" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1277">
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1279" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1279" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1280" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1280" t="n">
         <v>19</v>
@@ -27646,7 +27646,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1296" t="n">
         <v>26</v>
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1299" t="n">
         <v>19</v>
       </c>
       <c r="E1299" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,13 +27730,13 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1300" t="n">
         <v>20</v>
       </c>
       <c r="E1300" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1301">
@@ -27751,7 +27751,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1301" t="n">
         <v>10</v>
@@ -27793,13 +27793,13 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1303" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1303" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1304">
@@ -27814,10 +27814,10 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1304" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1304" t="n">
         <v>15</v>
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1305" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1305" t="n">
         <v>22</v>
-      </c>
-      <c r="E1305" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1306" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1306" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,13 +27919,13 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1309" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1309" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1310">
@@ -28024,7 +28024,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1314" t="n">
         <v>15</v>
@@ -28108,10 +28108,10 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1318" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1318" t="n">
         <v>14</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1335" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1335" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1337" t="n">
         <v>21</v>
       </c>
       <c r="E1337" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,13 +28528,13 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1338" t="n">
         <v>16</v>
       </c>
       <c r="E1338" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1339">
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1346" t="n">
         <v>15</v>
@@ -28717,13 +28717,13 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1347" t="n">
         <v>18</v>
       </c>
       <c r="E1347" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1348">
@@ -28738,7 +28738,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1348" t="n">
         <v>13</v>
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1350" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1350" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1352" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1352" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,13 +28864,13 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1354" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1354" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1355">
@@ -28948,7 +28948,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1358" t="n">
         <v>14</v>
@@ -29032,13 +29032,13 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1362" t="n">
         <v>9</v>
       </c>
       <c r="E1362" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1363">
@@ -29053,7 +29053,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1363" t="n">
         <v>22</v>
@@ -29074,10 +29074,10 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1364" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1364" t="n">
         <v>14</v>
@@ -29116,10 +29116,10 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1366" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1366" t="n">
         <v>20</v>
@@ -29137,13 +29137,13 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1367" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1367" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1368">
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1370" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1370" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1371">
@@ -29284,13 +29284,13 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1374" t="n">
         <v>11</v>
       </c>
       <c r="E1374" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1375">
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1380" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1380" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1384" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1384" t="n">
         <v>11</v>
@@ -29515,7 +29515,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1385" t="n">
         <v>10</v>
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1386" t="n">
         <v>13</v>
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1387" t="n">
         <v>9</v>
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1391" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1391" t="n">
         <v>22</v>
-      </c>
-      <c r="E1391" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,13 +29704,13 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1394" t="n">
         <v>16</v>
       </c>
       <c r="E1394" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1395">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1397" t="n">
         <v>13</v>
@@ -29809,10 +29809,10 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1399" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1399" t="n">
         <v>12</v>
@@ -29851,10 +29851,10 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1401" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1401" t="n">
         <v>25</v>
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1402" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1402" t="n">
         <v>16</v>
-      </c>
-      <c r="E1402" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1406" t="n">
         <v>23</v>
@@ -30124,13 +30124,13 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1414" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1414" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1415">
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1415" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1415" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,13 +30250,13 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1420" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1420" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1421">
@@ -30355,10 +30355,10 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1425" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1425" t="n">
         <v>24</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,13 +30439,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1429" t="n">
         <v>13</v>
       </c>
       <c r="E1429" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1430">
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1433" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1433" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,7 +30649,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1439" t="n">
         <v>10</v>
@@ -30964,13 +30964,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1454" t="n">
         <v>21</v>
       </c>
       <c r="E1454" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D564" t="n">
         <v>23</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
         <v>26</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
         <v>23</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
         <v>19</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v>18</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>21</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n">
         <v>25</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" t="n">
         <v>17</v>
-      </c>
-      <c r="E34" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" t="n">
         <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
         <v>26</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n">
         <v>26</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
         <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" t="n">
         <v>27</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
         <v>21</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
         <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D51" t="n">
         <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
         <v>17</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
         <v>20</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56" t="n">
         <v>17</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" t="n">
         <v>22</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>25</v>
       </c>
       <c r="E62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63" t="n">
         <v>25</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D64" t="n">
         <v>22</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
         <v>26</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E67" t="n">
         <v>20</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
         <v>23</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" t="n">
         <v>22</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
         <v>19</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
         <v>11</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D83" t="n">
         <v>23</v>
       </c>
       <c r="E83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
         <v>25</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D88" t="n">
         <v>21</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E91" t="n">
         <v>17</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D92" t="n">
         <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E95" t="n">
         <v>15</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D101" t="n">
         <v>23</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D110" t="n">
+        <v>19</v>
+      </c>
+      <c r="E110" t="n">
         <v>18</v>
-      </c>
-      <c r="E110" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D112" t="n">
         <v>26</v>
       </c>
       <c r="E112" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E114" t="n">
         <v>19</v>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D117" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E117" t="n">
         <v>20</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D119" t="n">
         <v>19</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D123" t="n">
         <v>22</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D125" t="n">
         <v>25</v>
       </c>
       <c r="E125" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D127" t="n">
         <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D128" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D129" t="n">
         <v>26</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D130" t="n">
+        <v>23</v>
+      </c>
+      <c r="E130" t="n">
         <v>22</v>
-      </c>
-      <c r="E130" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="131">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D134" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
         <v>18</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D137" t="n">
         <v>20</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D139" t="n">
         <v>21</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D141" t="n">
         <v>24</v>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D142" t="n">
         <v>28</v>
       </c>
       <c r="E142" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D144" t="n">
         <v>19</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D145" t="n">
         <v>24</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D146" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D147" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E147" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D148" t="n">
         <v>21</v>
       </c>
       <c r="E148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D149" t="n">
         <v>22</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D151" t="n">
         <v>19</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D153" t="n">
         <v>18</v>
       </c>
       <c r="E153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D156" t="n">
         <v>24</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D158" t="n">
         <v>17</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D159" t="n">
         <v>18</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D160" t="n">
         <v>19</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D162" t="n">
         <v>23</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D163" t="n">
         <v>17</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D167" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E167" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D168" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D169" t="n">
         <v>20</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D170" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E170" t="n">
         <v>18</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D171" t="n">
         <v>17</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E175" t="n">
         <v>17</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D180" t="n">
         <v>17</v>
@@ -4294,10 +4294,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D184" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E184" t="n">
         <v>25</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D186" t="n">
         <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D187" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D189" t="n">
         <v>20</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D194" t="n">
         <v>28</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D195" t="n">
         <v>19</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D196" t="n">
         <v>28</v>
       </c>
       <c r="E196" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D198" t="n">
         <v>19</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D199" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E199" t="n">
         <v>23</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D202" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E202" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D204" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E204" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D205" t="n">
+        <v>21</v>
+      </c>
+      <c r="E205" t="n">
         <v>20</v>
-      </c>
-      <c r="E205" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="206">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D206" t="n">
         <v>19</v>
       </c>
       <c r="E206" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D207" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E207" t="n">
         <v>21</v>
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D209" t="n">
+        <v>19</v>
+      </c>
+      <c r="E209" t="n">
         <v>18</v>
-      </c>
-      <c r="E209" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="210">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D211" t="n">
         <v>18</v>
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D213" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E213" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D215" t="n">
+        <v>18</v>
+      </c>
+      <c r="E215" t="n">
         <v>17</v>
-      </c>
-      <c r="E215" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D216" t="n">
         <v>18</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D217" t="n">
         <v>26</v>
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D218" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E218" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D222" t="n">
         <v>21</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D223" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224">
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D224" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E224" t="n">
         <v>27</v>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D225" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E225" t="n">
         <v>21</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D226" t="n">
         <v>10</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D227" t="n">
         <v>20</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D228" t="n">
         <v>19</v>
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D230" t="n">
         <v>30</v>
       </c>
       <c r="E230" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231">
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D231" t="n">
         <v>22</v>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D232" t="n">
         <v>24</v>
@@ -5323,10 +5323,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D233" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E233" t="n">
         <v>27</v>
@@ -5344,13 +5344,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D235" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E235" t="n">
         <v>20</v>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D238" t="n">
         <v>20</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D241" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E241" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242">
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D242" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E242" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D243" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E243" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244">
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D244" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E244" t="n">
         <v>22</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D245" t="n">
         <v>26</v>
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D246" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D247" t="n">
         <v>20</v>
@@ -5638,13 +5638,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D248" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E248" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249">
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E249" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D250" t="n">
         <v>19</v>
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D251" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E251" t="n">
         <v>17</v>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D252" t="n">
         <v>20</v>
       </c>
       <c r="E252" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D253" t="n">
         <v>17</v>
       </c>
       <c r="E253" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D254" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E254" t="n">
         <v>24</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D255" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E255" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256">
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D257" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E257" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="258">
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D260" t="n">
         <v>19</v>
       </c>
       <c r="E260" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D262" t="n">
         <v>23</v>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D263" t="n">
         <v>20</v>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D264" t="n">
         <v>23</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D265" t="n">
         <v>18</v>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D267" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E267" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D270" t="n">
         <v>19</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D271" t="n">
         <v>21</v>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D273" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E273" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274">
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D276" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E276" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277">
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D278" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E278" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D280" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E280" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="281">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D283" t="n">
         <v>22</v>
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D284" t="n">
         <v>20</v>
@@ -6415,10 +6415,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D285" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E285" t="n">
         <v>22</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D286" t="n">
+        <v>21</v>
+      </c>
+      <c r="E286" t="n">
         <v>20</v>
-      </c>
-      <c r="E286" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="287">
@@ -6457,10 +6457,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D287" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E287" t="n">
         <v>19</v>
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D288" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E288" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289">
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D289" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E289" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -6562,13 +6562,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D292" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E292" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D294" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E294" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D295" t="n">
         <v>26</v>
@@ -6667,10 +6667,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D297" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E297" t="n">
         <v>21</v>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D298" t="n">
         <v>18</v>
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D299" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E299" t="n">
         <v>30</v>
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D301" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E301" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302">
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D302" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E302" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="303">
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D305" t="n">
         <v>21</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D307" t="n">
         <v>19</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D308" t="n">
         <v>17</v>
@@ -6961,13 +6961,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D311" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E311" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312">
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D314" t="n">
         <v>24</v>
       </c>
       <c r="E314" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315">
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D316" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E316" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D317" t="n">
         <v>19</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D323" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E323" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D324" t="n">
         <v>24</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D325" t="n">
         <v>22</v>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D327" t="n">
         <v>21</v>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D331" t="n">
         <v>26</v>
@@ -7402,13 +7402,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D332" t="n">
+        <v>20</v>
+      </c>
+      <c r="E332" t="n">
         <v>19</v>
-      </c>
-      <c r="E332" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="333">
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D336" t="n">
         <v>21</v>
       </c>
       <c r="E336" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D337" t="n">
         <v>20</v>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D338" t="n">
         <v>24</v>
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D339" t="n">
         <v>18</v>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D341" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E341" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342">
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D344" t="n">
         <v>16</v>
@@ -7696,10 +7696,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D346" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E346" t="n">
         <v>19</v>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D347" t="n">
         <v>22</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D348" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E348" t="n">
         <v>21</v>
@@ -7759,10 +7759,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D349" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E349" t="n">
         <v>23</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D352" t="n">
         <v>23</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D355" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E355" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="356">
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D358" t="n">
         <v>19</v>
       </c>
       <c r="E358" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359">
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D359" t="n">
         <v>22</v>
       </c>
       <c r="E359" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="360">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D362" t="n">
         <v>19</v>
       </c>
       <c r="E362" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="363">
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D363" t="n">
         <v>27</v>
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D366" t="n">
         <v>18</v>
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D367" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E367" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="368">
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D368" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E368" t="n">
         <v>22</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D372" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E372" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373">
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D373" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E373" t="n">
         <v>22</v>
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D374" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E374" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375">
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D375" t="n">
         <v>23</v>
       </c>
       <c r="E375" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="376">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D377" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E377" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D378" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E378" t="n">
         <v>18</v>
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D379" t="n">
         <v>20</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D381" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E381" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382">
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D382" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E382" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383">
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D383" t="n">
         <v>24</v>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D384" t="n">
         <v>19</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D385" t="n">
         <v>17</v>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D387" t="n">
         <v>21</v>
@@ -8578,10 +8578,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D388" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E388" t="n">
         <v>20</v>
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D389" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E389" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390">
@@ -8620,13 +8620,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D390" t="n">
         <v>19</v>
       </c>
       <c r="E390" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391">
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D391" t="n">
         <v>19</v>
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D393" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E393" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D395" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E395" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D396" t="n">
         <v>26</v>
       </c>
       <c r="E396" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397">
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D399" t="n">
         <v>24</v>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D400" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E400" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D401" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E401" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D407" t="n">
         <v>19</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D410" t="n">
         <v>20</v>
       </c>
       <c r="E410" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="411">
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D411" t="n">
         <v>14</v>
       </c>
       <c r="E411" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="412">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D412" t="n">
         <v>23</v>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D413" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E413" t="n">
         <v>21</v>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D415" t="n">
         <v>1</v>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D416" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E416" t="n">
         <v>20</v>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D418" t="n">
         <v>18</v>
@@ -9355,10 +9355,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D425" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E425" t="n">
         <v>17</v>
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D427" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E427" t="n">
         <v>19</v>
@@ -9439,10 +9439,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D429" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E429" t="n">
         <v>26</v>
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D431" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E431" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D432" t="n">
         <v>20</v>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D434" t="n">
         <v>20</v>
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D436" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E436" t="n">
         <v>23</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D437" t="n">
         <v>20</v>
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D438" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E438" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439">
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D444" t="n">
         <v>20</v>
       </c>
       <c r="E444" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="445">
@@ -9796,13 +9796,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D446" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E446" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447">
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D448" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E448" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="449">
@@ -9880,10 +9880,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D450" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E450" t="n">
         <v>20</v>
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D451" t="n">
+        <v>25</v>
+      </c>
+      <c r="E451" t="n">
         <v>24</v>
-      </c>
-      <c r="E451" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="452">
@@ -10048,13 +10048,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D458" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E458" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="459">
@@ -10153,13 +10153,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D463" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E463" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="464">
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D464" t="n">
         <v>23</v>
       </c>
       <c r="E464" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="465">
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D465" t="n">
         <v>20</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D466" t="n">
         <v>13</v>
       </c>
       <c r="E466" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467">
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D470" t="n">
         <v>20</v>
       </c>
       <c r="E470" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="471">
@@ -10342,13 +10342,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D472" t="n">
         <v>22</v>
       </c>
       <c r="E472" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473">
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D473" t="n">
         <v>17</v>
       </c>
       <c r="E473" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474">
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D475" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E475" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="476">
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D482" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E482" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="483">
@@ -10573,13 +10573,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D483" t="n">
         <v>29</v>
       </c>
       <c r="E483" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="484">
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D484" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E484" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D485" t="n">
         <v>12</v>
@@ -10636,10 +10636,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D486" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E486" t="n">
         <v>17</v>
@@ -10678,13 +10678,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D488" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E488" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489">
@@ -10741,10 +10741,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D491" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E491" t="n">
         <v>24</v>
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D492" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E492" t="n">
         <v>26</v>
@@ -10783,10 +10783,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D493" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E493" t="n">
         <v>18</v>
@@ -10804,13 +10804,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D494" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E494" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495">
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D497" t="n">
         <v>20</v>
       </c>
       <c r="E497" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498">
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D498" t="n">
         <v>13</v>
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D499" t="n">
         <v>24</v>
       </c>
       <c r="E499" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="500">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D500" t="n">
         <v>15</v>
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D501" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E501" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="502">
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D504" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E504" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="505">
@@ -11056,13 +11056,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D506" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E506" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="507">
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D507" t="n">
         <v>19</v>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D508" t="n">
         <v>7</v>
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D509" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E509" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D510" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E510" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511">
@@ -11161,13 +11161,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D511" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E511" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="512">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D512" t="n">
         <v>21</v>
@@ -11203,10 +11203,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D513" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E513" t="n">
         <v>22</v>
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D514" t="n">
         <v>20</v>
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D515" t="n">
         <v>23</v>
       </c>
       <c r="E515" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="516">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D516" t="n">
         <v>18</v>
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D517" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E517" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="518">
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D518" t="n">
         <v>21</v>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D520" t="n">
         <v>20</v>
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D521" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E521" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="522">
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D524" t="n">
         <v>29</v>
       </c>
       <c r="E524" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="525">
@@ -11497,13 +11497,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D527" t="n">
         <v>19</v>
       </c>
       <c r="E527" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="528">
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D528" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E528" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="529">
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D529" t="n">
         <v>10</v>
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D530" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E530" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="531">
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D531" t="n">
         <v>21</v>
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D533" t="n">
         <v>24</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D535" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E535" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="536">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D536" t="n">
         <v>9</v>
@@ -11749,13 +11749,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D539" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E539" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="540">
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D540" t="n">
         <v>23</v>
@@ -11791,10 +11791,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D541" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E541" t="n">
         <v>23</v>
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D543" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E543" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="544">
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D544" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E544" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="545">
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D545" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E545" t="n">
         <v>16</v>
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D546" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E546" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="547">
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D547" t="n">
         <v>26</v>
       </c>
       <c r="E547" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="548">
@@ -11938,7 +11938,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D548" t="n">
         <v>20</v>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D550" t="n">
         <v>24</v>
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D552" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E552" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="553">
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D553" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E553" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="554">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D555" t="n">
         <v>27</v>
       </c>
       <c r="E555" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="556">
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D556" t="n">
         <v>22</v>
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D557" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E557" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="558">
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D558" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E558" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="559">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D560" t="n">
         <v>19</v>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D563" t="n">
         <v>27</v>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D564" t="n">
         <v>23</v>
       </c>
       <c r="E564" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="565">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D565" t="n">
         <v>11</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D566" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E566" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="567">
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D568" t="n">
         <v>15</v>
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D570" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E570" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="571">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D571" t="n">
         <v>18</v>
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D572" t="n">
         <v>17</v>
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D573" t="n">
         <v>17</v>
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D576" t="n">
         <v>22</v>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D580" t="n">
         <v>24</v>
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D581" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E581" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="582">
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D584" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E584" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D585" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E585" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="586">
@@ -12736,10 +12736,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D586" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E586" t="n">
         <v>22</v>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D588" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E588" t="n">
         <v>24</v>
@@ -12799,13 +12799,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D589" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E589" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="590">
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D590" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E590" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="591">
@@ -12841,13 +12841,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D591" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E591" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="592">
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D592" t="n">
         <v>19</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D593" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E593" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="594">
@@ -12967,10 +12967,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D597" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E597" t="n">
         <v>21</v>
@@ -12988,10 +12988,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D598" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E598" t="n">
         <v>19</v>
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D599" t="n">
         <v>19</v>
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D601" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E601" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="602">
@@ -13072,10 +13072,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D602" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E602" t="n">
         <v>23</v>
@@ -13093,7 +13093,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D603" t="n">
         <v>17</v>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D604" t="n">
         <v>24</v>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D605" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E605" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="606">
@@ -13156,10 +13156,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D606" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E606" t="n">
         <v>18</v>
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D607" t="n">
         <v>14</v>
       </c>
       <c r="E607" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="608">
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D608" t="n">
         <v>18</v>
@@ -13219,10 +13219,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D609" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E609" t="n">
         <v>19</v>
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D611" t="n">
         <v>22</v>
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D612" t="n">
         <v>22</v>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D613" t="n">
         <v>26</v>
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D617" t="n">
         <v>27</v>
       </c>
       <c r="E617" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="618">
@@ -13408,13 +13408,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D618" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E618" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="619">
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D622" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E622" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="623">
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D623" t="n">
         <v>16</v>
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D625" t="n">
         <v>24</v>
       </c>
       <c r="E625" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="626">
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D628" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E628" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="629">
@@ -13639,7 +13639,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D629" t="n">
         <v>20</v>
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D631" t="n">
         <v>19</v>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D632" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E632" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="633">
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D633" t="n">
         <v>19</v>
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D635" t="n">
         <v>15</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D638" t="n">
         <v>18</v>
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D639" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E639" t="n">
         <v>17</v>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D640" t="n">
         <v>17</v>
@@ -13891,10 +13891,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D641" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E641" t="n">
         <v>19</v>
@@ -13933,7 +13933,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D643" t="n">
         <v>15</v>
@@ -13954,10 +13954,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D644" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E644" t="n">
         <v>19</v>
@@ -13975,13 +13975,13 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D645" t="n">
+        <v>21</v>
+      </c>
+      <c r="E645" t="n">
         <v>20</v>
-      </c>
-      <c r="E645" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="646">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D646" t="n">
         <v>14</v>
@@ -14017,10 +14017,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D647" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E647" t="n">
         <v>16</v>
@@ -14038,10 +14038,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D648" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E648" t="n">
         <v>16</v>
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D652" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E652" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="653">
@@ -14143,10 +14143,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D653" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E653" t="n">
         <v>22</v>
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D656" t="n">
         <v>15</v>
       </c>
       <c r="E656" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="657">
@@ -14248,13 +14248,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D658" t="n">
         <v>12</v>
       </c>
       <c r="E658" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="659">
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D659" t="n">
         <v>17</v>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D663" t="n">
         <v>13</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D664" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E664" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="665">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D665" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E665" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D666" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E666" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="667">
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D667" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E667" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D668" t="n">
         <v>21</v>
       </c>
       <c r="E668" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="669">
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D669" t="n">
         <v>21</v>
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D671" t="n">
         <v>22</v>
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D673" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E673" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D674" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E674" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="675">
@@ -14647,13 +14647,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D677" t="n">
         <v>10</v>
       </c>
       <c r="E677" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="678">
@@ -14668,10 +14668,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D678" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E678" t="n">
         <v>19</v>
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D680" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E680" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="681">
@@ -14731,13 +14731,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D681" t="n">
         <v>19</v>
       </c>
       <c r="E681" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="682">
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D683" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E683" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="684">
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D688" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E688" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D689" t="n">
         <v>21</v>
       </c>
       <c r="E689" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="690">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D692" t="n">
         <v>21</v>
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D693" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E693" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="694">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D695" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E695" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="696">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D696" t="n">
         <v>16</v>
@@ -15067,13 +15067,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D697" t="n">
         <v>26</v>
       </c>
       <c r="E697" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="698">
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D699" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E699" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="700">
@@ -15130,10 +15130,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D700" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E700" t="n">
         <v>21</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D701" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E701" t="n">
         <v>17</v>
@@ -15172,13 +15172,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D702" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E702" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="703">
@@ -15193,10 +15193,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D703" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E703" t="n">
         <v>26</v>
@@ -15235,7 +15235,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D705" t="n">
         <v>23</v>
@@ -15256,10 +15256,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D706" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E706" t="n">
         <v>22</v>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D709" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E709" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="710">
@@ -15340,13 +15340,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D710" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E710" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="711">
@@ -15361,13 +15361,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D711" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E711" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="712">
@@ -15424,10 +15424,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D714" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E714" t="n">
         <v>17</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,10 +15487,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D717" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E717" t="n">
         <v>27</v>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D718" t="n">
         <v>17</v>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D720" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E720" t="n">
         <v>22</v>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D722" t="n">
         <v>19</v>
@@ -15613,13 +15613,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D723" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E723" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="724">
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D724" t="n">
         <v>24</v>
@@ -15655,7 +15655,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D725" t="n">
         <v>15</v>
@@ -15718,10 +15718,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D728" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E728" t="n">
         <v>20</v>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D729" t="n">
         <v>18</v>
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D730" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E730" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="731">
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D731" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E731" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="732">
@@ -15802,7 +15802,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D732" t="n">
         <v>21</v>
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D735" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E735" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="736">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D737" t="n">
         <v>22</v>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D739" t="n">
         <v>19</v>
@@ -15970,10 +15970,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D740" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E740" t="n">
         <v>17</v>
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D741" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E741" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="742">
@@ -16033,13 +16033,13 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D743" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E743" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="744">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D745" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E745" t="n">
         <v>24</v>
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D747" t="n">
         <v>12</v>
       </c>
       <c r="E747" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="748">
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D749" t="n">
+        <v>20</v>
+      </c>
+      <c r="E749" t="n">
         <v>19</v>
-      </c>
-      <c r="E749" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="750">
@@ -16222,13 +16222,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D752" t="n">
         <v>22</v>
       </c>
       <c r="E752" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="753">
@@ -16243,7 +16243,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D753" t="n">
         <v>22</v>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D754" t="n">
         <v>17</v>
@@ -16285,13 +16285,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D755" t="n">
         <v>26</v>
       </c>
       <c r="E755" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="756">
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D756" t="n">
         <v>29</v>
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D757" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E757" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758">
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D758" t="n">
         <v>15</v>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D760" t="n">
         <v>23</v>
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D761" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E761" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="762">
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D763" t="n">
         <v>22</v>
@@ -16516,13 +16516,13 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D766" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E766" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="767">
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D767" t="n">
         <v>16</v>
       </c>
       <c r="E767" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="768">
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D768" t="n">
         <v>9</v>
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D770" t="n">
         <v>19</v>
@@ -16621,10 +16621,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D771" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E771" t="n">
         <v>17</v>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D772" t="n">
         <v>20</v>
@@ -16663,13 +16663,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D773" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E773" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="774">
@@ -16684,7 +16684,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D774" t="n">
         <v>14</v>
@@ -16726,13 +16726,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D776" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E776" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="777">
@@ -16747,7 +16747,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D777" t="n">
         <v>18</v>
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D778" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E778" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D782" t="n">
         <v>18</v>
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D783" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E783" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="784">
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D784" t="n">
         <v>17</v>
@@ -16936,10 +16936,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D786" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E786" t="n">
         <v>23</v>
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D787" t="n">
         <v>18</v>
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D789" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E789" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="790">
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D790" t="n">
         <v>18</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D793" t="n">
         <v>20</v>
@@ -17125,10 +17125,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D795" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E795" t="n">
         <v>12</v>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D796" t="n">
         <v>17</v>
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D798" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E798" t="n">
         <v>21</v>
@@ -17209,10 +17209,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D799" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E799" t="n">
         <v>23</v>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D800" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E800" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="801">
@@ -17251,10 +17251,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D801" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E801" t="n">
         <v>22</v>
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D803" t="n">
         <v>18</v>
@@ -17314,7 +17314,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D804" t="n">
         <v>23</v>
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D805" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E805" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="806">
@@ -17356,10 +17356,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D806" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E806" t="n">
         <v>21</v>
@@ -17377,10 +17377,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D807" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -17398,13 +17398,13 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D808" t="n">
         <v>20</v>
       </c>
       <c r="E808" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="809">
@@ -17440,13 +17440,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D810" t="n">
         <v>23</v>
       </c>
       <c r="E810" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811">
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D811" t="n">
         <v>17</v>
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D812" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E812" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="813">
@@ -17524,13 +17524,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D814" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E814" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="815">
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D815" t="n">
         <v>12</v>
       </c>
       <c r="E815" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="816">
@@ -17566,13 +17566,13 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D816" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E816" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="817">
@@ -17608,13 +17608,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D818" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E818" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="819">
@@ -17629,10 +17629,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D819" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E819" t="n">
         <v>12</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D820" t="n">
         <v>23</v>
@@ -17734,7 +17734,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D824" t="n">
         <v>16</v>
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D825" t="n">
         <v>22</v>
       </c>
       <c r="E825" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="826">
@@ -17797,10 +17797,10 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D827" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E827" t="n">
         <v>15</v>
@@ -17839,7 +17839,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D829" t="n">
         <v>22</v>
@@ -17860,10 +17860,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D830" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E830" t="n">
         <v>10</v>
@@ -17881,13 +17881,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D831" t="n">
         <v>16</v>
       </c>
       <c r="E831" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="832">
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D832" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E832" t="n">
         <v>20</v>
@@ -17923,10 +17923,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D833" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E833" t="n">
         <v>17</v>
@@ -17965,10 +17965,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D835" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E835" t="n">
         <v>20</v>
@@ -17986,13 +17986,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D836" t="n">
         <v>15</v>
       </c>
       <c r="E836" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D840" t="n">
         <v>17</v>
@@ -18112,7 +18112,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D842" t="n">
         <v>19</v>
@@ -18133,13 +18133,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D843" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E843" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="844">
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D845" t="n">
         <v>31</v>
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D846" t="n">
         <v>14</v>
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D847" t="n">
         <v>13</v>
@@ -18238,7 +18238,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D848" t="n">
         <v>27</v>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D850" t="n">
         <v>15</v>
@@ -18343,13 +18343,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D853" t="n">
         <v>13</v>
       </c>
       <c r="E853" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="854">
@@ -18364,13 +18364,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D854" t="n">
         <v>23</v>
       </c>
       <c r="E854" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="855">
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D857" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E857" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="858">
@@ -18532,10 +18532,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D862" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E862" t="n">
         <v>24</v>
@@ -18553,10 +18553,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D863" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E863" t="n">
         <v>18</v>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D864" t="n">
         <v>21</v>
@@ -18637,7 +18637,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D867" t="n">
         <v>17</v>
@@ -18763,13 +18763,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D873" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E873" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="874">
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D874" t="n">
         <v>35</v>
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D875" t="n">
         <v>21</v>
       </c>
       <c r="E875" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="876">
@@ -18826,10 +18826,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D876" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E876" t="n">
         <v>23</v>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D878" t="n">
         <v>23</v>
@@ -18931,10 +18931,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D881" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E881" t="n">
         <v>20</v>
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D882" t="n">
         <v>18</v>
@@ -18973,7 +18973,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D883" t="n">
         <v>26</v>
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D884" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E884" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="885">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D885" t="n">
         <v>25</v>
       </c>
       <c r="E885" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="886">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D889" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E889" t="n">
         <v>28</v>
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D891" t="n">
         <v>22</v>
       </c>
       <c r="E891" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="892">
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D895" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E895" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="896">
@@ -19393,13 +19393,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D903" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E903" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="904">
@@ -19519,10 +19519,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D909" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E909" t="n">
         <v>21</v>
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D911" t="n">
         <v>13</v>
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D915" t="n">
         <v>24</v>
@@ -19687,10 +19687,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D917" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E917" t="n">
         <v>21</v>
@@ -19729,13 +19729,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D919" t="n">
         <v>25</v>
       </c>
       <c r="E919" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="920">
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D923" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E923" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="924">
@@ -19876,10 +19876,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D926" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E926" t="n">
         <v>21</v>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D928" t="n">
         <v>20</v>
@@ -19981,10 +19981,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D931" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E931" t="n">
         <v>28</v>
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D933" t="n">
         <v>17</v>
       </c>
       <c r="E933" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="934">
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D934" t="n">
+        <v>21</v>
+      </c>
+      <c r="E934" t="n">
         <v>20</v>
-      </c>
-      <c r="E934" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="935">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D935" t="n">
         <v>18</v>
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D936" t="n">
         <v>22</v>
       </c>
       <c r="E936" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="937">
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D943" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E943" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="944">
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D945" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E945" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="946">
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D947" t="n">
         <v>19</v>
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D949" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E949" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="950">
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D950" t="n">
         <v>20</v>
@@ -20401,10 +20401,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D951" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E951" t="n">
         <v>24</v>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D952" t="n">
         <v>20</v>
@@ -20464,7 +20464,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D954" t="n">
         <v>15</v>
@@ -20485,13 +20485,13 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D955" t="n">
         <v>14</v>
       </c>
       <c r="E955" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="956">
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D961" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E961" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="962">
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D963" t="n">
         <v>23</v>
       </c>
       <c r="E963" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="964">
@@ -20674,13 +20674,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D964" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E964" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="965">
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D966" t="n">
         <v>16</v>
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D970" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E970" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="971">
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D972" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E972" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="973">
@@ -20884,7 +20884,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D974" t="n">
         <v>24</v>
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D978" t="n">
         <v>18</v>
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D979" t="n">
         <v>19</v>
@@ -21010,13 +21010,13 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D980" t="n">
         <v>14</v>
       </c>
       <c r="E980" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="981">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D982" t="n">
         <v>11</v>
@@ -21157,10 +21157,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D987" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E987" t="n">
         <v>22</v>
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D998" t="n">
         <v>18</v>
       </c>
       <c r="E998" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="999">
@@ -21640,13 +21640,13 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1010" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1010" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1011">
@@ -21661,7 +21661,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1011" t="n">
         <v>18</v>
@@ -21682,13 +21682,13 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1012" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1012" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1013">
@@ -21766,10 +21766,10 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1016" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1016" t="n">
         <v>19</v>
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1018" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1018" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1025" t="n">
         <v>12</v>
@@ -21976,10 +21976,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1026" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1026" t="n">
         <v>21</v>
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1028" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1028" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,10 +22060,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1030" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1030" t="n">
         <v>19</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1033" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1033" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,10 +22165,10 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1035" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1035" t="n">
         <v>25</v>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1036" t="n">
         <v>13</v>
@@ -22249,13 +22249,13 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1039" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1039" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1040">
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1044" t="n">
         <v>19</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1048" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1048" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,10 +22480,10 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1050" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1050" t="n">
         <v>20</v>
@@ -22564,10 +22564,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1054" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1054" t="n">
         <v>19</v>
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1062" t="n">
         <v>15</v>
@@ -22774,13 +22774,13 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1064" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1064" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1065">
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1076" t="n">
         <v>16</v>
       </c>
       <c r="E1076" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,7 +23110,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1080" t="n">
         <v>26</v>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1084" t="n">
         <v>15</v>
@@ -23215,13 +23215,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1085" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1085" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1086">
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1088" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1088" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,10 +23299,10 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1089" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1089" t="n">
         <v>21</v>
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1090" t="n">
         <v>19</v>
       </c>
       <c r="E1090" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1091">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1093" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1093" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1097" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1097" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1098" t="n">
         <v>17</v>
       </c>
       <c r="E1098" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1101" t="n">
         <v>22</v>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1102" t="n">
         <v>23</v>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1106" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1107" t="n">
         <v>19</v>
@@ -23719,7 +23719,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1109" t="n">
         <v>17</v>
@@ -23740,13 +23740,13 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1110" t="n">
         <v>21</v>
       </c>
       <c r="E1110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1111">
@@ -23761,7 +23761,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1111" t="n">
         <v>24</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1115" t="n">
         <v>22</v>
       </c>
       <c r="E1115" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,13 +23929,13 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1120">
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1121" t="n">
         <v>17</v>
       </c>
       <c r="E1121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,7 +24013,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1123" t="n">
         <v>16</v>
@@ -24034,10 +24034,10 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1124" t="n">
         <v>21</v>
@@ -24160,13 +24160,13 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1130" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1131">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1135" t="n">
         <v>25</v>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1140" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1140" t="n">
         <v>15</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1145" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,10 +24496,10 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1146" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1146" t="n">
         <v>18</v>
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,13 +25021,13 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1171" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1172">
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1172" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1172" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,7 +25126,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1176" t="n">
         <v>27</v>
@@ -25147,13 +25147,13 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1177" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1177" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1178">
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,10 +25336,10 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1186" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1186" t="n">
         <v>21</v>
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1194" t="n">
         <v>11</v>
       </c>
       <c r="E1194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1197" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1197" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,13 +25609,13 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1199" t="n">
         <v>23</v>
       </c>
       <c r="E1199" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1200">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1201" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1201" t="n">
         <v>26</v>
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1209" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1209" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1213" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1213" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1214" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1216" t="n">
         <v>18</v>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1222" t="n">
         <v>11</v>
@@ -26176,7 +26176,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1226" t="n">
         <v>24</v>
@@ -26323,13 +26323,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1233" t="n">
         <v>21</v>
       </c>
       <c r="E1233" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1234">
@@ -26344,10 +26344,10 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1234" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1234" t="n">
         <v>17</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1235" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1235" t="n">
         <v>25</v>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1236" t="n">
         <v>25</v>
@@ -26575,13 +26575,13 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1245" t="n">
         <v>11</v>
       </c>
       <c r="E1245" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1246">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1246" t="n">
         <v>19</v>
@@ -26617,7 +26617,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1247" t="n">
         <v>21</v>
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1249" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1249" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1251" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1251" t="n">
         <v>21</v>
-      </c>
-      <c r="E1251" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1255" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1255" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1256" t="n">
         <v>21</v>
       </c>
       <c r="E1256" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,7 +26848,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1258" t="n">
         <v>23</v>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1259" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1259" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1260">
@@ -26890,10 +26890,10 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1260" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1260" t="n">
         <v>14</v>
@@ -26932,13 +26932,13 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1262" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1262" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1263">
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1264" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1264" t="n">
         <v>22</v>
-      </c>
-      <c r="E1264" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,10 +27016,10 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1266" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1266" t="n">
         <v>20</v>
@@ -27079,7 +27079,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1269" t="n">
         <v>20</v>
@@ -27100,13 +27100,13 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1270" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1270" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1271">
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
       </c>
       <c r="E1276" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1277">
@@ -27289,10 +27289,10 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1279" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1279" t="n">
         <v>24</v>
@@ -27310,13 +27310,13 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1280" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1280" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1281">
@@ -27646,13 +27646,13 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1296" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1296" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1297">
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1299" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1299" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,10 +27730,10 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1300" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1300" t="n">
         <v>25</v>
@@ -27751,10 +27751,10 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1301" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1301" t="n">
         <v>21</v>
@@ -27793,13 +27793,13 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1303" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1303" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1304">
@@ -27814,13 +27814,13 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1304" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1304" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1305">
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1305" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1305" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,7 +27856,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1306" t="n">
         <v>21</v>
@@ -27919,10 +27919,10 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1309" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1309" t="n">
         <v>23</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1314" t="n">
         <v>15</v>
       </c>
       <c r="E1314" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,10 +28108,10 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1318" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1318" t="n">
         <v>17</v>
@@ -28465,7 +28465,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1335" t="n">
         <v>26</v>
@@ -28507,10 +28507,10 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1337" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1337" t="n">
         <v>16</v>
@@ -28528,10 +28528,10 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1338" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1338" t="n">
         <v>26</v>
@@ -28696,13 +28696,13 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1346" t="n">
         <v>17</v>
       </c>
       <c r="E1346" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1347">
@@ -28717,13 +28717,13 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1347" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1347" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1348">
@@ -28738,13 +28738,13 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1348" t="n">
         <v>16</v>
       </c>
       <c r="E1348" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1349">
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1350" t="n">
         <v>18</v>
       </c>
       <c r="E1350" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1352" t="n">
         <v>24</v>
       </c>
       <c r="E1352" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1354" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1354" t="n">
         <v>16</v>
@@ -28948,7 +28948,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1358" t="n">
         <v>15</v>
@@ -29032,10 +29032,10 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1362" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1362" t="n">
         <v>19</v>
@@ -29053,10 +29053,10 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1363" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1363" t="n">
         <v>22</v>
@@ -29074,7 +29074,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1364" t="n">
         <v>31</v>
@@ -29116,10 +29116,10 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1366" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1366" t="n">
         <v>24</v>
@@ -29137,10 +29137,10 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1367" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1367" t="n">
         <v>17</v>
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1370" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1370" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1380" t="n">
         <v>17</v>
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1384" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1384" t="n">
         <v>16</v>
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1385" t="n">
         <v>12</v>
       </c>
       <c r="E1385" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1386" t="n">
         <v>14</v>
       </c>
       <c r="E1386" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1387" t="n">
         <v>10</v>
       </c>
       <c r="E1387" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1391" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1391" t="n">
         <v>26</v>
-      </c>
-      <c r="E1391" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,7 +29704,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1394" t="n">
         <v>18</v>
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1397" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1397" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,13 +29809,13 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1399" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1399" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1400">
@@ -29851,10 +29851,10 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1401" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1401" t="n">
         <v>28</v>
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1402" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1402" t="n">
         <v>21</v>
-      </c>
-      <c r="E1402" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,13 +29956,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1406" t="n">
         <v>24</v>
       </c>
       <c r="E1406" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1407">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1414" t="n">
         <v>21</v>
@@ -30145,7 +30145,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1415" t="n">
         <v>24</v>
@@ -30250,13 +30250,13 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1420" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1420" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1421">
@@ -30355,7 +30355,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1425" t="n">
         <v>15</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,10 +30439,10 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1429" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1429" t="n">
         <v>16</v>
@@ -30523,10 +30523,10 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1433" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1433" t="n">
         <v>23</v>
@@ -30649,13 +30649,13 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1439" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1439" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1440">
@@ -30964,10 +30964,10 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1454" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1454" t="n">
         <v>26</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
         <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
         <v>31</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
         <v>13</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v>18</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
         <v>25</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
         <v>27</v>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
         <v>18</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
         <v>21</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
         <v>23</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
         <v>25</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
         <v>18</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
         <v>14</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
         <v>17</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
         <v>34</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
         <v>22</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
         <v>22</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
         <v>23</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
         <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E71" t="n">
         <v>11</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
         <v>23</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
         <v>21</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
         <v>23</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
         <v>21</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
         <v>20</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D88" t="n">
         <v>21</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D89" t="n">
         <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
         <v>15</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D100" t="n">
         <v>22</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D101" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E101" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109" t="n">
         <v>22</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E110" t="n">
         <v>18</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D112" t="n">
         <v>26</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D113" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D114" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E114" t="n">
         <v>19</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D117" t="n">
         <v>20</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D119" t="n">
         <v>19</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D123" t="n">
         <v>22</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D125" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D128" t="n">
         <v>19</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D129" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E129" t="n">
         <v>22</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D130" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E130" t="n">
         <v>22</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E134" t="n">
         <v>19</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D135" t="n">
         <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D137" t="n">
         <v>20</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D138" t="n">
         <v>29</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D139" t="n">
         <v>21</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D141" t="n">
         <v>24</v>
       </c>
       <c r="E141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D142" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E142" t="n">
         <v>30</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D145" t="n">
         <v>24</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
         <v>29</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E148" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151" t="n">
         <v>27</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D156" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156" t="n">
         <v>25</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E157" t="n">
         <v>22</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158" t="n">
         <v>23</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D159" t="n">
         <v>18</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D160" t="n">
         <v>19</v>
       </c>
       <c r="E160" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D162" t="n">
         <v>23</v>
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" t="n">
         <v>19</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D167" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E167" t="n">
         <v>27</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D168" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D169" t="n">
         <v>20</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D170" t="n">
         <v>19</v>
       </c>
       <c r="E170" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D171" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E171" t="n">
         <v>15</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E175" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D176" t="n">
         <v>20</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D180" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D186" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D187" t="n">
         <v>15</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E189" t="n">
         <v>22</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D193" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D194" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D195" t="n">
         <v>19</v>
       </c>
       <c r="E195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D196" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196" t="n">
         <v>25</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D199" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E199" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D202" t="n">
         <v>25</v>
       </c>
       <c r="E202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="n">
         <v>17</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D204" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E204" t="n">
         <v>18</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D205" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E205" t="n">
         <v>20</v>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D206" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E206" t="n">
         <v>19</v>
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D207" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E207" t="n">
         <v>21</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D209" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E209" t="n">
         <v>18</v>
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D211" t="n">
         <v>18</v>
       </c>
       <c r="E211" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D213" t="n">
         <v>20</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D215" t="n">
         <v>18</v>
       </c>
       <c r="E215" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D216" t="n">
         <v>18</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D217" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E217" t="n">
         <v>26</v>
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D218" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E218" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D222" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E222" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D223" t="n">
         <v>23</v>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D224" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E224" t="n">
         <v>27</v>
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D225" t="n">
         <v>19</v>
       </c>
       <c r="E225" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D226" t="n">
         <v>10</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D227" t="n">
         <v>20</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D228" t="n">
         <v>19</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D230" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E230" t="n">
         <v>22</v>
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D231" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E231" t="n">
         <v>23</v>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D232" t="n">
         <v>24</v>
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E233" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D234" t="n">
         <v>18</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D235" t="n">
         <v>26</v>
       </c>
       <c r="E235" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D238" t="n">
         <v>20</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D241" t="n">
         <v>22</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D242" t="n">
         <v>18</v>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D243" t="n">
         <v>25</v>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D244" t="n">
         <v>17</v>
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D245" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E245" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D246" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E246" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D247" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E247" t="n">
         <v>25</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D248" t="n">
         <v>19</v>
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D249" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E249" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D250" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E250" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D251" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E251" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D252" t="n">
         <v>20</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D253" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E253" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254">
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D254" t="n">
         <v>29</v>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D255" t="n">
         <v>20</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D257" t="n">
         <v>21</v>
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D260" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E260" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D262" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E262" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D263" t="n">
         <v>20</v>
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D264" t="n">
         <v>23</v>
       </c>
       <c r="E264" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D265" t="n">
         <v>18</v>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D267" t="n">
         <v>29</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D270" t="n">
         <v>19</v>
       </c>
       <c r="E270" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D271" t="n">
         <v>21</v>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D273" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E273" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D276" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E276" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D278" t="n">
         <v>21</v>
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D280" t="n">
         <v>24</v>
       </c>
       <c r="E280" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281">
@@ -6373,13 +6373,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D283" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E283" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D284" t="n">
         <v>20</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D285" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E285" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286">
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D286" t="n">
+        <v>22</v>
+      </c>
+      <c r="E286" t="n">
         <v>21</v>
-      </c>
-      <c r="E286" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="287">
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D287" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E287" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288">
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D288" t="n">
         <v>26</v>
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
       </c>
       <c r="E289" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D292" t="n">
         <v>28</v>
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D294" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E294" t="n">
         <v>22</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D295" t="n">
         <v>26</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D297" t="n">
         <v>19</v>
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D298" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E298" t="n">
         <v>23</v>
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D299" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E299" t="n">
         <v>30</v>
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D301" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E301" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D302" t="n">
         <v>15</v>
@@ -6835,10 +6835,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D305" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E305" t="n">
         <v>24</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D307" t="n">
         <v>19</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D308" t="n">
         <v>17</v>
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D311" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E311" t="n">
         <v>17</v>
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D314" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E314" t="n">
         <v>25</v>
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D316" t="n">
         <v>29</v>
       </c>
       <c r="E316" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317">
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D317" t="n">
         <v>19</v>
       </c>
       <c r="E317" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D323" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E323" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324">
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D324" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E324" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="325">
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D325" t="n">
         <v>22</v>
       </c>
       <c r="E325" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326">
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D327" t="n">
         <v>21</v>
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D331" t="n">
         <v>26</v>
       </c>
       <c r="E331" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="332">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D332" t="n">
         <v>20</v>
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D336" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E336" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D337" t="n">
         <v>20</v>
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D338" t="n">
         <v>24</v>
       </c>
       <c r="E338" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339">
@@ -7549,13 +7549,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D339" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E339" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340">
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D341" t="n">
         <v>23</v>
       </c>
       <c r="E341" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D344" t="n">
         <v>16</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D346" t="n">
         <v>24</v>
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D347" t="n">
+        <v>23</v>
+      </c>
+      <c r="E347" t="n">
         <v>22</v>
-      </c>
-      <c r="E347" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="348">
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D348" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E348" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349">
@@ -7759,10 +7759,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D349" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E349" t="n">
         <v>23</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D352" t="n">
+        <v>24</v>
+      </c>
+      <c r="E352" t="n">
         <v>23</v>
-      </c>
-      <c r="E352" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="353">
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D355" t="n">
         <v>25</v>
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D358" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E358" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359">
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D359" t="n">
         <v>22</v>
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D362" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E362" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363">
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D363" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E363" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="364">
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D366" t="n">
         <v>18</v>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D367" t="n">
         <v>21</v>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D368" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E368" t="n">
         <v>22</v>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D372" t="n">
         <v>24</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D373" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E373" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="374">
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D374" t="n">
         <v>17</v>
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D375" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E375" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="376">
@@ -8347,10 +8347,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D377" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E377" t="n">
         <v>22</v>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D378" t="n">
         <v>17</v>
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D379" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E379" t="n">
         <v>26</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D381" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E381" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382">
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D382" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E382" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383">
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D383" t="n">
         <v>24</v>
       </c>
       <c r="E383" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D384" t="n">
         <v>19</v>
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D385" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E385" t="n">
         <v>17</v>
@@ -8557,13 +8557,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D387" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E387" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388">
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D388" t="n">
         <v>21</v>
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D389" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E389" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D390" t="n">
         <v>19</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D391" t="n">
         <v>19</v>
       </c>
       <c r="E391" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D393" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E393" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394">
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D395" t="n">
         <v>22</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D396" t="n">
         <v>26</v>
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D399" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E399" t="n">
         <v>27</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D400" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E400" t="n">
         <v>27</v>
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D401" t="n">
         <v>23</v>
       </c>
       <c r="E401" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D407" t="n">
         <v>19</v>
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D410" t="n">
         <v>20</v>
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D411" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E411" t="n">
         <v>29</v>
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D412" t="n">
         <v>23</v>
       </c>
       <c r="E412" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D413" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E413" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D415" t="n">
         <v>1</v>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D416" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E416" t="n">
         <v>20</v>
@@ -9208,10 +9208,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D418" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E418" t="n">
         <v>20</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D425" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E425" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="426">
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D427" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E427" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428">
@@ -9439,7 +9439,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D429" t="n">
         <v>28</v>
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D431" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E431" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432">
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D432" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E432" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="433">
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D434" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E434" t="n">
         <v>23</v>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D436" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D437" t="n">
         <v>20</v>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D438" t="n">
         <v>22</v>
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D444" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E444" t="n">
         <v>26</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D446" t="n">
         <v>23</v>
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D448" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E448" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D450" t="n">
         <v>20</v>
@@ -9901,7 +9901,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D451" t="n">
         <v>25</v>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D458" t="n">
         <v>23</v>
@@ -10153,10 +10153,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D463" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E463" t="n">
         <v>27</v>
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D464" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E464" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D465" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E465" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="466">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D466" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E466" t="n">
         <v>19</v>
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D470" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E470" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D472" t="n">
         <v>22</v>
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D473" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E473" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474">
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D475" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E475" t="n">
         <v>20</v>
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D482" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E482" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="483">
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D483" t="n">
         <v>29</v>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D484" t="n">
         <v>27</v>
@@ -10615,13 +10615,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D485" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E485" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="486">
@@ -10636,13 +10636,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D486" t="n">
         <v>16</v>
       </c>
       <c r="E486" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487">
@@ -10678,13 +10678,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D488" t="n">
         <v>24</v>
       </c>
       <c r="E488" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="489">
@@ -10741,7 +10741,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D491" t="n">
         <v>22</v>
@@ -10762,13 +10762,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D492" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E492" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="493">
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D493" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E493" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="494">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D494" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E494" t="n">
         <v>17</v>
@@ -10867,10 +10867,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D497" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E497" t="n">
         <v>16</v>
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D498" t="n">
         <v>13</v>
       </c>
       <c r="E498" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499">
@@ -10909,7 +10909,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D499" t="n">
         <v>24</v>
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D500" t="n">
         <v>15</v>
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D501" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E501" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="502">
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D504" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E504" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="505">
@@ -11056,10 +11056,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D506" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E506" t="n">
         <v>16</v>
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D507" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E507" t="n">
         <v>16</v>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D508" t="n">
         <v>7</v>
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D509" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E509" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="510">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D510" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E510" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="511">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D511" t="n">
         <v>22</v>
@@ -11182,13 +11182,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D512" t="n">
         <v>21</v>
       </c>
       <c r="E512" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513">
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D513" t="n">
         <v>18</v>
       </c>
       <c r="E513" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="514">
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D514" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E514" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="515">
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D515" t="n">
         <v>23</v>
       </c>
       <c r="E515" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="516">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D516" t="n">
         <v>18</v>
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D517" t="n">
         <v>20</v>
       </c>
       <c r="E517" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="518">
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D518" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E518" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="519">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D520" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E520" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="521">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D521" t="n">
         <v>24</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D524" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E524" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="525">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D527" t="n">
         <v>19</v>
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D528" t="n">
         <v>22</v>
       </c>
       <c r="E528" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="529">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D529" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E529" t="n">
         <v>17</v>
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D530" t="n">
         <v>21</v>
       </c>
       <c r="E530" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="531">
@@ -11581,13 +11581,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D531" t="n">
         <v>21</v>
       </c>
       <c r="E531" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="532">
@@ -11623,13 +11623,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D533" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E533" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="534">
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D535" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E535" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="536">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D536" t="n">
         <v>9</v>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D539" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E539" t="n">
         <v>25</v>
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D540" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E540" t="n">
         <v>25</v>
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D541" t="n">
         <v>27</v>
       </c>
       <c r="E541" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="542">
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D543" t="n">
         <v>14</v>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D544" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E544" t="n">
         <v>17</v>
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D545" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E545" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="546">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D546" t="n">
         <v>21</v>
@@ -11917,7 +11917,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D547" t="n">
         <v>26</v>
@@ -11938,13 +11938,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D548" t="n">
         <v>20</v>
       </c>
       <c r="E548" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="549">
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D550" t="n">
         <v>24</v>
@@ -12022,10 +12022,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D552" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E552" t="n">
         <v>19</v>
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D553" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E553" t="n">
         <v>15</v>
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D555" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E555" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556">
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D556" t="n">
         <v>22</v>
@@ -12127,10 +12127,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D557" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E557" t="n">
         <v>28</v>
@@ -12148,7 +12148,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D558" t="n">
         <v>24</v>
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D560" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E560" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="561">
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
       </c>
       <c r="E562" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="563">
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D563" t="n">
         <v>27</v>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D564" t="n">
         <v>23</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D565" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E565" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="566">
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D566" t="n">
         <v>15</v>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D568" t="n">
         <v>15</v>
@@ -12400,10 +12400,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D570" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E570" t="n">
         <v>24</v>
@@ -12421,10 +12421,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D571" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E571" t="n">
         <v>27</v>
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D572" t="n">
         <v>17</v>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D573" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E573" t="n">
         <v>21</v>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D576" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E576" t="n">
         <v>20</v>
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D580" t="n">
         <v>24</v>
       </c>
       <c r="E580" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581">
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D581" t="n">
         <v>31</v>
       </c>
       <c r="E581" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="582">
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D584" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E584" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D585" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E585" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="586">
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D586" t="n">
         <v>24</v>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D588" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E588" t="n">
         <v>24</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D589" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E589" t="n">
         <v>19</v>
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D590" t="n">
         <v>26</v>
@@ -12841,10 +12841,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D591" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E591" t="n">
         <v>20</v>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D592" t="n">
         <v>19</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D593" t="n">
         <v>23</v>
       </c>
       <c r="E593" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="594">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D597" t="n">
         <v>17</v>
@@ -12988,13 +12988,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D598" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E598" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="599">
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D599" t="n">
         <v>19</v>
       </c>
       <c r="E599" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="600">
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D601" t="n">
         <v>19</v>
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D602" t="n">
         <v>22</v>
@@ -13093,13 +13093,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D603" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E603" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="604">
@@ -13114,13 +13114,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D604" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E604" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="605">
@@ -13135,10 +13135,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D605" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E605" t="n">
         <v>24</v>
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D606" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E606" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="607">
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D607" t="n">
         <v>14</v>
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D608" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E608" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="609">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D609" t="n">
         <v>16</v>
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D611" t="n">
         <v>22</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D612" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E612" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="613">
@@ -13303,13 +13303,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D613" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E613" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="614">
@@ -13387,10 +13387,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D617" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E617" t="n">
         <v>22</v>
@@ -13408,10 +13408,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D618" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E618" t="n">
         <v>28</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D622" t="n">
         <v>28</v>
@@ -13513,13 +13513,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D623" t="n">
+        <v>17</v>
+      </c>
+      <c r="E623" t="n">
         <v>16</v>
-      </c>
-      <c r="E623" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="624">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D625" t="n">
         <v>24</v>
@@ -13618,10 +13618,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D628" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E628" t="n">
         <v>28</v>
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D629" t="n">
         <v>20</v>
       </c>
       <c r="E629" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D631" t="n">
         <v>19</v>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D632" t="n">
         <v>20</v>
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D633" t="n">
         <v>19</v>
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D635" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E635" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="636">
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D638" t="n">
         <v>18</v>
       </c>
       <c r="E638" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="639">
@@ -13849,13 +13849,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D639" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E639" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="640">
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D640" t="n">
         <v>17</v>
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D641" t="n">
         <v>22</v>
       </c>
       <c r="E641" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="642">
@@ -13933,13 +13933,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D643" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E643" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="644">
@@ -13954,7 +13954,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D644" t="n">
         <v>22</v>
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D645" t="n">
         <v>21</v>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D646" t="n">
         <v>14</v>
@@ -14017,10 +14017,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D647" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E647" t="n">
         <v>16</v>
@@ -14038,13 +14038,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D648" t="n">
+        <v>18</v>
+      </c>
+      <c r="E648" t="n">
         <v>17</v>
-      </c>
-      <c r="E648" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="649">
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D652" t="n">
         <v>18</v>
       </c>
       <c r="E652" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="653">
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D653" t="n">
         <v>20</v>
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D656" t="n">
         <v>15</v>
@@ -14248,10 +14248,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D658" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E658" t="n">
         <v>25</v>
@@ -14269,13 +14269,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D659" t="n">
         <v>17</v>
       </c>
       <c r="E659" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="660">
@@ -14353,13 +14353,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D663" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E663" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="664">
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D664" t="n">
         <v>17</v>
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D665" t="n">
         <v>22</v>
       </c>
       <c r="E665" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D666" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E666" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="667">
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D667" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E667" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D668" t="n">
+        <v>22</v>
+      </c>
+      <c r="E668" t="n">
         <v>21</v>
-      </c>
-      <c r="E668" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="669">
@@ -14479,13 +14479,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D669" t="n">
         <v>21</v>
       </c>
       <c r="E669" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="670">
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D671" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E671" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="672">
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D673" t="n">
         <v>18</v>
       </c>
       <c r="E673" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D674" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E674" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="675">
@@ -14647,13 +14647,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D677" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E677" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="678">
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D678" t="n">
         <v>29</v>
       </c>
       <c r="E678" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="679">
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D680" t="n">
         <v>20</v>
@@ -14731,10 +14731,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D681" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E681" t="n">
         <v>22</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D683" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E683" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="684">
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D688" t="n">
         <v>21</v>
       </c>
       <c r="E688" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="689">
@@ -14899,10 +14899,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D689" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E689" t="n">
         <v>20</v>
@@ -14962,13 +14962,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D692" t="n">
         <v>21</v>
       </c>
       <c r="E692" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D693" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E693" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="694">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D695" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E695" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="696">
@@ -15046,13 +15046,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D696" t="n">
         <v>16</v>
       </c>
       <c r="E696" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="697">
@@ -15067,13 +15067,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D697" t="n">
         <v>26</v>
       </c>
       <c r="E697" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="698">
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D699" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E699" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="700">
@@ -15130,13 +15130,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D700" t="n">
+        <v>23</v>
+      </c>
+      <c r="E700" t="n">
         <v>22</v>
-      </c>
-      <c r="E700" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="701">
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D701" t="n">
         <v>18</v>
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D702" t="n">
         <v>25</v>
@@ -15193,10 +15193,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D703" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E703" t="n">
         <v>26</v>
@@ -15235,10 +15235,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D705" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E705" t="n">
         <v>19</v>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D706" t="n">
         <v>23</v>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D709" t="n">
         <v>12</v>
@@ -15340,10 +15340,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D710" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E710" t="n">
         <v>24</v>
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D711" t="n">
         <v>21</v>
@@ -15424,13 +15424,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D714" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E714" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="715">
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D717" t="n">
         <v>24</v>
@@ -15508,13 +15508,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D718" t="n">
         <v>17</v>
       </c>
       <c r="E718" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -15550,13 +15550,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D720" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E720" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="721">
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D722" t="n">
         <v>19</v>
       </c>
       <c r="E722" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="723">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D723" t="n">
         <v>20</v>
@@ -15634,13 +15634,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D724" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E724" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="725">
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D725" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E725" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D728" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E728" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="729">
@@ -15739,13 +15739,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D729" t="n">
         <v>18</v>
       </c>
       <c r="E729" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="730">
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D730" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E730" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="731">
@@ -15781,7 +15781,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D731" t="n">
         <v>24</v>
@@ -15802,7 +15802,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D732" t="n">
         <v>21</v>
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D735" t="n">
         <v>25</v>
       </c>
       <c r="E735" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="736">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D737" t="n">
         <v>22</v>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D739" t="n">
         <v>19</v>
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D740" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E740" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="741">
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D741" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E741" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="742">
@@ -16033,10 +16033,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D743" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E743" t="n">
         <v>25</v>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D745" t="n">
         <v>27</v>
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D747" t="n">
         <v>12</v>
       </c>
       <c r="E747" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748">
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D749" t="n">
+        <v>21</v>
+      </c>
+      <c r="E749" t="n">
         <v>20</v>
-      </c>
-      <c r="E749" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="750">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D752" t="n">
         <v>22</v>
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D753" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E753" t="n">
         <v>21</v>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D754" t="n">
         <v>17</v>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D755" t="n">
         <v>26</v>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D756" t="n">
         <v>29</v>
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D757" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E757" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -16348,10 +16348,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D758" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E758" t="n">
         <v>25</v>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D760" t="n">
         <v>23</v>
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D761" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E761" t="n">
         <v>20</v>
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D763" t="n">
         <v>22</v>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D766" t="n">
         <v>19</v>
@@ -16537,7 +16537,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D767" t="n">
         <v>16</v>
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D768" t="n">
         <v>9</v>
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D770" t="n">
         <v>19</v>
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D771" t="n">
         <v>21</v>
@@ -16642,13 +16642,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D772" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E772" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="773">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D773" t="n">
         <v>21</v>
@@ -16684,10 +16684,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D774" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E774" t="n">
         <v>14</v>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D776" t="n">
         <v>25</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D777" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E777" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="778">
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D778" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E778" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="779">
@@ -16852,10 +16852,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D782" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E782" t="n">
         <v>23</v>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D783" t="n">
         <v>25</v>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D784" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E784" t="n">
         <v>20</v>
@@ -16936,10 +16936,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D786" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E786" t="n">
         <v>23</v>
@@ -16957,10 +16957,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D787" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E787" t="n">
         <v>23</v>
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D789" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E789" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="790">
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D790" t="n">
         <v>18</v>
       </c>
       <c r="E790" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="791">
@@ -17083,13 +17083,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D793" t="n">
+        <v>21</v>
+      </c>
+      <c r="E793" t="n">
         <v>20</v>
-      </c>
-      <c r="E793" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="794">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D795" t="n">
         <v>20</v>
@@ -17146,10 +17146,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D796" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E796" t="n">
         <v>14</v>
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D798" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E798" t="n">
         <v>21</v>
@@ -17209,13 +17209,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D799" t="n">
         <v>19</v>
       </c>
       <c r="E799" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="800">
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D800" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E800" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="801">
@@ -17251,10 +17251,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D801" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E801" t="n">
         <v>22</v>
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D803" t="n">
         <v>18</v>
@@ -17314,13 +17314,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D804" t="n">
         <v>23</v>
       </c>
       <c r="E804" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="805">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D805" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E805" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="806">
@@ -17356,13 +17356,13 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D806" t="n">
         <v>24</v>
       </c>
       <c r="E806" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="807">
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D811" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E811" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="812">
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D812" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E812" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="813">
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D814" t="n">
         <v>31</v>
@@ -17545,7 +17545,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D815" t="n">
         <v>12</v>
@@ -17608,7 +17608,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D818" t="n">
         <v>19</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D820" t="n">
         <v>23</v>
@@ -17734,13 +17734,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D824" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E824" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="825">
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D825" t="n">
         <v>22</v>
       </c>
       <c r="E825" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="826">
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D829" t="n">
         <v>22</v>
       </c>
       <c r="E829" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="830">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D840" t="n">
         <v>17</v>
@@ -18112,7 +18112,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D842" t="n">
         <v>19</v>
@@ -18133,7 +18133,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D843" t="n">
         <v>23</v>
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D845" t="n">
         <v>31</v>
@@ -18217,10 +18217,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D847" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E847" t="n">
         <v>14</v>
@@ -18238,7 +18238,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D848" t="n">
         <v>27</v>
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D857" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E857" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="858">
@@ -18532,13 +18532,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D862" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E862" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="863">
@@ -18553,10 +18553,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D863" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E863" t="n">
         <v>18</v>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D864" t="n">
         <v>21</v>
@@ -18637,10 +18637,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D867" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D873" t="n">
         <v>23</v>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D874" t="n">
         <v>35</v>
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D875" t="n">
         <v>21</v>
       </c>
       <c r="E875" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="876">
@@ -18826,10 +18826,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D876" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E876" t="n">
         <v>23</v>
@@ -18868,10 +18868,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D878" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E878" t="n">
         <v>20</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D881" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E881" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="882">
@@ -18952,13 +18952,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D882" t="n">
         <v>18</v>
       </c>
       <c r="E882" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="883">
@@ -18973,7 +18973,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D883" t="n">
         <v>26</v>
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D884" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E884" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="885">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D885" t="n">
         <v>25</v>
       </c>
       <c r="E885" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="886">
@@ -19099,13 +19099,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D889" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E889" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="890">
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D891" t="n">
         <v>22</v>
       </c>
       <c r="E891" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="892">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D895" t="n">
         <v>22</v>
@@ -19393,13 +19393,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D903" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E903" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="904">
@@ -19519,13 +19519,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D909" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E909" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="910">
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D911" t="n">
         <v>13</v>
@@ -19645,13 +19645,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D915" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E915" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="916">
@@ -19687,13 +19687,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D917" t="n">
         <v>16</v>
       </c>
       <c r="E917" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="918">
@@ -19729,7 +19729,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D919" t="n">
         <v>25</v>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D923" t="n">
         <v>22</v>
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D926" t="n">
         <v>17</v>
       </c>
       <c r="E926" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="927">
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D928" t="n">
         <v>20</v>
       </c>
       <c r="E928" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="929">
@@ -19981,7 +19981,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D931" t="n">
         <v>26</v>
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D933" t="n">
         <v>17</v>
       </c>
       <c r="E933" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="934">
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D934" t="n">
+        <v>22</v>
+      </c>
+      <c r="E934" t="n">
         <v>21</v>
-      </c>
-      <c r="E934" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="935">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D935" t="n">
         <v>18</v>
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D936" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E936" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="937">
@@ -20233,7 +20233,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D943" t="n">
         <v>20</v>
@@ -20275,7 +20275,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D945" t="n">
         <v>26</v>
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D947" t="n">
         <v>19</v>
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D949" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E949" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="950">
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D950" t="n">
         <v>20</v>
@@ -20401,7 +20401,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D951" t="n">
         <v>25</v>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D952" t="n">
         <v>20</v>
@@ -20464,13 +20464,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D954" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E954" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="955">
@@ -20485,13 +20485,13 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D955" t="n">
         <v>14</v>
       </c>
       <c r="E955" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="956">
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D961" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E961" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="962">
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D963" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E963" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="964">
@@ -20674,10 +20674,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D964" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E964" t="n">
         <v>27</v>
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D966" t="n">
         <v>16</v>
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D970" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E970" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="971">
@@ -20842,10 +20842,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D972" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E972" t="n">
         <v>16</v>
@@ -20884,10 +20884,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D974" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E974" t="n">
         <v>18</v>
@@ -20968,13 +20968,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D978" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E978" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="979">
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D979" t="n">
         <v>19</v>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D980" t="n">
         <v>14</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D982" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E982" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="983">
@@ -21157,7 +21157,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D987" t="n">
         <v>19</v>
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D998" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E998" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="999">
@@ -21640,13 +21640,13 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1010" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1010" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1011">
@@ -21661,13 +21661,13 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1011" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1011" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1012">
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1012" t="n">
         <v>21</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1018" t="n">
         <v>22</v>
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1025" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1025" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,10 +21976,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1026" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1026" t="n">
         <v>21</v>
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1028" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1028" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,10 +22060,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1030" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1030" t="n">
         <v>19</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1033" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1033" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1035" t="n">
         <v>25</v>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1036" t="n">
         <v>13</v>
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1039" t="n">
         <v>16</v>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1044" t="n">
         <v>19</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1048" t="n">
         <v>15</v>
@@ -22480,10 +22480,10 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1050" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1050" t="n">
         <v>20</v>
@@ -22564,10 +22564,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1054" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1054" t="n">
         <v>19</v>
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1062" t="n">
         <v>15</v>
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1064" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1064" t="n">
         <v>23</v>
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1076" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1076" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,7 +23110,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1080" t="n">
         <v>26</v>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1084" t="n">
         <v>15</v>
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1085" t="n">
         <v>22</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1088" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1088" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1089" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1089" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1090" t="n">
         <v>19</v>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1093" t="n">
         <v>22</v>
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1097" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1097" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,10 +23488,10 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1098" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1098" t="n">
         <v>18</v>
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,13 +23551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1101" t="n">
         <v>22</v>
       </c>
       <c r="E1101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1102">
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,7 +23656,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1106" t="n">
         <v>21</v>
@@ -23677,10 +23677,10 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1107" t="n">
         <v>25</v>
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,13 +23740,13 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1110" t="n">
         <v>21</v>
       </c>
       <c r="E1110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1111">
@@ -23761,10 +23761,10 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1111" t="n">
         <v>27</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1115" t="n">
         <v>22</v>
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1119" t="n">
         <v>21</v>
@@ -23971,10 +23971,10 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1121" t="n">
         <v>17</v>
@@ -24013,10 +24013,10 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1123" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1123" t="n">
         <v>25</v>
@@ -24034,10 +24034,10 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1124" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1124" t="n">
         <v>21</v>
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1130" t="n">
         <v>16</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1135" t="n">
         <v>25</v>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1140" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1140" t="n">
         <v>16</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1145" t="n">
         <v>19</v>
       </c>
       <c r="E1145" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,13 +24496,13 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1146" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1147">
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1150" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,7 +24601,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1151" t="n">
         <v>21</v>
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1171" t="n">
         <v>22</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1172" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1172" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,7 +25126,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1176" t="n">
         <v>27</v>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1177" t="n">
         <v>22</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1180" t="n">
         <v>22</v>
       </c>
       <c r="E1180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1186" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1186" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1194" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1197" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,13 +25609,13 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1199" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1199" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1200">
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1201" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1201" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1209" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1209" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1213" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1213" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1214" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1216" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1216" t="n">
         <v>18</v>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1222" t="n">
         <v>11</v>
@@ -26176,7 +26176,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1226" t="n">
         <v>24</v>
@@ -26323,10 +26323,10 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1233" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1233" t="n">
         <v>20</v>
@@ -26344,13 +26344,13 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1234" t="n">
         <v>22</v>
       </c>
       <c r="E1234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1235">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1235" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1235" t="n">
         <v>26</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1236" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1236" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,13 +26575,13 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1245" t="n">
         <v>11</v>
       </c>
       <c r="E1245" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1246">
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1246" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1246" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,10 +26617,10 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1247" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1247" t="n">
         <v>22</v>
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1249" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1249" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1251" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1251" t="n">
         <v>22</v>
-      </c>
-      <c r="E1251" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,7 +26785,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1255" t="n">
         <v>22</v>
@@ -26806,10 +26806,10 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1256" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1256" t="n">
         <v>29</v>
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1258" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1258" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1259" t="n">
         <v>17</v>
@@ -26890,13 +26890,13 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1260" t="n">
         <v>25</v>
       </c>
       <c r="E1260" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1261">
@@ -26932,10 +26932,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1262" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1262" t="n">
         <v>12</v>
@@ -26974,7 +26974,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1264" t="n">
         <v>23</v>
@@ -27016,7 +27016,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1266" t="n">
         <v>19</v>
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1269" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1269" t="n">
         <v>31</v>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1270" t="n">
         <v>24</v>
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
       </c>
       <c r="E1276" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1277">
@@ -27289,10 +27289,10 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1279" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1279" t="n">
         <v>24</v>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1280" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1280" t="n">
         <v>25</v>
@@ -27646,13 +27646,13 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1296" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1296" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1297">
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1299" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1299" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1300" t="n">
         <v>23</v>
@@ -27751,7 +27751,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1301" t="n">
         <v>15</v>
@@ -27793,7 +27793,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1303" t="n">
         <v>17</v>
@@ -27814,10 +27814,10 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1304" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1304" t="n">
         <v>19</v>
@@ -27835,7 +27835,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1305" t="n">
         <v>25</v>
@@ -27856,10 +27856,10 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1306" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1306" t="n">
         <v>27</v>
@@ -27919,7 +27919,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1309" t="n">
         <v>21</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1314" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1314" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1318" t="n">
         <v>21</v>
@@ -28465,7 +28465,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1335" t="n">
         <v>26</v>
@@ -28507,7 +28507,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1337" t="n">
         <v>24</v>
@@ -28528,7 +28528,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1338" t="n">
         <v>21</v>
@@ -28696,10 +28696,10 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1346" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1346" t="n">
         <v>23</v>
@@ -28717,13 +28717,13 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1347" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1347" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1348">
@@ -28738,7 +28738,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1348" t="n">
         <v>16</v>
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1350" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1350" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1352" t="n">
         <v>24</v>
       </c>
       <c r="E1352" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1354" t="n">
         <v>20</v>
@@ -28948,10 +28948,10 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1358" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1358" t="n">
         <v>18</v>
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1362" t="n">
         <v>12</v>
@@ -29053,7 +29053,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1363" t="n">
         <v>26</v>
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1364" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1364" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1366" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1366" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,13 +29137,13 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1367" t="n">
         <v>15</v>
       </c>
       <c r="E1367" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1368">
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1370" t="n">
         <v>17</v>
       </c>
       <c r="E1370" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1380" t="n">
         <v>17</v>
@@ -29494,7 +29494,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1384" t="n">
         <v>21</v>
@@ -29515,10 +29515,10 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1385" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1385" t="n">
         <v>29</v>
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1386" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1386" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1387" t="n">
         <v>10</v>
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1391" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1391" t="n">
         <v>27</v>
-      </c>
-      <c r="E1391" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,10 +29704,10 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1394" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1394" t="n">
         <v>24</v>
@@ -29767,10 +29767,10 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1397" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1397" t="n">
         <v>24</v>
@@ -29809,7 +29809,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1399" t="n">
         <v>22</v>
@@ -29851,7 +29851,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1401" t="n">
         <v>23</v>
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1402" t="n">
         <v>22</v>
@@ -29956,13 +29956,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1406" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1406" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1407">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1414" t="n">
         <v>21</v>
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1415" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1415" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,7 +30250,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1420" t="n">
         <v>28</v>
@@ -30355,7 +30355,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1425" t="n">
         <v>15</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,7 +30439,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1429" t="n">
         <v>16</v>
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1433" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1433" t="n">
         <v>24</v>
-      </c>
-      <c r="E1433" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,13 +30649,13 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1439" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1439" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1440">
@@ -30964,13 +30964,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1454" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1454" t="n">
         <v>27</v>
-      </c>
-      <c r="E1454" t="n">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
         <v>13</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
         <v>23</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>23</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="n">
         <v>26</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>22</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="n">
         <v>17</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="n">
         <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
         <v>24</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
+        <v>24</v>
+      </c>
+      <c r="E35" t="n">
         <v>23</v>
-      </c>
-      <c r="E35" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
         <v>27</v>
       </c>
       <c r="E40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45" t="n">
         <v>29</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
         <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" t="n">
         <v>26</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D53" t="n">
         <v>14</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" t="n">
         <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E57" t="n">
         <v>23</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" t="n">
         <v>23</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E62" t="n">
         <v>25</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" t="n">
         <v>23</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E64" t="n">
         <v>18</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E66" t="n">
         <v>28</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
         <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E70" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" t="n">
         <v>24</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D74" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" t="n">
         <v>24</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" t="n">
         <v>21</v>
       </c>
       <c r="E81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D83" t="n">
         <v>23</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
         <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D87" t="n">
         <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E88" t="n">
         <v>24</v>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E89" t="n">
         <v>17</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D91" t="n">
         <v>18</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D92" t="n">
         <v>19</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E95" t="n">
         <v>15</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E100" t="n">
         <v>23</v>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D101" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
         <v>26</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E105" t="n">
         <v>25</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E109" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
         <v>21</v>
       </c>
       <c r="E110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E112" t="n">
         <v>27</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D113" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D114" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E114" t="n">
         <v>19</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117" t="n">
         <v>20</v>
       </c>
       <c r="E117" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D119" t="n">
         <v>19</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E123" t="n">
         <v>21</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125" t="n">
         <v>27</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D127" t="n">
         <v>19</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D128" t="n">
         <v>20</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D129" t="n">
         <v>27</v>
       </c>
       <c r="E129" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D130" t="n">
         <v>24</v>
       </c>
       <c r="E130" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D133" t="n">
         <v>18</v>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D134" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E134" t="n">
         <v>19</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D137" t="n">
         <v>20</v>
       </c>
       <c r="E137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E138" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D139" t="n">
         <v>21</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141" t="n">
+        <v>25</v>
+      </c>
+      <c r="E141" t="n">
         <v>24</v>
-      </c>
-      <c r="E141" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="n">
         <v>30</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D145" t="n">
         <v>25</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D147" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E147" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E148" t="n">
         <v>20</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D149" t="n">
         <v>23</v>
       </c>
       <c r="E149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D151" t="n">
         <v>21</v>
       </c>
       <c r="E151" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
         <v>19</v>
       </c>
       <c r="E152" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D153" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E153" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D156" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E156" t="n">
         <v>25</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D157" t="n">
         <v>22</v>
       </c>
       <c r="E157" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D160" t="n">
         <v>19</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D162" t="n">
         <v>23</v>
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E163" t="n">
         <v>19</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D167" t="n">
         <v>25</v>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168" t="n">
         <v>21</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D169" t="n">
         <v>20</v>
       </c>
       <c r="E169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D170" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E170" t="n">
         <v>20</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D171" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D175" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D176" t="n">
         <v>20</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E180" t="n">
         <v>20</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D184" t="n">
         <v>19</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E185" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D186" t="n">
         <v>18</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D187" t="n">
         <v>16</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D189" t="n">
         <v>21</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D193" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E193" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D194" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D195" t="n">
         <v>20</v>
       </c>
       <c r="E195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D196" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E196" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D198" t="n">
         <v>21</v>
       </c>
       <c r="E198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D199" t="n">
         <v>24</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D202" t="n">
         <v>26</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D203" t="n">
         <v>11</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D204" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E204" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D205" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E205" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D206" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E206" t="n">
         <v>19</v>
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D207" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E207" t="n">
         <v>21</v>
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D209" t="n">
         <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D211" t="n">
         <v>18</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D213" t="n">
         <v>21</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D215" t="n">
         <v>18</v>
       </c>
       <c r="E215" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D216" t="n">
         <v>18</v>
       </c>
       <c r="E216" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D217" t="n">
         <v>27</v>
       </c>
       <c r="E217" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D218" t="n">
         <v>18</v>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D222" t="n">
         <v>23</v>
       </c>
       <c r="E222" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D223" t="n">
         <v>24</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D224" t="n">
         <v>25</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D225" t="n">
         <v>20</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D226" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227">
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D227" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E227" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D228" t="n">
         <v>20</v>
       </c>
       <c r="E228" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D230" t="n">
         <v>32</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D231" t="n">
         <v>24</v>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D232" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E232" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233">
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D233" t="n">
         <v>23</v>
       </c>
       <c r="E233" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234">
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D234" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E234" t="n">
         <v>19</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D235" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E235" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236">
@@ -5428,13 +5428,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D238" t="n">
         <v>20</v>
       </c>
       <c r="E238" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D241" t="n">
         <v>22</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D242" t="n">
         <v>19</v>
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D243" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E243" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244">
@@ -5554,13 +5554,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D244" t="n">
         <v>18</v>
       </c>
       <c r="E244" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D245" t="n">
         <v>28</v>
       </c>
       <c r="E245" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D246" t="n">
         <v>23</v>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D247" t="n">
         <v>22</v>
       </c>
       <c r="E247" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D248" t="n">
         <v>19</v>
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D249" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E249" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D250" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E250" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D251" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E251" t="n">
         <v>18</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D252" t="n">
         <v>21</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D253" t="n">
         <v>19</v>
       </c>
       <c r="E253" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D254" t="n">
         <v>29</v>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D255" t="n">
         <v>20</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D257" t="n">
         <v>21</v>
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D260" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E260" t="n">
         <v>25</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D262" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E262" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D263" t="n">
         <v>20</v>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D264" t="n">
         <v>23</v>
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D265" t="n">
+        <v>20</v>
+      </c>
+      <c r="E265" t="n">
         <v>19</v>
-      </c>
-      <c r="E265" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D267" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E267" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268">
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D270" t="n">
         <v>20</v>
       </c>
       <c r="E270" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D271" t="n">
         <v>22</v>
       </c>
       <c r="E271" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272">
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D273" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E273" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274">
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D276" t="n">
         <v>23</v>
       </c>
       <c r="E276" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="277">
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D278" t="n">
         <v>21</v>
       </c>
       <c r="E278" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279">
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D280" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E280" t="n">
         <v>28</v>
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D283" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E283" t="n">
         <v>27</v>
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D284" t="n">
         <v>20</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D285" t="n">
         <v>21</v>
       </c>
       <c r="E285" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D286" t="n">
         <v>22</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D287" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E287" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288">
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D288" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E288" t="n">
         <v>23</v>
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
       </c>
       <c r="E289" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290">
@@ -6562,13 +6562,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D292" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E292" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293">
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D294" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E294" t="n">
         <v>22</v>
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D295" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E295" t="n">
         <v>30</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D297" t="n">
         <v>19</v>
@@ -6688,13 +6688,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D298" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E298" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D299" t="n">
         <v>35</v>
       </c>
       <c r="E299" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D301" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E301" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D302" t="n">
         <v>15</v>
@@ -6835,10 +6835,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D305" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E305" t="n">
         <v>24</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D307" t="n">
         <v>19</v>
@@ -6898,13 +6898,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D308" t="n">
         <v>18</v>
       </c>
       <c r="E308" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309">
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D311" t="n">
         <v>24</v>
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D314" t="n">
         <v>26</v>
       </c>
       <c r="E314" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315">
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D316" t="n">
         <v>29</v>
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D317" t="n">
         <v>19</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D323" t="n">
         <v>22</v>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D324" t="n">
         <v>25</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D325" t="n">
         <v>22</v>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D327" t="n">
         <v>21</v>
@@ -7381,10 +7381,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D331" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E331" t="n">
         <v>28</v>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D332" t="n">
         <v>21</v>
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D336" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E336" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D337" t="n">
         <v>20</v>
@@ -7528,10 +7528,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D338" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E338" t="n">
         <v>27</v>
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D339" t="n">
         <v>20</v>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D341" t="n">
         <v>24</v>
       </c>
       <c r="E341" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342">
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D344" t="n">
         <v>16</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D346" t="n">
         <v>24</v>
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D347" t="n">
         <v>24</v>
       </c>
       <c r="E347" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348">
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D348" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E348" t="n">
         <v>23</v>
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D349" t="n">
         <v>28</v>
       </c>
       <c r="E349" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D352" t="n">
+        <v>25</v>
+      </c>
+      <c r="E352" t="n">
         <v>24</v>
-      </c>
-      <c r="E352" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="353">
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D355" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E355" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="356">
@@ -7948,10 +7948,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D358" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E358" t="n">
         <v>23</v>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D359" t="n">
         <v>23</v>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D362" t="n">
         <v>21</v>
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D363" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E363" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
@@ -8116,13 +8116,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D366" t="n">
         <v>18</v>
       </c>
       <c r="E366" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367">
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D367" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E367" t="n">
         <v>21</v>
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D368" t="n">
         <v>25</v>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D372" t="n">
         <v>24</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D373" t="n">
         <v>20</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D374" t="n">
         <v>17</v>
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D375" t="n">
         <v>24</v>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D377" t="n">
         <v>21</v>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D378" t="n">
         <v>17</v>
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D379" t="n">
         <v>21</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D381" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E381" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382">
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D382" t="n">
         <v>18</v>
       </c>
       <c r="E382" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="383">
@@ -8473,10 +8473,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D383" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E383" t="n">
         <v>23</v>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D384" t="n">
         <v>20</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D385" t="n">
         <v>19</v>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D387" t="n">
         <v>23</v>
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D388" t="n">
+        <v>22</v>
+      </c>
+      <c r="E388" t="n">
         <v>21</v>
-      </c>
-      <c r="E388" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="389">
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D389" t="n">
         <v>22</v>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D390" t="n">
         <v>20</v>
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D391" t="n">
         <v>19</v>
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D393" t="n">
         <v>25</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D395" t="n">
         <v>22</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D396" t="n">
         <v>26</v>
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D399" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E399" t="n">
         <v>27</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D400" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E400" t="n">
         <v>27</v>
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D401" t="n">
         <v>23</v>
       </c>
       <c r="E401" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="402">
@@ -8977,13 +8977,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D407" t="n">
+        <v>21</v>
+      </c>
+      <c r="E407" t="n">
         <v>20</v>
-      </c>
-      <c r="E407" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="408">
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D410" t="n">
         <v>20</v>
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D411" t="n">
         <v>15</v>
       </c>
       <c r="E411" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="412">
@@ -9082,10 +9082,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D412" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E412" t="n">
         <v>31</v>
@@ -9103,7 +9103,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D413" t="n">
         <v>20</v>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D415" t="n">
         <v>1</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D416" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E416" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="417">
@@ -9208,10 +9208,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D418" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E418" t="n">
         <v>20</v>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D425" t="n">
         <v>22</v>
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D427" t="n">
         <v>23</v>
       </c>
       <c r="E427" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="428">
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D429" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E429" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430">
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D431" t="n">
         <v>23</v>
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D432" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E432" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="433">
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D434" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E434" t="n">
         <v>24</v>
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D436" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E436" t="n">
         <v>23</v>
@@ -9607,10 +9607,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D437" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E437" t="n">
         <v>29</v>
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D438" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E438" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439">
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D444" t="n">
         <v>21</v>
@@ -9796,13 +9796,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D446" t="n">
         <v>24</v>
       </c>
       <c r="E446" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447">
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D448" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E448" t="n">
         <v>26</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D450" t="n">
         <v>20</v>
       </c>
       <c r="E450" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="451">
@@ -9901,10 +9901,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D451" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E451" t="n">
         <v>24</v>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D458" t="n">
         <v>23</v>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D463" t="n">
         <v>22</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D464" t="n">
         <v>25</v>
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D465" t="n">
         <v>21</v>
       </c>
       <c r="E465" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466">
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D466" t="n">
         <v>14</v>
       </c>
       <c r="E466" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="467">
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D470" t="n">
         <v>22</v>
       </c>
       <c r="E470" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471">
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D472" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E472" t="n">
         <v>17</v>
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D473" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E473" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="474">
@@ -10405,7 +10405,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D475" t="n">
         <v>23</v>
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D482" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E482" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="483">
@@ -10573,10 +10573,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D483" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E483" t="n">
         <v>21</v>
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D484" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E484" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D485" t="n">
         <v>14</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D486" t="n">
         <v>16</v>
@@ -10678,13 +10678,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D488" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E488" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="489">
@@ -10741,10 +10741,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D491" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E491" t="n">
         <v>24</v>
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D492" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E492" t="n">
         <v>27</v>
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D493" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E493" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="494">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D494" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E494" t="n">
         <v>17</v>
@@ -10867,10 +10867,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D497" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E497" t="n">
         <v>16</v>
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D498" t="n">
         <v>13</v>
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D499" t="n">
         <v>25</v>
       </c>
       <c r="E499" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="500">
@@ -10930,10 +10930,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D500" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E500" t="n">
         <v>22</v>
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D501" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E501" t="n">
         <v>20</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D504" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E504" t="n">
         <v>20</v>
@@ -11056,10 +11056,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D506" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E506" t="n">
         <v>16</v>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D507" t="n">
         <v>21</v>
       </c>
       <c r="E507" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508">
@@ -11098,10 +11098,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D508" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E508" t="n">
         <v>11</v>
@@ -11119,10 +11119,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D509" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E509" t="n">
         <v>29</v>
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D510" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E510" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="511">
@@ -11161,10 +11161,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D511" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E511" t="n">
         <v>20</v>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D512" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E512" t="n">
         <v>18</v>
@@ -11203,10 +11203,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D513" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E513" t="n">
         <v>24</v>
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D514" t="n">
         <v>21</v>
       </c>
       <c r="E514" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="515">
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D515" t="n">
+        <v>24</v>
+      </c>
+      <c r="E515" t="n">
         <v>23</v>
-      </c>
-      <c r="E515" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="516">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D516" t="n">
         <v>18</v>
@@ -11287,10 +11287,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D517" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E517" t="n">
         <v>25</v>
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D518" t="n">
         <v>23</v>
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D520" t="n">
         <v>22</v>
       </c>
       <c r="E520" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D521" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E521" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="522">
@@ -11434,7 +11434,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D524" t="n">
         <v>31</v>
@@ -11497,13 +11497,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D527" t="n">
         <v>20</v>
       </c>
       <c r="E527" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="528">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D528" t="n">
         <v>22</v>
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D529" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E529" t="n">
         <v>17</v>
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
       </c>
       <c r="E530" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="531">
@@ -11581,10 +11581,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D531" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E531" t="n">
         <v>17</v>
@@ -11623,13 +11623,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D533" t="n">
         <v>26</v>
       </c>
       <c r="E533" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="534">
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D535" t="n">
         <v>16</v>
@@ -11686,13 +11686,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D536" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E536" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="537">
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D539" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E539" t="n">
         <v>25</v>
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D540" t="n">
         <v>25</v>
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D541" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E541" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="542">
@@ -11833,10 +11833,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D543" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E543" t="n">
         <v>18</v>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D544" t="n">
         <v>25</v>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D545" t="n">
         <v>15</v>
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D546" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E546" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="547">
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D547" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E547" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="548">
@@ -11938,13 +11938,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D548" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E548" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="549">
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D550" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E550" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="551">
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D552" t="n">
         <v>15</v>
       </c>
       <c r="E552" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="553">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D553" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E553" t="n">
         <v>15</v>
@@ -12085,10 +12085,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D555" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E555" t="n">
         <v>21</v>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D556" t="n">
         <v>22</v>
@@ -12127,7 +12127,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D557" t="n">
         <v>23</v>
@@ -12148,7 +12148,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D558" t="n">
         <v>24</v>
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D560" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E560" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="561">
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
       </c>
       <c r="E562" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="563">
@@ -12253,13 +12253,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D563" t="n">
         <v>27</v>
       </c>
       <c r="E563" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="564">
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D564" t="n">
         <v>23</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D565" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E565" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566">
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D566" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E566" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="567">
@@ -12358,10 +12358,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D568" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E568" t="n">
         <v>25</v>
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D570" t="n">
         <v>19</v>
       </c>
       <c r="E570" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D571" t="n">
         <v>19</v>
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D572" t="n">
         <v>17</v>
       </c>
       <c r="E572" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="573">
@@ -12463,13 +12463,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D573" t="n">
         <v>19</v>
       </c>
       <c r="E573" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="574">
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D576" t="n">
         <v>24</v>
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D580" t="n">
         <v>24</v>
       </c>
       <c r="E580" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="581">
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D581" t="n">
         <v>31</v>
       </c>
       <c r="E581" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="582">
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D584" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E584" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D585" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E585" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="586">
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D586" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E586" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="587">
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D588" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E588" t="n">
         <v>24</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D589" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E589" t="n">
         <v>19</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D590" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E590" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="591">
@@ -12841,10 +12841,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D591" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E591" t="n">
         <v>20</v>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D592" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E592" t="n">
         <v>18</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D593" t="n">
         <v>23</v>
       </c>
       <c r="E593" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="594">
@@ -12967,13 +12967,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D597" t="n">
         <v>17</v>
       </c>
       <c r="E597" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="598">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D598" t="n">
         <v>16</v>
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D599" t="n">
         <v>20</v>
       </c>
       <c r="E599" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="600">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D601" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E601" t="n">
         <v>24</v>
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D602" t="n">
         <v>22</v>
@@ -13093,7 +13093,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D603" t="n">
         <v>18</v>
@@ -13114,10 +13114,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D604" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E604" t="n">
         <v>29</v>
@@ -13135,10 +13135,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D605" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E605" t="n">
         <v>24</v>
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D606" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E606" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607">
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D607" t="n">
         <v>15</v>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D608" t="n">
         <v>20</v>
@@ -13219,13 +13219,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D609" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E609" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="610">
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D611" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E611" t="n">
         <v>20</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D612" t="n">
         <v>24</v>
       </c>
       <c r="E612" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="613">
@@ -13303,10 +13303,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D613" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E613" t="n">
         <v>18</v>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D617" t="n">
         <v>29</v>
@@ -13408,13 +13408,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D618" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E618" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="619">
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D622" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E622" t="n">
         <v>23</v>
@@ -13513,13 +13513,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D623" t="n">
         <v>17</v>
       </c>
       <c r="E623" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="624">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D625" t="n">
         <v>24</v>
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D628" t="n">
         <v>18</v>
       </c>
       <c r="E628" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="629">
@@ -13639,10 +13639,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D629" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E629" t="n">
         <v>20</v>
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D631" t="n">
         <v>19</v>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D632" t="n">
         <v>20</v>
@@ -13723,13 +13723,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D633" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E633" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="634">
@@ -13765,10 +13765,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D635" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E635" t="n">
         <v>27</v>
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D638" t="n">
         <v>18</v>
       </c>
       <c r="E638" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="639">
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D639" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E639" t="n">
         <v>19</v>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D640" t="n">
         <v>18</v>
@@ -13891,10 +13891,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D641" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E641" t="n">
         <v>21</v>
@@ -13933,13 +13933,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D643" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E643" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="644">
@@ -13954,13 +13954,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D644" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E644" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="645">
@@ -13975,13 +13975,13 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D645" t="n">
+        <v>22</v>
+      </c>
+      <c r="E645" t="n">
         <v>21</v>
-      </c>
-      <c r="E645" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="646">
@@ -13996,10 +13996,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D646" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E646" t="n">
         <v>16</v>
@@ -14017,10 +14017,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D647" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E647" t="n">
         <v>17</v>
@@ -14038,13 +14038,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D648" t="n">
         <v>19</v>
       </c>
       <c r="E648" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="649">
@@ -14122,10 +14122,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D652" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E652" t="n">
         <v>23</v>
@@ -14143,10 +14143,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D653" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E653" t="n">
         <v>22</v>
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D656" t="n">
         <v>15</v>
@@ -14248,10 +14248,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D658" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E658" t="n">
         <v>25</v>
@@ -14269,10 +14269,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D659" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E659" t="n">
         <v>22</v>
@@ -14353,13 +14353,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D663" t="n">
         <v>14</v>
       </c>
       <c r="E663" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="664">
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D664" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E664" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="665">
@@ -14395,10 +14395,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D665" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E665" t="n">
         <v>32</v>
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D666" t="n">
         <v>24</v>
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D667" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E667" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D668" t="n">
+        <v>24</v>
+      </c>
+      <c r="E668" t="n">
         <v>23</v>
-      </c>
-      <c r="E668" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="669">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D669" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E669" t="n">
         <v>18</v>
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D671" t="n">
         <v>23</v>
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D673" t="n">
         <v>18</v>
       </c>
       <c r="E673" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D674" t="n">
         <v>14</v>
       </c>
       <c r="E674" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="675">
@@ -14647,10 +14647,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D677" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E677" t="n">
         <v>28</v>
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D678" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E678" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="679">
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D680" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E680" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="681">
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D681" t="n">
         <v>20</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D683" t="n">
         <v>24</v>
       </c>
       <c r="E683" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="684">
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D688" t="n">
         <v>22</v>
@@ -14899,10 +14899,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D689" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E689" t="n">
         <v>20</v>
@@ -14962,13 +14962,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D692" t="n">
         <v>21</v>
       </c>
       <c r="E692" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693">
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D693" t="n">
         <v>27</v>
       </c>
       <c r="E693" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="694">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D695" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E695" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="696">
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D696" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E696" t="n">
         <v>21</v>
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D697" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E697" t="n">
         <v>25</v>
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D699" t="n">
         <v>18</v>
       </c>
       <c r="E699" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="700">
@@ -15130,10 +15130,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D700" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E700" t="n">
         <v>22</v>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D701" t="n">
         <v>18</v>
@@ -15172,13 +15172,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D702" t="n">
         <v>26</v>
       </c>
       <c r="E702" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="703">
@@ -15193,10 +15193,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D703" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E703" t="n">
         <v>26</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D705" t="n">
         <v>25</v>
       </c>
       <c r="E705" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="706">
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D706" t="n">
         <v>24</v>
       </c>
       <c r="E706" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="707">
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D709" t="n">
         <v>12</v>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D710" t="n">
         <v>23</v>
@@ -15361,13 +15361,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D711" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E711" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="712">
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D714" t="n">
         <v>21</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D717" t="n">
         <v>24</v>
       </c>
       <c r="E717" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="718">
@@ -15508,13 +15508,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D718" t="n">
+        <v>18</v>
+      </c>
+      <c r="E718" t="n">
         <v>17</v>
-      </c>
-      <c r="E718" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D720" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E720" t="n">
         <v>23</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D722" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E722" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="723">
@@ -15613,10 +15613,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D723" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E723" t="n">
         <v>18</v>
@@ -15634,13 +15634,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D724" t="n">
         <v>26</v>
       </c>
       <c r="E724" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="725">
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D725" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E725" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D728" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E728" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="729">
@@ -15739,10 +15739,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D729" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E729" t="n">
         <v>21</v>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D730" t="n">
         <v>13</v>
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D731" t="n">
         <v>25</v>
       </c>
       <c r="E731" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="732">
@@ -15802,7 +15802,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D732" t="n">
         <v>22</v>
@@ -15865,10 +15865,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D735" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E735" t="n">
         <v>14</v>
@@ -15907,13 +15907,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D737" t="n">
         <v>22</v>
       </c>
       <c r="E737" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="738">
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D739" t="n">
         <v>19</v>
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D740" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E740" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="741">
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D741" t="n">
         <v>23</v>
       </c>
       <c r="E741" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="742">
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D743" t="n">
         <v>19</v>
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D745" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E745" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="746">
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D747" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E747" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="748">
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D749" t="n">
+        <v>23</v>
+      </c>
+      <c r="E749" t="n">
         <v>22</v>
-      </c>
-      <c r="E749" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="750">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D752" t="n">
         <v>22</v>
@@ -16243,7 +16243,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D753" t="n">
         <v>23</v>
@@ -16264,13 +16264,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D754" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E754" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="755">
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D755" t="n">
         <v>26</v>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D756" t="n">
         <v>29</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D757" t="n">
         <v>23</v>
@@ -16348,10 +16348,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D758" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E758" t="n">
         <v>25</v>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D760" t="n">
         <v>23</v>
@@ -16411,7 +16411,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D761" t="n">
         <v>12</v>
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D763" t="n">
         <v>22</v>
@@ -16516,10 +16516,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D766" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E766" t="n">
         <v>22</v>
@@ -16537,10 +16537,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D767" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E767" t="n">
         <v>20</v>
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D768" t="n">
         <v>10</v>
       </c>
       <c r="E768" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="769">
@@ -16600,13 +16600,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D770" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E770" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="771">
@@ -16621,13 +16621,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D771" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E771" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="772">
@@ -16642,10 +16642,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D772" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E772" t="n">
         <v>22</v>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D773" t="n">
         <v>21</v>
@@ -16684,10 +16684,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D774" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E774" t="n">
         <v>14</v>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D776" t="n">
         <v>25</v>
@@ -16747,7 +16747,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D777" t="n">
         <v>20</v>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D778" t="n">
         <v>21</v>
@@ -16852,13 +16852,13 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D782" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E782" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="783">
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D783" t="n">
         <v>25</v>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D784" t="n">
         <v>18</v>
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D786" t="n">
         <v>18</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D787" t="n">
         <v>19</v>
       </c>
       <c r="E787" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="788">
@@ -16999,10 +16999,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D789" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E789" t="n">
         <v>21</v>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D790" t="n">
         <v>18</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D793" t="n">
         <v>22</v>
@@ -17125,13 +17125,13 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D795" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E795" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="796">
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D796" t="n">
         <v>18</v>
       </c>
       <c r="E796" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="797">
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D798" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E798" t="n">
         <v>21</v>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D799" t="n">
         <v>20</v>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D800" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E800" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="801">
@@ -17251,10 +17251,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D801" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E801" t="n">
         <v>23</v>
@@ -17293,13 +17293,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D803" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E803" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="804">
@@ -17314,13 +17314,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D804" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E804" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="805">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D805" t="n">
         <v>22</v>
       </c>
       <c r="E805" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="806">
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D806" t="n">
         <v>24</v>
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D807" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E807" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="808">
@@ -17398,10 +17398,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D808" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E808" t="n">
         <v>27</v>
@@ -17440,13 +17440,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D810" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E810" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="811">
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D811" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E811" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="812">
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D812" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E812" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="813">
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D814" t="n">
         <v>31</v>
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D815" t="n">
         <v>12</v>
       </c>
       <c r="E815" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="816">
@@ -17566,13 +17566,13 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D816" t="n">
         <v>20</v>
       </c>
       <c r="E816" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="817">
@@ -17629,13 +17629,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D819" t="n">
         <v>19</v>
       </c>
       <c r="E819" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
@@ -17650,13 +17650,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D820" t="n">
         <v>24</v>
       </c>
       <c r="E820" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="821">
@@ -17734,10 +17734,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D824" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E824" t="n">
         <v>24</v>
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D825" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E825" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="826">
@@ -17797,7 +17797,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D827" t="n">
         <v>20</v>
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D829" t="n">
         <v>23</v>
       </c>
       <c r="E829" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="830">
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D830" t="n">
         <v>18</v>
@@ -17881,7 +17881,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D831" t="n">
         <v>16</v>
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D832" t="n">
         <v>23</v>
@@ -17923,7 +17923,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D833" t="n">
         <v>19</v>
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D835" t="n">
         <v>26</v>
@@ -17986,13 +17986,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D836" t="n">
         <v>16</v>
       </c>
       <c r="E836" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="837">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D840" t="n">
         <v>18</v>
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D842" t="n">
         <v>20</v>
       </c>
       <c r="E842" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="843">
@@ -18133,10 +18133,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D843" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E843" t="n">
         <v>16</v>
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D845" t="n">
         <v>31</v>
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D846" t="n">
         <v>14</v>
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D847" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E847" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="848">
@@ -18238,7 +18238,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D848" t="n">
         <v>28</v>
@@ -18280,10 +18280,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D850" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E850" t="n">
         <v>16</v>
@@ -18343,10 +18343,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D853" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E853" t="n">
         <v>11</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D854" t="n">
         <v>23</v>
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D857" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E857" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="858">
@@ -18448,13 +18448,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D858" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E858" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="859">
@@ -18511,7 +18511,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D861" t="n">
         <v>10</v>
@@ -18532,10 +18532,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D862" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E862" t="n">
         <v>25</v>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D863" t="n">
         <v>23</v>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D864" t="n">
         <v>21</v>
@@ -18637,7 +18637,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D867" t="n">
         <v>19</v>
@@ -18679,10 +18679,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D869" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E869" t="n">
         <v>17</v>
@@ -18700,13 +18700,13 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D870" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E870" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="871">
@@ -18721,10 +18721,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D871" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E871" t="n">
         <v>19</v>
@@ -18763,13 +18763,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D873" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E873" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="874">
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D874" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E874" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="875">
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D875" t="n">
+        <v>22</v>
+      </c>
+      <c r="E875" t="n">
         <v>21</v>
-      </c>
-      <c r="E875" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="876">
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D876" t="n">
         <v>23</v>
@@ -18868,13 +18868,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D878" t="n">
         <v>24</v>
       </c>
       <c r="E878" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="879">
@@ -18889,13 +18889,13 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D879" t="n">
+        <v>13</v>
+      </c>
+      <c r="E879" t="n">
         <v>12</v>
-      </c>
-      <c r="E879" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="880">
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D880" t="n">
         <v>19</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D881" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E881" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="882">
@@ -18952,13 +18952,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D882" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E882" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="883">
@@ -18973,13 +18973,13 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D883" t="n">
         <v>27</v>
       </c>
       <c r="E883" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="884">
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D884" t="n">
+        <v>25</v>
+      </c>
+      <c r="E884" t="n">
         <v>24</v>
-      </c>
-      <c r="E884" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="885">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D885" t="n">
         <v>25</v>
       </c>
       <c r="E885" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="886">
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D889" t="n">
         <v>21</v>
@@ -19141,10 +19141,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D891" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E891" t="n">
         <v>19</v>
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D895" t="n">
         <v>22</v>
       </c>
       <c r="E895" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="896">
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D903" t="n">
         <v>22</v>
@@ -19519,10 +19519,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D909" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E909" t="n">
         <v>23</v>
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D911" t="n">
         <v>14</v>
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D915" t="n">
         <v>26</v>
@@ -19687,10 +19687,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D917" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E917" t="n">
         <v>23</v>
@@ -19729,7 +19729,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D919" t="n">
         <v>26</v>
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D923" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E923" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="924">
@@ -19876,7 +19876,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D926" t="n">
         <v>18</v>
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D928" t="n">
         <v>20</v>
       </c>
       <c r="E928" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="929">
@@ -19981,13 +19981,13 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D931" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E931" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="932">
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D933" t="n">
         <v>18</v>
       </c>
       <c r="E933" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="934">
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D934" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E934" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="935">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D935" t="n">
         <v>18</v>
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D936" t="n">
         <v>24</v>
       </c>
       <c r="E936" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="937">
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D943" t="n">
         <v>20</v>
       </c>
       <c r="E943" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="944">
@@ -20275,7 +20275,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D945" t="n">
         <v>26</v>
@@ -20317,13 +20317,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D947" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E947" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="948">
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D949" t="n">
         <v>31</v>
@@ -20380,10 +20380,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D950" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E950" t="n">
         <v>19</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D951" t="n">
         <v>25</v>
       </c>
       <c r="E951" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="952">
@@ -20422,10 +20422,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D952" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E952" t="n">
         <v>21</v>
@@ -20464,10 +20464,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D954" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E954" t="n">
         <v>20</v>
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D955" t="n">
         <v>15</v>
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D961" t="n">
         <v>25</v>
       </c>
       <c r="E961" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="962">
@@ -20653,10 +20653,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D963" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E963" t="n">
         <v>29</v>
@@ -20674,10 +20674,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D964" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E964" t="n">
         <v>28</v>
@@ -20716,13 +20716,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D966" t="n">
         <v>16</v>
       </c>
       <c r="E966" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="967">
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D970" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E970" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="971">
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D972" t="n">
         <v>22</v>
@@ -20884,10 +20884,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D974" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E974" t="n">
         <v>19</v>
@@ -20968,13 +20968,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D978" t="n">
         <v>20</v>
       </c>
       <c r="E978" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="979">
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D979" t="n">
         <v>19</v>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D980" t="n">
         <v>15</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D982" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E982" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="983">
@@ -21157,10 +21157,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D987" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E987" t="n">
         <v>23</v>
@@ -21388,10 +21388,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D998" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E998" t="n">
         <v>10</v>
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1010" t="n">
         <v>22</v>
@@ -21661,13 +21661,13 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1011" t="n">
         <v>20</v>
       </c>
       <c r="E1011" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1012">
@@ -21682,10 +21682,10 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1012" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1012" t="n">
         <v>24</v>
@@ -21766,13 +21766,13 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
       </c>
       <c r="E1016" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1017">
@@ -21808,10 +21808,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1018" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1018" t="n">
         <v>20</v>
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1025" t="n">
         <v>13</v>
@@ -21976,7 +21976,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1026" t="n">
         <v>20</v>
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1028" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1028" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1030" t="n">
         <v>22</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1033" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1033" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,10 +22165,10 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1035" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1035" t="n">
         <v>25</v>
@@ -22186,10 +22186,10 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1036" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1036" t="n">
         <v>18</v>
@@ -22249,13 +22249,13 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1039" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1039" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1040">
@@ -22354,10 +22354,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1044" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1044" t="n">
         <v>20</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1048" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1048" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,13 +22480,13 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1050" t="n">
         <v>20</v>
       </c>
       <c r="E1050" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1051">
@@ -22564,13 +22564,13 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1054" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1054" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1055">
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1062" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1062" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1064" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1064" t="n">
         <v>23</v>
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1076" t="n">
         <v>17</v>
       </c>
       <c r="E1076" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1080" t="n">
         <v>27</v>
       </c>
       <c r="E1080" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,13 +23194,13 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1084" t="n">
         <v>16</v>
       </c>
       <c r="E1084" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1085">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1085" t="n">
         <v>23</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1088" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1088" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,10 +23299,10 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1089" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1089" t="n">
         <v>23</v>
@@ -23320,10 +23320,10 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1090" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1090" t="n">
         <v>25</v>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1093" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1093" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,10 +23467,10 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1097" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1097" t="n">
         <v>34</v>
@@ -23488,7 +23488,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1098" t="n">
         <v>19</v>
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,10 +23551,10 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1101" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -23572,10 +23572,10 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1102" t="n">
         <v>26</v>
@@ -23656,10 +23656,10 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1106" t="n">
         <v>27</v>
@@ -23677,10 +23677,10 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1107" t="n">
         <v>25</v>
@@ -23719,7 +23719,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1109" t="n">
         <v>18</v>
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1110" t="n">
         <v>22</v>
@@ -23761,13 +23761,13 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1111" t="n">
         <v>26</v>
       </c>
       <c r="E1111" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1112">
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1115" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,13 +23929,13 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1119" t="n">
         <v>22</v>
       </c>
       <c r="E1119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1120">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1121" t="n">
         <v>19</v>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1123" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1124" t="n">
         <v>25</v>
       </c>
       <c r="E1124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1130" t="n">
         <v>16</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1135" t="n">
         <v>25</v>
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1140" t="n">
         <v>17</v>
@@ -24475,7 +24475,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1145" t="n">
         <v>20</v>
@@ -24496,13 +24496,13 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1146" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1146" t="n">
         <v>21</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="1147">
@@ -24580,10 +24580,10 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1150" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1150" t="n">
         <v>14</v>
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1151" t="n">
         <v>21</v>
       </c>
       <c r="E1151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,10 +25021,10 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1171" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1171" t="n">
         <v>30</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1172" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1176" t="n">
         <v>28</v>
       </c>
       <c r="E1176" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1177" t="n">
         <v>22</v>
@@ -25210,10 +25210,10 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1180" t="n">
         <v>24</v>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1186" t="n">
         <v>29</v>
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1194" t="n">
         <v>13</v>
       </c>
       <c r="E1194" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1197" t="n">
         <v>20</v>
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1199" t="n">
         <v>25</v>
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1201" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1201" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1209" t="n">
         <v>19</v>
       </c>
       <c r="E1209" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1213" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1213" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1214" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1216" t="n">
         <v>19</v>
       </c>
       <c r="E1216" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,10 +26092,10 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1222" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1222" t="n">
         <v>15</v>
@@ -26176,7 +26176,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1226" t="n">
         <v>24</v>
@@ -26323,13 +26323,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1233" t="n">
         <v>23</v>
       </c>
       <c r="E1233" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1234">
@@ -26344,13 +26344,13 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1234" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1234" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1235">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1235" t="n">
         <v>28</v>
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1236" t="n">
         <v>26</v>
       </c>
       <c r="E1236" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,7 +26575,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1245" t="n">
         <v>11</v>
@@ -26596,10 +26596,10 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1246" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1246" t="n">
         <v>25</v>
@@ -26617,10 +26617,10 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1247" t="n">
         <v>22</v>
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1249" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1249" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,10 +26701,10 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1251" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1251" t="n">
         <v>23</v>
@@ -26785,7 +26785,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1255" t="n">
         <v>22</v>
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1256" t="n">
         <v>23</v>
       </c>
       <c r="E1256" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,10 +26848,10 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1258" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1258" t="n">
         <v>33</v>
@@ -26869,10 +26869,10 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1259" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1259" t="n">
         <v>25</v>
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1260" t="n">
         <v>26</v>
@@ -26932,13 +26932,13 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1262" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1262" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1263">
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1264" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1264" t="n">
         <v>23</v>
@@ -27016,13 +27016,13 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1266" t="n">
         <v>19</v>
       </c>
       <c r="E1266" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1267">
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1269" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1269" t="n">
         <v>31</v>
@@ -27100,13 +27100,13 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1270" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1270" t="n">
         <v>25</v>
-      </c>
-      <c r="E1270" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="1271">
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
       </c>
       <c r="E1276" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1277">
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1279" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1279" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,13 +27310,13 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1280" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1280" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1281">
@@ -27646,7 +27646,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1296" t="n">
         <v>28</v>
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1299" t="n">
         <v>23</v>
       </c>
       <c r="E1299" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,13 +27730,13 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1300" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1300" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1301">
@@ -27751,7 +27751,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1301" t="n">
         <v>15</v>
@@ -27793,13 +27793,13 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1303" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1303" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1304">
@@ -27814,13 +27814,13 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1304" t="n">
         <v>23</v>
       </c>
       <c r="E1304" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1305">
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1305" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1305" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1306" t="n">
         <v>23</v>
       </c>
       <c r="E1306" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,13 +27919,13 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1309" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1309" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1310">
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1314" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1314" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1318" t="n">
         <v>21</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1335" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1335" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1337" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1337" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,10 +28528,10 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1338" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1338" t="n">
         <v>26</v>
@@ -28696,13 +28696,13 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1346" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1346" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1347">
@@ -28717,7 +28717,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1347" t="n">
         <v>24</v>
@@ -28738,13 +28738,13 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1348" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1348" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1349">
@@ -28780,10 +28780,10 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1350" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1350" t="n">
         <v>24</v>
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1352" t="n">
         <v>24</v>
       </c>
       <c r="E1352" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1354" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1354" t="n">
         <v>16</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1358" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1358" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1362" t="n">
         <v>12</v>
@@ -29053,13 +29053,13 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1363" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1363" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1364">
@@ -29074,7 +29074,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1364" t="n">
         <v>32</v>
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1366" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1366" t="n">
         <v>26</v>
-      </c>
-      <c r="E1366" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,7 +29137,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1367" t="n">
         <v>15</v>
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1370" t="n">
         <v>17</v>
       </c>
       <c r="E1370" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1380" t="n">
         <v>18</v>
@@ -29494,13 +29494,13 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1384" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1384" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1385">
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1385" t="n">
         <v>13</v>
       </c>
       <c r="E1385" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1386" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1386" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1387" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1387" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1391" t="n">
         <v>29</v>
@@ -29704,10 +29704,10 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1394" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1394" t="n">
         <v>24</v>
@@ -29767,10 +29767,10 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1397" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1397" t="n">
         <v>24</v>
@@ -29809,13 +29809,13 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1399" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1399" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1400">
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1401" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1401" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1402" t="n">
         <v>22</v>
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1406" t="n">
         <v>25</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1414" t="n">
         <v>21</v>
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1415" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1415" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,7 +30250,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1420" t="n">
         <v>28</v>
@@ -30355,13 +30355,13 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1425" t="n">
         <v>15</v>
       </c>
       <c r="E1425" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1426">
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,13 +30439,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1429" t="n">
         <v>16</v>
       </c>
       <c r="E1429" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1430">
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1433" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1433" t="n">
         <v>25</v>
-      </c>
-      <c r="E1433" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,10 +30649,10 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1439" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1439" t="n">
         <v>18</v>
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1454" t="n">
         <v>28</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
         <v>28</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
         <v>19</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
         <v>26</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
         <v>23</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" t="n">
         <v>27</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>22</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
         <v>16</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
         <v>21</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
         <v>22</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" t="n">
         <v>20</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" t="n">
         <v>24</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" t="n">
         <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
         <v>24</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
         <v>21</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
         <v>26</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
         <v>29</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
         <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
         <v>27</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E51" t="n">
         <v>29</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D53" t="n">
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55" t="n">
         <v>23</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="n">
         <v>36</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D58" t="n">
         <v>22</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D59" t="n">
         <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" t="n">
         <v>29</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D64" t="n">
         <v>24</v>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" t="n">
         <v>29</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" t="n">
         <v>26</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D68" t="n">
         <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E69" t="n">
         <v>26</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" t="n">
         <v>25</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D81" t="n">
         <v>22</v>
       </c>
       <c r="E81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
         <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E89" t="n">
         <v>18</v>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D91" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" t="n">
         <v>26</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D95" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>15</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D100" t="n">
         <v>24</v>
       </c>
       <c r="E100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D101" t="n">
         <v>25</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D105" t="n">
         <v>24</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D109" t="n">
         <v>21</v>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D110" t="n">
+        <v>22</v>
+      </c>
+      <c r="E110" t="n">
         <v>21</v>
-      </c>
-      <c r="E110" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D112" t="n">
         <v>29</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E113" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E114" t="n">
         <v>20</v>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D117" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
         <v>20</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D123" t="n">
         <v>23</v>
       </c>
       <c r="E123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125" t="n">
         <v>28</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E127" t="n">
         <v>26</v>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D128" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E128" t="n">
         <v>28</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D129" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E129" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D130" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E130" t="n">
         <v>24</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133" t="n">
         <v>26</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D134" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E134" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D135" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E135" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E137" t="n">
         <v>23</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D138" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E138" t="n">
         <v>28</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D139" t="n">
         <v>21</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D141" t="n">
         <v>26</v>
       </c>
       <c r="E141" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D142" t="n">
         <v>31</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D143" t="n">
         <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D144" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D145" t="n">
         <v>26</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D147" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E147" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E148" t="n">
         <v>20</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D149" t="n">
         <v>23</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E151" t="n">
         <v>30</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D152" t="n">
         <v>20</v>
       </c>
       <c r="E152" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D153" t="n">
         <v>22</v>
       </c>
       <c r="E153" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D156" t="n">
         <v>27</v>
       </c>
       <c r="E156" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D157" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E157" t="n">
         <v>23</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E158" t="n">
         <v>25</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D159" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E159" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E160" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D162" t="n">
         <v>23</v>
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D163" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E163" t="n">
         <v>19</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D167" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E167" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D168" t="n">
         <v>23</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D169" t="n">
         <v>20</v>
       </c>
       <c r="E169" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D170" t="n">
+        <v>22</v>
+      </c>
+      <c r="E170" t="n">
         <v>21</v>
-      </c>
-      <c r="E170" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D171" t="n">
         <v>20</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D175" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E175" t="n">
         <v>20</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D180" t="n">
+        <v>22</v>
+      </c>
+      <c r="E180" t="n">
         <v>21</v>
-      </c>
-      <c r="E180" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D184" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E184" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E185" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D186" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E186" t="n">
         <v>29</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D187" t="n">
         <v>16</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D189" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E189" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D193" t="n">
         <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D194" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E194" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E195" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D196" t="n">
         <v>32</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E198" t="n">
         <v>25</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D199" t="n">
         <v>24</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D202" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E202" t="n">
         <v>20</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D203" t="n">
         <v>11</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D204" t="n">
         <v>21</v>
       </c>
       <c r="E204" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D205" t="n">
         <v>23</v>
       </c>
       <c r="E205" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D206" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E206" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D207" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E207" t="n">
         <v>21</v>
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D209" t="n">
         <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210">
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D211" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E211" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212">
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D213" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E213" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D215" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E215" t="n">
         <v>20</v>
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D216" t="n">
         <v>18</v>
       </c>
       <c r="E216" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D217" t="n">
         <v>28</v>
       </c>
       <c r="E217" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D218" t="n">
         <v>18</v>
       </c>
       <c r="E218" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D222" t="n">
         <v>23</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D223" t="n">
         <v>24</v>
       </c>
       <c r="E223" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D224" t="n">
         <v>25</v>
       </c>
       <c r="E224" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D225" t="n">
         <v>20</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E226" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D227" t="n">
         <v>22</v>
       </c>
       <c r="E227" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D228" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E228" t="n">
         <v>29</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D230" t="n">
         <v>32</v>
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D231" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E231" t="n">
         <v>25</v>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D232" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E232" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D233" t="n">
         <v>23</v>
       </c>
       <c r="E233" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D234" t="n">
         <v>20</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D235" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E235" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D238" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E238" t="n">
         <v>27</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D241" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D242" t="n">
         <v>19</v>
       </c>
       <c r="E242" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D243" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244">
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D244" t="n">
         <v>19</v>
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D245" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D246" t="n">
         <v>24</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E247" t="n">
         <v>27</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D248" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E248" t="n">
         <v>27</v>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D249" t="n">
         <v>20</v>
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D250" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E250" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D251" t="n">
         <v>19</v>
       </c>
       <c r="E251" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D252" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E252" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D253" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E253" t="n">
         <v>24</v>
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D254" t="n">
         <v>29</v>
       </c>
       <c r="E254" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255">
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D255" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E255" t="n">
         <v>17</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D257" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E257" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D260" t="n">
         <v>23</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D262" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E262" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263">
@@ -5953,13 +5953,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D263" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E263" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264">
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D264" t="n">
         <v>23</v>
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D265" t="n">
         <v>20</v>
       </c>
       <c r="E265" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266">
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D267" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E267" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D270" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E270" t="n">
         <v>26</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D271" t="n">
         <v>23</v>
       </c>
       <c r="E271" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272">
@@ -6163,10 +6163,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D273" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E273" t="n">
         <v>20</v>
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D276" t="n">
         <v>23</v>
       </c>
       <c r="E276" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D278" t="n">
         <v>21</v>
       </c>
       <c r="E278" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D280" t="n">
         <v>26</v>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D283" t="n">
         <v>24</v>
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D284" t="n">
         <v>20</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D285" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E285" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D286" t="n">
         <v>22</v>
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D287" t="n">
         <v>28</v>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D288" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E288" t="n">
         <v>23</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D292" t="n">
         <v>30</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D294" t="n">
         <v>28</v>
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D295" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E295" t="n">
         <v>30</v>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D297" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E297" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298">
@@ -6688,13 +6688,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D298" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E298" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D299" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E299" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="300">
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D301" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E301" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302">
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D302" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E302" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303">
@@ -6835,10 +6835,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D305" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E305" t="n">
         <v>24</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D307" t="n">
         <v>19</v>
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D308" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E308" t="n">
         <v>19</v>
@@ -6961,13 +6961,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D311" t="n">
         <v>25</v>
       </c>
       <c r="E311" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312">
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D314" t="n">
+        <v>28</v>
+      </c>
+      <c r="E314" t="n">
         <v>27</v>
-      </c>
-      <c r="E314" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="315">
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D316" t="n">
         <v>29</v>
       </c>
       <c r="E316" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D317" t="n">
         <v>19</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D323" t="n">
         <v>22</v>
       </c>
       <c r="E323" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D324" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E324" t="n">
         <v>28</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D325" t="n">
         <v>23</v>
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D327" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E327" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D331" t="n">
         <v>28</v>
       </c>
       <c r="E331" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332">
@@ -7402,10 +7402,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D332" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E332" t="n">
         <v>20</v>
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D336" t="n">
         <v>23</v>
       </c>
       <c r="E336" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D337" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E337" t="n">
         <v>26</v>
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D338" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E338" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339">
@@ -7549,10 +7549,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D339" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E339" t="n">
         <v>24</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D341" t="n">
         <v>24</v>
@@ -7654,10 +7654,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D344" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E344" t="n">
         <v>22</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D346" t="n">
         <v>24</v>
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D347" t="n">
+        <v>26</v>
+      </c>
+      <c r="E347" t="n">
         <v>25</v>
-      </c>
-      <c r="E347" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="348">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D348" t="n">
         <v>32</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D349" t="n">
         <v>28</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D352" t="n">
         <v>26</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D355" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E355" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D358" t="n">
         <v>22</v>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D359" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E359" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="360">
@@ -8032,10 +8032,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D362" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E362" t="n">
         <v>25</v>
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D363" t="n">
         <v>29</v>
       </c>
       <c r="E363" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="364">
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D366" t="n">
         <v>18</v>
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D367" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E367" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368">
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D368" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E368" t="n">
         <v>23</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D372" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E372" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D373" t="n">
         <v>21</v>
       </c>
       <c r="E373" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D374" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E374" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375">
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D375" t="n">
         <v>24</v>
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D377" t="n">
         <v>22</v>
       </c>
       <c r="E377" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378">
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D378" t="n">
         <v>17</v>
       </c>
       <c r="E378" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D379" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E379" t="n">
         <v>26</v>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D381" t="n">
         <v>25</v>
@@ -8452,10 +8452,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D382" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E382" t="n">
         <v>28</v>
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D383" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E383" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384">
@@ -8494,13 +8494,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D384" t="n">
         <v>20</v>
       </c>
       <c r="E384" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385">
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D385" t="n">
         <v>19</v>
@@ -8557,13 +8557,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D387" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E387" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388">
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D388" t="n">
         <v>22</v>
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D389" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E389" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390">
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D390" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E390" t="n">
         <v>20</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D391" t="n">
         <v>20</v>
       </c>
       <c r="E391" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D393" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E393" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="394">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D395" t="n">
         <v>22</v>
       </c>
       <c r="E395" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="396">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D396" t="n">
         <v>27</v>
       </c>
       <c r="E396" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="397">
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D399" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E399" t="n">
         <v>27</v>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D400" t="n">
+        <v>29</v>
+      </c>
+      <c r="E400" t="n">
         <v>28</v>
-      </c>
-      <c r="E400" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D401" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E401" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="402">
@@ -8977,13 +8977,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D407" t="n">
+        <v>23</v>
+      </c>
+      <c r="E407" t="n">
         <v>22</v>
-      </c>
-      <c r="E407" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="408">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D410" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E410" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="411">
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D411" t="n">
         <v>15</v>
       </c>
       <c r="E411" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="412">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D412" t="n">
         <v>25</v>
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D413" t="n">
         <v>21</v>
       </c>
       <c r="E413" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414">
@@ -9145,13 +9145,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D416" t="n">
         <v>25</v>
       </c>
       <c r="E416" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417">
@@ -9208,10 +9208,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D418" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E418" t="n">
         <v>21</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D425" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E425" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426">
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D427" t="n">
         <v>23</v>
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D429" t="n">
+        <v>30</v>
+      </c>
+      <c r="E429" t="n">
         <v>29</v>
-      </c>
-      <c r="E429" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="430">
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D431" t="n">
         <v>24</v>
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D432" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E432" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433">
@@ -9544,13 +9544,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D434" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E434" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="435">
@@ -9586,13 +9586,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D436" t="n">
         <v>21</v>
       </c>
       <c r="E436" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="437">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D437" t="n">
         <v>23</v>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D438" t="n">
         <v>24</v>
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D444" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E444" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D446" t="n">
         <v>25</v>
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D448" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E448" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="449">
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D450" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E450" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451">
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D451" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E451" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="452">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D458" t="n">
         <v>23</v>
@@ -10153,13 +10153,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D463" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E463" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="464">
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D464" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E464" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D465" t="n">
         <v>21</v>
       </c>
       <c r="E465" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D466" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E466" t="n">
         <v>22</v>
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D470" t="n">
         <v>22</v>
       </c>
       <c r="E470" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="471">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D472" t="n">
         <v>25</v>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D473" t="n">
         <v>20</v>
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D475" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E475" t="n">
         <v>21</v>
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D482" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E482" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="483">
@@ -10573,13 +10573,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D483" t="n">
         <v>31</v>
       </c>
       <c r="E483" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="484">
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D484" t="n">
         <v>28</v>
       </c>
       <c r="E484" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D485" t="n">
         <v>14</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D486" t="n">
         <v>16</v>
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D488" t="n">
         <v>27</v>
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D491" t="n">
+        <v>26</v>
+      </c>
+      <c r="E491" t="n">
         <v>25</v>
-      </c>
-      <c r="E491" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="492">
@@ -10762,13 +10762,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D492" t="n">
+        <v>30</v>
+      </c>
+      <c r="E492" t="n">
         <v>29</v>
-      </c>
-      <c r="E492" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="493">
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D493" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E493" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="494">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D494" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E494" t="n">
         <v>17</v>
@@ -10867,10 +10867,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D497" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E497" t="n">
         <v>16</v>
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D498" t="n">
         <v>13</v>
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D499" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E499" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="500">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D500" t="n">
         <v>16</v>
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D501" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E501" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="502">
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D504" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E504" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="505">
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D506" t="n">
         <v>30</v>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D507" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E507" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="508">
@@ -11098,13 +11098,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D508" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E508" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509">
@@ -11119,10 +11119,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D509" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E509" t="n">
         <v>29</v>
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D510" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E510" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="511">
@@ -11161,10 +11161,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D511" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E511" t="n">
         <v>21</v>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D512" t="n">
         <v>24</v>
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D513" t="n">
         <v>20</v>
       </c>
       <c r="E513" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514">
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D514" t="n">
         <v>22</v>
@@ -11245,10 +11245,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D515" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E515" t="n">
         <v>23</v>
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D516" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E516" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="517">
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D517" t="n">
         <v>22</v>
       </c>
       <c r="E517" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518">
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D518" t="n">
         <v>24</v>
       </c>
       <c r="E518" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="519">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D520" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E520" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D521" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E521" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="522">
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D524" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E524" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="525">
@@ -11497,13 +11497,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D527" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E527" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="528">
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D528" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E528" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="529">
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D529" t="n">
         <v>14</v>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D531" t="n">
         <v>23</v>
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D533" t="n">
         <v>27</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D535" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E535" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="536">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D536" t="n">
         <v>10</v>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D539" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E539" t="n">
         <v>26</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D540" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E540" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="541">
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D541" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E541" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="542">
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D543" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E543" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="544">
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D544" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E544" t="n">
         <v>17</v>
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D545" t="n">
         <v>16</v>
       </c>
       <c r="E545" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="546">
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D546" t="n">
         <v>22</v>
       </c>
       <c r="E546" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="547">
@@ -11917,10 +11917,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D547" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E547" t="n">
         <v>33</v>
@@ -11938,10 +11938,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D548" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E548" t="n">
         <v>19</v>
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D550" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E550" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="551">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D552" t="n">
         <v>16</v>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D553" t="n">
         <v>26</v>
@@ -12085,7 +12085,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D555" t="n">
         <v>31</v>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D556" t="n">
         <v>23</v>
@@ -12127,7 +12127,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D557" t="n">
         <v>23</v>
@@ -12148,10 +12148,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D558" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E558" t="n">
         <v>26</v>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D560" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E560" t="n">
         <v>27</v>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
       </c>
       <c r="E562" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="563">
@@ -12253,13 +12253,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D563" t="n">
         <v>28</v>
       </c>
       <c r="E563" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="564">
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D564" t="n">
         <v>23</v>
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D565" t="n">
         <v>15</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D566" t="n">
         <v>17</v>
       </c>
       <c r="E566" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="567">
@@ -12358,13 +12358,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D568" t="n">
         <v>17</v>
       </c>
       <c r="E568" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="569">
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D570" t="n">
         <v>20</v>
@@ -12421,10 +12421,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D571" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E571" t="n">
         <v>27</v>
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D572" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E572" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573">
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D573" t="n">
         <v>19</v>
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D576" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E576" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="577">
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D580" t="n">
         <v>24</v>
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D581" t="n">
         <v>31</v>
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D584" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E584" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D585" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E585" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="586">
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D586" t="n">
         <v>26</v>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D588" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E588" t="n">
         <v>25</v>
@@ -12799,13 +12799,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D589" t="n">
         <v>27</v>
       </c>
       <c r="E589" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590">
@@ -12820,10 +12820,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D590" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E590" t="n">
         <v>26</v>
@@ -12841,13 +12841,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D591" t="n">
         <v>26</v>
       </c>
       <c r="E591" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="592">
@@ -12862,13 +12862,13 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D592" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E592" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="593">
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D593" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E593" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="594">
@@ -12967,10 +12967,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D597" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E597" t="n">
         <v>22</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D598" t="n">
         <v>16</v>
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D599" t="n">
         <v>20</v>
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D601" t="n">
         <v>21</v>
       </c>
       <c r="E601" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D602" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E602" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603">
@@ -13093,10 +13093,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D603" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E603" t="n">
         <v>17</v>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D604" t="n">
         <v>27</v>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D605" t="n">
         <v>23</v>
       </c>
       <c r="E605" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="606">
@@ -13156,10 +13156,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D606" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E606" t="n">
         <v>21</v>
@@ -13177,10 +13177,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D607" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E607" t="n">
         <v>23</v>
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D608" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E608" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="609">
@@ -13219,13 +13219,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D609" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E609" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="610">
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D611" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E611" t="n">
         <v>20</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D612" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E612" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="613">
@@ -13303,13 +13303,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D613" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E613" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614">
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D617" t="n">
         <v>29</v>
       </c>
       <c r="E617" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="618">
@@ -13408,13 +13408,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D618" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E618" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="619">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D622" t="n">
         <v>30</v>
@@ -13513,13 +13513,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D623" t="n">
         <v>18</v>
       </c>
       <c r="E623" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="624">
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D625" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E625" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="626">
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D628" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E628" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="629">
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D629" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E629" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D631" t="n">
         <v>20</v>
@@ -13702,10 +13702,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D632" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E632" t="n">
         <v>18</v>
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D633" t="n">
         <v>21</v>
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D635" t="n">
         <v>19</v>
       </c>
       <c r="E635" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="636">
@@ -13828,10 +13828,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D638" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E638" t="n">
         <v>22</v>
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D639" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E639" t="n">
         <v>19</v>
@@ -13870,13 +13870,13 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D640" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E640" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="641">
@@ -13891,10 +13891,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D641" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E641" t="n">
         <v>21</v>
@@ -13933,10 +13933,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D643" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E643" t="n">
         <v>27</v>
@@ -13954,13 +13954,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D644" t="n">
         <v>24</v>
       </c>
       <c r="E644" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="645">
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D645" t="n">
         <v>23</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D646" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E646" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="647">
@@ -14017,13 +14017,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D647" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E647" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="648">
@@ -14038,7 +14038,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D648" t="n">
         <v>20</v>
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D652" t="n">
         <v>19</v>
       </c>
       <c r="E652" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="653">
@@ -14143,10 +14143,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D653" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E653" t="n">
         <v>23</v>
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D656" t="n">
         <v>16</v>
       </c>
       <c r="E656" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="657">
@@ -14248,13 +14248,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D658" t="n">
         <v>16</v>
       </c>
       <c r="E658" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="659">
@@ -14269,13 +14269,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D659" t="n">
         <v>20</v>
       </c>
       <c r="E659" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="660">
@@ -14353,13 +14353,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D663" t="n">
         <v>14</v>
       </c>
       <c r="E663" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="664">
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D664" t="n">
         <v>19</v>
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D665" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E665" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D666" t="n">
+        <v>26</v>
+      </c>
+      <c r="E666" t="n">
         <v>25</v>
-      </c>
-      <c r="E666" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="667">
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D667" t="n">
         <v>28</v>
@@ -14458,7 +14458,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D668" t="n">
         <v>24</v>
@@ -14479,13 +14479,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D669" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E669" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="670">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D671" t="n">
         <v>24</v>
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D673" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E673" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D674" t="n">
         <v>14</v>
       </c>
       <c r="E674" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="675">
@@ -14647,10 +14647,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D677" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E677" t="n">
         <v>28</v>
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D678" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E678" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="679">
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D680" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E680" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="681">
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D681" t="n">
         <v>21</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D683" t="n">
         <v>24</v>
       </c>
       <c r="E683" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="684">
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D688" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E688" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D689" t="n">
         <v>25</v>
       </c>
       <c r="E689" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="690">
@@ -14962,13 +14962,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D692" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E692" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693">
@@ -14983,10 +14983,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D693" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E693" t="n">
         <v>33</v>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D695" t="n">
         <v>20</v>
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D696" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E696" t="n">
         <v>21</v>
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D697" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E697" t="n">
         <v>26</v>
@@ -15109,7 +15109,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D699" t="n">
         <v>18</v>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D700" t="n">
         <v>25</v>
@@ -15151,13 +15151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D701" t="n">
+        <v>19</v>
+      </c>
+      <c r="E701" t="n">
         <v>18</v>
-      </c>
-      <c r="E701" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="702">
@@ -15172,10 +15172,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D702" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E702" t="n">
         <v>28</v>
@@ -15193,13 +15193,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D703" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E703" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="704">
@@ -15235,10 +15235,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D705" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E705" t="n">
         <v>21</v>
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D706" t="n">
         <v>25</v>
       </c>
       <c r="E706" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="707">
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D709" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E709" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="710">
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D710" t="n">
         <v>24</v>
@@ -15361,13 +15361,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D711" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E711" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="712">
@@ -15424,13 +15424,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D714" t="n">
         <v>22</v>
       </c>
       <c r="E714" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="715">
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,10 +15487,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D717" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E717" t="n">
         <v>30</v>
@@ -15508,13 +15508,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D718" t="n">
+        <v>20</v>
+      </c>
+      <c r="E718" t="n">
         <v>19</v>
-      </c>
-      <c r="E718" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="719">
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D720" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E720" t="n">
         <v>23</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D722" t="n">
         <v>21</v>
       </c>
       <c r="E722" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="723">
@@ -15613,13 +15613,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D723" t="n">
         <v>23</v>
       </c>
       <c r="E723" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="724">
@@ -15634,10 +15634,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D724" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E724" t="n">
         <v>27</v>
@@ -15655,7 +15655,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D725" t="n">
         <v>18</v>
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D728" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E728" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="729">
@@ -15739,10 +15739,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D729" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E729" t="n">
         <v>22</v>
@@ -15760,10 +15760,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D730" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E730" t="n">
         <v>24</v>
@@ -15781,10 +15781,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D731" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E731" t="n">
         <v>21</v>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D732" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E732" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="733">
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D735" t="n">
         <v>28</v>
       </c>
       <c r="E735" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="736">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D737" t="n">
         <v>22</v>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D739" t="n">
         <v>19</v>
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D740" t="n">
         <v>20</v>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D741" t="n">
         <v>23</v>
@@ -16033,13 +16033,13 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D743" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E743" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="744">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D745" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E745" t="n">
         <v>26</v>
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D747" t="n">
         <v>15</v>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D749" t="n">
         <v>24</v>
       </c>
       <c r="E749" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="750">
@@ -16222,13 +16222,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D752" t="n">
         <v>23</v>
       </c>
       <c r="E752" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="753">
@@ -16243,13 +16243,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D753" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E753" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="754">
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D754" t="n">
         <v>20</v>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D755" t="n">
         <v>26</v>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D756" t="n">
         <v>29</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D757" t="n">
         <v>23</v>
@@ -16348,13 +16348,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D758" t="n">
         <v>18</v>
       </c>
       <c r="E758" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="759">
@@ -16390,10 +16390,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D760" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E760" t="n">
         <v>22</v>
@@ -16411,7 +16411,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D761" t="n">
         <v>12</v>
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D763" t="n">
         <v>22</v>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D766" t="n">
         <v>22</v>
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D767" t="n">
         <v>18</v>
       </c>
       <c r="E767" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="768">
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D768" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E768" t="n">
         <v>34</v>
@@ -16600,13 +16600,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D770" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E770" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="771">
@@ -16621,13 +16621,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D771" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E771" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="772">
@@ -16642,13 +16642,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D772" t="n">
+        <v>24</v>
+      </c>
+      <c r="E772" t="n">
         <v>23</v>
-      </c>
-      <c r="E772" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="773">
@@ -16663,13 +16663,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D773" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E773" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="774">
@@ -16684,10 +16684,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D774" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E774" t="n">
         <v>15</v>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D776" t="n">
         <v>25</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D777" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E777" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="778">
@@ -16768,10 +16768,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D778" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E778" t="n">
         <v>26</v>
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D782" t="n">
         <v>22</v>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D783" t="n">
         <v>25</v>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D784" t="n">
         <v>18</v>
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D786" t="n">
         <v>18</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D787" t="n">
         <v>19</v>
       </c>
       <c r="E787" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="788">
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D789" t="n">
         <v>22</v>
       </c>
       <c r="E789" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="790">
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D790" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E790" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="791">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D793" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E793" t="n">
         <v>21</v>
@@ -17125,10 +17125,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D795" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E795" t="n">
         <v>14</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D796" t="n">
+        <v>19</v>
+      </c>
+      <c r="E796" t="n">
         <v>18</v>
-      </c>
-      <c r="E796" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="797">
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D798" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E798" t="n">
         <v>21</v>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D799" t="n">
         <v>20</v>
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D805" t="n">
         <v>23</v>
       </c>
       <c r="E805" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="806">
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D811" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E811" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="812">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D812" t="n">
         <v>24</v>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D814" t="n">
         <v>31</v>
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D815" t="n">
         <v>13</v>
       </c>
       <c r="E815" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="816">
@@ -17608,13 +17608,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D818" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E818" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="819">
@@ -17650,13 +17650,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D820" t="n">
         <v>25</v>
       </c>
       <c r="E820" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="821">
@@ -17734,10 +17734,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D824" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E824" t="n">
         <v>24</v>
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D825" t="n">
         <v>24</v>
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D829" t="n">
         <v>23</v>
       </c>
       <c r="E829" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="830">
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D840" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E840" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="841">
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D842" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E842" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="843">
@@ -18133,10 +18133,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D843" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E843" t="n">
         <v>16</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D845" t="n">
         <v>31</v>
       </c>
       <c r="E845" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="846">
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D847" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E847" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="848">
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D848" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E848" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="849">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D857" t="n">
         <v>30</v>
@@ -18532,10 +18532,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D862" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E862" t="n">
         <v>25</v>
@@ -18553,10 +18553,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D863" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E863" t="n">
         <v>18</v>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D864" t="n">
         <v>21</v>
@@ -18637,13 +18637,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D867" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E867" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="868">
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D873" t="n">
         <v>25</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D874" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E874" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="875">
@@ -18805,7 +18805,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D875" t="n">
         <v>22</v>
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D876" t="n">
         <v>23</v>
@@ -18868,10 +18868,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D878" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E878" t="n">
         <v>22</v>
@@ -18931,7 +18931,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D881" t="n">
         <v>18</v>
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D882" t="n">
         <v>20</v>
@@ -18973,10 +18973,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D883" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E883" t="n">
         <v>26</v>
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D884" t="n">
+        <v>26</v>
+      </c>
+      <c r="E884" t="n">
         <v>25</v>
-      </c>
-      <c r="E884" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="885">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D885" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E885" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="886">
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D889" t="n">
         <v>21</v>
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D891" t="n">
         <v>24</v>
       </c>
       <c r="E891" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="892">
@@ -19225,10 +19225,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D895" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E895" t="n">
         <v>29</v>
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D903" t="n">
         <v>22</v>
@@ -19519,10 +19519,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D909" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E909" t="n">
         <v>23</v>
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D911" t="n">
         <v>14</v>
@@ -19645,13 +19645,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D915" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E915" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="916">
@@ -19687,10 +19687,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D917" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E917" t="n">
         <v>24</v>
@@ -19729,10 +19729,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D919" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E919" t="n">
         <v>28</v>
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D923" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E923" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="924">
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D926" t="n">
         <v>19</v>
       </c>
       <c r="E926" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="927">
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D928" t="n">
         <v>20</v>
       </c>
       <c r="E928" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="929">
@@ -19981,13 +19981,13 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D931" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E931" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="932">
@@ -20023,13 +20023,13 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D933" t="n">
         <v>18</v>
       </c>
       <c r="E933" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="934">
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D934" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E934" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="935">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D935" t="n">
         <v>18</v>
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D936" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E936" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="937">
@@ -20233,10 +20233,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D943" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E943" t="n">
         <v>25</v>
@@ -20275,10 +20275,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D945" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E945" t="n">
         <v>25</v>
@@ -20317,13 +20317,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D947" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E947" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="948">
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D949" t="n">
         <v>32</v>
@@ -20380,10 +20380,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D950" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E950" t="n">
         <v>19</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D951" t="n">
         <v>26</v>
       </c>
       <c r="E951" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="952">
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D952" t="n">
         <v>22</v>
       </c>
       <c r="E952" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="953">
@@ -20464,10 +20464,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D954" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E954" t="n">
         <v>20</v>
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D955" t="n">
         <v>16</v>
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D961" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E961" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="962">
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D963" t="n">
         <v>25</v>
@@ -20674,10 +20674,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D964" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E964" t="n">
         <v>29</v>
@@ -20716,13 +20716,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D966" t="n">
         <v>16</v>
       </c>
       <c r="E966" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="967">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D970" t="n">
         <v>25</v>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D972" t="n">
         <v>22</v>
@@ -20884,10 +20884,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D974" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E974" t="n">
         <v>19</v>
@@ -20968,10 +20968,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D978" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E978" t="n">
         <v>27</v>
@@ -20989,10 +20989,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D979" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E979" t="n">
         <v>24</v>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D980" t="n">
         <v>15</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D982" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E982" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="983">
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D987" t="n">
         <v>20</v>
       </c>
       <c r="E987" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="988">
@@ -21388,10 +21388,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D998" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E998" t="n">
         <v>10</v>
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1010" t="n">
         <v>22</v>
@@ -21661,13 +21661,13 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1011" t="n">
         <v>20</v>
       </c>
       <c r="E1011" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1012">
@@ -21682,10 +21682,10 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1012" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1012" t="n">
         <v>24</v>
@@ -21766,13 +21766,13 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
       </c>
       <c r="E1016" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1017">
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1018" t="n">
         <v>23</v>
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1025" t="n">
         <v>13</v>
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1026" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1026" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1028" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1028" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,13 +22060,13 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1030" t="n">
         <v>23</v>
       </c>
       <c r="E1030" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1031">
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1033" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1033" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,13 +22165,13 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1035" t="n">
         <v>27</v>
       </c>
       <c r="E1035" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1036">
@@ -22186,10 +22186,10 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1036" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1036" t="n">
         <v>18</v>
@@ -22249,10 +22249,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1039" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -22354,10 +22354,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1044" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1044" t="n">
         <v>20</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,10 +22438,10 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1048" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1048" t="n">
         <v>28</v>
@@ -22480,7 +22480,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1050" t="n">
         <v>21</v>
@@ -22564,13 +22564,13 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1054" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1054" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1055">
@@ -22732,10 +22732,10 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1062" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1062" t="n">
         <v>28</v>
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1064" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1064" t="n">
         <v>23</v>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1076" t="n">
         <v>18</v>
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1080" t="n">
         <v>28</v>
       </c>
       <c r="E1080" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,10 +23194,10 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1084" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1084" t="n">
         <v>18</v>
@@ -23215,10 +23215,10 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1085" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1085" t="n">
         <v>21</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1088" t="n">
         <v>21</v>
       </c>
       <c r="E1088" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1089" t="n">
         <v>26</v>
       </c>
       <c r="E1089" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1090" t="n">
         <v>20</v>
       </c>
       <c r="E1090" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1091">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1093" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1093" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,10 +23467,10 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1097" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1097" t="n">
         <v>34</v>
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1098" t="n">
         <v>20</v>
       </c>
       <c r="E1098" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,13 +23551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1101" t="n">
         <v>25</v>
       </c>
       <c r="E1101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1102">
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1102" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1106" t="n">
         <v>23</v>
       </c>
       <c r="E1106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1107" t="n">
         <v>21</v>
       </c>
       <c r="E1107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1109" t="n">
         <v>18</v>
       </c>
       <c r="E1109" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1110" t="n">
         <v>23</v>
@@ -23761,10 +23761,10 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1111" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1111" t="n">
         <v>29</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1115" t="n">
         <v>25</v>
       </c>
       <c r="E1115" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1119" t="n">
         <v>22</v>
@@ -23971,10 +23971,10 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1121" t="n">
         <v>17</v>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1123" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1124" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1124" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1130" t="n">
         <v>16</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1135" t="n">
         <v>25</v>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1140" t="n">
         <v>18</v>
       </c>
       <c r="E1140" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1145" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1146" t="n">
         <v>23</v>
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1150" t="n">
         <v>23</v>
       </c>
       <c r="E1150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1151" t="n">
         <v>21</v>
       </c>
       <c r="E1151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,13 +25021,13 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1171" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1171" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1172">
@@ -25042,10 +25042,10 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1172" t="n">
         <v>33</v>
@@ -25126,10 +25126,10 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1176" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1176" t="n">
         <v>33</v>
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1177" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1177" t="n">
         <v>18</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1186" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1186" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1194" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1194" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,10 +25567,10 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1197" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1197" t="n">
         <v>28</v>
@@ -25609,10 +25609,10 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1199" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1199" t="n">
         <v>26</v>
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1201" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1201" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1209" t="n">
         <v>20</v>
       </c>
       <c r="E1209" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1213" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1213" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1214" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1216" t="n">
         <v>20</v>
@@ -26092,13 +26092,13 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1222" t="n">
         <v>12</v>
       </c>
       <c r="E1222" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1223">
@@ -26176,10 +26176,10 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1226" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1233" t="n">
         <v>24</v>
@@ -26344,10 +26344,10 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1234" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1234" t="n">
         <v>20</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1235" t="n">
         <v>28</v>
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1236" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1236" t="n">
         <v>31</v>
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1245" t="n">
         <v>24</v>
@@ -26596,10 +26596,10 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1246" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1246" t="n">
         <v>25</v>
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1247" t="n">
         <v>24</v>
       </c>
       <c r="E1247" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1249" t="n">
         <v>24</v>
       </c>
       <c r="E1249" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1251" t="n">
         <v>25</v>
       </c>
       <c r="E1251" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1255" t="n">
         <v>22</v>
       </c>
       <c r="E1255" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1256" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1256" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1258" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1258" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1259" t="n">
         <v>18</v>
@@ -26890,13 +26890,13 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1260" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1260" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1261">
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1262" t="n">
         <v>29</v>
@@ -26974,7 +26974,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1264" t="n">
         <v>24</v>
@@ -27016,7 +27016,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1266" t="n">
         <v>19</v>
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1269" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1269" t="n">
         <v>32</v>
@@ -27100,13 +27100,13 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1270" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1270" t="n">
         <v>26</v>
-      </c>
-      <c r="E1270" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1271">
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1279" t="n">
         <v>22</v>
       </c>
       <c r="E1279" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,7 +27310,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1280" t="n">
         <v>29</v>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1296" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1296" t="n">
         <v>19</v>
@@ -27709,7 +27709,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1299" t="n">
         <v>24</v>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1300" t="n">
         <v>24</v>
@@ -27751,13 +27751,13 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1301" t="n">
         <v>15</v>
       </c>
       <c r="E1301" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1302">
@@ -27793,13 +27793,13 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1303" t="n">
         <v>19</v>
       </c>
       <c r="E1303" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1304">
@@ -27814,13 +27814,13 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1304" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1304" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1305">
@@ -27835,10 +27835,10 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1305" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1305" t="n">
         <v>26</v>
@@ -27856,7 +27856,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1306" t="n">
         <v>23</v>
@@ -27919,13 +27919,13 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1309" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1309" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1310">
@@ -28024,10 +28024,10 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1314" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1314" t="n">
         <v>24</v>
@@ -28108,13 +28108,13 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1318" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1318" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1319">
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1335" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1335" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1337" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1337" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,10 +28528,10 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1338" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1338" t="n">
         <v>27</v>
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1346" t="n">
         <v>20</v>
@@ -28717,7 +28717,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1347" t="n">
         <v>24</v>
@@ -28738,7 +28738,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1348" t="n">
         <v>17</v>
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1350" t="n">
         <v>21</v>
       </c>
       <c r="E1350" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1352" t="n">
         <v>25</v>
       </c>
       <c r="E1352" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1354" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1354" t="n">
         <v>16</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1358" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1358" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1362" t="n">
         <v>13</v>
@@ -29053,13 +29053,13 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1363" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1363" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1364">
@@ -29074,10 +29074,10 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1364" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1364" t="n">
         <v>19</v>
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1366" t="n">
         <v>27</v>
       </c>
       <c r="E1366" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,10 +29137,10 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1367" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1367" t="n">
         <v>20</v>
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1370" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1370" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1380" t="n">
         <v>18</v>
       </c>
       <c r="E1380" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,7 +29494,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1384" t="n">
         <v>23</v>
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1385" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1385" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1386" t="n">
         <v>17</v>
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1387" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,10 +29641,10 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1391" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1391" t="n">
         <v>28</v>
@@ -29704,10 +29704,10 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1394" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1394" t="n">
         <v>24</v>
@@ -29767,10 +29767,10 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1397" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1397" t="n">
         <v>24</v>
@@ -29809,10 +29809,10 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1399" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1399" t="n">
         <v>16</v>
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1401" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1401" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,10 +29872,10 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1402" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1402" t="n">
         <v>21</v>
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1406" t="n">
         <v>25</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1414" t="n">
         <v>22</v>
@@ -30145,10 +30145,10 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1415" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1415" t="n">
         <v>32</v>
@@ -30250,13 +30250,13 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1420" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1420" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1421">
@@ -30355,13 +30355,13 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1425" t="n">
         <v>15</v>
       </c>
       <c r="E1425" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1426">
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,10 +30439,10 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1429" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1429" t="n">
         <v>18</v>
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1433" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1433" t="n">
         <v>27</v>
-      </c>
-      <c r="E1433" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,10 +30649,10 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1439" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1439" t="n">
         <v>18</v>
@@ -30964,10 +30964,10 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1454" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1454" t="n">
         <v>28</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>32</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="n">
         <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="n">
         <v>22</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" t="n">
         <v>29</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="n">
         <v>22</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" t="n">
         <v>26</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
         <v>22</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
         <v>25</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="n">
         <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" t="n">
         <v>30</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" t="n">
         <v>24</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
         <v>25</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" t="n">
         <v>29</v>
       </c>
       <c r="E51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D55" t="n">
         <v>24</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
         <v>37</v>
       </c>
       <c r="E57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58" t="n">
         <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
         <v>30</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D63" t="n">
         <v>26</v>
       </c>
       <c r="E63" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
         <v>25</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E66" t="n">
         <v>29</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" t="n">
         <v>26</v>
       </c>
       <c r="E67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" t="n">
         <v>25</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E74" t="n">
         <v>26</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" t="n">
         <v>27</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E83" t="n">
         <v>25</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
         <v>29</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E87" t="n">
         <v>30</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D89" t="n">
         <v>24</v>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E91" t="n">
         <v>21</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
         <v>25</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D100" t="n">
         <v>24</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D101" t="n">
         <v>26</v>
       </c>
       <c r="E101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D109" t="n">
         <v>22</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D110" t="n">
         <v>22</v>
       </c>
       <c r="E110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D112" t="n">
         <v>29</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
         <v>21</v>
       </c>
       <c r="E113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D114" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D117" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E117" t="n">
         <v>23</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E119" t="n">
         <v>22</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D125" t="n">
+        <v>31</v>
+      </c>
+      <c r="E125" t="n">
         <v>30</v>
-      </c>
-      <c r="E125" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D127" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E127" t="n">
         <v>27</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D128" t="n">
         <v>21</v>
       </c>
       <c r="E128" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D129" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E129" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D130" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E130" t="n">
         <v>25</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E133" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D134" t="n">
         <v>26</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D135" t="n">
         <v>23</v>
       </c>
       <c r="E135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D137" t="n">
         <v>23</v>
       </c>
       <c r="E137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D138" t="n">
         <v>33</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D139" t="n">
         <v>22</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D141" t="n">
         <v>26</v>
       </c>
       <c r="E141" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D142" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E142" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D143" t="n">
         <v>18</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D144" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E144" t="n">
         <v>20</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D145" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E145" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D146" t="n">
         <v>19</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D147" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" t="n">
         <v>35</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D148" t="n">
         <v>26</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D149" t="n">
         <v>24</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D151" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E151" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D152" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E152" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D153" t="n">
         <v>22</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D156" t="n">
         <v>28</v>
       </c>
       <c r="E156" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D157" t="n">
         <v>25</v>
       </c>
       <c r="E157" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E158" t="n">
         <v>26</v>
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D159" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E159" t="n">
         <v>23</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D160" t="n">
         <v>21</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D162" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E162" t="n">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D163" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D167" t="n">
         <v>27</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D168" t="n">
         <v>23</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D170" t="n">
+        <v>24</v>
+      </c>
+      <c r="E170" t="n">
         <v>23</v>
-      </c>
-      <c r="E170" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D171" t="n">
         <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D175" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E175" t="n">
         <v>21</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D180" t="n">
         <v>22</v>
       </c>
       <c r="E180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D184" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E184" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D185" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E185" t="n">
         <v>22</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D186" t="n">
         <v>19</v>
       </c>
       <c r="E186" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D187" t="n">
         <v>16</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D189" t="n">
         <v>23</v>
       </c>
       <c r="E189" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D193" t="n">
         <v>21</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D194" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E194" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D195" t="n">
         <v>23</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D196" t="n">
         <v>32</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E198" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D199" t="n">
         <v>24</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D202" t="n">
         <v>27</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D204" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E204" t="n">
         <v>21</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D205" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E205" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D206" t="n">
         <v>24</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D207" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E207" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D209" t="n">
         <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D211" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E211" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212">
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D213" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E213" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D215" t="n">
         <v>21</v>
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D216" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E216" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D217" t="n">
         <v>28</v>
       </c>
       <c r="E217" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D218" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E218" t="n">
         <v>17</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D222" t="n">
         <v>23</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D223" t="n">
         <v>24</v>
       </c>
       <c r="E223" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D224" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E224" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D225" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E225" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226">
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D226" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E226" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227">
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D227" t="n">
         <v>23</v>
       </c>
       <c r="E227" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228">
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D228" t="n">
         <v>23</v>
       </c>
       <c r="E228" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D230" t="n">
         <v>32</v>
       </c>
       <c r="E230" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D231" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E231" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232">
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D232" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E232" t="n">
         <v>29</v>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D233" t="n">
         <v>24</v>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E234" t="n">
         <v>20</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D235" t="n">
         <v>30</v>
       </c>
       <c r="E235" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236">
@@ -5428,13 +5428,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D238" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E238" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D241" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D242" t="n">
         <v>20</v>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D243" t="n">
         <v>30</v>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D244" t="n">
         <v>19</v>
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D245" t="n">
         <v>29</v>
       </c>
       <c r="E245" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D246" t="n">
         <v>24</v>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D247" t="n">
         <v>25</v>
       </c>
       <c r="E247" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248">
@@ -5638,13 +5638,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D248" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E248" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249">
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D249" t="n">
         <v>20</v>
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D250" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E250" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D251" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E251" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252">
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D252" t="n">
         <v>23</v>
       </c>
       <c r="E252" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253">
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D253" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E253" t="n">
         <v>25</v>
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D254" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E254" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D255" t="n">
         <v>23</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D257" t="n">
         <v>23</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D260" t="n">
         <v>23</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D262" t="n">
         <v>28</v>
       </c>
       <c r="E262" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D263" t="n">
         <v>22</v>
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D264" t="n">
         <v>24</v>
       </c>
       <c r="E264" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D265" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E265" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D267" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E267" t="n">
         <v>25</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D270" t="n">
         <v>22</v>
       </c>
       <c r="E270" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D271" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E271" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272">
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D273" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E273" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D276" t="n">
         <v>24</v>
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D278" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E278" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D280" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E280" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D283" t="n">
         <v>24</v>
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D284" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E284" t="n">
         <v>23</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D285" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E285" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D286" t="n">
         <v>23</v>
       </c>
       <c r="E286" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287">
@@ -6457,10 +6457,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D287" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E287" t="n">
         <v>23</v>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D288" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E288" t="n">
         <v>23</v>
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
       </c>
       <c r="E289" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D292" t="n">
         <v>30</v>
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D294" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E294" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295">
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D295" t="n">
         <v>31</v>
       </c>
       <c r="E295" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D297" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E297" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D298" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E298" t="n">
         <v>27</v>
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D299" t="n">
         <v>37</v>
       </c>
       <c r="E299" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300">
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D301" t="n">
         <v>24</v>
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D302" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E302" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D305" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E305" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306">
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D307" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E307" t="n">
         <v>27</v>
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D308" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E308" t="n">
         <v>20</v>
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D311" t="n">
         <v>26</v>
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D314" t="n">
         <v>28</v>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D316" t="n">
         <v>29</v>
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D317" t="n">
         <v>20</v>
       </c>
       <c r="E317" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D323" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E323" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D324" t="n">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D325" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E325" t="n">
         <v>23</v>
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D327" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E327" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D331" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E331" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -7402,13 +7402,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D332" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E332" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333">
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D336" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E336" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337">
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D337" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E337" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="338">
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D338" t="n">
         <v>26</v>
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D339" t="n">
         <v>22</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D341" t="n">
         <v>24</v>
@@ -7654,10 +7654,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D344" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E344" t="n">
         <v>22</v>
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D346" t="n">
         <v>25</v>
       </c>
       <c r="E346" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347">
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D347" t="n">
         <v>26</v>
       </c>
       <c r="E347" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348">
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D348" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E348" t="n">
         <v>24</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D349" t="n">
         <v>29</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D352" t="n">
         <v>27</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D355" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E355" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="356">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D358" t="n">
         <v>23</v>
@@ -7969,10 +7969,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D359" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E359" t="n">
         <v>27</v>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D362" t="n">
         <v>23</v>
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D363" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E363" t="n">
         <v>32</v>
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D366" t="n">
         <v>19</v>
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D367" t="n">
         <v>26</v>
       </c>
       <c r="E367" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368">
@@ -8158,13 +8158,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D368" t="n">
         <v>28</v>
       </c>
       <c r="E368" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D372" t="n">
         <v>26</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D373" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E373" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D374" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E374" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375">
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D375" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E375" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D377" t="n">
         <v>22</v>
       </c>
       <c r="E377" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="378">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D378" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E378" t="n">
         <v>20</v>
@@ -8389,13 +8389,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D379" t="n">
         <v>23</v>
       </c>
       <c r="E379" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="380">
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D381" t="n">
         <v>26</v>
       </c>
       <c r="E381" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="382">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D382" t="n">
         <v>20</v>
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D383" t="n">
+        <v>27</v>
+      </c>
+      <c r="E383" t="n">
         <v>26</v>
-      </c>
-      <c r="E383" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="384">
@@ -8494,13 +8494,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D384" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E384" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385">
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D385" t="n">
         <v>19</v>
@@ -8557,13 +8557,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D387" t="n">
         <v>25</v>
       </c>
       <c r="E387" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="388">
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D388" t="n">
         <v>22</v>
       </c>
       <c r="E388" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="389">
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D389" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E389" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="390">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D390" t="n">
         <v>22</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D391" t="n">
         <v>20</v>
       </c>
       <c r="E391" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392">
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D393" t="n">
         <v>27</v>
@@ -8725,10 +8725,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D395" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E395" t="n">
         <v>30</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D396" t="n">
         <v>27</v>
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D399" t="n">
         <v>30</v>
       </c>
       <c r="E399" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="400">
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D400" t="n">
         <v>30</v>
       </c>
       <c r="E400" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D401" t="n">
         <v>25</v>
       </c>
       <c r="E401" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D407" t="n">
         <v>24</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D410" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E410" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="411">
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D411" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E411" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="412">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D412" t="n">
         <v>26</v>
@@ -9103,7 +9103,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D413" t="n">
         <v>22</v>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D415" t="n">
         <v>2</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D416" t="n">
         <v>25</v>
       </c>
       <c r="E416" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="417">
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D418" t="n">
         <v>22</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D425" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E425" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426">
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D427" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E427" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428">
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D429" t="n">
+        <v>32</v>
+      </c>
+      <c r="E429" t="n">
         <v>31</v>
-      </c>
-      <c r="E429" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="430">
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D431" t="n">
         <v>25</v>
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D432" t="n">
         <v>24</v>
       </c>
       <c r="E432" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433">
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D434" t="n">
         <v>24</v>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D436" t="n">
         <v>22</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D437" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E437" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="438">
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D438" t="n">
         <v>24</v>
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D444" t="n">
         <v>23</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D446" t="n">
         <v>25</v>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D448" t="n">
         <v>33</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D450" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E450" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451">
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D451" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E451" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="452">
@@ -10048,13 +10048,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D458" t="n">
         <v>24</v>
       </c>
       <c r="E458" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="459">
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D463" t="n">
         <v>25</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D464" t="n">
         <v>28</v>
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D465" t="n">
         <v>22</v>
       </c>
       <c r="E465" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="466">
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D466" t="n">
         <v>16</v>
       </c>
       <c r="E466" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467">
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D470" t="n">
         <v>23</v>
       </c>
       <c r="E470" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="471">
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D472" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E472" t="n">
         <v>17</v>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D473" t="n">
         <v>21</v>
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D475" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E475" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="476">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D482" t="n">
         <v>26</v>
@@ -10573,13 +10573,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D483" t="n">
         <v>31</v>
       </c>
       <c r="E483" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="484">
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D484" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E484" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D485" t="n">
         <v>14</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D486" t="n">
         <v>16</v>
@@ -10678,13 +10678,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D488" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E488" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="489">
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D491" t="n">
+        <v>28</v>
+      </c>
+      <c r="E491" t="n">
         <v>27</v>
-      </c>
-      <c r="E491" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="492">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D492" t="n">
         <v>31</v>
@@ -10783,10 +10783,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D493" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E493" t="n">
         <v>24</v>
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D494" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E494" t="n">
         <v>18</v>
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D497" t="n">
         <v>26</v>
       </c>
       <c r="E497" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="498">
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D498" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E498" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="499">
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D499" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E499" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="500">
@@ -10930,13 +10930,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D500" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E500" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="501">
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D501" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E501" t="n">
         <v>21</v>
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D504" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E504" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="505">
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D506" t="n">
         <v>31</v>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D507" t="n">
         <v>22</v>
       </c>
       <c r="E507" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="508">
@@ -11098,13 +11098,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D508" t="n">
         <v>12</v>
       </c>
       <c r="E508" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509">
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D509" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E509" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="510">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D510" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E510" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="511">
@@ -11161,10 +11161,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D511" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E511" t="n">
         <v>22</v>
@@ -11182,13 +11182,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D512" t="n">
         <v>25</v>
       </c>
       <c r="E512" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="513">
@@ -11203,10 +11203,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D513" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E513" t="n">
         <v>27</v>
@@ -11224,10 +11224,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D514" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E514" t="n">
         <v>26</v>
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D515" t="n">
         <v>26</v>
       </c>
       <c r="E515" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="516">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D516" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D517" t="n">
         <v>23</v>
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D518" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E518" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="519">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D520" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E520" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D521" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E521" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="522">
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D524" t="n">
         <v>32</v>
       </c>
       <c r="E524" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="525">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D527" t="n">
         <v>22</v>
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D528" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E528" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="529">
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D529" t="n">
         <v>15</v>
       </c>
       <c r="E529" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
@@ -11581,13 +11581,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D531" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E531" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="532">
@@ -11623,10 +11623,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D533" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E533" t="n">
         <v>23</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D535" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E535" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="536">
@@ -11686,13 +11686,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D536" t="n">
         <v>10</v>
       </c>
       <c r="E536" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="537">
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D539" t="n">
         <v>31</v>
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D540" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E540" t="n">
         <v>28</v>
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D541" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E541" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="542">
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D543" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E543" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="544">
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D544" t="n">
         <v>26</v>
       </c>
       <c r="E544" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="545">
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D545" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E545" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="546">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D546" t="n">
         <v>23</v>
@@ -11917,7 +11917,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D547" t="n">
         <v>31</v>
@@ -11938,10 +11938,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D548" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E548" t="n">
         <v>19</v>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D550" t="n">
         <v>28</v>
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D552" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E552" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="553">
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D553" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E553" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="554">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D555" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E555" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="556">
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D556" t="n">
         <v>24</v>
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D557" t="n">
         <v>23</v>
       </c>
       <c r="E557" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="558">
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D558" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E558" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="559">
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D560" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E560" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="561">
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D563" t="n">
         <v>29</v>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D564" t="n">
         <v>24</v>
       </c>
       <c r="E564" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="565">
@@ -12295,10 +12295,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D565" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E565" t="n">
         <v>22</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D566" t="n">
         <v>18</v>
       </c>
       <c r="E566" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="567">
@@ -12358,13 +12358,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D568" t="n">
         <v>17</v>
       </c>
       <c r="E568" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="569">
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D570" t="n">
         <v>20</v>
@@ -12421,10 +12421,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D571" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E571" t="n">
         <v>27</v>
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D572" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E572" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="573">
@@ -12463,13 +12463,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D573" t="n">
         <v>19</v>
       </c>
       <c r="E573" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="574">
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D576" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E576" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="577">
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D580" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E580" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="581">
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D581" t="n">
         <v>32</v>
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D584" t="n">
         <v>34</v>
       </c>
       <c r="E584" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585">
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D585" t="n">
         <v>28</v>
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D586" t="n">
         <v>27</v>
       </c>
       <c r="E586" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="587">
@@ -12778,13 +12778,13 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D588" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E588" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="589">
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D589" t="n">
         <v>28</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D590" t="n">
         <v>30</v>
       </c>
       <c r="E590" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="591">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D591" t="n">
         <v>27</v>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D592" t="n">
         <v>23</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D593" t="n">
         <v>25</v>
       </c>
       <c r="E593" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="594">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D597" t="n">
         <v>19</v>
@@ -12988,13 +12988,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D598" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E598" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="599">
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D599" t="n">
         <v>20</v>
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D601" t="n">
         <v>21</v>
       </c>
       <c r="E601" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D602" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E602" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="603">
@@ -13093,13 +13093,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D603" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E603" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="604">
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D604" t="n">
         <v>27</v>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D605" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E605" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="606">
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D606" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E606" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="607">
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D607" t="n">
         <v>16</v>
       </c>
       <c r="E607" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="608">
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D608" t="n">
         <v>23</v>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D609" t="n">
         <v>19</v>
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D611" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E611" t="n">
         <v>21</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D612" t="n">
         <v>26</v>
       </c>
       <c r="E612" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="613">
@@ -13303,13 +13303,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D613" t="n">
         <v>31</v>
       </c>
       <c r="E613" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="614">
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D617" t="n">
         <v>30</v>
@@ -13408,13 +13408,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D618" t="n">
         <v>27</v>
       </c>
       <c r="E618" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="619">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D622" t="n">
         <v>30</v>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D623" t="n">
         <v>19</v>
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D625" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E625" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="626">
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D628" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E628" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="629">
@@ -13639,10 +13639,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D629" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E629" t="n">
         <v>21</v>
@@ -13681,13 +13681,13 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D631" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E631" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="632">
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D632" t="n">
         <v>21</v>
       </c>
       <c r="E632" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="633">
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D633" t="n">
         <v>21</v>
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D635" t="n">
         <v>19</v>
       </c>
       <c r="E635" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="636">
@@ -13828,10 +13828,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D638" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E638" t="n">
         <v>22</v>
@@ -13849,7 +13849,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D639" t="n">
         <v>18</v>
@@ -13870,13 +13870,13 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D640" t="n">
+        <v>22</v>
+      </c>
+      <c r="E640" t="n">
         <v>21</v>
-      </c>
-      <c r="E640" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="641">
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D641" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E641" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="642">
@@ -13933,13 +13933,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D643" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E643" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="644">
@@ -13954,10 +13954,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D644" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E644" t="n">
         <v>23</v>
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D645" t="n">
         <v>23</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D646" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E646" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="647">
@@ -14017,10 +14017,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D647" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E647" t="n">
         <v>20</v>
@@ -14038,13 +14038,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D648" t="n">
         <v>20</v>
       </c>
       <c r="E648" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="649">
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D652" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E652" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="653">
@@ -14143,10 +14143,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D653" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E653" t="n">
         <v>24</v>
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D656" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E656" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="657">
@@ -14248,13 +14248,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D658" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E658" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="659">
@@ -14269,13 +14269,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D659" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E659" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="660">
@@ -14353,10 +14353,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D663" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E663" t="n">
         <v>28</v>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D664" t="n">
         <v>20</v>
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D665" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E665" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D666" t="n">
         <v>26</v>
       </c>
       <c r="E666" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="667">
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D667" t="n">
         <v>28</v>
@@ -14458,7 +14458,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D668" t="n">
         <v>25</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D669" t="n">
         <v>26</v>
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D671" t="n">
         <v>24</v>
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D673" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E673" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D674" t="n">
         <v>14</v>
       </c>
       <c r="E674" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="675">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D677" t="n">
         <v>16</v>
@@ -14668,10 +14668,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D678" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E678" t="n">
         <v>23</v>
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D680" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E680" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="681">
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D681" t="n">
         <v>22</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D683" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E683" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="684">
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D688" t="n">
         <v>23</v>
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D689" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E689" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="690">
@@ -14962,13 +14962,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D692" t="n">
         <v>22</v>
       </c>
       <c r="E692" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="693">
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D693" t="n">
         <v>29</v>
       </c>
       <c r="E693" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="694">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D695" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E695" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="696">
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D696" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E696" t="n">
         <v>21</v>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D697" t="n">
         <v>28</v>
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D699" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E699" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="700">
@@ -15130,13 +15130,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D700" t="n">
         <v>25</v>
       </c>
       <c r="E700" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="701">
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D701" t="n">
         <v>19</v>
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D702" t="n">
         <v>29</v>
@@ -15193,7 +15193,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D703" t="n">
         <v>27</v>
@@ -15235,10 +15235,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D705" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E705" t="n">
         <v>21</v>
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D706" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E706" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="707">
@@ -15277,13 +15277,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
       </c>
       <c r="E707" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="708">
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D709" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E709" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="710">
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D710" t="n">
         <v>24</v>
@@ -15361,13 +15361,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D711" t="n">
         <v>25</v>
       </c>
       <c r="E711" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="712">
@@ -15424,13 +15424,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D714" t="n">
         <v>22</v>
       </c>
       <c r="E714" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="715">
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D717" t="n">
         <v>25</v>
       </c>
       <c r="E717" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="718">
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D718" t="n">
         <v>20</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D720" t="n">
         <v>21</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D722" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E722" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="723">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D723" t="n">
         <v>23</v>
@@ -15634,13 +15634,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D724" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E724" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="725">
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D725" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E725" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D728" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E728" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="729">
@@ -15739,10 +15739,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D729" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E729" t="n">
         <v>22</v>
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D730" t="n">
         <v>15</v>
       </c>
       <c r="E730" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="731">
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D731" t="n">
         <v>27</v>
       </c>
       <c r="E731" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="732">
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D732" t="n">
         <v>25</v>
       </c>
       <c r="E732" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="733">
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D735" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E735" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="736">
@@ -15907,13 +15907,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D737" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E737" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="738">
@@ -15949,13 +15949,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D739" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E739" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="740">
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D740" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E740" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="741">
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D741" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E741" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="742">
@@ -16033,13 +16033,13 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D743" t="n">
         <v>21</v>
       </c>
       <c r="E743" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="744">
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D745" t="n">
         <v>31</v>
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D747" t="n">
         <v>15</v>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D749" t="n">
         <v>24</v>
       </c>
       <c r="E749" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="750">
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D752" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E752" t="n">
         <v>24</v>
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D753" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E753" t="n">
         <v>23</v>
@@ -16264,13 +16264,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D754" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E754" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="755">
@@ -16285,10 +16285,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D755" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E755" t="n">
         <v>22</v>
@@ -16306,13 +16306,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D756" t="n">
+        <v>31</v>
+      </c>
+      <c r="E756" t="n">
         <v>30</v>
-      </c>
-      <c r="E756" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="757">
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D757" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E757" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="758">
@@ -16348,13 +16348,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D758" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E758" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="759">
@@ -16390,10 +16390,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D760" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E760" t="n">
         <v>23</v>
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D761" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E761" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="762">
@@ -16453,10 +16453,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D763" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E763" t="n">
         <v>21</v>
@@ -16516,10 +16516,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D766" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E766" t="n">
         <v>22</v>
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D767" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E767" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="768">
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D768" t="n">
         <v>12</v>
       </c>
       <c r="E768" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="769">
@@ -16600,13 +16600,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D770" t="n">
         <v>23</v>
       </c>
       <c r="E770" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="771">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D771" t="n">
         <v>25</v>
@@ -16642,13 +16642,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D772" t="n">
         <v>24</v>
       </c>
       <c r="E772" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="773">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D773" t="n">
         <v>23</v>
@@ -16684,13 +16684,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D774" t="n">
         <v>18</v>
       </c>
       <c r="E774" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D776" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E776" t="n">
         <v>23</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D777" t="n">
         <v>22</v>
       </c>
       <c r="E777" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="778">
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D778" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E778" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D782" t="n">
         <v>22</v>
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D783" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E783" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="784">
@@ -16894,13 +16894,13 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D784" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E784" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="785">
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D786" t="n">
         <v>18</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D787" t="n">
         <v>19</v>
       </c>
       <c r="E787" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="788">
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D789" t="n">
         <v>22</v>
       </c>
       <c r="E789" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="790">
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D790" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E790" t="n">
         <v>23</v>
@@ -17083,13 +17083,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D793" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E793" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="794">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D795" t="n">
         <v>24</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D796" t="n">
+        <v>21</v>
+      </c>
+      <c r="E796" t="n">
         <v>20</v>
-      </c>
-      <c r="E796" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="797">
@@ -17188,13 +17188,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D798" t="n">
         <v>23</v>
       </c>
       <c r="E798" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="799">
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D799" t="n">
         <v>20</v>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D800" t="n">
         <v>22</v>
@@ -17251,13 +17251,13 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D801" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E801" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="802">
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D803" t="n">
         <v>22</v>
@@ -17314,13 +17314,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D804" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E804" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="805">
@@ -17335,10 +17335,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D805" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E805" t="n">
         <v>20</v>
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D806" t="n">
         <v>24</v>
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D807" t="n">
         <v>20</v>
       </c>
       <c r="E807" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="808">
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D808" t="n">
         <v>23</v>
@@ -17440,13 +17440,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D810" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E810" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="811">
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D811" t="n">
         <v>22</v>
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D812" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E812" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="813">
@@ -17524,10 +17524,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D814" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E814" t="n">
         <v>27</v>
@@ -17545,10 +17545,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D815" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E815" t="n">
         <v>22</v>
@@ -17566,13 +17566,13 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D816" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E816" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="817">
@@ -17608,10 +17608,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D818" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E818" t="n">
         <v>26</v>
@@ -17629,13 +17629,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D819" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E819" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="820">
@@ -17650,10 +17650,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D820" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E820" t="n">
         <v>21</v>
@@ -17734,7 +17734,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D824" t="n">
         <v>22</v>
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D825" t="n">
         <v>24</v>
@@ -17797,13 +17797,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D827" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E827" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="828">
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D829" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E829" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="830">
@@ -17860,13 +17860,13 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D830" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E830" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="831">
@@ -17881,7 +17881,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D831" t="n">
         <v>17</v>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D832" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E832" t="n">
         <v>21</v>
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D840" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E840" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="841">
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D842" t="n">
         <v>23</v>
       </c>
       <c r="E842" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="843">
@@ -18133,10 +18133,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D843" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E843" t="n">
         <v>17</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D845" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E845" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="846">
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D847" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E847" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="848">
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D848" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E848" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="849">
@@ -18427,10 +18427,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D857" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E857" t="n">
         <v>23</v>
@@ -18532,13 +18532,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D862" t="n">
         <v>27</v>
       </c>
       <c r="E862" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="863">
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D863" t="n">
         <v>25</v>
       </c>
       <c r="E863" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="864">
@@ -18574,13 +18574,13 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D864" t="n">
         <v>21</v>
       </c>
       <c r="E864" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="865">
@@ -18637,7 +18637,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D867" t="n">
         <v>20</v>
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D873" t="n">
         <v>25</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D874" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E874" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="875">
@@ -18805,7 +18805,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D875" t="n">
         <v>22</v>
@@ -18826,10 +18826,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D876" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E876" t="n">
         <v>23</v>
@@ -18868,13 +18868,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D878" t="n">
         <v>25</v>
       </c>
       <c r="E878" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="879">
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D881" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E881" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="882">
@@ -18952,13 +18952,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D882" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E882" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="883">
@@ -18973,13 +18973,13 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D883" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E883" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="884">
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D884" t="n">
+        <v>27</v>
+      </c>
+      <c r="E884" t="n">
         <v>26</v>
-      </c>
-      <c r="E884" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="885">
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D885" t="n">
         <v>28</v>
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D889" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E889" t="n">
         <v>29</v>
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D891" t="n">
         <v>24</v>
       </c>
       <c r="E891" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="892">
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D895" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E895" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="896">
@@ -19393,10 +19393,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D903" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E903" t="n">
         <v>26</v>
@@ -19519,7 +19519,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D909" t="n">
         <v>34</v>
@@ -19561,13 +19561,13 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D911" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E911" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="912">
@@ -19645,13 +19645,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D915" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E915" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="916">
@@ -19687,13 +19687,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D917" t="n">
         <v>19</v>
       </c>
       <c r="E917" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="918">
@@ -19729,13 +19729,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D919" t="n">
         <v>27</v>
       </c>
       <c r="E919" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="920">
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D923" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E923" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="924">
@@ -19876,7 +19876,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D926" t="n">
         <v>19</v>
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D928" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E928" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="929">
@@ -19981,10 +19981,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D931" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E931" t="n">
         <v>31</v>
@@ -20023,7 +20023,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D933" t="n">
         <v>19</v>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D934" t="n">
         <v>24</v>
@@ -20065,13 +20065,13 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D935" t="n">
         <v>19</v>
       </c>
       <c r="E935" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="936">
@@ -20086,10 +20086,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D936" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E936" t="n">
         <v>29</v>
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D943" t="n">
         <v>22</v>
       </c>
       <c r="E943" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="944">
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D945" t="n">
         <v>28</v>
       </c>
       <c r="E945" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="946">
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D947" t="n">
         <v>22</v>
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D949" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E949" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="950">
@@ -20380,10 +20380,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D950" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E950" t="n">
         <v>19</v>
@@ -20401,7 +20401,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D951" t="n">
         <v>27</v>
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D952" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E952" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="953">
@@ -20464,13 +20464,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D954" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E954" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="955">
@@ -20485,13 +20485,13 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D955" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E955" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="956">
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D961" t="n">
         <v>26</v>
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D963" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E963" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="964">
@@ -20674,13 +20674,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D964" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E964" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="965">
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D966" t="n">
         <v>17</v>
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D970" t="n">
         <v>25</v>
       </c>
       <c r="E970" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="971">
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D972" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E972" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="973">
@@ -20884,13 +20884,13 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D974" t="n">
         <v>30</v>
       </c>
       <c r="E974" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="975">
@@ -20968,13 +20968,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D978" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E978" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="979">
@@ -20989,13 +20989,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D979" t="n">
         <v>22</v>
       </c>
       <c r="E979" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="980">
@@ -21010,10 +21010,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D980" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E980" t="n">
         <v>20</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D982" t="n">
         <v>16</v>
       </c>
       <c r="E982" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="983">
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D987" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E987" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="988">
@@ -21388,10 +21388,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D998" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E998" t="n">
         <v>10</v>
@@ -21640,10 +21640,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1010" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1010" t="n">
         <v>23</v>
@@ -21661,7 +21661,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1011" t="n">
         <v>21</v>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1012" t="n">
         <v>25</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1018" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1018" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1025" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1025" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1026" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1026" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,10 +22018,10 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1028" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1028" t="n">
         <v>20</v>
@@ -22060,13 +22060,13 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1030" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1030" t="n">
         <v>23</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="1031">
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1033" t="n">
         <v>26</v>
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1035" t="n">
         <v>27</v>
@@ -22186,13 +22186,13 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1036" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1036" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1037">
@@ -22249,10 +22249,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1039" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -22354,10 +22354,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1044" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1044" t="n">
         <v>20</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1048" t="n">
         <v>19</v>
@@ -22480,7 +22480,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1050" t="n">
         <v>21</v>
@@ -22564,13 +22564,13 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1054" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1054" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1055">
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1062" t="n">
         <v>19</v>
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1064" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1064" t="n">
         <v>23</v>
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1076" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1076" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1080" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1080" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,13 +23194,13 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1084" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1084" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1085">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1085" t="n">
         <v>25</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1088" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1088" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1089" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1089" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,10 +23320,10 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1090" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1090" t="n">
         <v>27</v>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1093" t="n">
         <v>27</v>
       </c>
       <c r="E1093" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1097" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1097" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,10 +23488,10 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1098" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1098" t="n">
         <v>19</v>
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,13 +23551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1101" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1102">
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1102" t="n">
         <v>26</v>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1106" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1106" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1107" t="n">
         <v>21</v>
       </c>
       <c r="E1107" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,13 +23740,13 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1110" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1111">
@@ -23761,13 +23761,13 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1111" t="n">
         <v>27</v>
       </c>
       <c r="E1111" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1112">
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1115" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1119" t="n">
         <v>23</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1123" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1124" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1124" t="n">
         <v>26</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1130" t="n">
         <v>16</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1135" t="n">
         <v>26</v>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1140" t="n">
         <v>18</v>
       </c>
       <c r="E1140" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,7 +24475,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1145" t="n">
         <v>22</v>
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1146" t="n">
         <v>23</v>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1150" t="n">
         <v>24</v>
@@ -24601,10 +24601,10 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1151" t="n">
         <v>22</v>
@@ -25021,10 +25021,10 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1171" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1171" t="n">
         <v>32</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1172" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1172" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1176" t="n">
         <v>30</v>
       </c>
       <c r="E1176" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1177" t="n">
         <v>25</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1180" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1180" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1186" t="n">
         <v>31</v>
       </c>
       <c r="E1186" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1194" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1194" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1197" t="n">
         <v>22</v>
       </c>
       <c r="E1197" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,13 +25609,13 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1199" t="n">
         <v>28</v>
       </c>
       <c r="E1199" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1200">
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1201" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1201" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1209" t="n">
         <v>20</v>
       </c>
       <c r="E1209" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,13 +25903,13 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1213" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1213" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1214">
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1214" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1216" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1216" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1222" t="n">
         <v>12</v>
@@ -26176,13 +26176,13 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1226" t="n">
         <v>26</v>
       </c>
       <c r="E1226" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1227">
@@ -26323,13 +26323,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1233" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1234">
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1234" t="n">
         <v>24</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1235" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1235" t="n">
         <v>28</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1236" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1236" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1245" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1245" t="n">
         <v>25</v>
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1246" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1246" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1247" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1247" t="n">
         <v>25</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1249" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1249" t="n">
         <v>23</v>
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1251" t="n">
         <v>26</v>
@@ -26785,7 +26785,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1255" t="n">
         <v>22</v>
@@ -26806,10 +26806,10 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1256" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1256" t="n">
         <v>32</v>
@@ -26848,10 +26848,10 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1258" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1258" t="n">
         <v>35</v>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1259" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1259" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1260">
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1260" t="n">
         <v>29</v>
@@ -26932,10 +26932,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1262" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1264" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1264" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,7 +27016,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1266" t="n">
         <v>20</v>
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1269" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1269" t="n">
         <v>33</v>
@@ -27100,13 +27100,13 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1270" t="n">
         <v>28</v>
       </c>
       <c r="E1270" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1271">
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1279" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1279" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,13 +27310,13 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1280" t="n">
         <v>30</v>
       </c>
       <c r="E1280" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1281">
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1296" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1296" t="n">
         <v>20</v>
@@ -27709,7 +27709,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1299" t="n">
         <v>24</v>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1300" t="n">
         <v>25</v>
@@ -27751,13 +27751,13 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1301" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1301" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1302">
@@ -27793,10 +27793,10 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1303" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1303" t="n">
         <v>29</v>
@@ -27814,13 +27814,13 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1304" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1304" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1305">
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1305" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1305" t="n">
         <v>28</v>
-      </c>
-      <c r="E1305" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1306" t="n">
         <v>24</v>
       </c>
       <c r="E1306" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,10 +27919,10 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1309" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1309" t="n">
         <v>27</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1314" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1314" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,10 +28108,10 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1318" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1318" t="n">
         <v>19</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1335" t="n">
         <v>30</v>
       </c>
       <c r="E1335" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,7 +28507,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1337" t="n">
         <v>27</v>
@@ -28528,13 +28528,13 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1338" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1338" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1339">
@@ -28696,13 +28696,13 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1346" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1346" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1347">
@@ -28717,10 +28717,10 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1347" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1347" t="n">
         <v>28</v>
@@ -28738,10 +28738,10 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1348" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1348" t="n">
         <v>23</v>
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1350" t="n">
         <v>21</v>
       </c>
       <c r="E1350" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,10 +28822,10 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1352" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1352" t="n">
         <v>30</v>
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1354" t="n">
         <v>22</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1358" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1358" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1362" t="n">
         <v>13</v>
@@ -29053,7 +29053,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1363" t="n">
         <v>29</v>
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1364" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1364" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,7 +29116,7 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1366" t="n">
         <v>27</v>
@@ -29137,13 +29137,13 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1367" t="n">
         <v>18</v>
       </c>
       <c r="E1367" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1368">
@@ -29200,7 +29200,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1370" t="n">
         <v>19</v>
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1380" t="n">
         <v>18</v>
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1384" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1384" t="n">
         <v>18</v>
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1385" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1385" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1386" t="n">
         <v>17</v>
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1387" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1387" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1391" t="n">
         <v>31</v>
       </c>
       <c r="E1391" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,13 +29704,13 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1394" t="n">
         <v>23</v>
       </c>
       <c r="E1394" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1395">
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1397" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1397" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,7 +29809,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1399" t="n">
         <v>24</v>
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1401" t="n">
         <v>26</v>
       </c>
       <c r="E1401" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1402" t="n">
         <v>23</v>
       </c>
       <c r="E1402" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,10 +29956,10 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1406" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1406" t="n">
         <v>30</v>
@@ -30124,13 +30124,13 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1414" t="n">
         <v>22</v>
       </c>
       <c r="E1414" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1415">
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1415" t="n">
         <v>29</v>
       </c>
       <c r="E1415" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,10 +30250,10 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1420" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1420" t="n">
         <v>26</v>
@@ -30355,10 +30355,10 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1425" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1425" t="n">
         <v>28</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,7 +30439,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1429" t="n">
         <v>17</v>
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1433" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1433" t="n">
         <v>28</v>
-      </c>
-      <c r="E1433" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,7 +30649,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1439" t="n">
         <v>20</v>
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1454" t="n">
         <v>30</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
         <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
         <v>29</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
         <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
         <v>25</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
         <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
         <v>18</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>29</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
         <v>26</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" t="n">
         <v>22</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
         <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n">
         <v>25</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" t="n">
         <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" t="n">
         <v>24</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50" t="n">
         <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51" t="n">
         <v>29</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E57" t="n">
         <v>24</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E58" t="n">
         <v>26</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D59" t="n">
         <v>30</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D63" t="n">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64" t="n">
         <v>25</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D66" t="n">
         <v>31</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D67" t="n">
         <v>26</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" t="n">
         <v>34</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D78" t="n">
         <v>27</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D81" t="n">
         <v>24</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D83" t="n">
+        <v>27</v>
+      </c>
+      <c r="E83" t="n">
         <v>26</v>
-      </c>
-      <c r="E83" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" t="n">
         <v>29</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D87" t="n">
         <v>23</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D88" t="n">
         <v>25</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D89" t="n">
         <v>24</v>
       </c>
       <c r="E89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D91" t="n">
         <v>21</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
         <v>25</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D100" t="n">
         <v>24</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D101" t="n">
         <v>26</v>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D109" t="n">
         <v>22</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E110" t="n">
         <v>22</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D112" t="n">
         <v>29</v>
       </c>
       <c r="E112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D113" t="n">
         <v>21</v>
       </c>
       <c r="E113" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D114" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D117" t="n">
+        <v>25</v>
+      </c>
+      <c r="E117" t="n">
         <v>24</v>
-      </c>
-      <c r="E117" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E119" t="n">
         <v>22</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E123" t="n">
         <v>25</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D125" t="n">
         <v>31</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D127" t="n">
         <v>23</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D128" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E128" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D129" t="n">
         <v>30</v>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D130" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E130" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D133" t="n">
         <v>21</v>
       </c>
       <c r="E133" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D134" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E134" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D135" t="n">
         <v>23</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E137" t="n">
         <v>24</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D138" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D139" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D141" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E141" t="n">
         <v>27</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D142" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E142" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D143" t="n">
         <v>18</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D144" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D145" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E145" t="n">
         <v>24</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D146" t="n">
         <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D147" t="n">
         <v>35</v>
       </c>
       <c r="E147" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D148" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D149" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E149" t="n">
         <v>12</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D151" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E151" t="n">
         <v>32</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D152" t="n">
         <v>22</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D153" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E153" t="n">
         <v>23</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D156" t="n">
         <v>28</v>
       </c>
       <c r="E156" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D157" t="n">
         <v>25</v>
       </c>
       <c r="E157" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D158" t="n">
         <v>22</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D159" t="n">
         <v>23</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D162" t="n">
         <v>24</v>
       </c>
       <c r="E162" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D163" t="n">
         <v>24</v>
       </c>
       <c r="E163" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D167" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E167" t="n">
         <v>29</v>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D168" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E168" t="n">
         <v>21</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D169" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E169" t="n">
         <v>26</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D170" t="n">
+        <v>25</v>
+      </c>
+      <c r="E170" t="n">
         <v>24</v>
-      </c>
-      <c r="E170" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="171">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E171" t="n">
         <v>19</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D175" t="n">
         <v>26</v>
       </c>
       <c r="E175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D176" t="n">
         <v>23</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E180" t="n">
         <v>22</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D184" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E184" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E185" t="n">
         <v>22</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D186" t="n">
         <v>19</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D187" t="n">
         <v>16</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D189" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E189" t="n">
         <v>25</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D193" t="n">
         <v>21</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E194" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D195" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E195" t="n">
         <v>25</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D196" t="n">
         <v>32</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D198" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" t="n">
         <v>27</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D199" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E199" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D202" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E202" t="n">
         <v>20</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D204" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E204" t="n">
         <v>21</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D205" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E205" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206">
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D206" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E206" t="n">
         <v>21</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D207" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E207" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D209" t="n">
         <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D211" t="n">
         <v>20</v>
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D213" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E213" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D215" t="n">
         <v>21</v>
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D216" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E216" t="n">
         <v>32</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D217" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E217" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D218" t="n">
         <v>19</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D222" t="n">
         <v>23</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D223" t="n">
         <v>24</v>
       </c>
       <c r="E223" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D224" t="n">
         <v>27</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D225" t="n">
         <v>21</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D226" t="n">
         <v>15</v>
       </c>
       <c r="E226" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227">
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D227" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E227" t="n">
         <v>22</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D228" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E228" t="n">
         <v>31</v>
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D230" t="n">
         <v>32</v>
       </c>
       <c r="E230" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D231" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E231" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232">
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D232" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E232" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D233" t="n">
         <v>24</v>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D234" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E234" t="n">
         <v>20</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D235" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E235" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D238" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E238" t="n">
         <v>29</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D241" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D242" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E242" t="n">
         <v>22</v>
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D243" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E243" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244">
@@ -5554,13 +5554,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D244" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E244" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245">
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D245" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E245" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246">
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D246" t="n">
         <v>24</v>
       </c>
       <c r="E246" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247">
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D247" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E247" t="n">
         <v>29</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D248" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E248" t="n">
         <v>29</v>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D249" t="n">
         <v>20</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D250" t="n">
         <v>26</v>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D251" t="n">
         <v>20</v>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D252" t="n">
         <v>23</v>
       </c>
       <c r="E252" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D253" t="n">
         <v>22</v>
       </c>
       <c r="E253" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D254" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E254" t="n">
         <v>27</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D255" t="n">
         <v>23</v>
       </c>
       <c r="E255" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D257" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E257" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D260" t="n">
         <v>23</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D262" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E262" t="n">
         <v>33</v>
@@ -5953,13 +5953,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D263" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E263" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264">
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D264" t="n">
         <v>24</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D265" t="n">
         <v>21</v>
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D267" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E267" t="n">
         <v>25</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D270" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E270" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D271" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E271" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D273" t="n">
         <v>17</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D276" t="n">
         <v>24</v>
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D278" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E278" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D280" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E280" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D283" t="n">
         <v>24</v>
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D284" t="n">
         <v>22</v>
       </c>
       <c r="E284" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285">
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D285" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E285" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286">
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D286" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E286" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287">
@@ -6457,10 +6457,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D287" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E287" t="n">
         <v>23</v>
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D288" t="n">
         <v>30</v>
       </c>
       <c r="E288" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D289" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -6562,13 +6562,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D292" t="n">
         <v>30</v>
       </c>
       <c r="E292" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D294" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E294" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295">
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D295" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E295" t="n">
         <v>32</v>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D297" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E297" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298">
@@ -6688,13 +6688,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D298" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E298" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D299" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E299" t="n">
         <v>34</v>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D301" t="n">
         <v>24</v>
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D302" t="n">
         <v>18</v>
       </c>
       <c r="E302" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D305" t="n">
         <v>28</v>
       </c>
       <c r="E305" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="306">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D307" t="n">
         <v>20</v>
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D308" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E308" t="n">
         <v>20</v>
@@ -6961,13 +6961,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D311" t="n">
         <v>26</v>
       </c>
       <c r="E311" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312">
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D314" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E314" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315">
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D316" t="n">
         <v>29</v>
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D317" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D323" t="n">
         <v>23</v>
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D324" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E324" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325">
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D325" t="n">
         <v>25</v>
       </c>
       <c r="E325" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326">
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D327" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E327" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D331" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E331" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="332">
@@ -7402,13 +7402,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D332" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E332" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333">
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D336" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E336" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="337">
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D337" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E337" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="338">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D338" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E338" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="339">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D339" t="n">
         <v>22</v>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D341" t="n">
         <v>24</v>
       </c>
       <c r="E341" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342">
@@ -7654,10 +7654,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D344" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E344" t="n">
         <v>22</v>
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D346" t="n">
         <v>25</v>
       </c>
       <c r="E346" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347">
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D347" t="n">
         <v>26</v>
       </c>
       <c r="E347" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348">
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D348" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E348" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349">
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D349" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E349" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D352" t="n">
         <v>27</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D355" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E355" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="356">
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D358" t="n">
         <v>23</v>
       </c>
       <c r="E358" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="359">
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D359" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E359" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="360">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D362" t="n">
         <v>23</v>
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D363" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E363" t="n">
         <v>32</v>
@@ -8116,13 +8116,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D366" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E366" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367">
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D367" t="n">
         <v>26</v>
@@ -8158,13 +8158,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D368" t="n">
         <v>28</v>
       </c>
       <c r="E368" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369">
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D372" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E372" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D373" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E373" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374">
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D374" t="n">
         <v>20</v>
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D375" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E375" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="376">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D377" t="n">
         <v>22</v>
       </c>
       <c r="E377" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="378">
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D378" t="n">
         <v>18</v>
       </c>
       <c r="E378" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="379">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D379" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E379" t="n">
         <v>28</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D381" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E381" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D382" t="n">
         <v>20</v>
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D383" t="n">
+        <v>28</v>
+      </c>
+      <c r="E383" t="n">
         <v>27</v>
-      </c>
-      <c r="E383" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="384">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D384" t="n">
         <v>21</v>
@@ -8515,13 +8515,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D385" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E385" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386">
@@ -8557,10 +8557,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D387" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E387" t="n">
         <v>27</v>
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D388" t="n">
         <v>22</v>
       </c>
       <c r="E388" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389">
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D389" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E389" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="390">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D390" t="n">
         <v>22</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D391" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E391" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D393" t="n">
+        <v>28</v>
+      </c>
+      <c r="E393" t="n">
         <v>27</v>
-      </c>
-      <c r="E393" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="394">
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D395" t="n">
         <v>24</v>
@@ -8746,10 +8746,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D396" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E396" t="n">
         <v>28</v>
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D399" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E399" t="n">
         <v>29</v>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D400" t="n">
         <v>30</v>
       </c>
       <c r="E400" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D401" t="n">
         <v>25</v>
       </c>
       <c r="E401" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D407" t="n">
         <v>24</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D410" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E410" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D411" t="n">
         <v>17</v>
@@ -9082,10 +9082,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D412" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E412" t="n">
         <v>32</v>
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D413" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E413" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D415" t="n">
         <v>2</v>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D416" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E416" t="n">
         <v>23</v>
@@ -9208,13 +9208,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D418" t="n">
         <v>22</v>
       </c>
       <c r="E418" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="419">
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D425" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E425" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="426">
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D427" t="n">
         <v>25</v>
@@ -9439,7 +9439,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D429" t="n">
         <v>32</v>
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D431" t="n">
         <v>25</v>
       </c>
       <c r="E431" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="432">
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D432" t="n">
         <v>24</v>
       </c>
       <c r="E432" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433">
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D434" t="n">
         <v>24</v>
@@ -9586,13 +9586,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D436" t="n">
         <v>22</v>
       </c>
       <c r="E436" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="437">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D437" t="n">
         <v>25</v>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D438" t="n">
         <v>24</v>
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D444" t="n">
         <v>23</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D446" t="n">
         <v>25</v>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D448" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E448" t="n">
         <v>28</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D450" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E450" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="451">
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D451" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E451" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="452">
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D458" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E458" t="n">
         <v>31</v>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D463" t="n">
         <v>25</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D464" t="n">
         <v>28</v>
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D465" t="n">
         <v>22</v>
       </c>
       <c r="E465" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="466">
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D466" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E466" t="n">
         <v>24</v>
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D470" t="n">
         <v>23</v>
       </c>
       <c r="E470" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="471">
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D472" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E472" t="n">
         <v>17</v>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D473" t="n">
         <v>21</v>
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D475" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E475" t="n">
         <v>23</v>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D482" t="n">
         <v>26</v>
@@ -10573,10 +10573,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D483" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E483" t="n">
         <v>25</v>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D484" t="n">
         <v>30</v>
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D485" t="n">
         <v>14</v>
@@ -10636,13 +10636,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D486" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E486" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="487">
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D488" t="n">
         <v>28</v>
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D491" t="n">
+        <v>29</v>
+      </c>
+      <c r="E491" t="n">
         <v>28</v>
-      </c>
-      <c r="E491" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="492">
@@ -10762,13 +10762,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D492" t="n">
         <v>31</v>
       </c>
       <c r="E492" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="493">
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D493" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E493" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="494">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D494" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E494" t="n">
         <v>18</v>
@@ -10867,10 +10867,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D497" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E497" t="n">
         <v>18</v>
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D498" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E498" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499">
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D499" t="n">
         <v>28</v>
       </c>
       <c r="E499" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="500">
@@ -10930,13 +10930,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D500" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E500" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="501">
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D501" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E501" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="502">
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D504" t="n">
         <v>28</v>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D506" t="n">
         <v>31</v>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D507" t="n">
         <v>22</v>
       </c>
       <c r="E507" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="508">
@@ -11098,10 +11098,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D508" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E508" t="n">
         <v>14</v>
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D509" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E509" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="510">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D510" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E510" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="511">
@@ -11161,13 +11161,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D511" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E511" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="512">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D512" t="n">
         <v>25</v>
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D513" t="n">
         <v>22</v>
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D514" t="n">
         <v>24</v>
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D515" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E515" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="516">
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D516" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E516" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="517">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D517" t="n">
         <v>23</v>
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D518" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E518" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="519">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D520" t="n">
         <v>25</v>
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D521" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E521" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="522">
@@ -11434,10 +11434,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D524" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E524" t="n">
         <v>29</v>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D527" t="n">
         <v>22</v>
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D528" t="n">
         <v>26</v>
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D529" t="n">
         <v>15</v>
       </c>
       <c r="E529" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="530">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
@@ -11581,13 +11581,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D531" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E531" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532">
@@ -11623,10 +11623,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D533" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E533" t="n">
         <v>23</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D535" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E535" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="536">
@@ -11686,10 +11686,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D536" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E536" t="n">
         <v>20</v>
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D539" t="n">
         <v>31</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D540" t="n">
+        <v>30</v>
+      </c>
+      <c r="E540" t="n">
         <v>29</v>
-      </c>
-      <c r="E540" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="541">
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D541" t="n">
         <v>31</v>
       </c>
       <c r="E541" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="542">
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D543" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E543" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="544">
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D544" t="n">
         <v>26</v>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D545" t="n">
         <v>17</v>
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D546" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E546" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="547">
@@ -11917,10 +11917,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D547" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E547" t="n">
         <v>34</v>
@@ -11938,10 +11938,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D548" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E548" t="n">
         <v>19</v>
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D550" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E550" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="551">
@@ -12022,10 +12022,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D552" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E552" t="n">
         <v>23</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D553" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E553" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="554">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D555" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E555" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="556">
@@ -12106,13 +12106,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D556" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E556" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="557">
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D557" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E557" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="558">
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D558" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E558" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="559">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D560" t="n">
         <v>24</v>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D562" t="n">
         <v>20</v>
       </c>
       <c r="E562" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="563">
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D563" t="n">
         <v>29</v>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D564" t="n">
         <v>24</v>
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D565" t="n">
         <v>17</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D566" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E566" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="567">
@@ -12358,13 +12358,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D568" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E568" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="569">
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D570" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E570" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="571">
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D571" t="n">
         <v>22</v>
       </c>
       <c r="E571" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="572">
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D572" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E572" t="n">
         <v>27</v>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D573" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E573" t="n">
         <v>24</v>
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D576" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E576" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="577">
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D580" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E580" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="581">
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D581" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E581" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="582">
@@ -12694,7 +12694,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D584" t="n">
         <v>34</v>
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D585" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E585" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="586">
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D586" t="n">
+        <v>28</v>
+      </c>
+      <c r="E586" t="n">
         <v>27</v>
-      </c>
-      <c r="E586" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="587">
@@ -12778,13 +12778,13 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D588" t="n">
         <v>30</v>
       </c>
       <c r="E588" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="589">
@@ -12799,13 +12799,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D589" t="n">
         <v>28</v>
       </c>
       <c r="E589" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="590">
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D590" t="n">
         <v>30</v>
       </c>
       <c r="E590" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="591">
@@ -12841,10 +12841,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D591" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E591" t="n">
         <v>21</v>
@@ -12862,13 +12862,13 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D592" t="n">
         <v>23</v>
       </c>
       <c r="E592" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="593">
@@ -12883,10 +12883,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D593" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E593" t="n">
         <v>27</v>
@@ -12967,13 +12967,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D597" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E597" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="598">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D598" t="n">
         <v>18</v>
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D599" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E599" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="600">
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D601" t="n">
         <v>21</v>
       </c>
       <c r="E601" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D602" t="n">
         <v>26</v>
       </c>
       <c r="E602" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="603">
@@ -13093,13 +13093,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D603" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E603" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="604">
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D604" t="n">
         <v>27</v>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D605" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E605" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="606">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D606" t="n">
         <v>22</v>
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D607" t="n">
         <v>16</v>
       </c>
       <c r="E607" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="608">
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D608" t="n">
         <v>23</v>
@@ -13219,13 +13219,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D609" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E609" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="610">
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D611" t="n">
         <v>27</v>
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D612" t="n">
         <v>26</v>
@@ -13303,13 +13303,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D613" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E613" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="614">
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D617" t="n">
         <v>30</v>
       </c>
       <c r="E617" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="618">
@@ -13408,10 +13408,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D618" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E618" t="n">
         <v>33</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D622" t="n">
         <v>30</v>
@@ -13513,13 +13513,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D623" t="n">
         <v>19</v>
       </c>
       <c r="E623" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="624">
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D625" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E625" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="626">
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D628" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E628" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="629">
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D629" t="n">
         <v>25</v>
       </c>
       <c r="E629" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D631" t="n">
         <v>22</v>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D632" t="n">
         <v>21</v>
       </c>
       <c r="E632" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="633">
@@ -13723,13 +13723,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D633" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E633" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="634">
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D635" t="n">
         <v>19</v>
@@ -13828,10 +13828,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D638" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E638" t="n">
         <v>22</v>
@@ -13849,13 +13849,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D639" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E639" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="640">
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D640" t="n">
         <v>22</v>
@@ -13891,10 +13891,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D641" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E641" t="n">
         <v>22</v>
@@ -13933,7 +13933,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D643" t="n">
         <v>20</v>
@@ -13954,13 +13954,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D644" t="n">
         <v>25</v>
       </c>
       <c r="E644" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="645">
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D645" t="n">
         <v>23</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D646" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E646" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="647">
@@ -14017,13 +14017,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D647" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E647" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="648">
@@ -14038,13 +14038,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D648" t="n">
         <v>20</v>
       </c>
       <c r="E648" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="649">
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D652" t="n">
         <v>21</v>
       </c>
       <c r="E652" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="653">
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D653" t="n">
         <v>25</v>
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D656" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E656" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="657">
@@ -14248,13 +14248,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D658" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E658" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="659">
@@ -14269,10 +14269,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D659" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E659" t="n">
         <v>24</v>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D663" t="n">
         <v>15</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D664" t="n">
         <v>20</v>
       </c>
       <c r="E664" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="665">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D665" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E665" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="666">
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D666" t="n">
         <v>26</v>
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D667" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E667" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D668" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E668" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="669">
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D669" t="n">
         <v>26</v>
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D671" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E671" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="672">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D673" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E673" t="n">
         <v>27</v>
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D674" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E674" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="675">
@@ -14647,13 +14647,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D677" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E677" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="678">
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D678" t="n">
         <v>34</v>
       </c>
       <c r="E678" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="679">
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D680" t="n">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D681" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E681" t="n">
         <v>23</v>
@@ -14773,10 +14773,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D683" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E683" t="n">
         <v>34</v>
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D688" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E688" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D689" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E689" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="690">
@@ -14962,10 +14962,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D692" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E692" t="n">
         <v>20</v>
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D693" t="n">
         <v>29</v>
       </c>
       <c r="E693" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="694">
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D695" t="n">
         <v>21</v>
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D696" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E696" t="n">
         <v>21</v>
@@ -15067,13 +15067,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D697" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E697" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="698">
@@ -15109,7 +15109,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D699" t="n">
         <v>20</v>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D700" t="n">
         <v>25</v>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D701" t="n">
         <v>19</v>
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D702" t="n">
         <v>29</v>
@@ -15193,7 +15193,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D703" t="n">
         <v>27</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D705" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E705" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="706">
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D706" t="n">
         <v>27</v>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D707" t="n">
         <v>18</v>
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D709" t="n">
         <v>14</v>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D710" t="n">
         <v>24</v>
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D711" t="n">
         <v>25</v>
@@ -15424,13 +15424,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D714" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E714" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="715">
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D717" t="n">
         <v>25</v>
@@ -15508,10 +15508,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D718" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E718" t="n">
         <v>19</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D720" t="n">
         <v>21</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D722" t="n">
         <v>22</v>
       </c>
       <c r="E722" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="723">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D723" t="n">
         <v>23</v>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D724" t="n">
         <v>30</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D725" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E725" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D728" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E728" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="729">
@@ -15739,13 +15739,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D729" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E729" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="730">
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D730" t="n">
         <v>15</v>
       </c>
       <c r="E730" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="731">
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D731" t="n">
         <v>27</v>
       </c>
       <c r="E731" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="732">
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D732" t="n">
         <v>25</v>
       </c>
       <c r="E732" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="733">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D735" t="n">
         <v>30</v>
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D737" t="n">
         <v>24</v>
@@ -15949,10 +15949,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D739" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E739" t="n">
         <v>19</v>
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D740" t="n">
         <v>21</v>
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D741" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E741" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="742">
@@ -16033,10 +16033,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D743" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E743" t="n">
         <v>29</v>
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D745" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E745" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="746">
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D747" t="n">
         <v>15</v>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D749" t="n">
         <v>24</v>
       </c>
       <c r="E749" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="750">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D752" t="n">
         <v>24</v>
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D753" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E753" t="n">
         <v>23</v>
@@ -16264,13 +16264,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D754" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E754" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="755">
@@ -16285,10 +16285,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D755" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E755" t="n">
         <v>22</v>
@@ -16306,13 +16306,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D756" t="n">
+        <v>32</v>
+      </c>
+      <c r="E756" t="n">
         <v>31</v>
-      </c>
-      <c r="E756" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="757">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D757" t="n">
         <v>25</v>
@@ -16348,10 +16348,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D758" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E758" t="n">
         <v>29</v>
@@ -16390,13 +16390,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D760" t="n">
         <v>26</v>
       </c>
       <c r="E760" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="761">
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D761" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E761" t="n">
         <v>22</v>
@@ -16453,10 +16453,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D763" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E763" t="n">
         <v>21</v>
@@ -16516,10 +16516,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D766" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E766" t="n">
         <v>22</v>
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D767" t="n">
         <v>20</v>
       </c>
       <c r="E767" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="768">
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D768" t="n">
         <v>12</v>
       </c>
       <c r="E768" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="769">
@@ -16600,10 +16600,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D770" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E770" t="n">
         <v>20</v>
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D771" t="n">
         <v>25</v>
@@ -16642,13 +16642,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D772" t="n">
         <v>24</v>
       </c>
       <c r="E772" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="773">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D773" t="n">
         <v>23</v>
@@ -16684,13 +16684,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D774" t="n">
         <v>18</v>
       </c>
       <c r="E774" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="775">
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D776" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E776" t="n">
         <v>23</v>
@@ -16747,10 +16747,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D777" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E777" t="n">
         <v>27</v>
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D778" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E778" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D782" t="n">
         <v>22</v>
@@ -16873,10 +16873,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D783" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E783" t="n">
         <v>28</v>
@@ -16894,13 +16894,13 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D784" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E784" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="785">
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D786" t="n">
         <v>18</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D787" t="n">
         <v>19</v>
       </c>
       <c r="E787" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="788">
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D789" t="n">
         <v>22</v>
       </c>
       <c r="E789" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="790">
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D790" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E790" t="n">
         <v>23</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D793" t="n">
         <v>24</v>
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D795" t="n">
         <v>24</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D796" t="n">
+        <v>22</v>
+      </c>
+      <c r="E796" t="n">
         <v>21</v>
-      </c>
-      <c r="E796" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="797">
@@ -17188,13 +17188,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D798" t="n">
         <v>23</v>
       </c>
       <c r="E798" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="799">
@@ -17209,10 +17209,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D799" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E799" t="n">
         <v>24</v>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D800" t="n">
         <v>22</v>
@@ -17251,13 +17251,13 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D801" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E801" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="802">
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D803" t="n">
         <v>22</v>
@@ -17314,13 +17314,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D804" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E804" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="805">
@@ -17335,10 +17335,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D805" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E805" t="n">
         <v>20</v>
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D806" t="n">
         <v>24</v>
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D807" t="n">
         <v>20</v>
       </c>
       <c r="E807" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="808">
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D808" t="n">
         <v>23</v>
@@ -17440,7 +17440,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D810" t="n">
         <v>28</v>
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D811" t="n">
         <v>22</v>
@@ -17482,13 +17482,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D812" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E812" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="813">
@@ -17524,10 +17524,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D814" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E814" t="n">
         <v>27</v>
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D815" t="n">
         <v>15</v>
       </c>
       <c r="E815" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="816">
@@ -17566,7 +17566,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D816" t="n">
         <v>22</v>
@@ -17608,10 +17608,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D818" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E818" t="n">
         <v>26</v>
@@ -17629,13 +17629,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D819" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E819" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="820">
@@ -17650,10 +17650,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D820" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E820" t="n">
         <v>21</v>
@@ -17734,13 +17734,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D824" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E824" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="825">
@@ -17755,10 +17755,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D825" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E825" t="n">
         <v>27</v>
@@ -17797,13 +17797,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D827" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E827" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="828">
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D829" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E829" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="830">
@@ -17860,13 +17860,13 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D830" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E830" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="831">
@@ -17881,13 +17881,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D831" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E831" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="832">
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D832" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E832" t="n">
         <v>21</v>
@@ -17923,13 +17923,13 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D833" t="n">
+        <v>20</v>
+      </c>
+      <c r="E833" t="n">
         <v>19</v>
-      </c>
-      <c r="E833" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="834">
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D835" t="n">
         <v>26</v>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D836" t="n">
         <v>16</v>
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D840" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E840" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="841">
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D842" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E842" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="843">
@@ -18133,7 +18133,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D843" t="n">
         <v>29</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D845" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E845" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="846">
@@ -18196,10 +18196,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D846" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E846" t="n">
         <v>16</v>
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D847" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E847" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="848">
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D848" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E848" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="849">
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D850" t="n">
         <v>17</v>
@@ -18343,10 +18343,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D853" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E853" t="n">
         <v>12</v>
@@ -18364,13 +18364,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D854" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E854" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="855">
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D857" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E857" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="858">
@@ -18448,13 +18448,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D858" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E858" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="859">
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D862" t="n">
         <v>27</v>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D863" t="n">
         <v>25</v>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D864" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E864" t="n">
         <v>23</v>
@@ -18637,7 +18637,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D867" t="n">
         <v>20</v>
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D873" t="n">
         <v>25</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D874" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E874" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="875">
@@ -18805,7 +18805,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D875" t="n">
         <v>22</v>
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D876" t="n">
         <v>24</v>
@@ -18868,13 +18868,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D878" t="n">
         <v>25</v>
       </c>
       <c r="E878" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="879">
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D881" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E881" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="882">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D882" t="n">
         <v>21</v>
@@ -18973,7 +18973,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D883" t="n">
         <v>31</v>
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D884" t="n">
+        <v>28</v>
+      </c>
+      <c r="E884" t="n">
         <v>27</v>
-      </c>
-      <c r="E884" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="885">
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D885" t="n">
         <v>28</v>
@@ -19099,13 +19099,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D889" t="n">
         <v>23</v>
       </c>
       <c r="E889" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="890">
@@ -19141,10 +19141,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D891" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E891" t="n">
         <v>22</v>
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D895" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E895" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="896">
@@ -19393,13 +19393,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D903" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E903" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="904">
@@ -19519,10 +19519,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D909" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E909" t="n">
         <v>23</v>
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D911" t="n">
         <v>15</v>
@@ -19645,13 +19645,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D915" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E915" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="916">
@@ -19687,13 +19687,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D917" t="n">
         <v>19</v>
       </c>
       <c r="E917" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="918">
@@ -19729,7 +19729,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D919" t="n">
         <v>27</v>
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D923" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E923" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="924">
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D926" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E926" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="927">
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D928" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E928" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="929">
@@ -19981,7 +19981,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D931" t="n">
         <v>32</v>
@@ -20023,10 +20023,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D933" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E933" t="n">
         <v>28</v>
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D934" t="n">
         <v>24</v>
       </c>
       <c r="E934" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="935">
@@ -20065,10 +20065,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D935" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E935" t="n">
         <v>23</v>
@@ -20086,10 +20086,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D936" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E936" t="n">
         <v>29</v>
@@ -20233,7 +20233,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D943" t="n">
         <v>22</v>
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D945" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E945" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="946">
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D947" t="n">
         <v>22</v>
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D949" t="n">
         <v>34</v>
@@ -20380,10 +20380,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D950" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E950" t="n">
         <v>19</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D951" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E951" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="952">
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D952" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E952" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="953">
@@ -20464,7 +20464,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D954" t="n">
         <v>21</v>
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D955" t="n">
         <v>18</v>
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D961" t="n">
         <v>26</v>
       </c>
       <c r="E961" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="962">
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D963" t="n">
         <v>26</v>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D964" t="n">
         <v>21</v>
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D966" t="n">
         <v>17</v>
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D970" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E970" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="971">
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D972" t="n">
         <v>24</v>
@@ -20884,7 +20884,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D974" t="n">
         <v>30</v>
@@ -20968,13 +20968,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D978" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E978" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="979">
@@ -20989,13 +20989,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D979" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E979" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="980">
@@ -21010,10 +21010,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D980" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E980" t="n">
         <v>20</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D982" t="n">
         <v>16</v>
       </c>
       <c r="E982" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="983">
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D987" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E987" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="988">
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D998" t="n">
         <v>24</v>
       </c>
       <c r="E998" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="999">
@@ -21640,10 +21640,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1010" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1010" t="n">
         <v>23</v>
@@ -21661,7 +21661,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1011" t="n">
         <v>21</v>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1012" t="n">
         <v>25</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1018" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1018" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1025" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1025" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1026" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1026" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1028" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1028" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,13 +22060,13 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1030" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1030" t="n">
         <v>24</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="1031">
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1033" t="n">
         <v>26</v>
@@ -22165,13 +22165,13 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1035" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1035" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1036">
@@ -22186,13 +22186,13 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1036" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1036" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1037">
@@ -22249,13 +22249,13 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1039" t="n">
         <v>21</v>
       </c>
       <c r="E1039" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1040">
@@ -22354,10 +22354,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1044" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1044" t="n">
         <v>20</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1047" t="n">
         <v>23</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1048" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1048" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,13 +22480,13 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1050" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1050" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1051">
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1054" t="n">
         <v>32</v>
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1062" t="n">
         <v>19</v>
       </c>
       <c r="E1062" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,13 +22774,13 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1064" t="n">
         <v>33</v>
       </c>
       <c r="E1064" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1065">
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1076" t="n">
         <v>20</v>
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1080" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1080" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,13 +23194,13 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1084" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1084" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1085">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1085" t="n">
         <v>25</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1088" t="n">
         <v>22</v>
       </c>
       <c r="E1088" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,7 +23299,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1089" t="n">
         <v>28</v>
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1090" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1090" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1091">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1093" t="n">
         <v>27</v>
       </c>
       <c r="E1093" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,7 +23467,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1097" t="n">
         <v>28</v>
@@ -23488,10 +23488,10 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1098" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1098" t="n">
         <v>19</v>
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1101" t="n">
         <v>27</v>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1102" t="n">
         <v>26</v>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1106" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1106" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1107" t="n">
         <v>21</v>
       </c>
       <c r="E1107" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1109" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,13 +23740,13 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1110" t="n">
         <v>24</v>
       </c>
       <c r="E1110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1111">
@@ -23761,13 +23761,13 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1111" t="n">
         <v>27</v>
       </c>
       <c r="E1111" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1112">
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1115" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1115" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1119" t="n">
         <v>23</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1123" t="n">
         <v>22</v>
       </c>
       <c r="E1123" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1124" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1124" t="n">
         <v>27</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,13 +24160,13 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1130" t="n">
         <v>16</v>
       </c>
       <c r="E1130" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1131">
@@ -24265,13 +24265,13 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1135" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1135" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1136">
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1140" t="n">
         <v>18</v>
       </c>
       <c r="E1140" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1141">
@@ -24475,13 +24475,13 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1145" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1145" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1146">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1146" t="n">
         <v>23</v>
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1150" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,10 +24601,10 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1151" t="n">
         <v>22</v>
@@ -25021,10 +25021,10 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1171" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1171" t="n">
         <v>32</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1172" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1172" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,10 +25126,10 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1176" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1176" t="n">
         <v>35</v>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1177" t="n">
         <v>25</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1180" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1180" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,10 +25336,10 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1186" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1186" t="n">
         <v>26</v>
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1194" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1197" t="n">
         <v>22</v>
       </c>
       <c r="E1197" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,13 +25609,13 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1199" t="n">
         <v>28</v>
       </c>
       <c r="E1199" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1200">
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1201" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1201" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1209" t="n">
         <v>20</v>
       </c>
       <c r="E1209" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,7 +25903,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1213" t="n">
         <v>34</v>
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1214" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1216" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1216" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1222" t="n">
         <v>12</v>
@@ -26176,13 +26176,13 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1226" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1226" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1227">
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1233" t="n">
         <v>25</v>
@@ -26344,10 +26344,10 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1234" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1234" t="n">
         <v>21</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1235" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1235" t="n">
         <v>29</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1236" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1236" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1245" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1245" t="n">
         <v>25</v>
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1246" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1246" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1247" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1247" t="n">
         <v>26</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1249" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1249" t="n">
         <v>23</v>
@@ -26701,10 +26701,10 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1251" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1251" t="n">
         <v>25</v>
@@ -26785,7 +26785,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1255" t="n">
         <v>22</v>
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1256" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1256" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1258" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1258" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1259" t="n">
         <v>19</v>
@@ -26890,13 +26890,13 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1260" t="n">
         <v>29</v>
       </c>
       <c r="E1260" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1261">
@@ -26932,10 +26932,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1262" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1264" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1264" t="n">
         <v>24</v>
@@ -27016,13 +27016,13 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1266" t="n">
         <v>20</v>
       </c>
       <c r="E1266" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1267">
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1269" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1269" t="n">
         <v>33</v>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1270" t="n">
         <v>28</v>
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1279" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1279" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1280" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1280" t="n">
         <v>28</v>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1296" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1296" t="n">
         <v>20</v>
@@ -27709,7 +27709,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1299" t="n">
         <v>24</v>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1300" t="n">
         <v>25</v>
@@ -27751,13 +27751,13 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1301" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1301" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1302">
@@ -27793,10 +27793,10 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1303" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1303" t="n">
         <v>29</v>
@@ -27814,7 +27814,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1304" t="n">
         <v>27</v>
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1305" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1305" t="n">
         <v>29</v>
-      </c>
-      <c r="E1305" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1306" t="n">
         <v>24</v>
       </c>
       <c r="E1306" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,10 +27919,10 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1309" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1309" t="n">
         <v>27</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1314" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1314" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,10 +28108,10 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1318" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1318" t="n">
         <v>19</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1335" t="n">
         <v>30</v>
       </c>
       <c r="E1335" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,7 +28507,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1337" t="n">
         <v>27</v>
@@ -28528,10 +28528,10 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1338" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1338" t="n">
         <v>29</v>
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1346" t="n">
         <v>22</v>
@@ -28717,7 +28717,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1347" t="n">
         <v>25</v>
@@ -28738,10 +28738,10 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1348" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1348" t="n">
         <v>23</v>
@@ -28780,10 +28780,10 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1350" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1350" t="n">
         <v>27</v>
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1352" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1352" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1353">
@@ -28864,13 +28864,13 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1354" t="n">
         <v>22</v>
       </c>
       <c r="E1354" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1355">
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1358" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1358" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1362" t="n">
         <v>13</v>
@@ -29053,7 +29053,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1363" t="n">
         <v>29</v>
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1364" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1364" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1366" t="n">
         <v>27</v>
       </c>
       <c r="E1366" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,13 +29137,13 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1367" t="n">
         <v>18</v>
       </c>
       <c r="E1367" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1368">
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1370" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1370" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1380" t="n">
         <v>18</v>
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1384" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1384" t="n">
         <v>18</v>
@@ -29515,7 +29515,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1385" t="n">
         <v>17</v>
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1386" t="n">
         <v>17</v>
@@ -29557,10 +29557,10 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1387" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1387" t="n">
         <v>24</v>
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1391" t="n">
         <v>31</v>
@@ -29704,10 +29704,10 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1394" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1394" t="n">
         <v>26</v>
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1397" t="n">
         <v>25</v>
       </c>
       <c r="E1397" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,13 +29809,13 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1399" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1399" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1400">
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1401" t="n">
         <v>26</v>
       </c>
       <c r="E1401" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1402" t="n">
         <v>23</v>
       </c>
       <c r="E1402" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,10 +29956,10 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1406" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1406" t="n">
         <v>30</v>
@@ -30124,13 +30124,13 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1414" t="n">
         <v>22</v>
       </c>
       <c r="E1414" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1415">
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1415" t="n">
         <v>29</v>
       </c>
       <c r="E1415" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,13 +30250,13 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1420" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1420" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1421">
@@ -30355,10 +30355,10 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1425" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1425" t="n">
         <v>28</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,7 +30439,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1429" t="n">
         <v>17</v>
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1433" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1433" t="n">
         <v>29</v>
-      </c>
-      <c r="E1433" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,13 +30649,13 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1439" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1439" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1440">
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1454" t="n">
         <v>30</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
         <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
         <v>29</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v>29</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
         <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
         <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>27</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
         <v>17</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="n">
         <v>20</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
         <v>29</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
         <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" t="n">
         <v>30</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
         <v>22</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" t="n">
         <v>26</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" t="n">
+        <v>31</v>
+      </c>
+      <c r="E44" t="n">
         <v>30</v>
-      </c>
-      <c r="E44" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" t="n">
         <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
         <v>26</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
         <v>26</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51" t="n">
         <v>29</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
         <v>21</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
         <v>25</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57" t="n">
         <v>24</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58" t="n">
         <v>24</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D59" t="n">
         <v>30</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D63" t="n">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
         <v>25</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E66" t="n">
         <v>29</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D67" t="n">
         <v>26</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
         <v>28</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D74" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
         <v>26</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D81" t="n">
         <v>24</v>
       </c>
       <c r="E81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="n">
         <v>27</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D88" t="n">
         <v>25</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D89" t="n">
         <v>24</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D91" t="n">
         <v>21</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E92" t="n">
         <v>29</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D94" t="n">
         <v>21</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D101" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E101" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D105" t="n">
         <v>27</v>
       </c>
       <c r="E105" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D109" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D110" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E110" t="n">
         <v>22</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D112" t="n">
+        <v>30</v>
+      </c>
+      <c r="E112" t="n">
         <v>29</v>
-      </c>
-      <c r="E112" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D113" t="n">
         <v>21</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D114" t="n">
         <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D117" t="n">
         <v>25</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D119" t="n">
         <v>23</v>
       </c>
       <c r="E119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D123" t="n">
         <v>26</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D125" t="n">
         <v>31</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D127" t="n">
         <v>23</v>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D128" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E128" t="n">
         <v>31</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D129" t="n">
+        <v>31</v>
+      </c>
+      <c r="E129" t="n">
         <v>30</v>
-      </c>
-      <c r="E129" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D130" t="n">
         <v>29</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D133" t="n">
         <v>21</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D134" t="n">
         <v>27</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D135" t="n">
         <v>23</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D137" t="n">
         <v>24</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D138" t="n">
         <v>34</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D139" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D141" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E141" t="n">
         <v>27</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D142" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E142" t="n">
         <v>34</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
         <v>28</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D144" t="n">
         <v>26</v>
       </c>
       <c r="E144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D145" t="n">
         <v>28</v>
       </c>
       <c r="E145" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D146" t="n">
         <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D147" t="n">
         <v>35</v>
       </c>
       <c r="E147" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E148" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D149" t="n">
         <v>25</v>
       </c>
       <c r="E149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D151" t="n">
         <v>26</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D152" t="n">
         <v>22</v>
       </c>
       <c r="E152" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D153" t="n">
         <v>23</v>
       </c>
       <c r="E153" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D156" t="n">
         <v>28</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D157" t="n">
         <v>25</v>
       </c>
       <c r="E157" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D158" t="n">
         <v>22</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D159" t="n">
         <v>23</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D160" t="n">
         <v>22</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D162" t="n">
         <v>24</v>
       </c>
       <c r="E162" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D163" t="n">
         <v>24</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D167" t="n">
         <v>28</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D168" t="n">
         <v>24</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D169" t="n">
         <v>23</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D170" t="n">
+        <v>26</v>
+      </c>
+      <c r="E170" t="n">
         <v>25</v>
-      </c>
-      <c r="E170" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E171" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D175" t="n">
         <v>26</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D176" t="n">
         <v>23</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D180" t="n">
         <v>23</v>
       </c>
       <c r="E180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D184" t="n">
         <v>23</v>
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D185" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E185" t="n">
         <v>22</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D186" t="n">
         <v>19</v>
       </c>
       <c r="E186" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D187" t="n">
         <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D189" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E189" t="n">
         <v>25</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D193" t="n">
         <v>21</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D194" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E194" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D195" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E195" t="n">
         <v>25</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D196" t="n">
         <v>32</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D198" t="n">
         <v>25</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D199" t="n">
         <v>25</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D202" t="n">
         <v>28</v>
       </c>
       <c r="E202" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" t="n">
         <v>19</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D204" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E204" t="n">
         <v>21</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D205" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E205" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D206" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E206" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D207" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E207" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D209" t="n">
         <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210">
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D211" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E211" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212">
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D213" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E213" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D215" t="n">
         <v>21</v>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D216" t="n">
         <v>21</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D217" t="n">
         <v>29</v>
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D218" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E218" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D222" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E222" t="n">
         <v>27</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D223" t="n">
         <v>24</v>
       </c>
       <c r="E223" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D224" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E224" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D225" t="n">
         <v>21</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E226" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227">
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D227" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E227" t="n">
         <v>22</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D228" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E228" t="n">
         <v>31</v>
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D230" t="n">
         <v>32</v>
       </c>
       <c r="E230" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231">
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D231" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E231" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D232" t="n">
         <v>30</v>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D233" t="n">
         <v>24</v>
@@ -5344,13 +5344,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D234" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D235" t="n">
         <v>31</v>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D238" t="n">
         <v>24</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D241" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D242" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E242" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D243" t="n">
         <v>31</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D244" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E244" t="n">
         <v>25</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D245" t="n">
         <v>30</v>
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D246" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E246" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D247" t="n">
         <v>26</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D248" t="n">
         <v>23</v>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D249" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E249" t="n">
         <v>21</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D250" t="n">
         <v>26</v>
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D251" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E251" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D252" t="n">
         <v>23</v>
       </c>
       <c r="E252" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D253" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E253" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254">
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D254" t="n">
         <v>32</v>
       </c>
       <c r="E254" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D255" t="n">
         <v>23</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D257" t="n">
         <v>24</v>
       </c>
       <c r="E257" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D260" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E260" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D262" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E262" t="n">
         <v>33</v>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D263" t="n">
         <v>23</v>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D264" t="n">
         <v>24</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D265" t="n">
         <v>21</v>
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D267" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E267" t="n">
         <v>25</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D270" t="n">
         <v>23</v>
       </c>
       <c r="E270" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D271" t="n">
         <v>26</v>
       </c>
       <c r="E271" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272">
@@ -6163,10 +6163,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D273" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E273" t="n">
         <v>21</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D276" t="n">
         <v>24</v>
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D278" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E278" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="279">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D280" t="n">
         <v>29</v>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D283" t="n">
         <v>24</v>
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D284" t="n">
         <v>22</v>
       </c>
       <c r="E284" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D285" t="n">
         <v>25</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D286" t="n">
         <v>24</v>
       </c>
       <c r="E286" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287">
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D287" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E287" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D288" t="n">
         <v>30</v>
       </c>
       <c r="E288" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D289" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D292" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E292" t="n">
         <v>26</v>
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D294" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E294" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295">
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D295" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E295" t="n">
         <v>32</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D297" t="n">
         <v>24</v>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D298" t="n">
         <v>25</v>
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D299" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E299" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300">
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D301" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E301" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302">
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D302" t="n">
         <v>18</v>
       </c>
       <c r="E302" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D305" t="n">
         <v>28</v>
       </c>
       <c r="E305" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D307" t="n">
         <v>20</v>
@@ -6898,13 +6898,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D308" t="n">
         <v>23</v>
       </c>
       <c r="E308" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309">
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D311" t="n">
         <v>26</v>
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D314" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E314" t="n">
         <v>29</v>
@@ -7066,10 +7066,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D316" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E316" t="n">
         <v>26</v>
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D317" t="n">
         <v>21</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D323" t="n">
         <v>23</v>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D324" t="n">
         <v>28</v>
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D325" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E325" t="n">
         <v>24</v>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D327" t="n">
         <v>26</v>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D331" t="n">
         <v>31</v>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D332" t="n">
         <v>26</v>
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D336" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E336" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="337">
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D337" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E337" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D338" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E338" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339">
@@ -7549,10 +7549,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D339" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E339" t="n">
         <v>25</v>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D341" t="n">
+        <v>25</v>
+      </c>
+      <c r="E341" t="n">
         <v>24</v>
-      </c>
-      <c r="E341" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="342">
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D344" t="n">
         <v>19</v>
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D346" t="n">
         <v>25</v>
       </c>
       <c r="E346" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347">
@@ -7717,13 +7717,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D347" t="n">
         <v>26</v>
       </c>
       <c r="E347" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="348">
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D348" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E348" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349">
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D349" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E349" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D352" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E352" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="353">
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D355" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E355" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D358" t="n">
         <v>23</v>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D359" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E359" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="360">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D362" t="n">
         <v>23</v>
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D363" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E363" t="n">
         <v>32</v>
@@ -8116,13 +8116,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D366" t="n">
         <v>20</v>
       </c>
       <c r="E366" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D367" t="n">
         <v>26</v>
       </c>
       <c r="E367" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368">
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D368" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E368" t="n">
         <v>26</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D372" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E372" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D373" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E373" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D374" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E374" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="375">
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D375" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E375" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="376">
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D377" t="n">
         <v>22</v>
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D378" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E378" t="n">
         <v>21</v>
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D379" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E379" t="n">
         <v>28</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D381" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E381" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382">
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D382" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E382" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="383">
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D383" t="n">
         <v>28</v>
       </c>
       <c r="E383" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="384">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D384" t="n">
         <v>21</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D385" t="n">
         <v>20</v>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D387" t="n">
         <v>26</v>
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D388" t="n">
         <v>22</v>
       </c>
       <c r="E388" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389">
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D389" t="n">
         <v>26</v>
       </c>
       <c r="E389" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390">
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D390" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E390" t="n">
         <v>20</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D391" t="n">
         <v>21</v>
       </c>
       <c r="E391" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D393" t="n">
         <v>28</v>
       </c>
       <c r="E393" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D395" t="n">
         <v>24</v>
       </c>
       <c r="E395" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="396">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D396" t="n">
         <v>28</v>
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D399" t="n">
         <v>31</v>
       </c>
       <c r="E399" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400">
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D400" t="n">
         <v>30</v>
       </c>
       <c r="E400" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="401">
@@ -8851,10 +8851,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D401" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E401" t="n">
         <v>33</v>
@@ -8977,13 +8977,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D407" t="n">
+        <v>25</v>
+      </c>
+      <c r="E407" t="n">
         <v>24</v>
-      </c>
-      <c r="E407" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="408">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D410" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E410" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="411">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D411" t="n">
         <v>17</v>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D412" t="n">
         <v>27</v>
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D413" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E413" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D415" t="n">
         <v>2</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D416" t="n">
         <v>26</v>
       </c>
       <c r="E416" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417">
@@ -9208,13 +9208,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D418" t="n">
         <v>22</v>
       </c>
       <c r="E418" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419">
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D425" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E425" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426">
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D427" t="n">
         <v>25</v>
       </c>
       <c r="E427" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428">
@@ -9439,7 +9439,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D429" t="n">
         <v>32</v>
@@ -9481,10 +9481,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D431" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E431" t="n">
         <v>23</v>
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D432" t="n">
         <v>24</v>
       </c>
       <c r="E432" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433">
@@ -9544,13 +9544,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D434" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E434" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D436" t="n">
         <v>22</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D437" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E437" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="438">
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D438" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E438" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439">
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D444" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E444" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="445">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D446" t="n">
         <v>25</v>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D448" t="n">
         <v>34</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D450" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E450" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="451">
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D451" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E451" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="452">
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D458" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E458" t="n">
         <v>31</v>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D463" t="n">
         <v>25</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D464" t="n">
         <v>28</v>
@@ -10195,10 +10195,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D465" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E465" t="n">
         <v>29</v>
@@ -10216,10 +10216,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D466" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E466" t="n">
         <v>24</v>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D470" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E470" t="n">
         <v>23</v>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D472" t="n">
         <v>28</v>
@@ -10363,13 +10363,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D473" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E473" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="474">
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D475" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E475" t="n">
         <v>23</v>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D482" t="n">
         <v>26</v>
@@ -10573,10 +10573,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D483" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E483" t="n">
         <v>25</v>
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D484" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E484" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D485" t="n">
         <v>14</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D486" t="n">
         <v>17</v>
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D488" t="n">
         <v>28</v>
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D491" t="n">
+        <v>30</v>
+      </c>
+      <c r="E491" t="n">
         <v>29</v>
-      </c>
-      <c r="E491" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="492">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D492" t="n">
         <v>31</v>
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D493" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E493" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="494">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D494" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E494" t="n">
         <v>18</v>
@@ -10867,10 +10867,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D497" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E497" t="n">
         <v>18</v>
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D498" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E498" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="499">
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D499" t="n">
+        <v>29</v>
+      </c>
+      <c r="E499" t="n">
         <v>28</v>
-      </c>
-      <c r="E499" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="500">
@@ -10930,13 +10930,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D500" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E500" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="501">
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D501" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E501" t="n">
         <v>22</v>
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D504" t="n">
         <v>28</v>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D506" t="n">
         <v>31</v>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D507" t="n">
         <v>22</v>
       </c>
       <c r="E507" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="508">
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D508" t="n">
         <v>13</v>
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D509" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E509" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="510">
@@ -11140,7 +11140,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D510" t="n">
         <v>20</v>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D511" t="n">
         <v>29</v>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D512" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E512" t="n">
         <v>21</v>
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D513" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E513" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="514">
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D514" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E514" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515">
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D515" t="n">
         <v>27</v>
       </c>
       <c r="E515" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516">
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D516" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E516" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="517">
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D517" t="n">
         <v>23</v>
       </c>
       <c r="E517" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="518">
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D518" t="n">
         <v>27</v>
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D520" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E520" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D521" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E521" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="522">
@@ -11434,10 +11434,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D524" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E524" t="n">
         <v>29</v>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D527" t="n">
         <v>22</v>
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D528" t="n">
         <v>26</v>
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D529" t="n">
         <v>15</v>
       </c>
       <c r="E529" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="530">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
@@ -11581,13 +11581,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D531" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E531" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="532">
@@ -11623,10 +11623,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D533" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E533" t="n">
         <v>23</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D535" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E535" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="536">
@@ -11686,13 +11686,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D536" t="n">
         <v>11</v>
       </c>
       <c r="E536" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="537">
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D539" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E539" t="n">
         <v>27</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D540" t="n">
+        <v>31</v>
+      </c>
+      <c r="E540" t="n">
         <v>30</v>
-      </c>
-      <c r="E540" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="541">
@@ -11791,10 +11791,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D541" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E541" t="n">
         <v>29</v>
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D543" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E543" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="544">
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D544" t="n">
         <v>26</v>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D545" t="n">
         <v>17</v>
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D546" t="n">
         <v>24</v>
       </c>
       <c r="E546" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="547">
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D547" t="n">
         <v>32</v>
       </c>
       <c r="E547" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="548">
@@ -11938,7 +11938,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D548" t="n">
         <v>26</v>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D550" t="n">
         <v>29</v>
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D552" t="n">
         <v>19</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D553" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E553" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554">
@@ -12085,7 +12085,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D555" t="n">
         <v>34</v>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D556" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E556" t="n">
         <v>27</v>
@@ -12127,7 +12127,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D557" t="n">
         <v>24</v>
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D558" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E558" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="559">
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D560" t="n">
         <v>24</v>
       </c>
       <c r="E560" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="561">
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D562" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E562" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="563">
@@ -12253,13 +12253,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D563" t="n">
         <v>29</v>
       </c>
       <c r="E563" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="564">
@@ -12274,10 +12274,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D564" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E564" t="n">
         <v>23</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D565" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E565" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="566">
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D566" t="n">
         <v>19</v>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D568" t="n">
         <v>18</v>
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D570" t="n">
         <v>21</v>
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D571" t="n">
         <v>22</v>
       </c>
       <c r="E571" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="572">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D572" t="n">
         <v>20</v>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D573" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E573" t="n">
         <v>24</v>
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D576" t="n">
         <v>29</v>
       </c>
       <c r="E576" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="577">
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D580" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E580" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="581">
@@ -12631,13 +12631,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D581" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E581" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="582">
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D584" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E584" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="585">
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D585" t="n">
         <v>29</v>
@@ -12736,10 +12736,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D586" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E586" t="n">
         <v>27</v>
@@ -12778,7 +12778,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D588" t="n">
         <v>30</v>
@@ -12799,13 +12799,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D589" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E589" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="590">
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D590" t="n">
         <v>30</v>
@@ -12841,13 +12841,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D591" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E591" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="592">
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D592" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E592" t="n">
         <v>22</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D593" t="n">
         <v>26</v>
       </c>
       <c r="E593" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="594">
@@ -12967,13 +12967,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D597" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E597" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="598">
@@ -12988,13 +12988,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D598" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E598" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="599">
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D599" t="n">
         <v>21</v>
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D601" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E601" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="602">
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D602" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E602" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="603">
@@ -13093,7 +13093,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D603" t="n">
         <v>23</v>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D604" t="n">
         <v>27</v>
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D605" t="n">
         <v>25</v>
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D606" t="n">
         <v>22</v>
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D607" t="n">
         <v>16</v>
       </c>
       <c r="E607" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="608">
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D608" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E608" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="609">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D609" t="n">
         <v>20</v>
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D611" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E611" t="n">
         <v>21</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D612" t="n">
         <v>26</v>
       </c>
       <c r="E612" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="613">
@@ -13303,10 +13303,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D613" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E613" t="n">
         <v>22</v>
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D617" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E617" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="618">
@@ -13408,10 +13408,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D618" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E618" t="n">
         <v>33</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D622" t="n">
         <v>30</v>
@@ -13513,13 +13513,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D623" t="n">
         <v>19</v>
       </c>
       <c r="E623" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="624">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D625" t="n">
         <v>28</v>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D628" t="n">
         <v>22</v>
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D629" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E629" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="630">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D631" t="n">
         <v>22</v>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D632" t="n">
         <v>21</v>
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D633" t="n">
         <v>22</v>
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D635" t="n">
         <v>19</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D638" t="n">
         <v>22</v>
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D639" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E639" t="n">
         <v>20</v>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D640" t="n">
         <v>22</v>
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D641" t="n">
         <v>28</v>
       </c>
       <c r="E641" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="642">
@@ -13933,7 +13933,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D643" t="n">
         <v>20</v>
@@ -13954,10 +13954,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D644" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E644" t="n">
         <v>24</v>
@@ -13975,10 +13975,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D645" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E645" t="n">
         <v>23</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D646" t="n">
         <v>19</v>
       </c>
       <c r="E646" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="647">
@@ -14017,7 +14017,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D647" t="n">
         <v>30</v>
@@ -14038,10 +14038,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D648" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E648" t="n">
         <v>22</v>
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D652" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E652" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="653">
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D653" t="n">
         <v>25</v>
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D656" t="n">
         <v>19</v>
       </c>
       <c r="E656" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="657">
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D658" t="n">
         <v>19</v>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D659" t="n">
         <v>23</v>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D663" t="n">
         <v>15</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D664" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E664" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="665">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D665" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E665" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="666">
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D666" t="n">
         <v>26</v>
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D667" t="n">
         <v>29</v>
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D668" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E668" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="669">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D669" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E669" t="n">
         <v>20</v>
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D671" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E671" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="672">
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D673" t="n">
         <v>23</v>
       </c>
       <c r="E673" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D674" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E674" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="675">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D677" t="n">
         <v>17</v>
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D678" t="n">
         <v>34</v>
       </c>
       <c r="E678" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="679">
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D680" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E680" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="681">
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D681" t="n">
         <v>23</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D683" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E683" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="684">
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D688" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E688" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D689" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E689" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="690">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D692" t="n">
         <v>23</v>
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D693" t="n">
         <v>29</v>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D695" t="n">
         <v>21</v>
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D696" t="n">
         <v>23</v>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D697" t="n">
         <v>29</v>
@@ -15109,10 +15109,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D699" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E699" t="n">
         <v>33</v>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D700" t="n">
         <v>25</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D701" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E701" t="n">
         <v>18</v>
@@ -15172,13 +15172,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D702" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E702" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="703">
@@ -15193,7 +15193,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D703" t="n">
         <v>27</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D705" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E705" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="706">
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D706" t="n">
         <v>27</v>
@@ -15277,13 +15277,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D707" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E707" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="708">
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D709" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E709" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="710">
@@ -15340,13 +15340,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D710" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E710" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="711">
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D711" t="n">
         <v>25</v>
@@ -15424,10 +15424,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D714" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E714" t="n">
         <v>23</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D717" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E717" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="718">
@@ -15508,10 +15508,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D718" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E718" t="n">
         <v>19</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D720" t="n">
         <v>21</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D722" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E722" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="723">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D723" t="n">
         <v>23</v>
@@ -15634,10 +15634,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D724" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E724" t="n">
         <v>28</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D725" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E725" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="726">
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D728" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E728" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="729">
@@ -15739,13 +15739,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D729" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E729" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="730">
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D730" t="n">
         <v>15</v>
       </c>
       <c r="E730" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="731">
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D731" t="n">
         <v>27</v>
       </c>
       <c r="E731" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="732">
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D732" t="n">
         <v>25</v>
       </c>
       <c r="E732" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="733">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D735" t="n">
         <v>30</v>
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D737" t="n">
         <v>24</v>
@@ -15949,10 +15949,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D739" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E739" t="n">
         <v>19</v>
@@ -15970,10 +15970,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D740" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E740" t="n">
         <v>21</v>
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D741" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E741" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="742">
@@ -16033,10 +16033,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D743" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E743" t="n">
         <v>29</v>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D745" t="n">
         <v>32</v>
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D747" t="n">
         <v>15</v>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D749" t="n">
         <v>24</v>
       </c>
       <c r="E749" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="750">
@@ -16222,13 +16222,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D752" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E752" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="753">
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D753" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E753" t="n">
         <v>23</v>
@@ -16264,13 +16264,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D754" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E754" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="755">
@@ -16285,10 +16285,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D755" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E755" t="n">
         <v>22</v>
@@ -16306,13 +16306,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D756" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E756" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="757">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D757" t="n">
         <v>25</v>
@@ -16348,13 +16348,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D758" t="n">
         <v>21</v>
       </c>
       <c r="E758" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="759">
@@ -16390,13 +16390,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D760" t="n">
         <v>26</v>
       </c>
       <c r="E760" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="761">
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D761" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E761" t="n">
         <v>22</v>
@@ -16453,10 +16453,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D763" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E763" t="n">
         <v>21</v>
@@ -16516,10 +16516,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D766" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E766" t="n">
         <v>22</v>
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D767" t="n">
         <v>20</v>
       </c>
       <c r="E767" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="768">
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D768" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E768" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="769">
@@ -16600,10 +16600,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D770" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E770" t="n">
         <v>20</v>
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D771" t="n">
         <v>25</v>
@@ -16642,13 +16642,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D772" t="n">
         <v>24</v>
       </c>
       <c r="E772" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="773">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D773" t="n">
         <v>23</v>
@@ -16684,13 +16684,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D774" t="n">
         <v>18</v>
       </c>
       <c r="E774" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="775">
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D776" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E776" t="n">
         <v>23</v>
@@ -16747,10 +16747,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D777" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E777" t="n">
         <v>27</v>
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D778" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E778" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="779">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D782" t="n">
         <v>22</v>
@@ -16873,10 +16873,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D783" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E783" t="n">
         <v>28</v>
@@ -16894,13 +16894,13 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D784" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E784" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="785">
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D786" t="n">
         <v>18</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D787" t="n">
         <v>19</v>
       </c>
       <c r="E787" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="788">
@@ -16999,13 +16999,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D789" t="n">
         <v>22</v>
       </c>
       <c r="E789" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="790">
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D790" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E790" t="n">
         <v>23</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D793" t="n">
         <v>24</v>
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D795" t="n">
         <v>24</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D796" t="n">
+        <v>23</v>
+      </c>
+      <c r="E796" t="n">
         <v>22</v>
-      </c>
-      <c r="E796" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="797">
@@ -17188,13 +17188,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D798" t="n">
         <v>23</v>
       </c>
       <c r="E798" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="799">
@@ -17209,10 +17209,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D799" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E799" t="n">
         <v>24</v>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D800" t="n">
         <v>22</v>
@@ -17251,13 +17251,13 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D801" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E801" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="802">
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D803" t="n">
         <v>22</v>
@@ -17314,13 +17314,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D804" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E804" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="805">
@@ -17335,10 +17335,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D805" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E805" t="n">
         <v>20</v>
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D806" t="n">
         <v>24</v>
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D807" t="n">
         <v>20</v>
       </c>
       <c r="E807" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="808">
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D808" t="n">
         <v>23</v>
@@ -17440,13 +17440,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D810" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E810" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="811">
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D811" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E811" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="812">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D812" t="n">
         <v>26</v>
@@ -17524,10 +17524,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D814" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E814" t="n">
         <v>27</v>
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D815" t="n">
         <v>15</v>
       </c>
       <c r="E815" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="816">
@@ -17608,10 +17608,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D818" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E818" t="n">
         <v>26</v>
@@ -17650,10 +17650,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D820" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E820" t="n">
         <v>21</v>
@@ -17734,7 +17734,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D824" t="n">
         <v>23</v>
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D825" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E825" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="826">
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D829" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E829" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="830">
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D840" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E840" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="841">
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D842" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E842" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="843">
@@ -18133,7 +18133,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D843" t="n">
         <v>29</v>
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D845" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E845" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="846">
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D847" t="n">
         <v>19</v>
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D848" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E848" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="849">
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D857" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E857" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="858">
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D862" t="n">
         <v>27</v>
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D863" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E863" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="864">
@@ -18574,13 +18574,13 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D864" t="n">
         <v>22</v>
       </c>
       <c r="E864" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="865">
@@ -18637,7 +18637,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D867" t="n">
         <v>20</v>
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D873" t="n">
         <v>25</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D874" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E874" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="875">
@@ -18805,7 +18805,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D875" t="n">
         <v>22</v>
@@ -18826,13 +18826,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D876" t="n">
+        <v>25</v>
+      </c>
+      <c r="E876" t="n">
         <v>24</v>
-      </c>
-      <c r="E876" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="877">
@@ -18868,13 +18868,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D878" t="n">
         <v>25</v>
       </c>
       <c r="E878" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="879">
@@ -18931,7 +18931,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D881" t="n">
         <v>20</v>
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D882" t="n">
         <v>21</v>
@@ -18973,10 +18973,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D883" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E883" t="n">
         <v>28</v>
@@ -18994,7 +18994,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D884" t="n">
         <v>28</v>
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D885" t="n">
         <v>28</v>
@@ -19099,13 +19099,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D889" t="n">
         <v>23</v>
       </c>
       <c r="E889" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="890">
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D891" t="n">
         <v>25</v>
       </c>
       <c r="E891" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="892">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D895" t="n">
         <v>26</v>
@@ -19393,13 +19393,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D903" t="n">
         <v>24</v>
       </c>
       <c r="E903" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="904">
@@ -19519,13 +19519,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D909" t="n">
         <v>35</v>
       </c>
       <c r="E909" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="910">
@@ -19561,13 +19561,13 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D911" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E911" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="912">
@@ -19645,10 +19645,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D915" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E915" t="n">
         <v>26</v>
@@ -19687,10 +19687,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D917" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E917" t="n">
         <v>26</v>
@@ -19729,13 +19729,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D919" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E919" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="920">
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D923" t="n">
         <v>26</v>
       </c>
       <c r="E923" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="924">
@@ -19876,7 +19876,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D926" t="n">
         <v>20</v>
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D928" t="n">
         <v>22</v>
       </c>
       <c r="E928" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="929">
@@ -19981,13 +19981,13 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D931" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E931" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="932">
@@ -20023,7 +20023,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D933" t="n">
         <v>20</v>
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D934" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E934" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="935">
@@ -20065,10 +20065,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D935" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E935" t="n">
         <v>23</v>
@@ -20086,7 +20086,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D936" t="n">
         <v>27</v>
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D943" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E943" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="944">
@@ -20275,7 +20275,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D945" t="n">
         <v>29</v>
@@ -20317,13 +20317,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D947" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E947" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="948">
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D949" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E949" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="950">
@@ -20380,10 +20380,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D950" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E950" t="n">
         <v>19</v>
@@ -20401,7 +20401,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D951" t="n">
         <v>28</v>
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D952" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E952" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="953">
@@ -20464,7 +20464,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D954" t="n">
         <v>21</v>
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D955" t="n">
         <v>18</v>
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D961" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E961" t="n">
         <v>28</v>
@@ -20653,13 +20653,13 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D963" t="n">
         <v>26</v>
       </c>
       <c r="E963" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="964">
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D964" t="n">
         <v>21</v>
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D966" t="n">
         <v>17</v>
@@ -20800,10 +20800,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D970" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E970" t="n">
         <v>26</v>
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D972" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E972" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="973">
@@ -20884,13 +20884,13 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D974" t="n">
         <v>30</v>
       </c>
       <c r="E974" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="975">
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D978" t="n">
         <v>25</v>
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D979" t="n">
         <v>23</v>
@@ -21010,10 +21010,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D980" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E980" t="n">
         <v>20</v>
@@ -21052,13 +21052,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D982" t="n">
         <v>16</v>
       </c>
       <c r="E982" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="983">
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D987" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E987" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="988">
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D998" t="n">
         <v>24</v>
       </c>
       <c r="E998" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="999">
@@ -21640,10 +21640,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1010" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1010" t="n">
         <v>23</v>
@@ -21661,13 +21661,13 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1011" t="n">
         <v>21</v>
       </c>
       <c r="E1011" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1012">
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1012" t="n">
         <v>25</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1016" t="n">
         <v>12</v>
@@ -21808,10 +21808,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1018" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1018" t="n">
         <v>23</v>
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1025" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1025" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1026" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1026" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1028" t="n">
         <v>28</v>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1030" t="n">
         <v>25</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1033" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1033" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1035" t="n">
         <v>28</v>
@@ -22186,13 +22186,13 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1036" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1036" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1037">
@@ -22249,13 +22249,13 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1039" t="n">
         <v>21</v>
       </c>
       <c r="E1039" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1040">
@@ -22354,10 +22354,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1044" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1044" t="n">
         <v>20</v>
@@ -22417,10 +22417,10 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1047" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1047" t="n">
         <v>17</v>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1048" t="n">
         <v>20</v>
@@ -22480,13 +22480,13 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1050" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1050" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1051">
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1054" t="n">
         <v>32</v>
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1062" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1062" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,7 +22774,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1064" t="n">
         <v>33</v>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1076" t="n">
         <v>20</v>
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1080" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1080" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,13 +23194,13 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1084" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1084" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1085">
@@ -23215,10 +23215,10 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1085" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1085" t="n">
         <v>22</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1088" t="n">
         <v>22</v>
       </c>
       <c r="E1088" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,7 +23299,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1089" t="n">
         <v>28</v>
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1090" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1090" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1091">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1093" t="n">
         <v>27</v>
@@ -23467,7 +23467,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1097" t="n">
         <v>28</v>
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1098" t="n">
         <v>23</v>
       </c>
       <c r="E1098" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,13 +23551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1102">
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1102" t="n">
         <v>26</v>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1106" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1106" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1107">
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1107" t="n">
         <v>21</v>
       </c>
       <c r="E1107" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1109" t="n">
         <v>20</v>
       </c>
       <c r="E1109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,10 +23740,10 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1110" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1110" t="n">
         <v>23</v>
@@ -23761,7 +23761,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1111" t="n">
         <v>27</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1113" t="n">
         <v>6</v>
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1115" t="n">
         <v>27</v>
@@ -23929,7 +23929,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1119" t="n">
         <v>23</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1121" t="n">
         <v>22</v>
       </c>
       <c r="E1121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,10 +24013,10 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1123" t="n">
         <v>31</v>
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1124" t="n">
         <v>28</v>
@@ -24160,10 +24160,10 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1130" t="n">
         <v>24</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1135" t="n">
         <v>27</v>
@@ -24370,10 +24370,10 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1140" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1140" t="n">
         <v>21</v>
@@ -24475,7 +24475,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1145" t="n">
         <v>23</v>
@@ -24496,13 +24496,13 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1146" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1146" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1147">
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1150" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,10 +24601,10 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1151" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1151" t="n">
         <v>22</v>
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1171" t="n">
         <v>27</v>
@@ -25042,7 +25042,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1172" t="n">
         <v>28</v>
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1176" t="n">
         <v>31</v>
       </c>
       <c r="E1176" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,13 +25147,13 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1177" t="n">
         <v>25</v>
       </c>
       <c r="E1177" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1178">
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1180" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1180" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,10 +25336,10 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1186" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1186" t="n">
         <v>26</v>
@@ -25504,7 +25504,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1194" t="n">
         <v>17</v>
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1197" t="n">
         <v>22</v>
       </c>
       <c r="E1197" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,10 +25609,10 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1199" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1199" t="n">
         <v>29</v>
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1201" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1201" t="n">
         <v>33</v>
@@ -25819,13 +25819,13 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1209" t="n">
         <v>20</v>
       </c>
       <c r="E1209" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1210">
@@ -25903,7 +25903,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1213" t="n">
         <v>34</v>
@@ -25924,10 +25924,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1214" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1214" t="n">
         <v>7</v>
@@ -25966,13 +25966,13 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1216" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1216" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1217">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1222" t="n">
         <v>12</v>
@@ -26176,7 +26176,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1226" t="n">
         <v>27</v>
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1233" t="n">
         <v>25</v>
@@ -26344,13 +26344,13 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1234" t="n">
         <v>25</v>
       </c>
       <c r="E1234" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1235">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1235" t="n">
         <v>30</v>
       </c>
       <c r="E1235" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1236" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1236" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1237">
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1245" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1245" t="n">
         <v>25</v>
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1246" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1246" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1247" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1247" t="n">
         <v>27</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1249" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1249" t="n">
         <v>23</v>
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1251" t="n">
         <v>27</v>
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1255" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1255" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1256" t="n">
         <v>27</v>
       </c>
       <c r="E1256" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,10 +26848,10 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1258" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1258" t="n">
         <v>36</v>
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1259" t="n">
         <v>19</v>
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1260" t="n">
         <v>29</v>
@@ -26932,13 +26932,13 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1262" t="n">
         <v>31</v>
       </c>
       <c r="E1262" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1263">
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1264" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1264" t="n">
         <v>24</v>
@@ -27016,13 +27016,13 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1266" t="n">
         <v>20</v>
       </c>
       <c r="E1266" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1267">
@@ -27079,7 +27079,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1269" t="n">
         <v>28</v>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1270" t="n">
         <v>28</v>
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1276" t="n">
         <v>15</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1279" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1279" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,7 +27310,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1280" t="n">
         <v>31</v>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1296" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1296" t="n">
         <v>20</v>
@@ -27709,10 +27709,10 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1299" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1299" t="n">
         <v>26</v>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1300" t="n">
         <v>25</v>
@@ -27751,13 +27751,13 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1301" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1301" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1302">
@@ -27793,10 +27793,10 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1303" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1303" t="n">
         <v>29</v>
@@ -27814,7 +27814,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1304" t="n">
         <v>27</v>
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1305" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1305" t="n">
         <v>30</v>
-      </c>
-      <c r="E1305" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="1306">
@@ -27856,13 +27856,13 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1306" t="n">
         <v>24</v>
       </c>
       <c r="E1306" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1307">
@@ -27919,10 +27919,10 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1309" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1309" t="n">
         <v>27</v>
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1314" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1314" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,10 +28108,10 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1318" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1318" t="n">
         <v>19</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1335" t="n">
         <v>30</v>
       </c>
       <c r="E1335" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,7 +28507,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1337" t="n">
         <v>27</v>
@@ -28528,13 +28528,13 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1338" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1338" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1339">
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1346" t="n">
         <v>22</v>
@@ -28717,10 +28717,10 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1347" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1347" t="n">
         <v>28</v>
@@ -28738,7 +28738,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1348" t="n">
         <v>20</v>
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1350" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1350" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1351">
@@ -28822,10 +28822,10 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1352" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1352" t="n">
         <v>31</v>
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1354" t="n">
         <v>22</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1358" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1358" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1362" t="n">
         <v>13</v>
@@ -29053,7 +29053,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1363" t="n">
         <v>29</v>
@@ -29074,10 +29074,10 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1364" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1364" t="n">
         <v>22</v>
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1366" t="n">
         <v>27</v>
       </c>
       <c r="E1366" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,7 +29137,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1367" t="n">
         <v>18</v>
@@ -29200,13 +29200,13 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1370" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1370" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1371">
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1380" t="n">
         <v>18</v>
       </c>
       <c r="E1380" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,10 +29494,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1384" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1384" t="n">
         <v>18</v>
@@ -29515,7 +29515,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1385" t="n">
         <v>17</v>
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1386" t="n">
         <v>17</v>
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1387" t="n">
         <v>15</v>
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1391" t="n">
         <v>31</v>
@@ -29704,7 +29704,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1394" t="n">
         <v>24</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1397" t="n">
         <v>25</v>
@@ -29809,13 +29809,13 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1399" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1399" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1400">
@@ -29851,10 +29851,10 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1401" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1401" t="n">
         <v>34</v>
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1402" t="n">
         <v>23</v>
@@ -29956,10 +29956,10 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1406" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1406" t="n">
         <v>30</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1414" t="n">
         <v>22</v>
@@ -30145,10 +30145,10 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1415" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1415" t="n">
         <v>35</v>
@@ -30250,7 +30250,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1420" t="n">
         <v>31</v>
@@ -30355,13 +30355,13 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1425" t="n">
         <v>18</v>
       </c>
       <c r="E1425" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1426">
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,7 +30439,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1429" t="n">
         <v>17</v>
@@ -30523,7 +30523,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1433" t="n">
         <v>30</v>
@@ -30649,7 +30649,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1439" t="n">
         <v>21</v>
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1454" t="n">
         <v>30</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>34</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>24</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
         <v>31</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
         <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" t="n">
         <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
         <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>32</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" t="n">
         <v>17</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
         <v>37</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
         <v>34</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" t="n">
         <v>29</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53" t="n">
         <v>23</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" t="n">
         <v>26</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
         <v>25</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
         <v>26</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
         <v>26</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
         <v>30</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" t="n">
         <v>35</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" t="n">
         <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="n">
         <v>36</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" t="n">
         <v>29</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" t="n">
         <v>31</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" t="n">
         <v>30</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D74" t="n">
         <v>39</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D78" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D85" t="n">
         <v>28</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87" t="n">
         <v>29</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D89" t="n">
         <v>28</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" t="n">
         <v>26</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92" t="n">
         <v>29</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94" t="n">
         <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D95" t="n">
         <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D100" t="n">
         <v>28</v>
       </c>
       <c r="E100" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D109" t="n">
         <v>27</v>
       </c>
       <c r="E109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D110" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D112" t="n">
         <v>34</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D113" t="n">
         <v>23</v>
       </c>
       <c r="E113" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D114" t="n">
         <v>32</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D117" t="n">
+        <v>30</v>
+      </c>
+      <c r="E117" t="n">
         <v>29</v>
-      </c>
-      <c r="E117" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D119" t="n">
         <v>27</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D123" t="n">
         <v>29</v>
       </c>
       <c r="E123" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D125" t="n">
         <v>34</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D127" t="n">
         <v>27</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D128" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E128" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D129" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E129" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D130" t="n">
+        <v>31</v>
+      </c>
+      <c r="E130" t="n">
         <v>30</v>
-      </c>
-      <c r="E130" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E133" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D134" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D135" t="n">
+        <v>28</v>
+      </c>
+      <c r="E135" t="n">
         <v>27</v>
-      </c>
-      <c r="E135" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="136">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D137" t="n">
         <v>29</v>
       </c>
       <c r="E137" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D138" t="n">
         <v>36</v>
       </c>
       <c r="E138" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D139" t="n">
         <v>27</v>
       </c>
       <c r="E139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E141" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D142" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E142" t="n">
         <v>38</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D143" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E143" t="n">
         <v>31</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D144" t="n">
         <v>29</v>
       </c>
       <c r="E144" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D145" t="n">
         <v>31</v>
       </c>
       <c r="E145" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D146" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D147" t="n">
         <v>37</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D148" t="n">
         <v>30</v>
       </c>
       <c r="E148" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D149" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D151" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E151" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D152" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E152" t="n">
         <v>30</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D153" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E153" t="n">
         <v>29</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D156" t="n">
         <v>33</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D157" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D158" t="n">
         <v>26</v>
       </c>
       <c r="E158" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D159" t="n">
         <v>28</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D160" t="n">
         <v>25</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D162" t="n">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D163" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D167" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E167" t="n">
         <v>32</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D168" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D169" t="n">
         <v>25</v>
       </c>
       <c r="E169" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D170" t="n">
         <v>29</v>
       </c>
       <c r="E170" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D171" t="n">
         <v>24</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D175" t="n">
         <v>30</v>
       </c>
       <c r="E175" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D176" t="n">
         <v>23</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D180" t="n">
+        <v>26</v>
+      </c>
+      <c r="E180" t="n">
         <v>25</v>
-      </c>
-      <c r="E180" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D184" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E184" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D185" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E185" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D186" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E186" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D189" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E189" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D193" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193" t="n">
         <v>28</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D194" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E194" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D195" t="n">
         <v>30</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D196" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E196" t="n">
         <v>28</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D198" t="n">
         <v>29</v>
       </c>
       <c r="E198" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D199" t="n">
         <v>28</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D202" t="n">
         <v>31</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D203" t="n">
         <v>18</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D204" t="n">
         <v>30</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D205" t="n">
         <v>28</v>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D206" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E206" t="n">
         <v>26</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D207" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E207" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D209" t="n">
         <v>22</v>
       </c>
       <c r="E209" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D211" t="n">
         <v>24</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D213" t="n">
         <v>28</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D215" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E215" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D216" t="n">
         <v>23</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D217" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E217" t="n">
         <v>35</v>
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D218" t="n">
         <v>23</v>
       </c>
       <c r="E218" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D222" t="n">
         <v>26</v>
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D223" t="n">
         <v>27</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D224" t="n">
         <v>32</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D225" t="n">
         <v>22</v>
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E226" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D227" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E227" t="n">
         <v>27</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D228" t="n">
         <v>29</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D230" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E230" t="n">
         <v>27</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D231" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E231" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D232" t="n">
         <v>31</v>
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D233" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E233" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D234" t="n">
         <v>27</v>
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D235" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E235" t="n">
         <v>30</v>
@@ -5428,13 +5428,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D238" t="n">
         <v>27</v>
       </c>
       <c r="E238" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="239">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D241" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E241" t="n">
         <v>30</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D242" t="n">
         <v>23</v>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D243" t="n">
         <v>35</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D244" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E244" t="n">
         <v>29</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D245" t="n">
         <v>34</v>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D246" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E246" t="n">
         <v>24</v>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D247" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E247" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D248" t="n">
         <v>26</v>
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D249" t="n">
         <v>25</v>
       </c>
       <c r="E249" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D250" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E250" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251">
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D251" t="n">
         <v>23</v>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D252" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E252" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D253" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E253" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D254" t="n">
         <v>35</v>
       </c>
       <c r="E254" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D255" t="n">
         <v>24</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D257" t="n">
         <v>26</v>
       </c>
       <c r="E257" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258">
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D260" t="n">
         <v>27</v>
       </c>
       <c r="E260" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D262" t="n">
         <v>34</v>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D263" t="n">
         <v>29</v>
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D264" t="n">
         <v>28</v>
       </c>
       <c r="E264" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D265" t="n">
         <v>23</v>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D267" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E267" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D270" t="n">
         <v>29</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D271" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E271" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D273" t="n">
         <v>21</v>
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D276" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E276" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D278" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E278" t="n">
         <v>38</v>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D280" t="n">
         <v>34</v>
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D283" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E283" t="n">
         <v>32</v>
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D284" t="n">
         <v>26</v>
       </c>
       <c r="E284" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D285" t="n">
         <v>30</v>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D286" t="n">
         <v>26</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D287" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E287" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D288" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E288" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289">
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D289" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E289" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="290">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D292" t="n">
         <v>32</v>
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D294" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E294" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D295" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E295" t="n">
         <v>33</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D297" t="n">
         <v>27</v>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D298" t="n">
         <v>27</v>
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D299" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E299" t="n">
         <v>37</v>
@@ -6751,10 +6751,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D301" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E301" t="n">
         <v>24</v>
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D302" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E302" t="n">
         <v>37</v>
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D305" t="n">
         <v>32</v>
       </c>
       <c r="E305" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D307" t="n">
         <v>23</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D308" t="n">
         <v>29</v>
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D311" t="n">
         <v>30</v>
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D314" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E314" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D316" t="n">
         <v>35</v>
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D317" t="n">
         <v>23</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D320" t="n">
         <v>6</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D323" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E323" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D324" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E324" t="n">
         <v>32</v>
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D325" t="n">
+        <v>30</v>
+      </c>
+      <c r="E325" t="n">
         <v>29</v>
-      </c>
-      <c r="E325" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="326">
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D327" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E327" t="n">
         <v>25</v>
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D331" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E331" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332">
@@ -7402,10 +7402,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D332" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E332" t="n">
         <v>24</v>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D336" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E336" t="n">
         <v>35</v>
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D337" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E337" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="338">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D338" t="n">
         <v>33</v>
       </c>
       <c r="E338" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="339">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D339" t="n">
         <v>24</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D341" t="n">
         <v>29</v>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D344" t="n">
         <v>21</v>
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D346" t="n">
         <v>28</v>
       </c>
       <c r="E346" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347">
@@ -7717,10 +7717,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D347" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E347" t="n">
         <v>30</v>
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D348" t="n">
         <v>40</v>
       </c>
       <c r="E348" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="349">
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D349" t="n">
+        <v>34</v>
+      </c>
+      <c r="E349" t="n">
         <v>33</v>
-      </c>
-      <c r="E349" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="350">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D352" t="n">
         <v>33</v>
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D355" t="n">
         <v>37</v>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D358" t="n">
         <v>26</v>
@@ -7969,10 +7969,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D359" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E359" t="n">
         <v>32</v>
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D362" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E362" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="363">
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D363" t="n">
         <v>33</v>
@@ -8116,13 +8116,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D366" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E366" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367">
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D367" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E367" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="368">
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D368" t="n">
         <v>34</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D372" t="n">
         <v>29</v>
       </c>
       <c r="E372" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D373" t="n">
         <v>30</v>
       </c>
       <c r="E373" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D374" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E374" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375">
@@ -8305,10 +8305,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D375" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E375" t="n">
         <v>35</v>
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D377" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E377" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="378">
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D378" t="n">
         <v>22</v>
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D379" t="n">
         <v>27</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D381" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E381" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="382">
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D382" t="n">
         <v>25</v>
       </c>
       <c r="E382" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="383">
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D383" t="n">
         <v>32</v>
       </c>
       <c r="E383" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="384">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D384" t="n">
         <v>26</v>
@@ -8515,13 +8515,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D385" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E385" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386">
@@ -8557,13 +8557,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D387" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E387" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="388">
@@ -8578,10 +8578,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D388" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E388" t="n">
         <v>30</v>
@@ -8599,13 +8599,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D389" t="n">
         <v>30</v>
       </c>
       <c r="E389" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="390">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D390" t="n">
         <v>25</v>
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D391" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E391" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="392">
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D393" t="n">
         <v>30</v>
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D395" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E395" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="396">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D396" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E396" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="397">
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D399" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E399" t="n">
         <v>35</v>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D400" t="n">
         <v>35</v>
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D401" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E401" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="402">
@@ -8977,13 +8977,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D407" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E407" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="408">
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D410" t="n">
         <v>28</v>
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D411" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E411" t="n">
         <v>37</v>
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D412" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E412" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="413">
@@ -9103,7 +9103,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D413" t="n">
         <v>27</v>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D415" t="n">
         <v>3</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D416" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E416" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="417">
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D418" t="n">
         <v>23</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D425" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E425" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="426">
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D427" t="n">
         <v>26</v>
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D429" t="n">
+        <v>38</v>
+      </c>
+      <c r="E429" t="n">
         <v>37</v>
-      </c>
-      <c r="E429" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="430">
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D431" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E431" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="432">
@@ -9502,13 +9502,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D432" t="n">
         <v>25</v>
       </c>
       <c r="E432" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="433">
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D434" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E434" t="n">
         <v>27</v>
@@ -9586,13 +9586,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D436" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E436" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="437">
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D437" t="n">
         <v>31</v>
       </c>
       <c r="E437" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="438">
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D438" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E438" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="439">
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D444" t="n">
         <v>27</v>
       </c>
       <c r="E444" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="445">
@@ -9796,13 +9796,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D446" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E446" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="447">
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D448" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E448" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="449">
@@ -9880,10 +9880,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D450" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E450" t="n">
         <v>33</v>
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D451" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E451" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="452">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D458" t="n">
         <v>30</v>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D463" t="n">
         <v>28</v>
@@ -10174,13 +10174,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D464" t="n">
+        <v>32</v>
+      </c>
+      <c r="E464" t="n">
         <v>31</v>
-      </c>
-      <c r="E464" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="465">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D465" t="n">
         <v>28</v>
       </c>
       <c r="E465" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="466">
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D466" t="n">
         <v>23</v>
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D470" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E470" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="471">
@@ -10342,13 +10342,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D472" t="n">
         <v>29</v>
       </c>
       <c r="E472" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="473">
@@ -10363,10 +10363,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D473" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E473" t="n">
         <v>27</v>
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D475" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E475" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="476">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D482" t="n">
         <v>30</v>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D483" t="n">
         <v>37</v>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D484" t="n">
         <v>33</v>
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D485" t="n">
         <v>18</v>
@@ -10636,13 +10636,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D486" t="n">
         <v>17</v>
       </c>
       <c r="E486" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="487">
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D488" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E488" t="n">
         <v>31</v>
@@ -10741,7 +10741,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D491" t="n">
         <v>34</v>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D492" t="n">
         <v>36</v>
@@ -10783,13 +10783,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D493" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E493" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="494">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D494" t="n">
         <v>29</v>
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D497" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E497" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="498">
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D498" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E498" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="499">
@@ -10909,7 +10909,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D499" t="n">
         <v>32</v>
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D500" t="n">
         <v>24</v>
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D501" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E501" t="n">
         <v>25</v>
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D504" t="n">
         <v>31</v>
@@ -11056,10 +11056,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D506" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E506" t="n">
         <v>18</v>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D507" t="n">
         <v>27</v>
@@ -11098,13 +11098,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D508" t="n">
         <v>15</v>
       </c>
       <c r="E508" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509">
@@ -11119,13 +11119,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D509" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E509" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="510">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D510" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E510" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="511">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D511" t="n">
         <v>32</v>
@@ -11182,13 +11182,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D512" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E512" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513">
@@ -11203,13 +11203,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D513" t="n">
         <v>28</v>
       </c>
       <c r="E513" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="514">
@@ -11224,10 +11224,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D514" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E514" t="n">
         <v>29</v>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D515" t="n">
         <v>29</v>
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D516" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E516" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="517">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D517" t="n">
         <v>27</v>
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D518" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E518" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="519">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D520" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E520" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D521" t="n">
         <v>36</v>
       </c>
       <c r="E521" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="522">
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D524" t="n">
         <v>35</v>
       </c>
       <c r="E524" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="525">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D527" t="n">
         <v>24</v>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D528" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E528" t="n">
         <v>32</v>
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D529" t="n">
         <v>16</v>
       </c>
       <c r="E529" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="530">
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
       </c>
       <c r="E530" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="531">
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D531" t="n">
         <v>31</v>
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D533" t="n">
         <v>36</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D535" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E535" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="536">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D536" t="n">
         <v>16</v>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D539" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E539" t="n">
         <v>30</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D540" t="n">
+        <v>34</v>
+      </c>
+      <c r="E540" t="n">
         <v>33</v>
-      </c>
-      <c r="E540" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="541">
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D541" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E541" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="542">
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D543" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E543" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="544">
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D544" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E544" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="545">
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D545" t="n">
         <v>19</v>
@@ -11896,13 +11896,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D546" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E546" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="547">
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D547" t="n">
         <v>32</v>
       </c>
       <c r="E547" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="548">
@@ -11938,13 +11938,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D548" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E548" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="549">
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D550" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E550" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="551">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D552" t="n">
         <v>24</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D553" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E553" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="554">
@@ -12085,7 +12085,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D555" t="n">
         <v>37</v>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D556" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E556" t="n">
         <v>30</v>
@@ -12127,7 +12127,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D557" t="n">
         <v>28</v>
@@ -12148,7 +12148,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D558" t="n">
         <v>34</v>
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D560" t="n">
         <v>25</v>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D562" t="n">
         <v>22</v>
       </c>
       <c r="E562" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="563">
@@ -12253,10 +12253,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D563" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E563" t="n">
         <v>30</v>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D564" t="n">
         <v>29</v>
       </c>
       <c r="E564" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="565">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D565" t="n">
         <v>20</v>
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D566" t="n">
         <v>22</v>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D568" t="n">
         <v>19</v>
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D570" t="n">
         <v>25</v>
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D571" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E571" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="572">
@@ -12442,13 +12442,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D572" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E572" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="573">
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D573" t="n">
         <v>23</v>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D576" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E576" t="n">
         <v>29</v>
@@ -12610,10 +12610,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D580" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E580" t="n">
         <v>25</v>
@@ -12631,10 +12631,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D581" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E581" t="n">
         <v>37</v>
@@ -12694,7 +12694,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D584" t="n">
         <v>40</v>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D585" t="n">
         <v>35</v>
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D586" t="n">
         <v>32</v>
       </c>
       <c r="E586" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="587">
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D588" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E588" t="n">
         <v>30</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D589" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E589" t="n">
         <v>24</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D590" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E590" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="591">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D591" t="n">
         <v>32</v>
@@ -12862,13 +12862,13 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D592" t="n">
         <v>27</v>
       </c>
       <c r="E592" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="593">
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D593" t="n">
         <v>30</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D597" t="n">
         <v>24</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D598" t="n">
         <v>23</v>
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D599" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E599" t="n">
         <v>34</v>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D601" t="n">
         <v>27</v>
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D602" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E602" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="603">
@@ -13093,10 +13093,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D603" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E603" t="n">
         <v>25</v>
@@ -13114,10 +13114,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D604" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E604" t="n">
         <v>33</v>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D605" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E605" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="606">
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D606" t="n">
         <v>23</v>
       </c>
       <c r="E606" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="607">
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D607" t="n">
         <v>20</v>
       </c>
       <c r="E607" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="608">
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D608" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E608" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="609">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D609" t="n">
         <v>23</v>
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D611" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E611" t="n">
         <v>26</v>
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D612" t="n">
         <v>28</v>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D613" t="n">
         <v>35</v>
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D617" t="n">
         <v>34</v>
       </c>
       <c r="E617" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="618">
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D618" t="n">
         <v>31</v>
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D622" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E622" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="623">
@@ -13513,10 +13513,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D623" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E623" t="n">
         <v>25</v>
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D625" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E625" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="626">
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D628" t="n">
         <v>23</v>
       </c>
       <c r="E628" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="629">
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D629" t="n">
         <v>31</v>
       </c>
       <c r="E629" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="630">
@@ -13681,13 +13681,13 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D631" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E631" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="632">
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D632" t="n">
         <v>25</v>
       </c>
       <c r="E632" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="633">
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D633" t="n">
         <v>27</v>
@@ -13765,10 +13765,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D635" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E635" t="n">
         <v>33</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D638" t="n">
         <v>25</v>
@@ -13849,13 +13849,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D639" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E639" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="640">
@@ -13870,13 +13870,13 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D640" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E640" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="641">
@@ -13891,13 +13891,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D641" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E641" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="642">
@@ -13933,10 +13933,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D643" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E643" t="n">
         <v>32</v>
@@ -13954,7 +13954,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D644" t="n">
         <v>29</v>
@@ -13975,7 +13975,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D645" t="n">
         <v>27</v>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D646" t="n">
         <v>23</v>
@@ -14017,7 +14017,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D647" t="n">
         <v>34</v>
@@ -14038,13 +14038,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D648" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E648" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="649">
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D652" t="n">
         <v>27</v>
@@ -14143,13 +14143,13 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D653" t="n">
         <v>27</v>
       </c>
       <c r="E653" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="654">
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D656" t="n">
         <v>22</v>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D658" t="n">
         <v>20</v>
@@ -14269,10 +14269,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D659" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E659" t="n">
         <v>26</v>
@@ -14353,13 +14353,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D663" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E663" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="664">
@@ -14374,10 +14374,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D664" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E664" t="n">
         <v>28</v>
@@ -14395,10 +14395,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D665" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E665" t="n">
         <v>41</v>
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D666" t="n">
         <v>30</v>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D667" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E667" t="n">
         <v>29</v>
@@ -14458,7 +14458,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D668" t="n">
         <v>30</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D669" t="n">
         <v>30</v>
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D671" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E671" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="672">
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D673" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E673" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="674">
@@ -14584,7 +14584,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D674" t="n">
         <v>17</v>
@@ -14647,10 +14647,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D677" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E677" t="n">
         <v>33</v>
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D678" t="n">
         <v>36</v>
       </c>
       <c r="E678" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="679">
@@ -14710,10 +14710,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D680" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E680" t="n">
         <v>34</v>
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D681" t="n">
         <v>28</v>
@@ -14773,7 +14773,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D683" t="n">
         <v>29</v>
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D688" t="n">
+        <v>29</v>
+      </c>
+      <c r="E688" t="n">
         <v>28</v>
-      </c>
-      <c r="E688" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="689">
@@ -14899,13 +14899,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D689" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E689" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="690">
@@ -14962,10 +14962,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D692" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E692" t="n">
         <v>23</v>
@@ -14983,13 +14983,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D693" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E693" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="694">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D695" t="n">
         <v>23</v>
       </c>
       <c r="E695" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="696">
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D696" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E696" t="n">
         <v>25</v>
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D697" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E697" t="n">
         <v>28</v>
@@ -15109,7 +15109,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D699" t="n">
         <v>26</v>
@@ -15130,13 +15130,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D700" t="n">
         <v>26</v>
       </c>
       <c r="E700" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="701">
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D701" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E701" t="n">
         <v>22</v>
@@ -15172,10 +15172,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D702" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E702" t="n">
         <v>34</v>
@@ -15193,7 +15193,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D703" t="n">
         <v>30</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D705" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E705" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="706">
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D706" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E706" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="707">
@@ -15277,10 +15277,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D707" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E707" t="n">
         <v>23</v>
@@ -15319,10 +15319,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D709" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E709" t="n">
         <v>23</v>
@@ -15340,13 +15340,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D710" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E710" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="711">
@@ -15361,7 +15361,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D711" t="n">
         <v>30</v>
@@ -15424,10 +15424,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D714" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E714" t="n">
         <v>25</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,13 +15487,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D717" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E717" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="718">
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D718" t="n">
         <v>25</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D720" t="n">
         <v>27</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D722" t="n">
         <v>26</v>
       </c>
       <c r="E722" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="723">
@@ -15613,13 +15613,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D723" t="n">
+        <v>26</v>
+      </c>
+      <c r="E723" t="n">
         <v>25</v>
-      </c>
-      <c r="E723" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="724">
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D724" t="n">
         <v>35</v>
@@ -15655,10 +15655,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D725" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E725" t="n">
         <v>25</v>
@@ -15718,13 +15718,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D728" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E728" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="729">
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D729" t="n">
         <v>25</v>
@@ -15760,10 +15760,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D730" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E730" t="n">
         <v>31</v>
@@ -15781,10 +15781,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D731" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E731" t="n">
         <v>30</v>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D732" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E732" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="733">
@@ -15865,10 +15865,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D735" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E735" t="n">
         <v>19</v>
@@ -15907,13 +15907,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D737" t="n">
         <v>26</v>
       </c>
       <c r="E737" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="738">
@@ -15949,13 +15949,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D739" t="n">
         <v>27</v>
       </c>
       <c r="E739" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="740">
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D740" t="n">
         <v>23</v>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D741" t="n">
         <v>29</v>
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D743" t="n">
         <v>28</v>
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D745" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E745" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="746">
@@ -16117,10 +16117,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D747" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E747" t="n">
         <v>22</v>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D749" t="n">
         <v>26</v>
       </c>
       <c r="E749" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="750">
@@ -16222,13 +16222,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D752" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E752" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="753">
@@ -16243,13 +16243,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D753" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E753" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="754">
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D754" t="n">
         <v>26</v>
@@ -16285,10 +16285,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D755" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E755" t="n">
         <v>24</v>
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D756" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E756" t="n">
         <v>37</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D757" t="n">
         <v>28</v>
@@ -16348,10 +16348,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D758" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E758" t="n">
         <v>31</v>
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D761" t="n">
         <v>18</v>
       </c>
       <c r="E761" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="762">
@@ -16453,13 +16453,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D763" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E763" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="764">
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D767" t="n">
         <v>24</v>
       </c>
       <c r="E767" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="768">
@@ -16558,13 +16558,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D768" t="n">
         <v>16</v>
       </c>
       <c r="E768" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="769">
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D776" t="n">
         <v>35</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D777" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E777" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="778">
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D778" t="n">
         <v>31</v>
@@ -16852,10 +16852,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D782" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E782" t="n">
         <v>27</v>
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D783" t="n">
         <v>33</v>
       </c>
       <c r="E783" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="784">
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D784" t="n">
         <v>27</v>
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D786" t="n">
         <v>20</v>
@@ -16957,13 +16957,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D787" t="n">
         <v>23</v>
       </c>
       <c r="E787" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="788">
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D798" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E798" t="n">
         <v>26</v>
@@ -17209,13 +17209,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D799" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E799" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="800">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D805" t="n">
         <v>29</v>
       </c>
       <c r="E805" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="806">
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D811" t="n">
         <v>26</v>
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D812" t="n">
         <v>28</v>
@@ -17524,10 +17524,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D814" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E814" t="n">
         <v>29</v>
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D815" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E815" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="816">
@@ -17608,13 +17608,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D818" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E818" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="819">
@@ -17650,10 +17650,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D820" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E820" t="n">
         <v>23</v>
@@ -17734,13 +17734,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D824" t="n">
         <v>24</v>
       </c>
       <c r="E824" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="825">
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D825" t="n">
         <v>32</v>
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D829" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E829" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="830">
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D840" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E840" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="841">
@@ -18112,7 +18112,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D842" t="n">
         <v>28</v>
@@ -18133,13 +18133,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D843" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E843" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="844">
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D845" t="n">
         <v>39</v>
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D847" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E847" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="848">
@@ -18238,13 +18238,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D848" t="n">
         <v>38</v>
       </c>
       <c r="E848" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="849">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D857" t="n">
         <v>36</v>
@@ -18532,13 +18532,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D862" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E862" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="863">
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D863" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E863" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="864">
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D864" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E864" t="n">
         <v>26</v>
@@ -18637,13 +18637,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D867" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E867" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="868">
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D873" t="n">
         <v>28</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D874" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E874" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="875">
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D875" t="n">
+        <v>27</v>
+      </c>
+      <c r="E875" t="n">
         <v>26</v>
-      </c>
-      <c r="E875" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="876">
@@ -18826,13 +18826,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D876" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E876" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="877">
@@ -18868,13 +18868,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D878" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E878" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="879">
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D881" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E881" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="882">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D882" t="n">
         <v>25</v>
@@ -18973,13 +18973,13 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D883" t="n">
         <v>36</v>
       </c>
       <c r="E883" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="884">
@@ -18994,10 +18994,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D884" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E884" t="n">
         <v>30</v>
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D885" t="n">
         <v>28</v>
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D889" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E889" t="n">
         <v>34</v>
@@ -19141,7 +19141,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D891" t="n">
         <v>27</v>
@@ -19225,10 +19225,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D895" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E895" t="n">
         <v>35</v>
@@ -19393,10 +19393,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D903" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E903" t="n">
         <v>31</v>
@@ -19519,13 +19519,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D909" t="n">
         <v>36</v>
       </c>
       <c r="E909" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="910">
@@ -19561,13 +19561,13 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D911" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E911" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="912">
@@ -19645,10 +19645,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D915" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E915" t="n">
         <v>31</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D917" t="n">
         <v>24</v>
@@ -19729,7 +19729,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D919" t="n">
         <v>33</v>
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D923" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E923" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="924">
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D926" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E926" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="927">
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D928" t="n">
         <v>26</v>
@@ -19981,7 +19981,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D931" t="n">
         <v>36</v>
@@ -20023,10 +20023,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D933" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E933" t="n">
         <v>33</v>
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D934" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E934" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="935">
@@ -20065,13 +20065,13 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D935" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E935" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="936">
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D936" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E936" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="937">
@@ -20233,13 +20233,13 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D943" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E943" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="944">
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D945" t="n">
         <v>31</v>
       </c>
       <c r="E945" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="946">
@@ -20317,10 +20317,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D947" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E947" t="n">
         <v>23</v>
@@ -20359,10 +20359,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D949" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E949" t="n">
         <v>31</v>
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D950" t="n">
         <v>31</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D951" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E951" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="952">
@@ -20422,10 +20422,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D952" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E952" t="n">
         <v>30</v>
@@ -20464,13 +20464,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D954" t="n">
         <v>23</v>
       </c>
       <c r="E954" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="955">
@@ -20485,13 +20485,13 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D955" t="n">
         <v>22</v>
       </c>
       <c r="E955" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="956">
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D961" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E961" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="962">
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D963" t="n">
         <v>29</v>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D964" t="n">
         <v>25</v>
@@ -20716,13 +20716,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D966" t="n">
         <v>20</v>
       </c>
       <c r="E966" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="967">
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D970" t="n">
         <v>29</v>
       </c>
       <c r="E970" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="971">
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D972" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E972" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="973">
@@ -20884,13 +20884,13 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D974" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E974" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="975">
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D978" t="n">
         <v>27</v>
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D979" t="n">
         <v>24</v>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D980" t="n">
         <v>22</v>
@@ -21052,10 +21052,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D982" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E982" t="n">
         <v>30</v>
@@ -21157,10 +21157,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D987" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E987" t="n">
         <v>33</v>
@@ -21388,13 +21388,13 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D998" t="n">
         <v>28</v>
       </c>
       <c r="E998" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="999">
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1010" t="n">
         <v>29</v>
@@ -21661,10 +21661,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1011" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1011" t="n">
         <v>32</v>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1012" t="n">
         <v>29</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1016" t="n">
         <v>15</v>
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1018" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1018" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1025" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1025" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,13 +21976,13 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1026" t="n">
         <v>28</v>
       </c>
       <c r="E1026" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1027">
@@ -22018,10 +22018,10 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1028" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1028" t="n">
         <v>22</v>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1030" t="n">
         <v>29</v>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1033" t="n">
         <v>28</v>
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1035" t="n">
         <v>29</v>
@@ -22186,10 +22186,10 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1036" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1036" t="n">
         <v>26</v>
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1039" t="n">
         <v>24</v>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1044" t="n">
         <v>29</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1047" t="n">
         <v>28</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1048" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1048" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,7 +22480,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1050" t="n">
         <v>25</v>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1054" t="n">
         <v>35</v>
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1062" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1062" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,7 +22774,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1064" t="n">
         <v>38</v>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1076" t="n">
         <v>25</v>
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1080" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1080" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,10 +23194,10 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1084" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1084" t="n">
         <v>25</v>
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1085" t="n">
         <v>29</v>
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1088" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1088" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1089" t="n">
         <v>31</v>
       </c>
       <c r="E1089" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1090" t="n">
         <v>28</v>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1093" t="n">
         <v>30</v>
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1097" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1097" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1098" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1098" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,10 +23551,10 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1101" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1101" t="n">
         <v>21</v>
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1102" t="n">
         <v>28</v>
       </c>
       <c r="E1102" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,10 +23656,10 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1106" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1106" t="n">
         <v>36</v>
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1107" t="n">
         <v>25</v>
       </c>
       <c r="E1107" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,7 +23719,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1109" t="n">
         <v>21</v>
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1110" t="n">
         <v>29</v>
@@ -23761,7 +23761,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1111" t="n">
         <v>32</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1113" t="n">
         <v>7</v>
@@ -23845,10 +23845,10 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1115" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1115" t="n">
         <v>33</v>
@@ -23929,10 +23929,10 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1119" t="n">
         <v>25</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1121" t="n">
         <v>24</v>
       </c>
       <c r="E1121" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1123" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1124">
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1124" t="n">
         <v>30</v>
@@ -24160,13 +24160,13 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1130" t="n">
         <v>21</v>
       </c>
       <c r="E1130" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1131">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1135" t="n">
         <v>29</v>
@@ -24370,10 +24370,10 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1140" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1140" t="n">
         <v>25</v>
@@ -24475,10 +24475,10 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1145" t="n">
         <v>29</v>
@@ -24496,10 +24496,10 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1146" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1146" t="n">
         <v>26</v>
@@ -24580,13 +24580,13 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1150" t="n">
         <v>31</v>
       </c>
       <c r="E1150" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1151">
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1151" t="n">
         <v>28</v>
       </c>
       <c r="E1151" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,10 +25021,10 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1171" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1171" t="n">
         <v>37</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1172" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1172" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,13 +25126,13 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1176" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1176" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1177">
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1177" t="n">
         <v>28</v>
@@ -25210,10 +25210,10 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1180" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1180" t="n">
         <v>31</v>
@@ -25336,10 +25336,10 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1186" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1186" t="n">
         <v>30</v>
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1197" t="n">
         <v>25</v>
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1199" t="n">
         <v>32</v>
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1201" t="n">
         <v>29</v>
       </c>
       <c r="E1201" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,7 +25819,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1209" t="n">
         <v>23</v>
@@ -25903,10 +25903,10 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1213" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1213" t="n">
         <v>32</v>
@@ -25924,7 +25924,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1214" t="n">
         <v>24</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1216" t="n">
         <v>28</v>
@@ -26092,13 +26092,13 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1222" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1222" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1223">
@@ -26176,10 +26176,10 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1226" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1226" t="n">
         <v>20</v>
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1233" t="n">
         <v>28</v>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1234" t="n">
         <v>26</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1235" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1235" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1236" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1236" t="n">
         <v>39</v>
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1245" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1245" t="n">
         <v>28</v>
@@ -26596,13 +26596,13 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1246" t="n">
         <v>31</v>
       </c>
       <c r="E1246" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1247">
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1247" t="n">
         <v>33</v>
       </c>
       <c r="E1247" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1249" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1249" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1251" t="n">
         <v>31</v>
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1255" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1255" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,13 +26806,13 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1256" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1256" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1257">
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1258" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1258" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1259" t="n">
         <v>21</v>
@@ -26890,13 +26890,13 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1260" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1260" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1261">
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1262" t="n">
         <v>33</v>
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1264" t="n">
         <v>29</v>
       </c>
       <c r="E1264" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,10 +27016,10 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1266" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1266" t="n">
         <v>27</v>
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1269" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1269" t="n">
         <v>37</v>
@@ -27100,10 +27100,10 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1270" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1270" t="n">
         <v>32</v>
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1276" t="n">
         <v>18</v>
       </c>
       <c r="E1276" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1277">
@@ -27289,10 +27289,10 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1279" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1279" t="n">
         <v>33</v>
@@ -27310,7 +27310,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1280" t="n">
         <v>33</v>
@@ -27646,13 +27646,13 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1296" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1296" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1297">
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1299" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1299" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1300" t="n">
         <v>26</v>
@@ -27751,7 +27751,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1301" t="n">
         <v>22</v>
@@ -27793,7 +27793,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1303" t="n">
         <v>24</v>
@@ -27814,13 +27814,13 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1304" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1304" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1305">
@@ -27835,10 +27835,10 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1305" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1305" t="n">
         <v>34</v>
@@ -27856,7 +27856,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1306" t="n">
         <v>27</v>
@@ -27919,7 +27919,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1309" t="n">
         <v>34</v>
@@ -28024,7 +28024,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1314" t="n">
         <v>26</v>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1318" t="n">
         <v>30</v>
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1335" t="n">
         <v>33</v>
       </c>
       <c r="E1335" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1337" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1337" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,13 +28528,13 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1338" t="n">
         <v>32</v>
       </c>
       <c r="E1338" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1339">
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1346" t="n">
         <v>24</v>
@@ -28717,13 +28717,13 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1347" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1347" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1348">
@@ -28738,13 +28738,13 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1348" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1348" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1349">
@@ -28780,7 +28780,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1350" t="n">
         <v>25</v>
@@ -28822,7 +28822,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1352" t="n">
         <v>30</v>
@@ -28864,13 +28864,13 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1354" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1354" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1355">
@@ -28948,10 +28948,10 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1358" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1358" t="n">
         <v>30</v>
@@ -29032,10 +29032,10 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1362" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1362" t="n">
         <v>22</v>
@@ -29053,13 +29053,13 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1363" t="n">
         <v>33</v>
       </c>
       <c r="E1363" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1364">
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1364" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1364" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1366" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1366" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,7 +29137,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1367" t="n">
         <v>19</v>
@@ -29200,7 +29200,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1370" t="n">
         <v>24</v>
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1380" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1380" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,13 +29494,13 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1384" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1384" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1385">
@@ -29515,10 +29515,10 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1385" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1385" t="n">
         <v>36</v>
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1386" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1386" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1387" t="n">
         <v>15</v>
       </c>
       <c r="E1387" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1391" t="n">
         <v>35</v>
@@ -29704,7 +29704,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1394" t="n">
         <v>25</v>
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1397" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1397" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,7 +29809,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1399" t="n">
         <v>29</v>
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1401" t="n">
         <v>29</v>
       </c>
       <c r="E1401" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1402" t="n">
         <v>26</v>
@@ -29956,13 +29956,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1406" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1406" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1407">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1414" t="n">
         <v>25</v>
@@ -30145,7 +30145,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1415" t="n">
         <v>34</v>
@@ -30250,10 +30250,10 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1420" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1420" t="n">
         <v>28</v>
@@ -30355,13 +30355,13 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1425" t="n">
         <v>20</v>
       </c>
       <c r="E1425" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1426">
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,13 +30439,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1429" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1429" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1430">
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1433" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1433" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,7 +30649,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1439" t="n">
         <v>24</v>
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1454" t="n">
         <v>31</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" t="n">
         <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>34</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
         <v>24</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>29</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" t="n">
         <v>20</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
         <v>37</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>25</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" t="n">
         <v>26</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
         <v>31</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" t="n">
         <v>37</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" t="n">
         <v>29</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" t="n">
         <v>34</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
         <v>35</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" t="n">
         <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
         <v>26</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
         <v>25</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" t="n">
         <v>26</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" t="n">
         <v>26</v>
       </c>
       <c r="E58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E62" t="n">
         <v>31</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63" t="n">
         <v>30</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" t="n">
         <v>23</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" t="n">
         <v>36</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" t="n">
+        <v>30</v>
+      </c>
+      <c r="E67" t="n">
         <v>29</v>
-      </c>
-      <c r="E67" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D68" t="n">
         <v>31</v>
       </c>
       <c r="E68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69" t="n">
         <v>30</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71" t="n">
         <v>34</v>
       </c>
       <c r="E71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74" t="n">
         <v>39</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D78" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
         <v>25</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83" t="n">
         <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D85" t="n">
         <v>28</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" t="n">
         <v>35</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D89" t="n">
         <v>28</v>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D91" t="n">
+        <v>27</v>
+      </c>
+      <c r="E91" t="n">
         <v>26</v>
-      </c>
-      <c r="E91" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="n">
         <v>30</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D94" t="n">
         <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D95" t="n">
         <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D100" t="n">
         <v>28</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" t="n">
         <v>27</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E110" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D112" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E113" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D114" t="n">
         <v>32</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D117" t="n">
+        <v>31</v>
+      </c>
+      <c r="E117" t="n">
         <v>30</v>
-      </c>
-      <c r="E117" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="118">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D123" t="n">
         <v>29</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D125" t="n">
         <v>34</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D127" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E127" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E128" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D129" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E129" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D130" t="n">
+        <v>32</v>
+      </c>
+      <c r="E130" t="n">
         <v>31</v>
-      </c>
-      <c r="E130" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="131">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D133" t="n">
         <v>25</v>
       </c>
       <c r="E133" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D134" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E134" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D135" t="n">
         <v>28</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D137" t="n">
         <v>29</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D138" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E138" t="n">
         <v>34</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E139" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D141" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E141" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D142" t="n">
         <v>38</v>
       </c>
       <c r="E142" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E143" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D145" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E145" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D146" t="n">
         <v>23</v>
       </c>
       <c r="E146" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D147" t="n">
         <v>37</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D148" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E148" t="n">
         <v>26</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D149" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D151" t="n">
         <v>32</v>
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D152" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E152" t="n">
         <v>30</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D153" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E153" t="n">
         <v>29</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E156" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D157" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E157" t="n">
         <v>32</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D158" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E158" t="n">
         <v>30</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E159" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D160" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E160" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D162" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D163" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E163" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D167" t="n">
         <v>30</v>
       </c>
       <c r="E167" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D168" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E168" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D169" t="n">
         <v>25</v>
       </c>
       <c r="E169" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D170" t="n">
         <v>29</v>
       </c>
       <c r="E170" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D171" t="n">
+        <v>25</v>
+      </c>
+      <c r="E171" t="n">
         <v>24</v>
-      </c>
-      <c r="E171" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D175" t="n">
         <v>30</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D176" t="n">
         <v>23</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D180" t="n">
+        <v>27</v>
+      </c>
+      <c r="E180" t="n">
         <v>26</v>
-      </c>
-      <c r="E180" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="181">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D184" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E184" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D185" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E185" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D186" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E186" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D189" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E189" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D193" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E193" t="n">
         <v>28</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D194" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E194" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D195" t="n">
         <v>30</v>
       </c>
       <c r="E195" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D196" t="n">
         <v>36</v>
       </c>
       <c r="E196" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D198" t="n">
         <v>29</v>
       </c>
       <c r="E198" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D199" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E199" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D202" t="n">
         <v>31</v>
       </c>
       <c r="E202" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D203" t="n">
         <v>18</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D204" t="n">
         <v>30</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D205" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205" t="n">
         <v>31</v>
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D206" t="n">
         <v>29</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D207" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E207" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208">
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D209" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E209" t="n">
         <v>29</v>
@@ -4861,10 +4861,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D211" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E211" t="n">
         <v>30</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D213" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E213" t="n">
         <v>33</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D215" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E215" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D216" t="n">
         <v>23</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D217" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E217" t="n">
         <v>35</v>
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D218" t="n">
         <v>23</v>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D222" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E222" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223">
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D223" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E223" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224">
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D224" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E224" t="n">
         <v>35</v>
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D225" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E225" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226">
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D226" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E226" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227">
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D227" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E227" t="n">
         <v>27</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D228" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E228" t="n">
         <v>35</v>
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D230" t="n">
         <v>34</v>
       </c>
       <c r="E230" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231">
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D231" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E231" t="n">
         <v>33</v>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D232" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E232" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233">
@@ -5323,13 +5323,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D233" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E233" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D234" t="n">
         <v>27</v>
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D235" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E235" t="n">
         <v>30</v>
@@ -5428,13 +5428,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D238" t="n">
         <v>27</v>
       </c>
       <c r="E238" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D241" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E241" t="n">
         <v>30</v>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D242" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E242" t="n">
         <v>25</v>
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D243" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E243" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244">
@@ -5554,13 +5554,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D244" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E244" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D245" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E245" t="n">
         <v>26</v>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D246" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E246" t="n">
         <v>24</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D247" t="n">
         <v>32</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D248" t="n">
         <v>26</v>
@@ -5659,13 +5659,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D249" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E249" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D250" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E250" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251">
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D251" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E251" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D252" t="n">
         <v>24</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D253" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254">
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D254" t="n">
         <v>35</v>
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D255" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E255" t="n">
         <v>21</v>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D257" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E257" t="n">
         <v>34</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D260" t="n">
         <v>27</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D262" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E262" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D263" t="n">
         <v>29</v>
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D264" t="n">
         <v>28</v>
       </c>
       <c r="E264" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D265" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E265" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D267" t="n">
         <v>41</v>
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D270" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E270" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D271" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E271" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="272">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D273" t="n">
         <v>21</v>
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D276" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E276" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="277">
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D278" t="n">
         <v>27</v>
       </c>
       <c r="E278" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="279">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D280" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E280" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D283" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E283" t="n">
         <v>32</v>
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D284" t="n">
         <v>26</v>
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D285" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E285" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="286">
@@ -6436,10 +6436,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D286" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E286" t="n">
         <v>28</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D287" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E287" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D288" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E288" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289">
@@ -6499,13 +6499,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D289" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E289" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
@@ -6562,13 +6562,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D292" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E292" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D294" t="n">
         <v>35</v>
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D295" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E295" t="n">
         <v>33</v>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D297" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E297" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298">
@@ -6688,13 +6688,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D298" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E298" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="299">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D299" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E299" t="n">
         <v>37</v>
@@ -6751,10 +6751,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D301" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E301" t="n">
         <v>24</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D302" t="n">
         <v>22</v>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D305" t="n">
         <v>32</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D307" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E307" t="n">
         <v>28</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D308" t="n">
         <v>29</v>
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D311" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E311" t="n">
         <v>26</v>
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D314" t="n">
         <v>35</v>
       </c>
       <c r="E314" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315">
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D316" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E316" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317">
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D317" t="n">
         <v>23</v>
       </c>
       <c r="E317" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D320" t="n">
         <v>6</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D323" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E323" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="324">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D324" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E324" t="n">
         <v>32</v>
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D325" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E325" t="n">
         <v>29</v>
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D327" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E327" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D331" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E331" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="332">
@@ -7402,10 +7402,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D332" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E332" t="n">
         <v>24</v>
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D336" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E336" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D337" t="n">
         <v>28</v>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D338" t="n">
         <v>33</v>
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D339" t="n">
         <v>24</v>
@@ -7591,10 +7591,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D341" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E341" t="n">
         <v>28</v>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D344" t="n">
         <v>21</v>
@@ -7696,13 +7696,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D346" t="n">
         <v>28</v>
       </c>
       <c r="E346" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347">
@@ -7717,10 +7717,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D347" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E347" t="n">
         <v>30</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D348" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E348" t="n">
         <v>28</v>
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D349" t="n">
+        <v>35</v>
+      </c>
+      <c r="E349" t="n">
         <v>34</v>
-      </c>
-      <c r="E349" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="350">
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D352" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E352" t="n">
         <v>30</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D355" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E355" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="356">
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D358" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E358" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="359">
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D359" t="n">
         <v>34</v>
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D362" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E362" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363">
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D363" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E363" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D366" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E366" t="n">
         <v>20</v>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D367" t="n">
         <v>31</v>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D368" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E368" t="n">
         <v>29</v>
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D372" t="n">
         <v>29</v>
       </c>
       <c r="E372" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="373">
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D373" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E373" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="374">
@@ -8284,13 +8284,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D374" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E374" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="375">
@@ -8305,10 +8305,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D375" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E375" t="n">
         <v>35</v>
@@ -8347,10 +8347,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D377" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377" t="n">
         <v>31</v>
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D378" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E378" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D379" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E379" t="n">
         <v>31</v>
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D381" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E381" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382">
@@ -8452,10 +8452,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D382" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E382" t="n">
         <v>34</v>
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D383" t="n">
         <v>32</v>
       </c>
       <c r="E383" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="384">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D384" t="n">
         <v>26</v>
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D385" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E385" t="n">
         <v>25</v>
@@ -8557,10 +8557,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D387" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E387" t="n">
         <v>31</v>
@@ -8578,13 +8578,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D388" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E388" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="389">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D389" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E389" t="n">
         <v>32</v>
@@ -8620,13 +8620,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D390" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E390" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391">
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D391" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E391" t="n">
         <v>27</v>
@@ -8683,10 +8683,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D393" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E393" t="n">
         <v>30</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D395" t="n">
         <v>28</v>
@@ -8746,10 +8746,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D396" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E396" t="n">
         <v>32</v>
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D399" t="n">
         <v>36</v>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D400" t="n">
         <v>35</v>
       </c>
       <c r="E400" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401">
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D401" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E401" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="402">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D407" t="n">
         <v>28</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D410" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E410" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="411">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D411" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E411" t="n">
         <v>37</v>
@@ -9082,13 +9082,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D412" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E412" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="413">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D413" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E413" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="414">
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D415" t="n">
         <v>3</v>
@@ -9166,13 +9166,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D416" t="n">
         <v>27</v>
       </c>
       <c r="E416" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="417">
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D418" t="n">
         <v>23</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D425" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E425" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="426">
@@ -9397,13 +9397,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D427" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E427" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="428">
@@ -9439,10 +9439,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D429" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E429" t="n">
         <v>37</v>
@@ -9481,10 +9481,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D431" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E431" t="n">
         <v>26</v>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D432" t="n">
         <v>25</v>
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D434" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E434" t="n">
         <v>27</v>
@@ -9586,13 +9586,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D436" t="n">
         <v>26</v>
       </c>
       <c r="E436" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="437">
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D437" t="n">
         <v>31</v>
       </c>
       <c r="E437" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="438">
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D438" t="n">
         <v>28</v>
       </c>
       <c r="E438" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
@@ -9754,13 +9754,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D444" t="n">
         <v>27</v>
       </c>
       <c r="E444" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="445">
@@ -9796,13 +9796,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D446" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E446" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="447">
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D448" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E448" t="n">
         <v>31</v>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D450" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E450" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="451">
@@ -9901,13 +9901,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D451" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E451" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="452">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D458" t="n">
         <v>30</v>
@@ -10153,10 +10153,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D463" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E463" t="n">
         <v>33</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D464" t="n">
         <v>32</v>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D465" t="n">
         <v>28</v>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D466" t="n">
         <v>23</v>
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D470" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E470" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="471">
@@ -10342,13 +10342,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D472" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E472" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473">
@@ -10363,10 +10363,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D473" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E473" t="n">
         <v>27</v>
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D475" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E475" t="n">
         <v>29</v>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D482" t="n">
         <v>30</v>
@@ -10573,13 +10573,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D483" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E483" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="484">
@@ -10594,13 +10594,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D484" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E484" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="485">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D485" t="n">
         <v>18</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D486" t="n">
         <v>17</v>
@@ -10678,13 +10678,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D488" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E488" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="489">
@@ -10741,13 +10741,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D491" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E491" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="492">
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D492" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E492" t="n">
         <v>36</v>
@@ -10783,10 +10783,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D493" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E493" t="n">
         <v>30</v>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D494" t="n">
         <v>29</v>
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D497" t="n">
         <v>34</v>
       </c>
       <c r="E497" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="498">
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D498" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E498" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="499">
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D499" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E499" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="500">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D500" t="n">
         <v>24</v>
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D501" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E501" t="n">
         <v>25</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D504" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E504" t="n">
         <v>25</v>
@@ -11056,13 +11056,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D506" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E506" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="507">
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D507" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E507" t="n">
         <v>29</v>
@@ -11098,13 +11098,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D508" t="n">
         <v>15</v>
       </c>
       <c r="E508" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="509">
@@ -11119,10 +11119,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D509" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E509" t="n">
         <v>37</v>
@@ -11140,7 +11140,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D510" t="n">
         <v>25</v>
@@ -11161,13 +11161,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D511" t="n">
         <v>32</v>
       </c>
       <c r="E511" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="512">
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D512" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E512" t="n">
         <v>25</v>
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D513" t="n">
         <v>28</v>
@@ -11224,13 +11224,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D514" t="n">
         <v>29</v>
       </c>
       <c r="E514" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="515">
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D515" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E515" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="516">
@@ -11266,13 +11266,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D516" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E516" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="517">
@@ -11287,10 +11287,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D517" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E517" t="n">
         <v>32</v>
@@ -11308,13 +11308,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D518" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E518" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="519">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D520" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E520" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="521">
@@ -11371,13 +11371,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D521" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E521" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="522">
@@ -11434,7 +11434,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D524" t="n">
         <v>35</v>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D527" t="n">
         <v>24</v>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D528" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E528" t="n">
         <v>32</v>
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D529" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E529" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="530">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D530" t="n">
         <v>22</v>
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D531" t="n">
         <v>31</v>
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D533" t="n">
         <v>36</v>
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D535" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E535" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="536">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D536" t="n">
         <v>16</v>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D539" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E539" t="n">
         <v>30</v>
@@ -11770,13 +11770,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D540" t="n">
+        <v>35</v>
+      </c>
+      <c r="E540" t="n">
         <v>34</v>
-      </c>
-      <c r="E540" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="541">
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D541" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E541" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="542">
@@ -11833,13 +11833,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D543" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E543" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="544">
@@ -11854,13 +11854,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D544" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E544" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="545">
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D545" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E545" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="546">
@@ -11896,10 +11896,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D546" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E546" t="n">
         <v>30</v>
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D547" t="n">
         <v>32</v>
       </c>
       <c r="E547" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="548">
@@ -11938,7 +11938,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D548" t="n">
         <v>31</v>
@@ -11980,10 +11980,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D550" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E550" t="n">
         <v>33</v>
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D552" t="n">
         <v>24</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D553" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E553" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="554">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D555" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E555" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="556">
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D556" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E556" t="n">
         <v>30</v>
@@ -12127,13 +12127,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D557" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E557" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="558">
@@ -12148,7 +12148,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D558" t="n">
         <v>34</v>
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D560" t="n">
         <v>25</v>
       </c>
       <c r="E560" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="561">
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D562" t="n">
         <v>22</v>
       </c>
       <c r="E562" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="563">
@@ -12253,10 +12253,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D563" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E563" t="n">
         <v>30</v>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D564" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E564" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="565">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D565" t="n">
         <v>20</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D566" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E566" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="567">
@@ -12358,13 +12358,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D568" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E568" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="569">
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D570" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E570" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="571">
@@ -12421,13 +12421,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D571" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E571" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="572">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D572" t="n">
         <v>23</v>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D573" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E573" t="n">
         <v>27</v>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D576" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E576" t="n">
         <v>29</v>
@@ -12610,10 +12610,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D580" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E580" t="n">
         <v>25</v>
@@ -12631,10 +12631,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D581" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E581" t="n">
         <v>37</v>
@@ -12694,13 +12694,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D584" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E584" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="585">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D585" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E585" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="586">
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D586" t="n">
         <v>32</v>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D588" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E588" t="n">
         <v>30</v>
@@ -12799,13 +12799,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D589" t="n">
         <v>32</v>
       </c>
       <c r="E589" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="590">
@@ -12820,10 +12820,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D590" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E590" t="n">
         <v>33</v>
@@ -12841,10 +12841,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D591" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E591" t="n">
         <v>23</v>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D592" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E592" t="n">
         <v>26</v>
@@ -12883,10 +12883,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D593" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E593" t="n">
         <v>29</v>
@@ -12967,10 +12967,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D597" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E597" t="n">
         <v>27</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D598" t="n">
         <v>23</v>
@@ -13009,13 +13009,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D599" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E599" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="600">
@@ -13051,13 +13051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D601" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E601" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="602">
@@ -13072,10 +13072,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D602" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E602" t="n">
         <v>35</v>
@@ -13093,7 +13093,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D603" t="n">
         <v>27</v>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D604" t="n">
         <v>31</v>
@@ -13135,10 +13135,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D605" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E605" t="n">
         <v>30</v>
@@ -13156,13 +13156,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D606" t="n">
         <v>23</v>
       </c>
       <c r="E606" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="607">
@@ -13177,13 +13177,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D607" t="n">
         <v>20</v>
       </c>
       <c r="E607" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="608">
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D608" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E608" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="609">
@@ -13219,13 +13219,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D609" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E609" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="610">
@@ -13261,10 +13261,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D611" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E611" t="n">
         <v>26</v>
@@ -13282,10 +13282,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D612" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E612" t="n">
         <v>35</v>
@@ -13303,10 +13303,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D613" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E613" t="n">
         <v>22</v>
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D617" t="n">
         <v>34</v>
       </c>
       <c r="E617" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="618">
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D618" t="n">
         <v>31</v>
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D622" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E622" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="623">
@@ -13513,10 +13513,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D623" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E623" t="n">
         <v>25</v>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D625" t="n">
         <v>33</v>
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D628" t="n">
         <v>23</v>
       </c>
       <c r="E628" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="629">
@@ -13639,13 +13639,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D629" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E629" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="630">
@@ -13681,10 +13681,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D631" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E631" t="n">
         <v>37</v>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D632" t="n">
         <v>25</v>
       </c>
       <c r="E632" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="633">
@@ -13723,13 +13723,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D633" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E633" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="634">
@@ -13765,10 +13765,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D635" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E635" t="n">
         <v>33</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D638" t="n">
         <v>25</v>
@@ -13849,13 +13849,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D639" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E639" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="640">
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D640" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E640" t="n">
         <v>27</v>
@@ -13891,10 +13891,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D641" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E641" t="n">
         <v>26</v>
@@ -13933,7 +13933,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D643" t="n">
         <v>25</v>
@@ -13954,10 +13954,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D644" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E644" t="n">
         <v>29</v>
@@ -13975,10 +13975,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D645" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E645" t="n">
         <v>27</v>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D646" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E646" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="647">
@@ -14017,13 +14017,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D647" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E647" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="648">
@@ -14038,10 +14038,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D648" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E648" t="n">
         <v>24</v>
@@ -14122,13 +14122,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D652" t="n">
         <v>27</v>
       </c>
       <c r="E652" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="653">
@@ -14143,13 +14143,13 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D653" t="n">
         <v>27</v>
       </c>
       <c r="E653" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="654">
@@ -14206,13 +14206,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D656" t="n">
         <v>22</v>
       </c>
       <c r="E656" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="657">
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D658" t="n">
         <v>20</v>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D659" t="n">
         <v>26</v>
@@ -14353,13 +14353,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D663" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E663" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="664">
@@ -14374,10 +14374,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D664" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E664" t="n">
         <v>28</v>
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D665" t="n">
         <v>35</v>
       </c>
       <c r="E665" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="666">
@@ -14416,13 +14416,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D666" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E666" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="667">
@@ -14437,13 +14437,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D667" t="n">
         <v>34</v>
       </c>
       <c r="E667" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="668">
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D668" t="n">
+        <v>31</v>
+      </c>
+      <c r="E668" t="n">
         <v>30</v>
-      </c>
-      <c r="E668" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="669">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D669" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E669" t="n">
         <v>24</v>
@@ -14521,13 +14521,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D671" t="n">
         <v>31</v>
       </c>
       <c r="E671" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="672">
@@ -14563,13 +14563,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D673" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E673" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="674">
@@ -14584,13 +14584,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D674" t="n">
         <v>17</v>
       </c>
       <c r="E674" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="675">
@@ -14647,10 +14647,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D677" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E677" t="n">
         <v>33</v>
@@ -14668,13 +14668,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D678" t="n">
         <v>36</v>
       </c>
       <c r="E678" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="679">
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D680" t="n">
         <v>32</v>
       </c>
       <c r="E680" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="681">
@@ -14731,10 +14731,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D681" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E681" t="n">
         <v>28</v>
@@ -14773,7 +14773,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D683" t="n">
         <v>29</v>
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D688" t="n">
+        <v>30</v>
+      </c>
+      <c r="E688" t="n">
         <v>29</v>
-      </c>
-      <c r="E688" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="689">
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D689" t="n">
         <v>35</v>
@@ -14962,13 +14962,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D692" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E692" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="693">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D693" t="n">
         <v>32</v>
@@ -15025,10 +15025,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D695" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E695" t="n">
         <v>34</v>
@@ -15046,10 +15046,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D696" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E696" t="n">
         <v>25</v>
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D697" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E697" t="n">
         <v>28</v>
@@ -15109,13 +15109,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D699" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E699" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="700">
@@ -15130,10 +15130,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D700" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E700" t="n">
         <v>29</v>
@@ -15151,13 +15151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D701" t="n">
         <v>23</v>
       </c>
       <c r="E701" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="702">
@@ -15172,13 +15172,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D702" t="n">
         <v>35</v>
       </c>
       <c r="E702" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="703">
@@ -15193,7 +15193,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D703" t="n">
         <v>30</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D705" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E705" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="706">
@@ -15256,13 +15256,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D706" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E706" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="707">
@@ -15277,10 +15277,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D707" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E707" t="n">
         <v>23</v>
@@ -15319,13 +15319,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D709" t="n">
         <v>20</v>
       </c>
       <c r="E709" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="710">
@@ -15340,10 +15340,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D710" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E710" t="n">
         <v>33</v>
@@ -15361,13 +15361,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D711" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E711" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="712">
@@ -15424,10 +15424,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D714" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E714" t="n">
         <v>25</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D716" t="n">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D717" t="n">
         <v>28</v>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D718" t="n">
         <v>25</v>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D720" t="n">
         <v>27</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D722" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E722" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="723">
@@ -15613,13 +15613,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D723" t="n">
+        <v>27</v>
+      </c>
+      <c r="E723" t="n">
         <v>26</v>
-      </c>
-      <c r="E723" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="724">
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D724" t="n">
         <v>35</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D725" t="n">
         <v>22</v>
       </c>
       <c r="E725" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="726">
@@ -15718,10 +15718,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D728" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E728" t="n">
         <v>31</v>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D729" t="n">
         <v>25</v>
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D730" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E730" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="731">
@@ -15781,10 +15781,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D731" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E731" t="n">
         <v>30</v>
@@ -15802,10 +15802,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D732" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E732" t="n">
         <v>34</v>
@@ -15865,10 +15865,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D735" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E735" t="n">
         <v>19</v>
@@ -15907,10 +15907,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D737" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E737" t="n">
         <v>28</v>
@@ -15949,13 +15949,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D739" t="n">
         <v>27</v>
       </c>
       <c r="E739" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="740">
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D740" t="n">
         <v>23</v>
@@ -15991,13 +15991,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D741" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E741" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="742">
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D743" t="n">
         <v>28</v>
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D745" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E745" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="746">
@@ -16117,13 +16117,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D747" t="n">
         <v>17</v>
       </c>
       <c r="E747" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="748">
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D749" t="n">
         <v>26</v>
@@ -16222,13 +16222,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D752" t="n">
         <v>29</v>
       </c>
       <c r="E752" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="753">
@@ -16243,10 +16243,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D753" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E753" t="n">
         <v>28</v>
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D756" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E756" t="n">
         <v>37</v>
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D757" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E757" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="758">
@@ -16348,13 +16348,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D758" t="n">
         <v>27</v>
       </c>
       <c r="E758" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="759">
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D761" t="n">
         <v>18</v>
       </c>
       <c r="E761" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="762">
@@ -16453,13 +16453,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D763" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E763" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="764">
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D767" t="n">
         <v>24</v>
       </c>
       <c r="E767" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="768">
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D768" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E768" t="n">
         <v>41</v>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D776" t="n">
         <v>35</v>
@@ -16747,13 +16747,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D777" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E777" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="778">
@@ -16768,13 +16768,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D778" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E778" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="779">
@@ -16852,13 +16852,13 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D782" t="n">
         <v>26</v>
       </c>
       <c r="E782" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="783">
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D783" t="n">
         <v>33</v>
       </c>
       <c r="E783" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="784">
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D784" t="n">
         <v>27</v>
@@ -16936,13 +16936,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D786" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E786" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="787">
@@ -16957,10 +16957,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D787" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E787" t="n">
         <v>35</v>
@@ -17188,10 +17188,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D798" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E798" t="n">
         <v>26</v>
@@ -17209,13 +17209,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D799" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E799" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="800">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D805" t="n">
         <v>29</v>
       </c>
       <c r="E805" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="806">
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D811" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E811" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="812">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D812" t="n">
         <v>28</v>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D814" t="n">
         <v>39</v>
@@ -17545,7 +17545,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D815" t="n">
         <v>20</v>
@@ -17608,7 +17608,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D818" t="n">
         <v>28</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D820" t="n">
         <v>35</v>
@@ -17734,13 +17734,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D824" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E824" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="825">
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D825" t="n">
         <v>32</v>
@@ -17839,13 +17839,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D829" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E829" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="830">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D840" t="n">
         <v>28</v>
@@ -18112,13 +18112,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D842" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E842" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="843">
@@ -18133,13 +18133,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D843" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E843" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="844">
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D845" t="n">
         <v>39</v>
       </c>
       <c r="E845" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="846">
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D847" t="n">
         <v>22</v>
       </c>
       <c r="E847" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="848">
@@ -18238,7 +18238,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D848" t="n">
         <v>38</v>
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D857" t="n">
         <v>36</v>
@@ -18532,13 +18532,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D862" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E862" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="863">
@@ -18553,13 +18553,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D863" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E863" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="864">
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D864" t="n">
         <v>25</v>
@@ -18637,13 +18637,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D867" t="n">
         <v>24</v>
       </c>
       <c r="E867" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="868">
@@ -18763,13 +18763,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D873" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E873" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="874">
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D874" t="n">
         <v>45</v>
@@ -18805,7 +18805,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D875" t="n">
         <v>27</v>
@@ -18826,13 +18826,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D876" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E876" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="877">
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D878" t="n">
         <v>30</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D881" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E881" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="882">
@@ -18952,13 +18952,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D882" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E882" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="883">
@@ -18973,13 +18973,13 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D883" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E883" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="884">
@@ -18994,13 +18994,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D884" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E884" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="885">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D885" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E885" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="886">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D889" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E889" t="n">
         <v>34</v>
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D891" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E891" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="892">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D895" t="n">
         <v>28</v>
@@ -19393,13 +19393,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D903" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E903" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="904">
@@ -19519,13 +19519,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D909" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E909" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="910">
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D911" t="n">
         <v>22</v>
@@ -19645,10 +19645,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D915" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E915" t="n">
         <v>31</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D917" t="n">
         <v>24</v>
@@ -19729,13 +19729,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D919" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E919" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="920">
@@ -19813,13 +19813,13 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D923" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E923" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="924">
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D926" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E926" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="927">
@@ -19918,13 +19918,13 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D928" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E928" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="929">
@@ -19981,7 +19981,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D931" t="n">
         <v>36</v>
@@ -20023,7 +20023,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D933" t="n">
         <v>25</v>
@@ -20044,13 +20044,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D934" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E934" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="935">
@@ -20065,13 +20065,13 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D935" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E935" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="936">
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D936" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E936" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="937">
@@ -20233,7 +20233,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D943" t="n">
         <v>30</v>
@@ -20275,13 +20275,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D945" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E945" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="946">
@@ -20317,10 +20317,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D947" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E947" t="n">
         <v>23</v>
@@ -20359,10 +20359,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D949" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E949" t="n">
         <v>31</v>
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D950" t="n">
         <v>31</v>
@@ -20401,13 +20401,13 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D951" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E951" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="952">
@@ -20422,10 +20422,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D952" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E952" t="n">
         <v>30</v>
@@ -20464,13 +20464,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D954" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E954" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="955">
@@ -20485,10 +20485,10 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D955" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E955" t="n">
         <v>31</v>
@@ -20611,13 +20611,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D961" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E961" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="962">
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D963" t="n">
         <v>29</v>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D964" t="n">
         <v>25</v>
@@ -20716,10 +20716,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D966" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E966" t="n">
         <v>27</v>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D970" t="n">
         <v>29</v>
@@ -20842,13 +20842,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D972" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E972" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="973">
@@ -20884,13 +20884,13 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D974" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E974" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="975">
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D978" t="n">
         <v>27</v>
@@ -20989,13 +20989,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D979" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E979" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="980">
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D980" t="n">
         <v>22</v>
@@ -21052,10 +21052,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D982" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E982" t="n">
         <v>30</v>
@@ -21157,10 +21157,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D987" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E987" t="n">
         <v>33</v>
@@ -21388,10 +21388,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D998" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E998" t="n">
         <v>15</v>
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1010" t="n">
         <v>29</v>
@@ -21661,10 +21661,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1011" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1011" t="n">
         <v>32</v>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1012" t="n">
         <v>29</v>
@@ -21766,7 +21766,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1016" t="n">
         <v>15</v>
@@ -21808,13 +21808,13 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1018" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1018" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1019">
@@ -21955,13 +21955,13 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1025" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1025" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1026">
@@ -21976,10 +21976,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1026" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1026" t="n">
         <v>28</v>
@@ -22018,13 +22018,13 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1028" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1028" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1029">
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1030" t="n">
         <v>29</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1033" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1033" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1034">
@@ -22165,13 +22165,13 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1035" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1035" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1036">
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1036" t="n">
         <v>25</v>
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1039" t="n">
         <v>24</v>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1044" t="n">
         <v>29</v>
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1047" t="n">
         <v>28</v>
@@ -22438,13 +22438,13 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1048" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1048" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1049">
@@ -22480,7 +22480,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1050" t="n">
         <v>25</v>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1054" t="n">
         <v>35</v>
@@ -22732,13 +22732,13 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1062" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1062" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1063">
@@ -22774,10 +22774,10 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1064" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1064" t="n">
         <v>26</v>
@@ -23026,13 +23026,13 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1076" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1076" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1077">
@@ -23110,13 +23110,13 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1080" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1080" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1081">
@@ -23194,10 +23194,10 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1084" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1084" t="n">
         <v>25</v>
@@ -23215,13 +23215,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1085" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1085" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1086">
@@ -23278,13 +23278,13 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1088" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1088" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1089">
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1089" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1089" t="n">
         <v>31</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="1090">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1090" t="n">
         <v>28</v>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1092" t="n">
         <v>6</v>
@@ -23383,13 +23383,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1093" t="n">
         <v>30</v>
       </c>
       <c r="E1093" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1094">
@@ -23467,13 +23467,13 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1097" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1097" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1098">
@@ -23488,13 +23488,13 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1098" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1098" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1099">
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1100" t="n">
         <v>16</v>
@@ -23551,10 +23551,10 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1101" t="n">
         <v>21</v>
@@ -23572,13 +23572,13 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1102" t="n">
         <v>28</v>
       </c>
       <c r="E1102" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1103">
@@ -23656,10 +23656,10 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1106" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1106" t="n">
         <v>36</v>
@@ -23677,13 +23677,13 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1107" t="n">
         <v>25</v>
       </c>
       <c r="E1107" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1108">
@@ -23719,13 +23719,13 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1110">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1110" t="n">
         <v>29</v>
@@ -23761,7 +23761,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1111" t="n">
         <v>32</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1113" t="n">
         <v>7</v>
@@ -23845,13 +23845,13 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1115" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1115" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1116">
@@ -23929,10 +23929,10 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1119" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1119" t="n">
         <v>25</v>
@@ -23971,13 +23971,13 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1121" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1121" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1122">
@@ -24013,7 +24013,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1123" t="n">
         <v>26</v>
@@ -24034,13 +24034,13 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1124" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1124" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1125">
@@ -24160,13 +24160,13 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1130" t="n">
         <v>21</v>
       </c>
       <c r="E1130" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1131">
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1135" t="n">
         <v>29</v>
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1140" t="n">
         <v>24</v>
@@ -24475,10 +24475,10 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1145" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1145" t="n">
         <v>29</v>
@@ -24496,13 +24496,13 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1146" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1147">
@@ -24580,10 +24580,10 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1150" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1150" t="n">
         <v>23</v>
@@ -24601,13 +24601,13 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1151" t="n">
         <v>28</v>
       </c>
       <c r="E1151" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1152">
@@ -25021,13 +25021,13 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1171" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1171" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1172">
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1172" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1172" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1173">
@@ -25126,7 +25126,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1176" t="n">
         <v>35</v>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1177" t="n">
         <v>28</v>
@@ -25210,13 +25210,13 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1180" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1180" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1181">
@@ -25336,13 +25336,13 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1186" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1186" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1187">
@@ -25504,13 +25504,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1194" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1194" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1195">
@@ -25567,13 +25567,13 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1197" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1197" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1198">
@@ -25609,13 +25609,13 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1199" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1199" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1200">
@@ -25651,13 +25651,13 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1201" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1201" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1202">
@@ -25819,7 +25819,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1209" t="n">
         <v>23</v>
@@ -25903,7 +25903,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1213" t="n">
         <v>40</v>
@@ -25924,7 +25924,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1214" t="n">
         <v>24</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1216" t="n">
         <v>28</v>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1222" t="n">
         <v>15</v>
@@ -26176,13 +26176,13 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1226" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1226" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1227">
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1233" t="n">
         <v>28</v>
@@ -26344,13 +26344,13 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1234" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1234" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1235">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1235" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1235" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1236">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1236" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1236" t="n">
         <v>39</v>
@@ -26575,10 +26575,10 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1245" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1245" t="n">
         <v>28</v>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1246" t="n">
         <v>31</v>
@@ -26617,13 +26617,13 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1247" t="n">
         <v>33</v>
       </c>
       <c r="E1247" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1248">
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1249" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1249" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1250">
@@ -26701,13 +26701,13 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1251" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1251" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1252">
@@ -26785,13 +26785,13 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1255" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1255" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1256">
@@ -26806,7 +26806,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1256" t="n">
         <v>30</v>
@@ -26848,13 +26848,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1258" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1258" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1259">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1259" t="n">
         <v>21</v>
@@ -26890,10 +26890,10 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1260" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1260" t="n">
         <v>24</v>
@@ -26932,10 +26932,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1262" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1262" t="n">
         <v>15</v>
@@ -26974,13 +26974,13 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1264" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1264" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1265">
@@ -27016,10 +27016,10 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1266" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1266" t="n">
         <v>27</v>
@@ -27079,10 +27079,10 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1269" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1269" t="n">
         <v>37</v>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1270" t="n">
         <v>31</v>
@@ -27226,10 +27226,10 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1276" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1276" t="n">
         <v>30</v>
@@ -27289,13 +27289,13 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1279" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1279" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1280">
@@ -27310,13 +27310,13 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1280" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1280" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1281">
@@ -27646,7 +27646,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1296" t="n">
         <v>38</v>
@@ -27709,13 +27709,13 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1299" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1299" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1300">
@@ -27730,13 +27730,13 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1300" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1300" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1301">
@@ -27751,13 +27751,13 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1301" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1301" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1302">
@@ -27793,7 +27793,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1303" t="n">
         <v>24</v>
@@ -27814,7 +27814,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1304" t="n">
         <v>30</v>
@@ -27835,7 +27835,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1305" t="n">
         <v>36</v>
@@ -27856,7 +27856,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1306" t="n">
         <v>27</v>
@@ -27919,13 +27919,13 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1309" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1309" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1310">
@@ -28024,13 +28024,13 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1314" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1314" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1315">
@@ -28108,13 +28108,13 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1318" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1318" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1319">
@@ -28465,13 +28465,13 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1335" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1335" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1336">
@@ -28507,13 +28507,13 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1337" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1337" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1338">
@@ -28528,13 +28528,13 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1338" t="n">
         <v>32</v>
       </c>
       <c r="E1338" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1339">
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1346" t="n">
         <v>24</v>
@@ -28717,13 +28717,13 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1347" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1347" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1348">
@@ -28738,13 +28738,13 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1348" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1348" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1349">
@@ -28780,7 +28780,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1350" t="n">
         <v>25</v>
@@ -28822,10 +28822,10 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1352" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1352" t="n">
         <v>34</v>
@@ -28864,13 +28864,13 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1354" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1354" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1355">
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1358" t="n">
         <v>28</v>
       </c>
       <c r="E1358" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1359">
@@ -29032,13 +29032,13 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1362" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1362" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1363">
@@ -29053,13 +29053,13 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1363" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1363" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1364">
@@ -29074,13 +29074,13 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1364" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1364" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1365">
@@ -29116,13 +29116,13 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1366" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1366" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1367">
@@ -29137,7 +29137,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1367" t="n">
         <v>19</v>
@@ -29200,7 +29200,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1370" t="n">
         <v>24</v>
@@ -29410,13 +29410,13 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1380" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1380" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1381">
@@ -29494,13 +29494,13 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1384" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1384" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1385">
@@ -29515,13 +29515,13 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1385" t="n">
         <v>19</v>
       </c>
       <c r="E1385" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1386">
@@ -29536,13 +29536,13 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1386" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1386" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1387">
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1387" t="n">
         <v>15</v>
       </c>
       <c r="E1387" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1388">
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1391" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1391" t="n">
         <v>35</v>
-      </c>
-      <c r="E1391" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="1392">
@@ -29704,7 +29704,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1394" t="n">
         <v>25</v>
@@ -29767,13 +29767,13 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1397" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1397" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1398">
@@ -29809,7 +29809,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1399" t="n">
         <v>29</v>
@@ -29851,13 +29851,13 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1401" t="n">
         <v>29</v>
       </c>
       <c r="E1401" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1402">
@@ -29872,13 +29872,13 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1402" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1402" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1403">
@@ -29956,13 +29956,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1406" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1406" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1407">
@@ -30124,13 +30124,13 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1414" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1414" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1415">
@@ -30145,13 +30145,13 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1415" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1415" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1416">
@@ -30250,10 +30250,10 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1420" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1420" t="n">
         <v>28</v>
@@ -30355,10 +30355,10 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1425" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1425" t="n">
         <v>33</v>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>
@@ -30439,13 +30439,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1429" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1429" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1430">
@@ -30523,13 +30523,13 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1433" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1433" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1434">
@@ -30649,13 +30649,13 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1439" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1439" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1440">
@@ -30964,13 +30964,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1454" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1454" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1427" t="n">
         <v>0</v>

--- a/static/NYSE/Evaluation.xlsx
+++ b/static/NYSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
         <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
         <v>37</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
         <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
         <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
         <v>31</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
         <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
         <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" t="n">
         <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" t="n">
         <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
         <v>29</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" t="n">
         <v>39</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>27</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" t="n">
         <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" t="n">
         <v>21</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="n">
         <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" t="n">
         <v>37</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" t="n">
         <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" t="n">
         <v>34</v>
       </c>
       <c r="E47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D49" t="n">
         <v>32</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D50" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" t="n">
         <v>36</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
         <v>37</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E53" t="n">
         <v>27</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55" t="n">
         <v>27</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D56" t="n">
         <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E57" t="n">
         <v>26</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
         <v>28</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" t="n">
         <v>34</v>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" t="n">
         <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E63" t="n">
         <v>39</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" t="n">
         <v>34</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D66" t="n">
         <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" t="n">
         <v>34</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D68" t="n">
         <v>34</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
         <v>35</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D70" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
         <v>34</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E71" t="n">
         <v>19</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D74" t="n">
         <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79" t="n">
         <v>22</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E83" t="n">
         <v>34</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D85" t="n">
         <v>28</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87" t="n">
         <v>32</v>
       </c>
       <c r="E87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D88" t="n">
         <v>31</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D89" t="n">
         <v>30</v>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
         <v>27</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" t="n">
         <v>31</v>
       </c>
       <c r="E92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D94" t="n">
         <v>29</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D95" t="n">
         <v>41</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D100" t="n">
         <v>29</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
         <v>38</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D105" t="n">
         <v>34</v>
       </c>
       <c r="E105" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D109" t="n">
         <v>30</v>
       </c>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D110" t="n">
         <v>32</v>
       </c>
       <c r="E110" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D112" t="n">
         <v>36</v>
       </c>
       <c r="E112" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D113" t="n">
         <v>25</v>
       </c>
       <c r="E113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D114" t="n">
         <v>33</v>
       </c>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D117" t="n">
         <v>31</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D119" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E119" t="n">
         <v>27</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D123" t="n">
         <v>32</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D125" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E125" t="n">
         <v>34</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D127" t="n">
         <v>31</v>
       </c>
       <c r="E127" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D128" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E128" t="n">
         <v>39</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D129" t="n">
         <v>39</v>
       </c>
       <c r="E129" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D130" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E130" t="n">
         <v>32</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D133" t="n">
         <v>28</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D134" t="n">
         <v>34</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D135" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E135" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D137" t="n">
         <v>30</v>
       </c>
       <c r="E137" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D138" t="n">
         <v>39</v>
       </c>
       <c r="E138" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D139" t="n">
         <v>32</v>
       </c>
       <c r="E139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D141" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E141" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D142" t="n">
         <v>40</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D143" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E143" t="n">
         <v>35</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D144" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D145" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E145" t="n">
         <v>31</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D146" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E146" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D147" t="n">
         <v>39</v>
       </c>
       <c r="E147" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D148" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E148" t="n">
         <v>30</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D149" t="n">
         <v>32</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D151" t="n">
         <v>35</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D152" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E152" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D153" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E153" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D156" t="n">
         <v>37</v>
       </c>
       <c r="E156" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D157" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E157" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D158" t="n">
         <v>29</v>
       </c>
       <c r="E158" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D159" t="n">
         <v>32</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D160" t="n">
         <v>29</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D162" t="n">
         <v>30</v>
       </c>
       <c r="E162" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D163" t="n">
+        <v>32</v>
+      </c>
+      <c r="E163" t="n">
         <v>31</v>
-      </c>
-      <c r="E163" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D167" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E167" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D168" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E168" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D169" t="n">
         <v>27</v>
       </c>
       <c r="E169" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D170" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E170" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D171" t="n">
         <v>26</v>
       </c>
       <c r="E171" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D175" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E175" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D176" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E176" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D180" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E180" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D184" t="n">
         <v>30</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D185" t="n">
         <v>30</v>
       </c>
       <c r="E185" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D186" t="n">
         <v>27</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D187" t="n">
         <v>17</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D189" t="n">
+        <v>34</v>
+      </c>
+      <c r="E189" t="n">
         <v>33</v>
-      </c>
-      <c r="E189" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D193" t="n">
         <v>29</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D194" t="n">
         <v>42</v>
       </c>
       <c r="E194" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D195" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E195" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D196" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E196" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D198" t="n">
         <v>30</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D199" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E199" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D202" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E202" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D203" t="n">
         <v>18</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D204" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E204" t="n">
         <v>27</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D205" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E205" t="n">
         <v>34</v>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D206" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E206" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D207" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E207" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208">
@@ -4819,13 +4819,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D209" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E209" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D211" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E211" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D213" t="n">
         <v>30</v>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D215" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E215" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216">
@@ -4966,13 +4966,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D216" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E216" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D217" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E217" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218">
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D218" t="n">
         <v>26</v>
       </c>
       <c r="E218" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D222" t="n">
         <v>28</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D223" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E223" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D224" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E224" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225">
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D225" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E225" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D226" t="n">
         <v>22</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D227" t="n">
         <v>37</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D228" t="n">
         <v>32</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D230" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E230" t="n">
         <v>28</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D231" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E231" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232">
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D232" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E232" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D233" t="n">
         <v>32</v>
@@ -5344,13 +5344,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D234" t="n">
+        <v>31</v>
+      </c>
+      <c r="E234" t="n">
         <v>30</v>
-      </c>
-      <c r="E234" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="235">
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D235" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E235" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D238" t="n">
         <v>28</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D241" t="n">
         <v>32</v>
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D242" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E242" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D243" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E243" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244">
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D244" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E244" t="n">
         <v>31</v>
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D245" t="n">
         <v>38</v>
       </c>
       <c r="E245" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D246" t="n">
         <v>31</v>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D247" t="n">
         <v>36</v>
       </c>
       <c r="E247" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D248" t="n">
         <v>29</v>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D249" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E249" t="n">
         <v>30</v>
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D250" t="n">
         <v>36</v>
       </c>
       <c r="E250" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251">
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D251" t="n">
         <v>28</v>
       </c>
       <c r="E251" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D252" t="n">
         <v>25</v>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D253" t="n">
         <v>31</v>
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D254" t="n">
         <v>37</v>
       </c>
       <c r="E254" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255">
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D255" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E255" t="n">
         <v>23</v>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D257" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E257" t="n">
         <v>35</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D260" t="n">
         <v>30</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D262" t="n">
         <v>36</v>
       </c>
       <c r="E262" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D263" t="n">
         <v>32</v>
@@ -5974,10 +5974,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D264" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E264" t="n">
         <v>34</v>
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D265" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E265" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266">
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D267" t="n">
         <v>42</v>
       </c>
       <c r="E267" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D270" t="n">
         <v>34</v>
       </c>
       <c r="E270" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="271">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D271" t="n">
         <v>36</v>
       </c>
       <c r="E271" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272">
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D273" t="n">
         <v>22</v>
       </c>
       <c r="E273" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274">
@@ -6226,13 +6226,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D276" t="n">
         <v>31</v>
       </c>
       <c r="E276" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277">
@@ -6268,13 +6268,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D278" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E278" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="279">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D280" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E280" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D283" t="n">
         <v>32</v>
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D284" t="n">
         <v>27</v>
       </c>
       <c r="E284" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="285">
@@ -6415,10 +6415,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D285" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E285" t="n">
         <v>39</v>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D286" t="n">
         <v>28</v>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D287" t="n">
         <v>39</v>
       </c>
       <c r="E287" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D288" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E288" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D289" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E289" t="n">
         <v>24</v>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D292" t="n">
         <v>36</v>
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D294" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E294" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D295" t="n">
         <v>40</v>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D297" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E297" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D298" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E298" t="n">
         <v>38</v>
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D299" t="n">
         <v>44</v>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D301" t="n">
         <v>33</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D302" t="n">
         <v>24</v>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D305" t="n">
         <v>37</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D307" t="n">
         <v>25</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D308" t="n">
         <v>31</v>
@@ -6961,13 +6961,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D311" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E311" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312">
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D314" t="n">
         <v>38</v>
@@ -7066,13 +7066,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D316" t="n">
         <v>38</v>
       </c>
       <c r="E316" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D317" t="n">
         <v>27</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D320" t="n">
         <v>7</v>
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D323" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E323" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D324" t="n">
         <v>37</v>
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D325" t="n">
         <v>33</v>
       </c>
       <c r="E325" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D327" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E327" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328">
@@ -7381,13 +7381,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D331" t="n">
         <v>40</v>
       </c>
       <c r="E331" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332">
@@ -7402,13 +7402,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D332" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E332" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="333">
@@ -7486,13 +7486,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D336" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E336" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="337">
@@ -7507,13 +7507,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D337" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E337" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="338">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D338" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E338" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="339">
@@ -7549,13 +7549,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D339" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E339" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340">
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D341" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E341" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="342">
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D344" t="n">
         <v>22</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D346" t="n">
         <v>31</v>
@@ -7717,10 +7717,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D347" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E347" t="n">
         <v>33</v>
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D348" t="n">
         <v>44</v>
       </c>
       <c r="E348" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="349">
@@ -7759,10 +7759,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D349" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E349" t="n">
         <v>36</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D352" t="n">
-        <v>36</v>
+        <v>37</v>
       <